--- a/Input.xlsx
+++ b/Input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1896157\OneDrive - University of Edinburgh\Rafael\Models\MaxProfitFeeding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s1896157_ed_ac_uk/Documents/Rafael/Models/GreenFeeding/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,8 +14,10 @@
   <sheets>
     <sheet name="Feeds" sheetId="2" r:id="rId1"/>
     <sheet name="Scenario" sheetId="3" r:id="rId2"/>
-    <sheet name="FeedLibrary" sheetId="1" r:id="rId3"/>
-    <sheet name="Parameters List" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="LCA" sheetId="5" r:id="rId3"/>
+    <sheet name="LCA Library" sheetId="6" r:id="rId4"/>
+    <sheet name="Feed Library" sheetId="1" r:id="rId5"/>
+    <sheet name="Parameters List" sheetId="4" state="hidden" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="345">
   <si>
     <t>IFN</t>
   </si>
@@ -1031,10 +1033,37 @@
     <t>Linearization factor</t>
   </si>
   <si>
-    <t>LCA</t>
+    <t>Cost</t>
   </si>
   <si>
-    <t>Cost</t>
+    <t>E-BF</t>
+  </si>
+  <si>
+    <t>LCA_GHG_weight</t>
+  </si>
+  <si>
+    <t>LCA_GHG</t>
+  </si>
+  <si>
+    <t>LCA_cost</t>
+  </si>
+  <si>
+    <t>Epislon</t>
+  </si>
+  <si>
+    <t>LCA_weight</t>
+  </si>
+  <si>
+    <t>Methane</t>
+  </si>
+  <si>
+    <t>IPCC2006</t>
+  </si>
+  <si>
+    <t>Methane_Equation</t>
+  </si>
+  <si>
+    <t>LCA_ID</t>
   </si>
 </sst>
 </file>
@@ -1192,7 +1221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1" applyProtection="1">
@@ -1226,14 +1255,62 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="70">
+  <dxfs count="74">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1546,6 +1623,39 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -1584,56 +1694,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1648,17 +1708,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:E13" totalsRowShown="0" dataDxfId="69">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:E13" totalsRowShown="0" dataDxfId="5">
   <autoFilter ref="A1:E13"/>
   <sortState ref="A2:E30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="68"/>
-    <tableColumn id="2" name="Min" dataDxfId="67"/>
-    <tableColumn id="3" name="Max" dataDxfId="66"/>
-    <tableColumn id="4" name="Cost" dataDxfId="65"/>
-    <tableColumn id="5" name="Name" dataDxfId="64">
+    <tableColumn id="1" name="ID" dataDxfId="4"/>
+    <tableColumn id="2" name="Min" dataDxfId="3"/>
+    <tableColumn id="3" name="Max" dataDxfId="2"/>
+    <tableColumn id="4" name="Cost" dataDxfId="1"/>
+    <tableColumn id="5" name="Name" dataDxfId="0">
       <calculatedColumnFormula>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1667,7 +1727,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q3" totalsRowShown="0" headerRowDxfId="63" tableBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q3" totalsRowShown="0" headerRowDxfId="73" tableBorderDxfId="72">
   <autoFilter ref="A1:Q3"/>
   <tableColumns count="17">
     <tableColumn id="1" name="ID"/>
@@ -1686,77 +1746,111 @@
     <tableColumn id="14" name="LB"/>
     <tableColumn id="15" name="UB"/>
     <tableColumn id="16" name="Tol"/>
-    <tableColumn id="17" name="LCA"/>
+    <tableColumn id="17" name="LCA_ID"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:BF219" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:H2" totalsRowShown="0">
+  <autoFilter ref="A1:H2"/>
+  <tableColumns count="8">
+    <tableColumn id="1" name="ID"/>
+    <tableColumn id="2" name="LCA_cost"/>
+    <tableColumn id="3" name="Epislon"/>
+    <tableColumn id="4" name="LCA_weight"/>
+    <tableColumn id="5" name="LCA_GHG"/>
+    <tableColumn id="6" name="LCA_GHG_weight"/>
+    <tableColumn id="7" name="Methane"/>
+    <tableColumn id="8" name="Methane_Equation"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela26" displayName="Tabela26" ref="A1:C13" totalsRowShown="0" dataDxfId="71">
+  <autoFilter ref="A1:C13"/>
+  <sortState ref="A2:E30">
+    <sortCondition ref="A1:A30"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" name="ID" dataDxfId="70"/>
+    <tableColumn id="5" name="Name" dataDxfId="69">
+      <calculatedColumnFormula>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" name="LCA_GHG" dataDxfId="68"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:BF219" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="A1:BF219"/>
   <sortState ref="A2:BF219">
     <sortCondition ref="A4:A5"/>
   </sortState>
   <tableColumns count="58">
-    <tableColumn id="1" name="ID" dataDxfId="57"/>
-    <tableColumn id="2" name="Feed" dataDxfId="56"/>
-    <tableColumn id="4" name="IFN" dataDxfId="55"/>
-    <tableColumn id="5" name="Cost, $/Tonne AF" dataDxfId="54"/>
-    <tableColumn id="7" name="Forage, %DM" dataDxfId="53"/>
-    <tableColumn id="8" name="DM, %AF" dataDxfId="52"/>
-    <tableColumn id="16" name="CP, %DM" dataDxfId="51"/>
-    <tableColumn id="31" name="SP, %CP" dataDxfId="50"/>
-    <tableColumn id="29" name="ADICP, %CP" dataDxfId="49"/>
-    <tableColumn id="24" name="Sugars, %DM" dataDxfId="48"/>
-    <tableColumn id="25" name="OA, %DM" dataDxfId="47"/>
-    <tableColumn id="23" name="Fat, %DM" dataDxfId="46"/>
-    <tableColumn id="9" name="Ash, %DM" dataDxfId="45"/>
-    <tableColumn id="10" name="Starch, %DM" dataDxfId="44"/>
-    <tableColumn id="12" name="NDF, %DM" dataDxfId="43"/>
-    <tableColumn id="13" name="Lignin, %DM" dataDxfId="42"/>
-    <tableColumn id="14" name="TDN, %DM" dataDxfId="41"/>
-    <tableColumn id="15" name="ME, Mcal/kg" dataDxfId="40"/>
-    <tableColumn id="18" name="NEma, Mcal/kg" dataDxfId="39"/>
-    <tableColumn id="19" name="NEga, Mcal/kg" dataDxfId="38"/>
-    <tableColumn id="21" name="RUP, %CP" dataDxfId="37"/>
-    <tableColumn id="22" name="kd PB, %/h" dataDxfId="36"/>
-    <tableColumn id="26" name="kd CB1, %/h" dataDxfId="35"/>
-    <tableColumn id="27" name="kd CB2, %/h" dataDxfId="34"/>
-    <tableColumn id="17" name="kd CB3, %/h" dataDxfId="33"/>
-    <tableColumn id="28" name="PBID, %" dataDxfId="32"/>
-    <tableColumn id="6" name="CB1ID, %" dataDxfId="31"/>
-    <tableColumn id="3" name="CB2ID, %" dataDxfId="30"/>
-    <tableColumn id="20" name="pef, %NDF" dataDxfId="29"/>
-    <tableColumn id="11" name="ARG, %DM" dataDxfId="28"/>
-    <tableColumn id="32" name="HIS, %DM" dataDxfId="27"/>
-    <tableColumn id="33" name="ILE, %DM" dataDxfId="26"/>
-    <tableColumn id="34" name="LEU, %DM" dataDxfId="25"/>
-    <tableColumn id="35" name="LYS, %DM" dataDxfId="24"/>
-    <tableColumn id="36" name="MET, %DM" dataDxfId="23"/>
-    <tableColumn id="37" name="CYS, %DM" dataDxfId="22"/>
-    <tableColumn id="38" name="PHE, %DM" dataDxfId="21"/>
-    <tableColumn id="39" name="TYR, %DM" dataDxfId="20"/>
-    <tableColumn id="40" name="THR, %DM" dataDxfId="19"/>
-    <tableColumn id="41" name="TRP, %DM" dataDxfId="18"/>
-    <tableColumn id="42" name="VAL, %DM" dataDxfId="17"/>
-    <tableColumn id="43" name="Ca, % DM" dataDxfId="16"/>
-    <tableColumn id="44" name="P, % DM" dataDxfId="15"/>
-    <tableColumn id="45" name="Mg, % DM" dataDxfId="14"/>
-    <tableColumn id="46" name="Cl, % DM" dataDxfId="13"/>
-    <tableColumn id="47" name="K, % DM" dataDxfId="12"/>
-    <tableColumn id="48" name="Na, % DM" dataDxfId="11"/>
-    <tableColumn id="49" name="S, % DM" dataDxfId="10"/>
-    <tableColumn id="50" name="Co, mg/kg" dataDxfId="9"/>
-    <tableColumn id="51" name="Cu, mg/kg" dataDxfId="8"/>
-    <tableColumn id="52" name="I, mg/kg" dataDxfId="7"/>
-    <tableColumn id="53" name="Fe, mg/kg" dataDxfId="6"/>
-    <tableColumn id="54" name="Mn, mg/kg" dataDxfId="5"/>
-    <tableColumn id="55" name="Se, mg/kg" dataDxfId="4"/>
-    <tableColumn id="56" name="Zn, mg/kg" dataDxfId="3"/>
-    <tableColumn id="57" name="Vit A, IU/g" dataDxfId="2"/>
-    <tableColumn id="58" name="Vit D, IU/g" dataDxfId="1"/>
-    <tableColumn id="30" name="Vit E, IU/kg" dataDxfId="0"/>
+    <tableColumn id="1" name="ID" dataDxfId="63"/>
+    <tableColumn id="2" name="Feed" dataDxfId="62"/>
+    <tableColumn id="4" name="IFN" dataDxfId="61"/>
+    <tableColumn id="5" name="Cost, $/Tonne AF" dataDxfId="60"/>
+    <tableColumn id="7" name="Forage, %DM" dataDxfId="59"/>
+    <tableColumn id="8" name="DM, %AF" dataDxfId="58"/>
+    <tableColumn id="16" name="CP, %DM" dataDxfId="57"/>
+    <tableColumn id="31" name="SP, %CP" dataDxfId="56"/>
+    <tableColumn id="29" name="ADICP, %CP" dataDxfId="55"/>
+    <tableColumn id="24" name="Sugars, %DM" dataDxfId="54"/>
+    <tableColumn id="25" name="OA, %DM" dataDxfId="53"/>
+    <tableColumn id="23" name="Fat, %DM" dataDxfId="52"/>
+    <tableColumn id="9" name="Ash, %DM" dataDxfId="51"/>
+    <tableColumn id="10" name="Starch, %DM" dataDxfId="50"/>
+    <tableColumn id="12" name="NDF, %DM" dataDxfId="49"/>
+    <tableColumn id="13" name="Lignin, %DM" dataDxfId="48"/>
+    <tableColumn id="14" name="TDN, %DM" dataDxfId="47"/>
+    <tableColumn id="15" name="ME, Mcal/kg" dataDxfId="46"/>
+    <tableColumn id="18" name="NEma, Mcal/kg" dataDxfId="45"/>
+    <tableColumn id="19" name="NEga, Mcal/kg" dataDxfId="44"/>
+    <tableColumn id="21" name="RUP, %CP" dataDxfId="43"/>
+    <tableColumn id="22" name="kd PB, %/h" dataDxfId="42"/>
+    <tableColumn id="26" name="kd CB1, %/h" dataDxfId="41"/>
+    <tableColumn id="27" name="kd CB2, %/h" dataDxfId="40"/>
+    <tableColumn id="17" name="kd CB3, %/h" dataDxfId="39"/>
+    <tableColumn id="28" name="PBID, %" dataDxfId="38"/>
+    <tableColumn id="6" name="CB1ID, %" dataDxfId="37"/>
+    <tableColumn id="3" name="CB2ID, %" dataDxfId="36"/>
+    <tableColumn id="20" name="pef, %NDF" dataDxfId="35"/>
+    <tableColumn id="11" name="ARG, %DM" dataDxfId="34"/>
+    <tableColumn id="32" name="HIS, %DM" dataDxfId="33"/>
+    <tableColumn id="33" name="ILE, %DM" dataDxfId="32"/>
+    <tableColumn id="34" name="LEU, %DM" dataDxfId="31"/>
+    <tableColumn id="35" name="LYS, %DM" dataDxfId="30"/>
+    <tableColumn id="36" name="MET, %DM" dataDxfId="29"/>
+    <tableColumn id="37" name="CYS, %DM" dataDxfId="28"/>
+    <tableColumn id="38" name="PHE, %DM" dataDxfId="27"/>
+    <tableColumn id="39" name="TYR, %DM" dataDxfId="26"/>
+    <tableColumn id="40" name="THR, %DM" dataDxfId="25"/>
+    <tableColumn id="41" name="TRP, %DM" dataDxfId="24"/>
+    <tableColumn id="42" name="VAL, %DM" dataDxfId="23"/>
+    <tableColumn id="43" name="Ca, % DM" dataDxfId="22"/>
+    <tableColumn id="44" name="P, % DM" dataDxfId="21"/>
+    <tableColumn id="45" name="Mg, % DM" dataDxfId="20"/>
+    <tableColumn id="46" name="Cl, % DM" dataDxfId="19"/>
+    <tableColumn id="47" name="K, % DM" dataDxfId="18"/>
+    <tableColumn id="48" name="Na, % DM" dataDxfId="17"/>
+    <tableColumn id="49" name="S, % DM" dataDxfId="16"/>
+    <tableColumn id="50" name="Co, mg/kg" dataDxfId="15"/>
+    <tableColumn id="51" name="Cu, mg/kg" dataDxfId="14"/>
+    <tableColumn id="52" name="I, mg/kg" dataDxfId="13"/>
+    <tableColumn id="53" name="Fe, mg/kg" dataDxfId="12"/>
+    <tableColumn id="54" name="Mn, mg/kg" dataDxfId="11"/>
+    <tableColumn id="55" name="Se, mg/kg" dataDxfId="10"/>
+    <tableColumn id="56" name="Zn, mg/kg" dataDxfId="9"/>
+    <tableColumn id="57" name="Vit A, IU/g" dataDxfId="8"/>
+    <tableColumn id="58" name="Vit D, IU/g" dataDxfId="7"/>
+    <tableColumn id="30" name="Vit E, IU/kg" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2031,7 +2125,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2054,7 +2148,7 @@
         <v>314</v>
       </c>
       <c r="D1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E1" t="s">
         <v>325</v>
@@ -2292,7 +2386,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q13" sqref="O13:Q16"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2360,8 +2454,8 @@
       <c r="P1" s="28" t="s">
         <v>332</v>
       </c>
-      <c r="Q1" s="31" t="s">
-        <v>334</v>
+      <c r="Q1" s="29" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
@@ -2413,61 +2507,61 @@
       <c r="P2" s="23">
         <v>1E-3</v>
       </c>
-      <c r="Q2" t="b">
-        <v>0</v>
+      <c r="Q2">
+        <v>-1</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" s="29">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" t="s">
         <v>318</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3">
         <v>300</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3">
         <v>5</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3">
         <v>1</v>
       </c>
-      <c r="F3" s="29">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="29">
+      <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" s="29">
-        <v>0</v>
-      </c>
-      <c r="I3" s="29">
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
         <v>6.2</v>
       </c>
-      <c r="J3" s="29">
+      <c r="J3">
         <v>1.44</v>
       </c>
-      <c r="K3" s="30">
+      <c r="K3">
         <v>13.91</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" t="s">
         <v>329</v>
       </c>
-      <c r="M3" s="29" t="s">
-        <v>329</v>
-      </c>
-      <c r="N3" s="29">
+      <c r="M3" t="s">
+        <v>335</v>
+      </c>
+      <c r="N3">
         <v>0.8</v>
       </c>
-      <c r="O3" s="29">
+      <c r="O3">
         <v>3</v>
       </c>
-      <c r="P3" s="29">
+      <c r="P3">
         <v>1E-3</v>
       </c>
-      <c r="Q3" t="b">
-        <v>0</v>
+      <c r="Q3">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2481,11 +2575,242 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1" t="s">
+        <v>340</v>
+      </c>
+      <c r="E1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F1" t="s">
+        <v>336</v>
+      </c>
+      <c r="G1" t="s">
+        <v>341</v>
+      </c>
+      <c r="H1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0.05</v>
+      </c>
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="E2" t="b">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" t="s">
+        <v>325</v>
+      </c>
+      <c r="C1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="16">
+        <v>34</v>
+      </c>
+      <c r="B2" s="17" t="str">
+        <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
+        <v>Citrus pulp, dry</v>
+      </c>
+      <c r="C2" s="17"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="16">
+        <v>45</v>
+      </c>
+      <c r="B3" s="17" t="str">
+        <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
+        <v>Corn grain</v>
+      </c>
+      <c r="C3" s="17"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="19">
+        <v>50</v>
+      </c>
+      <c r="B4" s="22" t="str">
+        <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
+        <v>Corn silage</v>
+      </c>
+      <c r="C4" s="17"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>58</v>
+      </c>
+      <c r="B5" s="17" t="str">
+        <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
+        <v>Cottonseed meal</v>
+      </c>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>59</v>
+      </c>
+      <c r="B6" s="17" t="str">
+        <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
+        <v>Cottonseed whole</v>
+      </c>
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>60</v>
+      </c>
+      <c r="B7" s="17" t="str">
+        <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
+        <v>Distillers grain plus soluble, dry</v>
+      </c>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>79</v>
+      </c>
+      <c r="B8" s="17" t="str">
+        <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
+        <v>Grain sorghum grain</v>
+      </c>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>133</v>
+      </c>
+      <c r="B9" s="17" t="str">
+        <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
+        <v>Soybean hulls</v>
+      </c>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="17">
+        <v>134</v>
+      </c>
+      <c r="B10" s="17" t="str">
+        <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
+        <v>Soybean meal high CP</v>
+      </c>
+      <c r="C10" s="17"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="17">
+        <v>148</v>
+      </c>
+      <c r="B11" s="17" t="str">
+        <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
+        <v>Sugarcane silage</v>
+      </c>
+      <c r="C11" s="17"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>166</v>
+      </c>
+      <c r="B12" s="17" t="str">
+        <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
+        <v>Wheat middlings</v>
+      </c>
+      <c r="C12" s="17"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>845</v>
+      </c>
+      <c r="B13" s="17" t="str">
+        <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
+        <v>Urea</v>
+      </c>
+      <c r="C13" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <tabColor theme="2"/>
   </sheetPr>
   <dimension ref="A1:BF219"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A126" workbookViewId="0">
       <selection activeCell="B147" sqref="B147"/>
     </sheetView>
   </sheetViews>
@@ -40731,10 +41056,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:BF219">
-    <cfRule type="expression" dxfId="61" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="67" priority="1" stopIfTrue="1">
       <formula>ROW(A2)=$E$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="66" priority="2" stopIfTrue="1">
       <formula>COLUMN(A2)=$F$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -40746,7 +41071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A58"/>
   <sheetViews>
@@ -41055,12 +41380,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003C4402FDC8975A4FB65AB474AF423692" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="43da31f6e8d8dfaec40561525ce78865">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="871f9270-bc3b-4105-9923-e7982e1cb312" xmlns:ns4="000447b7-86fa-4362-939e-855579e16124" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b58fc7e6f492e58d10793199fba37542" ns3:_="" ns4:_="">
     <xsd:import namespace="871f9270-bc3b-4105-9923-e7982e1cb312"/>
@@ -41263,7 +41582,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -41272,24 +41591,13 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9544B578-CE8A-4753-8E47-B2C52E32EEC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="000447b7-86fa-4362-939e-855579e16124"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="871f9270-bc3b-4105-9923-e7982e1cb312"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE8DA1A1-DD54-4881-BC06-911C3C5870BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41308,10 +41616,27 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C60666F-AED0-4727-A902-9CA0ACF4D344}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9544B578-CE8A-4753-8E47-B2C52E32EEC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="000447b7-86fa-4362-939e-855579e16124"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="871f9270-bc3b-4105-9923-e7982e1cb312"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Input.xlsx
+++ b/Input.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uoe-my.sharepoint.com/personal/s1896157_ed_ac_uk/Documents/Rafael/Models/GreenFeeding/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1896157\OneDrive - University of Edinburgh\Rafael\Models\GreenFeeding\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feeds" sheetId="2" r:id="rId1"/>
@@ -1262,52 +1262,18 @@
   </cellStyles>
   <dxfs count="74">
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1608,22 +1574,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
@@ -1694,6 +1644,56 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1708,17 +1708,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:E13" totalsRowShown="0" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:E13" totalsRowShown="0" dataDxfId="73">
   <autoFilter ref="A1:E13"/>
   <sortState ref="A2:E30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="4"/>
-    <tableColumn id="2" name="Min" dataDxfId="3"/>
-    <tableColumn id="3" name="Max" dataDxfId="2"/>
-    <tableColumn id="4" name="Cost" dataDxfId="1"/>
-    <tableColumn id="5" name="Name" dataDxfId="0">
+    <tableColumn id="1" name="ID" dataDxfId="72"/>
+    <tableColumn id="2" name="Min" dataDxfId="71"/>
+    <tableColumn id="3" name="Max" dataDxfId="70"/>
+    <tableColumn id="4" name="Cost" dataDxfId="69"/>
+    <tableColumn id="5" name="Name" dataDxfId="68">
       <calculatedColumnFormula>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1727,7 +1727,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q3" totalsRowShown="0" headerRowDxfId="73" tableBorderDxfId="72">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q3" totalsRowShown="0" headerRowDxfId="67" tableBorderDxfId="66">
   <autoFilter ref="A1:Q3"/>
   <tableColumns count="17">
     <tableColumn id="1" name="ID"/>
@@ -1770,87 +1770,87 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela26" displayName="Tabela26" ref="A1:C13" totalsRowShown="0" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela26" displayName="Tabela26" ref="A1:C13" totalsRowShown="0" dataDxfId="65">
   <autoFilter ref="A1:C13"/>
   <sortState ref="A2:E30">
     <sortCondition ref="A1:A30"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="ID" dataDxfId="70"/>
-    <tableColumn id="5" name="Name" dataDxfId="69">
+    <tableColumn id="1" name="ID" dataDxfId="64"/>
+    <tableColumn id="5" name="Name" dataDxfId="63">
       <calculatedColumnFormula>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="LCA_GHG" dataDxfId="68"/>
+    <tableColumn id="6" name="LCA_GHG" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:BF219" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:BF219" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <autoFilter ref="A1:BF219"/>
   <sortState ref="A2:BF219">
     <sortCondition ref="A4:A5"/>
   </sortState>
   <tableColumns count="58">
-    <tableColumn id="1" name="ID" dataDxfId="63"/>
-    <tableColumn id="2" name="Feed" dataDxfId="62"/>
-    <tableColumn id="4" name="IFN" dataDxfId="61"/>
-    <tableColumn id="5" name="Cost, $/Tonne AF" dataDxfId="60"/>
-    <tableColumn id="7" name="Forage, %DM" dataDxfId="59"/>
-    <tableColumn id="8" name="DM, %AF" dataDxfId="58"/>
-    <tableColumn id="16" name="CP, %DM" dataDxfId="57"/>
-    <tableColumn id="31" name="SP, %CP" dataDxfId="56"/>
-    <tableColumn id="29" name="ADICP, %CP" dataDxfId="55"/>
-    <tableColumn id="24" name="Sugars, %DM" dataDxfId="54"/>
-    <tableColumn id="25" name="OA, %DM" dataDxfId="53"/>
-    <tableColumn id="23" name="Fat, %DM" dataDxfId="52"/>
-    <tableColumn id="9" name="Ash, %DM" dataDxfId="51"/>
-    <tableColumn id="10" name="Starch, %DM" dataDxfId="50"/>
-    <tableColumn id="12" name="NDF, %DM" dataDxfId="49"/>
-    <tableColumn id="13" name="Lignin, %DM" dataDxfId="48"/>
-    <tableColumn id="14" name="TDN, %DM" dataDxfId="47"/>
-    <tableColumn id="15" name="ME, Mcal/kg" dataDxfId="46"/>
-    <tableColumn id="18" name="NEma, Mcal/kg" dataDxfId="45"/>
-    <tableColumn id="19" name="NEga, Mcal/kg" dataDxfId="44"/>
-    <tableColumn id="21" name="RUP, %CP" dataDxfId="43"/>
-    <tableColumn id="22" name="kd PB, %/h" dataDxfId="42"/>
-    <tableColumn id="26" name="kd CB1, %/h" dataDxfId="41"/>
-    <tableColumn id="27" name="kd CB2, %/h" dataDxfId="40"/>
-    <tableColumn id="17" name="kd CB3, %/h" dataDxfId="39"/>
-    <tableColumn id="28" name="PBID, %" dataDxfId="38"/>
-    <tableColumn id="6" name="CB1ID, %" dataDxfId="37"/>
-    <tableColumn id="3" name="CB2ID, %" dataDxfId="36"/>
-    <tableColumn id="20" name="pef, %NDF" dataDxfId="35"/>
-    <tableColumn id="11" name="ARG, %DM" dataDxfId="34"/>
-    <tableColumn id="32" name="HIS, %DM" dataDxfId="33"/>
-    <tableColumn id="33" name="ILE, %DM" dataDxfId="32"/>
-    <tableColumn id="34" name="LEU, %DM" dataDxfId="31"/>
-    <tableColumn id="35" name="LYS, %DM" dataDxfId="30"/>
-    <tableColumn id="36" name="MET, %DM" dataDxfId="29"/>
-    <tableColumn id="37" name="CYS, %DM" dataDxfId="28"/>
-    <tableColumn id="38" name="PHE, %DM" dataDxfId="27"/>
-    <tableColumn id="39" name="TYR, %DM" dataDxfId="26"/>
-    <tableColumn id="40" name="THR, %DM" dataDxfId="25"/>
-    <tableColumn id="41" name="TRP, %DM" dataDxfId="24"/>
-    <tableColumn id="42" name="VAL, %DM" dataDxfId="23"/>
-    <tableColumn id="43" name="Ca, % DM" dataDxfId="22"/>
-    <tableColumn id="44" name="P, % DM" dataDxfId="21"/>
-    <tableColumn id="45" name="Mg, % DM" dataDxfId="20"/>
-    <tableColumn id="46" name="Cl, % DM" dataDxfId="19"/>
-    <tableColumn id="47" name="K, % DM" dataDxfId="18"/>
-    <tableColumn id="48" name="Na, % DM" dataDxfId="17"/>
-    <tableColumn id="49" name="S, % DM" dataDxfId="16"/>
-    <tableColumn id="50" name="Co, mg/kg" dataDxfId="15"/>
-    <tableColumn id="51" name="Cu, mg/kg" dataDxfId="14"/>
-    <tableColumn id="52" name="I, mg/kg" dataDxfId="13"/>
-    <tableColumn id="53" name="Fe, mg/kg" dataDxfId="12"/>
-    <tableColumn id="54" name="Mn, mg/kg" dataDxfId="11"/>
-    <tableColumn id="55" name="Se, mg/kg" dataDxfId="10"/>
-    <tableColumn id="56" name="Zn, mg/kg" dataDxfId="9"/>
-    <tableColumn id="57" name="Vit A, IU/g" dataDxfId="8"/>
-    <tableColumn id="58" name="Vit D, IU/g" dataDxfId="7"/>
-    <tableColumn id="30" name="Vit E, IU/kg" dataDxfId="6"/>
+    <tableColumn id="1" name="ID" dataDxfId="59"/>
+    <tableColumn id="2" name="Feed" dataDxfId="58"/>
+    <tableColumn id="4" name="IFN" dataDxfId="57"/>
+    <tableColumn id="5" name="Cost, $/Tonne AF" dataDxfId="56"/>
+    <tableColumn id="7" name="Forage, %DM" dataDxfId="55"/>
+    <tableColumn id="8" name="DM, %AF" dataDxfId="54"/>
+    <tableColumn id="16" name="CP, %DM" dataDxfId="53"/>
+    <tableColumn id="31" name="SP, %CP" dataDxfId="52"/>
+    <tableColumn id="29" name="ADICP, %CP" dataDxfId="51"/>
+    <tableColumn id="24" name="Sugars, %DM" dataDxfId="50"/>
+    <tableColumn id="25" name="OA, %DM" dataDxfId="49"/>
+    <tableColumn id="23" name="Fat, %DM" dataDxfId="48"/>
+    <tableColumn id="9" name="Ash, %DM" dataDxfId="47"/>
+    <tableColumn id="10" name="Starch, %DM" dataDxfId="46"/>
+    <tableColumn id="12" name="NDF, %DM" dataDxfId="45"/>
+    <tableColumn id="13" name="Lignin, %DM" dataDxfId="44"/>
+    <tableColumn id="14" name="TDN, %DM" dataDxfId="43"/>
+    <tableColumn id="15" name="ME, Mcal/kg" dataDxfId="42"/>
+    <tableColumn id="18" name="NEma, Mcal/kg" dataDxfId="41"/>
+    <tableColumn id="19" name="NEga, Mcal/kg" dataDxfId="40"/>
+    <tableColumn id="21" name="RUP, %CP" dataDxfId="39"/>
+    <tableColumn id="22" name="kd PB, %/h" dataDxfId="38"/>
+    <tableColumn id="26" name="kd CB1, %/h" dataDxfId="37"/>
+    <tableColumn id="27" name="kd CB2, %/h" dataDxfId="36"/>
+    <tableColumn id="17" name="kd CB3, %/h" dataDxfId="35"/>
+    <tableColumn id="28" name="PBID, %" dataDxfId="34"/>
+    <tableColumn id="6" name="CB1ID, %" dataDxfId="33"/>
+    <tableColumn id="3" name="CB2ID, %" dataDxfId="32"/>
+    <tableColumn id="20" name="pef, %NDF" dataDxfId="31"/>
+    <tableColumn id="11" name="ARG, %DM" dataDxfId="30"/>
+    <tableColumn id="32" name="HIS, %DM" dataDxfId="29"/>
+    <tableColumn id="33" name="ILE, %DM" dataDxfId="28"/>
+    <tableColumn id="34" name="LEU, %DM" dataDxfId="27"/>
+    <tableColumn id="35" name="LYS, %DM" dataDxfId="26"/>
+    <tableColumn id="36" name="MET, %DM" dataDxfId="25"/>
+    <tableColumn id="37" name="CYS, %DM" dataDxfId="24"/>
+    <tableColumn id="38" name="PHE, %DM" dataDxfId="23"/>
+    <tableColumn id="39" name="TYR, %DM" dataDxfId="22"/>
+    <tableColumn id="40" name="THR, %DM" dataDxfId="21"/>
+    <tableColumn id="41" name="TRP, %DM" dataDxfId="20"/>
+    <tableColumn id="42" name="VAL, %DM" dataDxfId="19"/>
+    <tableColumn id="43" name="Ca, % DM" dataDxfId="18"/>
+    <tableColumn id="44" name="P, % DM" dataDxfId="17"/>
+    <tableColumn id="45" name="Mg, % DM" dataDxfId="16"/>
+    <tableColumn id="46" name="Cl, % DM" dataDxfId="15"/>
+    <tableColumn id="47" name="K, % DM" dataDxfId="14"/>
+    <tableColumn id="48" name="Na, % DM" dataDxfId="13"/>
+    <tableColumn id="49" name="S, % DM" dataDxfId="12"/>
+    <tableColumn id="50" name="Co, mg/kg" dataDxfId="11"/>
+    <tableColumn id="51" name="Cu, mg/kg" dataDxfId="10"/>
+    <tableColumn id="52" name="I, mg/kg" dataDxfId="9"/>
+    <tableColumn id="53" name="Fe, mg/kg" dataDxfId="8"/>
+    <tableColumn id="54" name="Mn, mg/kg" dataDxfId="7"/>
+    <tableColumn id="55" name="Se, mg/kg" dataDxfId="6"/>
+    <tableColumn id="56" name="Zn, mg/kg" dataDxfId="5"/>
+    <tableColumn id="57" name="Vit A, IU/g" dataDxfId="4"/>
+    <tableColumn id="58" name="Vit D, IU/g" dataDxfId="3"/>
+    <tableColumn id="30" name="Vit E, IU/kg" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2124,8 +2124,8 @@
   </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2385,8 +2385,8 @@
   </sheetPr>
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2561,7 +2561,7 @@
         <v>1E-3</v>
       </c>
       <c r="Q3">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
   </sheetData>
@@ -2579,7 +2579,9 @@
   </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E13" sqref="D13:E16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2656,7 +2658,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2797,8 +2799,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2810,8 +2813,8 @@
   </sheetPr>
   <dimension ref="A1:BF219"/>
   <sheetViews>
-    <sheetView topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="B147" sqref="B147"/>
+    <sheetView topLeftCell="AP1" workbookViewId="0">
+      <selection sqref="A1:BF1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41056,10 +41059,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:BF219">
-    <cfRule type="expression" dxfId="67" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>ROW(A2)=$E$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="66" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>COLUMN(A2)=$F$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41380,6 +41383,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003C4402FDC8975A4FB65AB474AF423692" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="43da31f6e8d8dfaec40561525ce78865">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="871f9270-bc3b-4105-9923-e7982e1cb312" xmlns:ns4="000447b7-86fa-4362-939e-855579e16124" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b58fc7e6f492e58d10793199fba37542" ns3:_="" ns4:_="">
     <xsd:import namespace="871f9270-bc3b-4105-9923-e7982e1cb312"/>
@@ -41582,15 +41594,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -41598,6 +41601,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C60666F-AED0-4727-A902-9CA0ACF4D344}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE8DA1A1-DD54-4881-BC06-911C3C5870BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41616,24 +41627,16 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C60666F-AED0-4727-A902-9CA0ACF4D344}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9544B578-CE8A-4753-8E47-B2C52E32EEC4}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="000447b7-86fa-4362-939e-855579e16124"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="871f9270-bc3b-4105-9923-e7982e1cb312"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Feeds" sheetId="2" r:id="rId1"/>
@@ -28,8 +28,92 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>MARQUES Gabriel</author>
+  </authors>
+  <commentList>
+    <comment ref="E18" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MARQUES Gabriel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0.11</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E19" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MARQUES Gabriel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0.14
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E20" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>MARQUES Gabriel:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+0.1
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="351">
   <si>
     <t>IFN</t>
   </si>
@@ -1015,9 +1099,6 @@
     <t>Algorithm</t>
   </si>
   <si>
-    <t>GSS</t>
-  </si>
-  <si>
     <t>BF</t>
   </si>
   <si>
@@ -1036,22 +1117,13 @@
     <t>Cost</t>
   </si>
   <si>
-    <t>E-BF</t>
-  </si>
-  <si>
     <t>LCA_GHG_weight</t>
   </si>
   <si>
     <t>LCA_GHG</t>
   </si>
   <si>
-    <t>LCA_cost</t>
-  </si>
-  <si>
     <t>Epislon</t>
-  </si>
-  <si>
-    <t>LCA_weight</t>
   </si>
   <si>
     <t>Methane</t>
@@ -1063,7 +1135,37 @@
     <t>Methane_Equation</t>
   </si>
   <si>
-    <t>LCA_ID</t>
+    <t>Feed Scenario</t>
+  </si>
+  <si>
+    <t>LCA ID</t>
+  </si>
+  <si>
+    <t>Obj</t>
+  </si>
+  <si>
+    <t>MaxProfit</t>
+  </si>
+  <si>
+    <t>GSS</t>
+  </si>
+  <si>
+    <t>GSS-Max</t>
+  </si>
+  <si>
+    <t>MinCost</t>
+  </si>
+  <si>
+    <t>MaxProfitSWG</t>
+  </si>
+  <si>
+    <t>GSS-MaxSWG</t>
+  </si>
+  <si>
+    <t>LCA weight</t>
+  </si>
+  <si>
+    <t>LCA cost</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1176,7 @@
     <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
     <numFmt numFmtId="165" formatCode="0.00;0.00;0;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1089,6 +1191,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1221,7 +1343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1" applyProtection="1">
@@ -1256,11 +1378,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="74">
+  <dxfs count="76">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1606,6 +1730,39 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
@@ -1694,6 +1851,14 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1708,18 +1873,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:E13" totalsRowShown="0" dataDxfId="73">
-  <autoFilter ref="A1:E13"/>
-  <sortState ref="A2:E30">
-    <sortCondition ref="A1:A30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F24" totalsRowShown="0" dataDxfId="75">
+  <autoFilter ref="A1:F24"/>
+  <sortState ref="B2:F30">
+    <sortCondition ref="B1:B30"/>
   </sortState>
-  <tableColumns count="5">
-    <tableColumn id="1" name="ID" dataDxfId="72"/>
-    <tableColumn id="2" name="Min" dataDxfId="71"/>
-    <tableColumn id="3" name="Max" dataDxfId="70"/>
-    <tableColumn id="4" name="Cost" dataDxfId="69"/>
-    <tableColumn id="5" name="Name" dataDxfId="68">
-      <calculatedColumnFormula>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[],2,FALSE)</calculatedColumnFormula>
+  <tableColumns count="6">
+    <tableColumn id="6" name="Feed Scenario" dataDxfId="74"/>
+    <tableColumn id="1" name="ID" dataDxfId="73"/>
+    <tableColumn id="2" name="Min" dataDxfId="72"/>
+    <tableColumn id="3" name="Max" dataDxfId="71"/>
+    <tableColumn id="4" name="Cost" dataDxfId="70"/>
+    <tableColumn id="5" name="Name" dataDxfId="69">
+      <calculatedColumnFormula>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1727,10 +1893,11 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:Q3" totalsRowShown="0" headerRowDxfId="67" tableBorderDxfId="66">
-  <autoFilter ref="A1:Q3"/>
-  <tableColumns count="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:S4" totalsRowShown="0" headerRowDxfId="68" tableBorderDxfId="67">
+  <autoFilter ref="A1:S4"/>
+  <tableColumns count="19">
     <tableColumn id="1" name="ID"/>
+    <tableColumn id="18" name="Feed Scenario" dataDxfId="66"/>
     <tableColumn id="2" name="Breed"/>
     <tableColumn id="3" name="SBW"/>
     <tableColumn id="4" name="BCS"/>
@@ -1746,21 +1913,21 @@
     <tableColumn id="14" name="LB"/>
     <tableColumn id="15" name="UB"/>
     <tableColumn id="16" name="Tol"/>
-    <tableColumn id="17" name="LCA_ID"/>
+    <tableColumn id="17" name="LCA ID"/>
+    <tableColumn id="19" name="Obj"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:H2" totalsRowShown="0">
-  <autoFilter ref="A1:H2"/>
-  <tableColumns count="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G3" totalsRowShown="0">
+  <autoFilter ref="A1:G3"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="LCA_cost"/>
+    <tableColumn id="2" name="LCA cost"/>
     <tableColumn id="3" name="Epislon"/>
-    <tableColumn id="4" name="LCA_weight"/>
-    <tableColumn id="5" name="LCA_GHG"/>
+    <tableColumn id="4" name="LCA weight"/>
     <tableColumn id="6" name="LCA_GHG_weight"/>
     <tableColumn id="7" name="Methane"/>
     <tableColumn id="8" name="Methane_Equation"/>
@@ -1770,8 +1937,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela26" displayName="Tabela26" ref="A1:C13" totalsRowShown="0" dataDxfId="65">
-  <autoFilter ref="A1:C13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela26" displayName="Tabela26" ref="A1:C14" totalsRowShown="0" dataDxfId="65">
+  <autoFilter ref="A1:C14"/>
   <sortState ref="A2:E30">
     <sortCondition ref="A1:A30"/>
   </sortState>
@@ -2118,14 +2285,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2137,243 +2304,514 @@
     <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>313</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>314</v>
       </c>
-      <c r="D1" t="s">
-        <v>334</v>
-      </c>
       <c r="E1" t="s">
+        <v>333</v>
+      </c>
+      <c r="F1" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16">
         <v>34</v>
       </c>
-      <c r="B2" s="17">
-        <v>0</v>
-      </c>
       <c r="C2" s="17">
+        <v>0</v>
+      </c>
+      <c r="D2" s="17">
         <v>20</v>
       </c>
-      <c r="D2" s="18">
+      <c r="E2" s="18">
         <v>0.13888888888888887</v>
       </c>
-      <c r="E2" s="17" t="str">
-        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
+      <c r="F2" s="17" t="str">
+        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
         <v>Citrus pulp, dry</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
+        <v>1</v>
+      </c>
+      <c r="B3" s="16">
         <v>45</v>
       </c>
-      <c r="B3" s="17">
-        <v>0</v>
-      </c>
       <c r="C3" s="17">
+        <v>0</v>
+      </c>
+      <c r="D3" s="17">
         <v>20</v>
       </c>
-      <c r="D3" s="18">
+      <c r="E3" s="18">
         <v>0.17676767676767677</v>
       </c>
-      <c r="E3" s="17" t="str">
-        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
+      <c r="F3" s="17" t="str">
+        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
         <v>Corn grain</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
+        <v>1</v>
+      </c>
+      <c r="B4" s="19">
         <v>50</v>
       </c>
-      <c r="B4" s="20">
-        <v>0</v>
-      </c>
       <c r="C4" s="20">
+        <v>0</v>
+      </c>
+      <c r="D4" s="20">
         <v>20</v>
       </c>
-      <c r="D4" s="21">
+      <c r="E4" s="21">
         <v>0.19</v>
       </c>
-      <c r="E4" s="22" t="str">
-        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
+      <c r="F4" s="17" t="str">
+        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
         <v>Corn silage</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="16">
+        <v>1</v>
+      </c>
+      <c r="B5" s="17">
         <v>58</v>
       </c>
-      <c r="B5" s="17">
-        <v>0</v>
-      </c>
       <c r="C5" s="17">
+        <v>0</v>
+      </c>
+      <c r="D5" s="17">
         <v>20</v>
       </c>
-      <c r="D5" s="18">
+      <c r="E5" s="18">
         <v>0.33333333333333337</v>
       </c>
-      <c r="E5" s="17" t="str">
-        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
+      <c r="F5" s="17" t="str">
+        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
         <v>Cottonseed meal</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>1</v>
+      </c>
+      <c r="B6" s="17">
         <v>59</v>
       </c>
-      <c r="B6" s="17">
-        <v>0</v>
-      </c>
       <c r="C6" s="17">
+        <v>0</v>
+      </c>
+      <c r="D6" s="17">
         <v>20</v>
       </c>
-      <c r="D6" s="18">
+      <c r="E6" s="18">
         <v>0.11363636363636365</v>
       </c>
-      <c r="E6" s="17" t="str">
-        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
+      <c r="F6" s="17" t="str">
+        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
         <v>Cottonseed whole</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>1</v>
+      </c>
+      <c r="B7" s="17">
         <v>60</v>
       </c>
-      <c r="B7" s="17">
-        <v>0</v>
-      </c>
       <c r="C7" s="17">
+        <v>0</v>
+      </c>
+      <c r="D7" s="17">
         <v>20</v>
       </c>
-      <c r="D7" s="18">
+      <c r="E7" s="18">
         <v>0.14000000000000001</v>
       </c>
-      <c r="E7" s="17" t="str">
-        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
+      <c r="F7" s="17" t="str">
+        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
         <v>Distillers grain plus soluble, dry</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>1</v>
+      </c>
+      <c r="B8" s="17">
         <v>79</v>
       </c>
-      <c r="B8" s="17">
-        <v>0</v>
-      </c>
       <c r="C8" s="17">
+        <v>0</v>
+      </c>
+      <c r="D8" s="17">
         <v>20</v>
       </c>
-      <c r="D8" s="18">
+      <c r="E8" s="18">
         <v>0.10101010101010102</v>
       </c>
-      <c r="E8" s="17" t="str">
-        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
+      <c r="F8" s="17" t="str">
+        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
         <v>Grain sorghum grain</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>1</v>
+      </c>
+      <c r="B9" s="17">
         <v>133</v>
       </c>
-      <c r="B9" s="17">
-        <v>0</v>
-      </c>
       <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="17">
         <v>20</v>
       </c>
-      <c r="D9" s="18">
+      <c r="E9" s="18">
         <v>0.16414141414141412</v>
       </c>
-      <c r="E9" s="17" t="str">
-        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
+      <c r="F9" s="17" t="str">
+        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
         <v>Soybean hulls</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="16">
+        <v>1</v>
+      </c>
+      <c r="B10" s="17">
         <v>134</v>
       </c>
-      <c r="B10" s="17">
-        <v>0</v>
-      </c>
       <c r="C10" s="17">
+        <v>0</v>
+      </c>
+      <c r="D10" s="17">
         <v>20</v>
       </c>
-      <c r="D10" s="18">
+      <c r="E10" s="18">
         <v>0.19696969696969696</v>
       </c>
-      <c r="E10" s="17" t="str">
-        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
+      <c r="F10" s="17" t="str">
+        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
         <v>Soybean meal high CP</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>1</v>
+      </c>
+      <c r="B11" s="17">
         <v>148</v>
       </c>
-      <c r="B11" s="17">
-        <v>0</v>
-      </c>
       <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="17">
         <v>20</v>
       </c>
-      <c r="D11" s="18">
+      <c r="E11" s="18">
         <v>8.8383838383838384E-2</v>
       </c>
-      <c r="E11" s="17" t="str">
-        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
+      <c r="F11" s="17" t="str">
+        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
         <v>Sugarcane silage</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
+        <v>1</v>
+      </c>
+      <c r="B12" s="17">
         <v>166</v>
       </c>
-      <c r="B12" s="17">
-        <v>0</v>
-      </c>
       <c r="C12" s="17">
+        <v>0</v>
+      </c>
+      <c r="D12" s="17">
         <v>20</v>
       </c>
-      <c r="D12" s="18">
+      <c r="E12" s="18">
         <v>0.15151515151515152</v>
       </c>
-      <c r="E12" s="17" t="str">
-        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
+      <c r="F12" s="17" t="str">
+        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
         <v>Wheat middlings</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
+        <v>1</v>
+      </c>
+      <c r="B13" s="16">
         <v>845</v>
       </c>
-      <c r="B13" s="17">
-        <v>0</v>
-      </c>
       <c r="C13" s="17">
+        <v>0</v>
+      </c>
+      <c r="D13" s="17">
         <v>20</v>
       </c>
-      <c r="D13" s="18">
+      <c r="E13" s="18">
         <v>0.40404040404040409</v>
       </c>
-      <c r="E13" s="17" t="str">
-        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
+      <c r="F13" s="17" t="str">
+        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
+        <v>Urea</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>2</v>
+      </c>
+      <c r="B14" s="16">
+        <v>1</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0</v>
+      </c>
+      <c r="D14" s="17">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18">
+        <v>6</v>
+      </c>
+      <c r="F14" s="17" t="str">
+        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
+        <v>Alfalfa cubes</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="17">
+        <v>2</v>
+      </c>
+      <c r="B15" s="16">
+        <v>34</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0</v>
+      </c>
+      <c r="D15" s="17">
+        <v>1</v>
+      </c>
+      <c r="E15" s="18">
+        <v>0.19</v>
+      </c>
+      <c r="F15" s="17" t="str">
+        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
+        <v>Citrus pulp, dry</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>2</v>
+      </c>
+      <c r="B16" s="16">
+        <v>45</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0</v>
+      </c>
+      <c r="D16" s="17">
+        <v>1</v>
+      </c>
+      <c r="E16" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="F16" s="17" t="str">
+        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
+        <v>Corn grain</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="17">
+        <v>2</v>
+      </c>
+      <c r="B17" s="16">
+        <v>50</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="18">
+        <v>0.19</v>
+      </c>
+      <c r="F17" s="17" t="str">
+        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
+        <v>Corn silage</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="17">
+        <v>2</v>
+      </c>
+      <c r="B18" s="17">
+        <v>59</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0</v>
+      </c>
+      <c r="D18" s="17">
+        <v>1</v>
+      </c>
+      <c r="E18" s="18">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F18" s="17" t="str">
+        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
+        <v>Cottonseed whole</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>2</v>
+      </c>
+      <c r="B19" s="17">
+        <v>60</v>
+      </c>
+      <c r="C19" s="17">
+        <v>0</v>
+      </c>
+      <c r="D19" s="17">
+        <v>1</v>
+      </c>
+      <c r="E19" s="18">
+        <v>0.08</v>
+      </c>
+      <c r="F19" s="17" t="str">
+        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
+        <v>Distillers grain plus soluble, dry</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="17">
+        <v>2</v>
+      </c>
+      <c r="B20" s="17">
+        <v>79</v>
+      </c>
+      <c r="C20" s="17">
+        <v>0</v>
+      </c>
+      <c r="D20" s="17">
+        <v>1</v>
+      </c>
+      <c r="E20" s="18">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F20" s="17" t="str">
+        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
+        <v>Grain sorghum grain</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="17">
+        <v>2</v>
+      </c>
+      <c r="B21" s="17">
+        <v>133</v>
+      </c>
+      <c r="C21" s="17">
+        <v>0</v>
+      </c>
+      <c r="D21" s="17">
+        <v>1</v>
+      </c>
+      <c r="E21" s="18">
+        <v>0.16414141414141412</v>
+      </c>
+      <c r="F21" s="17" t="str">
+        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
+        <v>Soybean hulls</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="17">
+        <v>2</v>
+      </c>
+      <c r="B22" s="17">
+        <v>134</v>
+      </c>
+      <c r="C22" s="17">
+        <v>0</v>
+      </c>
+      <c r="D22" s="17">
+        <v>1</v>
+      </c>
+      <c r="E22" s="18">
+        <v>0.19696969696969696</v>
+      </c>
+      <c r="F22" s="17" t="str">
+        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
+        <v>Soybean meal high CP</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="17">
+        <v>2</v>
+      </c>
+      <c r="B23" s="17">
+        <v>148</v>
+      </c>
+      <c r="C23" s="17">
+        <v>0</v>
+      </c>
+      <c r="D23" s="17">
+        <v>1</v>
+      </c>
+      <c r="E23" s="18">
+        <v>0.15151515151515152</v>
+      </c>
+      <c r="F23" s="17" t="str">
+        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
+        <v>Sugarcane silage</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="17">
+        <v>2</v>
+      </c>
+      <c r="B24" s="16">
+        <v>845</v>
+      </c>
+      <c r="C24" s="17">
+        <v>0</v>
+      </c>
+      <c r="D24" s="17">
+        <v>1</v>
+      </c>
+      <c r="E24" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="F24" s="17" t="str">
+        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
         <v>Urea</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <legacyDrawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2383,96 +2821,103 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.42578125" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="5.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>315</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="D1" s="26" t="s">
         <v>316</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="E1" s="26" t="s">
         <v>317</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="26" t="s">
         <v>319</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="26" t="s">
         <v>320</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>321</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>322</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="J1" s="26" t="s">
         <v>323</v>
       </c>
-      <c r="J1" s="26" t="s">
+      <c r="K1" s="26" t="s">
         <v>324</v>
       </c>
-      <c r="K1" s="27" t="s">
-        <v>333</v>
-      </c>
-      <c r="L1" s="28" t="s">
+      <c r="L1" s="27" t="s">
+        <v>332</v>
+      </c>
+      <c r="M1" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="N1" s="28" t="s">
         <v>326</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="O1" s="28" t="s">
+        <v>329</v>
+      </c>
+      <c r="P1" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="Q1" s="28" t="s">
         <v>331</v>
       </c>
-      <c r="P1" s="28" t="s">
-        <v>332</v>
-      </c>
-      <c r="Q1" s="29" t="s">
-        <v>344</v>
+      <c r="R1" s="29" t="s">
+        <v>341</v>
+      </c>
+      <c r="S1" s="29" t="s">
+        <v>342</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="C2" s="24">
+      <c r="D2" s="24">
         <v>300</v>
       </c>
-      <c r="D2" s="24">
+      <c r="E2" s="24">
         <v>5</v>
-      </c>
-      <c r="E2" s="24">
-        <v>1</v>
       </c>
       <c r="F2" s="24">
         <v>1</v>
@@ -2481,51 +2926,57 @@
         <v>1</v>
       </c>
       <c r="H2" s="24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="24">
+        <v>0</v>
+      </c>
+      <c r="J2" s="24">
         <v>6.2</v>
       </c>
-      <c r="J2" s="24">
+      <c r="K2" s="24">
         <v>1.44</v>
       </c>
-      <c r="K2" s="25">
-        <v>13.91</v>
-      </c>
-      <c r="L2" s="23" t="s">
-        <v>328</v>
+      <c r="L2" s="25">
+        <v>0.87</v>
       </c>
       <c r="M2" s="23" t="s">
         <v>328</v>
       </c>
-      <c r="N2" s="23">
+      <c r="N2" s="23" t="s">
+        <v>328</v>
+      </c>
+      <c r="O2" s="23">
         <v>0.8</v>
       </c>
-      <c r="O2" s="23">
-        <v>3</v>
-      </c>
       <c r="P2" s="23">
-        <v>1E-3</v>
+        <v>2</v>
       </c>
       <c r="Q2">
-        <v>-1</v>
+        <v>0.01</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s">
+        <v>343</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="30">
+        <v>2</v>
+      </c>
+      <c r="C3" t="s">
         <v>318</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>300</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>5</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -2534,34 +2985,99 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
         <v>6.2</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>1.44</v>
       </c>
-      <c r="K3">
-        <v>13.91</v>
-      </c>
-      <c r="L3" t="s">
-        <v>329</v>
+      <c r="L3">
+        <v>0.87</v>
       </c>
       <c r="M3" t="s">
-        <v>335</v>
-      </c>
-      <c r="N3">
+        <v>344</v>
+      </c>
+      <c r="N3" t="s">
+        <v>345</v>
+      </c>
+      <c r="O3">
         <v>0.8</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>3</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>1E-3</v>
       </c>
-      <c r="Q3">
-        <v>-1</v>
+      <c r="R3">
+        <v>2</v>
+      </c>
+      <c r="S3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="30">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D4">
+        <v>300</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>6.2</v>
+      </c>
+      <c r="K4">
+        <v>1.44</v>
+      </c>
+      <c r="L4">
+        <v>0.87</v>
+      </c>
+      <c r="M4" t="s">
+        <v>344</v>
+      </c>
+      <c r="N4" t="s">
+        <v>348</v>
+      </c>
+      <c r="O4">
+        <v>0.8</v>
+      </c>
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4">
+        <v>1E-3</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -2577,10 +3093,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="D13:E16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2588,57 +3104,70 @@
     <col min="2" max="2" width="11" customWidth="1"/>
     <col min="3" max="3" width="9.5703125" customWidth="1"/>
     <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C1" t="s">
+        <v>336</v>
+      </c>
+      <c r="D1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F1" t="s">
+        <v>337</v>
+      </c>
+      <c r="G1" t="s">
         <v>339</v>
       </c>
-      <c r="D1" t="s">
-        <v>340</v>
-      </c>
-      <c r="E1" t="s">
-        <v>337</v>
-      </c>
-      <c r="F1" t="s">
-        <v>336</v>
-      </c>
-      <c r="G1" t="s">
-        <v>341</v>
-      </c>
-      <c r="H1" t="s">
-        <v>343</v>
-      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.05</v>
+        <v>5.0000000000000004E-6</v>
       </c>
       <c r="C2" t="b">
         <v>1</v>
       </c>
-      <c r="E2" t="b">
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="b">
         <v>1</v>
       </c>
-      <c r="G2" t="b">
+      <c r="G2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="b">
         <v>1</v>
       </c>
-      <c r="H2" t="s">
-        <v>342</v>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2655,10 +3184,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:C13"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2674,128 +3203,164 @@
         <v>325</v>
       </c>
       <c r="C1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
-        <v>34</v>
-      </c>
-      <c r="B2" s="17" t="str">
+      <c r="A2" s="17">
+        <v>1</v>
+      </c>
+      <c r="B2" s="31" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
-        <v>Citrus pulp, dry</v>
-      </c>
-      <c r="C2" s="17"/>
+        <v>Alfalfa cubes</v>
+      </c>
+      <c r="C2" s="17">
+        <v>666</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="B3" s="17" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
-        <v>Corn grain</v>
-      </c>
-      <c r="C3" s="17"/>
+        <v>Citrus pulp, dry</v>
+      </c>
+      <c r="C3" s="17">
+        <v>10</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="19">
+      <c r="A4" s="16">
+        <v>45</v>
+      </c>
+      <c r="B4" s="17" t="str">
+        <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
+        <v>Corn grain</v>
+      </c>
+      <c r="C4" s="17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="19">
         <v>50</v>
       </c>
-      <c r="B4" s="22" t="str">
+      <c r="B5" s="22" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
         <v>Corn silage</v>
       </c>
-      <c r="C4" s="17"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <v>58</v>
-      </c>
-      <c r="B5" s="17" t="str">
-        <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
-        <v>Cottonseed meal</v>
-      </c>
-      <c r="C5" s="17"/>
+      <c r="C5" s="17">
+        <v>22</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B6" s="17" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
-        <v>Cottonseed whole</v>
-      </c>
-      <c r="C6" s="17"/>
+        <v>Cottonseed meal</v>
+      </c>
+      <c r="C6" s="17">
+        <v>13</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B7" s="17" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
-        <v>Distillers grain plus soluble, dry</v>
-      </c>
-      <c r="C7" s="17"/>
+        <v>Cottonseed whole</v>
+      </c>
+      <c r="C7" s="17">
+        <v>11</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B8" s="17" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
-        <v>Grain sorghum grain</v>
-      </c>
-      <c r="C8" s="17"/>
+        <v>Distillers grain plus soluble, dry</v>
+      </c>
+      <c r="C8" s="17">
+        <v>44</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="B9" s="17" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
-        <v>Soybean hulls</v>
-      </c>
-      <c r="C9" s="17"/>
+        <v>Grain sorghum grain</v>
+      </c>
+      <c r="C9" s="17">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
-        <v>Soybean meal high CP</v>
-      </c>
-      <c r="C10" s="17"/>
+        <v>Soybean hulls</v>
+      </c>
+      <c r="C10" s="17">
+        <v>66</v>
+      </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B11" s="17" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
-        <v>Sugarcane silage</v>
-      </c>
-      <c r="C11" s="17"/>
+        <v>Soybean meal high CP</v>
+      </c>
+      <c r="C11" s="17">
+        <v>78</v>
+      </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B12" s="17" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
-        <v>Wheat middlings</v>
-      </c>
-      <c r="C12" s="17"/>
+        <v>Sugarcane silage</v>
+      </c>
+      <c r="C12" s="17">
+        <v>22</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="16">
-        <v>845</v>
+      <c r="A13" s="17">
+        <v>166</v>
       </c>
       <c r="B13" s="17" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
+        <v>Wheat middlings</v>
+      </c>
+      <c r="C13" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>845</v>
+      </c>
+      <c r="B14" s="17" t="str">
+        <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
         <v>Urea</v>
       </c>
-      <c r="C13" s="17"/>
+      <c r="C14" s="17">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -41383,6 +41948,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -41391,7 +41962,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003C4402FDC8975A4FB65AB474AF423692" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="43da31f6e8d8dfaec40561525ce78865">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="871f9270-bc3b-4105-9923-e7982e1cb312" xmlns:ns4="000447b7-86fa-4362-939e-855579e16124" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b58fc7e6f492e58d10793199fba37542" ns3:_="" ns4:_="">
     <xsd:import namespace="871f9270-bc3b-4105-9923-e7982e1cb312"/>
@@ -41594,13 +42165,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9544B578-CE8A-4753-8E47-B2C52E32EEC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="000447b7-86fa-4362-939e-855579e16124"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="871f9270-bc3b-4105-9923-e7982e1cb312"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C60666F-AED0-4727-A902-9CA0ACF4D344}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -41608,7 +42190,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE8DA1A1-DD54-4881-BC06-911C3C5870BC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -41625,21 +42207,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9544B578-CE8A-4753-8E47-B2C52E32EEC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="000447b7-86fa-4362-939e-855579e16124"/>
-    <ds:schemaRef ds:uri="871f9270-bc3b-4105-9923-e7982e1cb312"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Input.xlsx
+++ b/Input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feeds" sheetId="2" r:id="rId1"/>
@@ -1054,12 +1054,6 @@
     <t>6-05-555</t>
   </si>
   <si>
-    <t>Min</t>
-  </si>
-  <si>
-    <t>Max</t>
-  </si>
-  <si>
     <t>Breed</t>
   </si>
   <si>
@@ -1099,9 +1093,6 @@
     <t>Algorithm</t>
   </si>
   <si>
-    <t>BF</t>
-  </si>
-  <si>
     <t>LB</t>
   </si>
   <si>
@@ -1112,9 +1103,6 @@
   </si>
   <si>
     <t>Linearization factor</t>
-  </si>
-  <si>
-    <t>Cost</t>
   </si>
   <si>
     <t>LCA_GHG_weight</t>
@@ -1147,25 +1135,37 @@
     <t>MaxProfit</t>
   </si>
   <si>
-    <t>GSS</t>
-  </si>
-  <si>
-    <t>GSS-Max</t>
-  </si>
-  <si>
     <t>MinCost</t>
   </si>
   <si>
     <t>MaxProfitSWG</t>
   </si>
   <si>
-    <t>GSS-MaxSWG</t>
-  </si>
-  <si>
     <t>LCA weight</t>
   </si>
   <si>
     <t>LCA cost</t>
+  </si>
+  <si>
+    <t>BF-Min</t>
+  </si>
+  <si>
+    <t>BF-Max</t>
+  </si>
+  <si>
+    <t>BF-MaxP per SWG</t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>Min %DM</t>
+  </si>
+  <si>
+    <t>Max %DM</t>
+  </si>
+  <si>
+    <t>Cost [US$/kg AF]</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1176,7 @@
     <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
     <numFmt numFmtId="165" formatCode="0.00;0.00;0;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1188,13 +1188,6 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1213,7 +1206,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1238,20 +1231,8 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor theme="4" tint="0.79998168889431442"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1292,37 +1273,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color theme="4" tint="0.39997558519241921"/>
       </right>
@@ -1343,7 +1293,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1" applyProtection="1">
@@ -1367,40 +1317,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="76">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1698,6 +1624,22 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
@@ -1873,17 +1815,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F24" totalsRowShown="0" dataDxfId="75">
-  <autoFilter ref="A1:F24"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F26" totalsRowShown="0" dataDxfId="75">
+  <autoFilter ref="A1:F26"/>
   <sortState ref="B2:F30">
     <sortCondition ref="B1:B30"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="6" name="Feed Scenario" dataDxfId="74"/>
     <tableColumn id="1" name="ID" dataDxfId="73"/>
-    <tableColumn id="2" name="Min" dataDxfId="72"/>
-    <tableColumn id="3" name="Max" dataDxfId="71"/>
-    <tableColumn id="4" name="Cost" dataDxfId="70"/>
+    <tableColumn id="2" name="Min %DM" dataDxfId="72"/>
+    <tableColumn id="3" name="Max %DM" dataDxfId="71"/>
+    <tableColumn id="4" name="Cost [US$/kg AF]" dataDxfId="70"/>
     <tableColumn id="5" name="Name" dataDxfId="69">
       <calculatedColumnFormula>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
@@ -1937,8 +1879,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela26" displayName="Tabela26" ref="A1:C14" totalsRowShown="0" dataDxfId="65">
-  <autoFilter ref="A1:C14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela26" displayName="Tabela26" ref="A1:C15" totalsRowShown="0" dataDxfId="65">
+  <autoFilter ref="A1:C15"/>
   <sortState ref="A2:E30">
     <sortCondition ref="A1:A30"/>
   </sortState>
@@ -1954,70 +1896,70 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:BF219" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:BF219" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A1:BF219"/>
   <sortState ref="A2:BF219">
     <sortCondition ref="A4:A5"/>
   </sortState>
   <tableColumns count="58">
-    <tableColumn id="1" name="ID" dataDxfId="59"/>
-    <tableColumn id="2" name="Feed" dataDxfId="58"/>
-    <tableColumn id="4" name="IFN" dataDxfId="57"/>
-    <tableColumn id="5" name="Cost, $/Tonne AF" dataDxfId="56"/>
-    <tableColumn id="7" name="Forage, %DM" dataDxfId="55"/>
-    <tableColumn id="8" name="DM, %AF" dataDxfId="54"/>
-    <tableColumn id="16" name="CP, %DM" dataDxfId="53"/>
-    <tableColumn id="31" name="SP, %CP" dataDxfId="52"/>
-    <tableColumn id="29" name="ADICP, %CP" dataDxfId="51"/>
-    <tableColumn id="24" name="Sugars, %DM" dataDxfId="50"/>
-    <tableColumn id="25" name="OA, %DM" dataDxfId="49"/>
-    <tableColumn id="23" name="Fat, %DM" dataDxfId="48"/>
-    <tableColumn id="9" name="Ash, %DM" dataDxfId="47"/>
-    <tableColumn id="10" name="Starch, %DM" dataDxfId="46"/>
-    <tableColumn id="12" name="NDF, %DM" dataDxfId="45"/>
-    <tableColumn id="13" name="Lignin, %DM" dataDxfId="44"/>
-    <tableColumn id="14" name="TDN, %DM" dataDxfId="43"/>
-    <tableColumn id="15" name="ME, Mcal/kg" dataDxfId="42"/>
-    <tableColumn id="18" name="NEma, Mcal/kg" dataDxfId="41"/>
-    <tableColumn id="19" name="NEga, Mcal/kg" dataDxfId="40"/>
-    <tableColumn id="21" name="RUP, %CP" dataDxfId="39"/>
-    <tableColumn id="22" name="kd PB, %/h" dataDxfId="38"/>
-    <tableColumn id="26" name="kd CB1, %/h" dataDxfId="37"/>
-    <tableColumn id="27" name="kd CB2, %/h" dataDxfId="36"/>
-    <tableColumn id="17" name="kd CB3, %/h" dataDxfId="35"/>
-    <tableColumn id="28" name="PBID, %" dataDxfId="34"/>
-    <tableColumn id="6" name="CB1ID, %" dataDxfId="33"/>
-    <tableColumn id="3" name="CB2ID, %" dataDxfId="32"/>
-    <tableColumn id="20" name="pef, %NDF" dataDxfId="31"/>
-    <tableColumn id="11" name="ARG, %DM" dataDxfId="30"/>
-    <tableColumn id="32" name="HIS, %DM" dataDxfId="29"/>
-    <tableColumn id="33" name="ILE, %DM" dataDxfId="28"/>
-    <tableColumn id="34" name="LEU, %DM" dataDxfId="27"/>
-    <tableColumn id="35" name="LYS, %DM" dataDxfId="26"/>
-    <tableColumn id="36" name="MET, %DM" dataDxfId="25"/>
-    <tableColumn id="37" name="CYS, %DM" dataDxfId="24"/>
-    <tableColumn id="38" name="PHE, %DM" dataDxfId="23"/>
-    <tableColumn id="39" name="TYR, %DM" dataDxfId="22"/>
-    <tableColumn id="40" name="THR, %DM" dataDxfId="21"/>
-    <tableColumn id="41" name="TRP, %DM" dataDxfId="20"/>
-    <tableColumn id="42" name="VAL, %DM" dataDxfId="19"/>
-    <tableColumn id="43" name="Ca, % DM" dataDxfId="18"/>
-    <tableColumn id="44" name="P, % DM" dataDxfId="17"/>
-    <tableColumn id="45" name="Mg, % DM" dataDxfId="16"/>
-    <tableColumn id="46" name="Cl, % DM" dataDxfId="15"/>
-    <tableColumn id="47" name="K, % DM" dataDxfId="14"/>
-    <tableColumn id="48" name="Na, % DM" dataDxfId="13"/>
-    <tableColumn id="49" name="S, % DM" dataDxfId="12"/>
-    <tableColumn id="50" name="Co, mg/kg" dataDxfId="11"/>
-    <tableColumn id="51" name="Cu, mg/kg" dataDxfId="10"/>
-    <tableColumn id="52" name="I, mg/kg" dataDxfId="9"/>
-    <tableColumn id="53" name="Fe, mg/kg" dataDxfId="8"/>
-    <tableColumn id="54" name="Mn, mg/kg" dataDxfId="7"/>
-    <tableColumn id="55" name="Se, mg/kg" dataDxfId="6"/>
-    <tableColumn id="56" name="Zn, mg/kg" dataDxfId="5"/>
-    <tableColumn id="57" name="Vit A, IU/g" dataDxfId="4"/>
-    <tableColumn id="58" name="Vit D, IU/g" dataDxfId="3"/>
-    <tableColumn id="30" name="Vit E, IU/kg" dataDxfId="2"/>
+    <tableColumn id="1" name="ID" dataDxfId="57"/>
+    <tableColumn id="2" name="Feed" dataDxfId="56"/>
+    <tableColumn id="4" name="IFN" dataDxfId="55"/>
+    <tableColumn id="5" name="Cost, $/Tonne AF" dataDxfId="54"/>
+    <tableColumn id="7" name="Forage, %DM" dataDxfId="53"/>
+    <tableColumn id="8" name="DM, %AF" dataDxfId="52"/>
+    <tableColumn id="16" name="CP, %DM" dataDxfId="51"/>
+    <tableColumn id="31" name="SP, %CP" dataDxfId="50"/>
+    <tableColumn id="29" name="ADICP, %CP" dataDxfId="49"/>
+    <tableColumn id="24" name="Sugars, %DM" dataDxfId="48"/>
+    <tableColumn id="25" name="OA, %DM" dataDxfId="47"/>
+    <tableColumn id="23" name="Fat, %DM" dataDxfId="46"/>
+    <tableColumn id="9" name="Ash, %DM" dataDxfId="45"/>
+    <tableColumn id="10" name="Starch, %DM" dataDxfId="44"/>
+    <tableColumn id="12" name="NDF, %DM" dataDxfId="43"/>
+    <tableColumn id="13" name="Lignin, %DM" dataDxfId="42"/>
+    <tableColumn id="14" name="TDN, %DM" dataDxfId="41"/>
+    <tableColumn id="15" name="ME, Mcal/kg" dataDxfId="40"/>
+    <tableColumn id="18" name="NEma, Mcal/kg" dataDxfId="39"/>
+    <tableColumn id="19" name="NEga, Mcal/kg" dataDxfId="38"/>
+    <tableColumn id="21" name="RUP, %CP" dataDxfId="37"/>
+    <tableColumn id="22" name="kd PB, %/h" dataDxfId="36"/>
+    <tableColumn id="26" name="kd CB1, %/h" dataDxfId="35"/>
+    <tableColumn id="27" name="kd CB2, %/h" dataDxfId="34"/>
+    <tableColumn id="17" name="kd CB3, %/h" dataDxfId="33"/>
+    <tableColumn id="28" name="PBID, %" dataDxfId="32"/>
+    <tableColumn id="6" name="CB1ID, %" dataDxfId="31"/>
+    <tableColumn id="3" name="CB2ID, %" dataDxfId="30"/>
+    <tableColumn id="20" name="pef, %NDF" dataDxfId="29"/>
+    <tableColumn id="11" name="ARG, %DM" dataDxfId="28"/>
+    <tableColumn id="32" name="HIS, %DM" dataDxfId="27"/>
+    <tableColumn id="33" name="ILE, %DM" dataDxfId="26"/>
+    <tableColumn id="34" name="LEU, %DM" dataDxfId="25"/>
+    <tableColumn id="35" name="LYS, %DM" dataDxfId="24"/>
+    <tableColumn id="36" name="MET, %DM" dataDxfId="23"/>
+    <tableColumn id="37" name="CYS, %DM" dataDxfId="22"/>
+    <tableColumn id="38" name="PHE, %DM" dataDxfId="21"/>
+    <tableColumn id="39" name="TYR, %DM" dataDxfId="20"/>
+    <tableColumn id="40" name="THR, %DM" dataDxfId="19"/>
+    <tableColumn id="41" name="TRP, %DM" dataDxfId="18"/>
+    <tableColumn id="42" name="VAL, %DM" dataDxfId="17"/>
+    <tableColumn id="43" name="Ca, % DM" dataDxfId="16"/>
+    <tableColumn id="44" name="P, % DM" dataDxfId="15"/>
+    <tableColumn id="45" name="Mg, % DM" dataDxfId="14"/>
+    <tableColumn id="46" name="Cl, % DM" dataDxfId="13"/>
+    <tableColumn id="47" name="K, % DM" dataDxfId="12"/>
+    <tableColumn id="48" name="Na, % DM" dataDxfId="11"/>
+    <tableColumn id="49" name="S, % DM" dataDxfId="10"/>
+    <tableColumn id="50" name="Co, mg/kg" dataDxfId="9"/>
+    <tableColumn id="51" name="Cu, mg/kg" dataDxfId="8"/>
+    <tableColumn id="52" name="I, mg/kg" dataDxfId="7"/>
+    <tableColumn id="53" name="Fe, mg/kg" dataDxfId="6"/>
+    <tableColumn id="54" name="Mn, mg/kg" dataDxfId="5"/>
+    <tableColumn id="55" name="Se, mg/kg" dataDxfId="4"/>
+    <tableColumn id="56" name="Zn, mg/kg" dataDxfId="3"/>
+    <tableColumn id="57" name="Vit A, IU/g" dataDxfId="2"/>
+    <tableColumn id="58" name="Vit D, IU/g" dataDxfId="1"/>
+    <tableColumn id="30" name="Vit E, IU/kg" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2289,42 +2231,42 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F24"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14:F24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="B1" t="s">
         <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>313</v>
+        <v>348</v>
       </c>
       <c r="D1" t="s">
-        <v>314</v>
+        <v>349</v>
       </c>
       <c r="E1" t="s">
-        <v>333</v>
+        <v>350</v>
       </c>
       <c r="F1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -2335,7 +2277,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="17">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E2" s="18">
         <v>0.13888888888888887</v>
@@ -2345,7 +2287,7 @@
         <v>Citrus pulp, dry</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -2356,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="17">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E3" s="18">
         <v>0.17676767676767677</v>
@@ -2366,20 +2308,20 @@
         <v>Corn grain</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>1</v>
       </c>
-      <c r="B4" s="19">
+      <c r="B4" s="16">
         <v>50</v>
       </c>
-      <c r="C4" s="20">
-        <v>0</v>
-      </c>
-      <c r="D4" s="20">
-        <v>20</v>
-      </c>
-      <c r="E4" s="21">
+      <c r="C4" s="17">
+        <v>0</v>
+      </c>
+      <c r="D4" s="17">
+        <v>100</v>
+      </c>
+      <c r="E4" s="18">
         <v>0.19</v>
       </c>
       <c r="F4" s="17" t="str">
@@ -2387,7 +2329,7 @@
         <v>Corn silage</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -2398,7 +2340,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="17">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E5" s="18">
         <v>0.33333333333333337</v>
@@ -2408,7 +2350,7 @@
         <v>Cottonseed meal</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>1</v>
       </c>
@@ -2419,7 +2361,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="17">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E6" s="18">
         <v>0.11363636363636365</v>
@@ -2429,7 +2371,7 @@
         <v>Cottonseed whole</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>1</v>
       </c>
@@ -2440,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="17">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E7" s="18">
         <v>0.14000000000000001</v>
@@ -2450,7 +2392,7 @@
         <v>Distillers grain plus soluble, dry</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>1</v>
       </c>
@@ -2461,7 +2403,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="17">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E8" s="18">
         <v>0.10101010101010102</v>
@@ -2471,7 +2413,7 @@
         <v>Grain sorghum grain</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>1</v>
       </c>
@@ -2482,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="17">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E9" s="18">
         <v>0.16414141414141412</v>
@@ -2492,7 +2434,7 @@
         <v>Soybean hulls</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>1</v>
       </c>
@@ -2503,7 +2445,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="17">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E10" s="18">
         <v>0.19696969696969696</v>
@@ -2513,7 +2455,7 @@
         <v>Soybean meal high CP</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>1</v>
       </c>
@@ -2524,7 +2466,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="17">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E11" s="18">
         <v>8.8383838383838384E-2</v>
@@ -2534,7 +2476,7 @@
         <v>Sugarcane silage</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>1</v>
       </c>
@@ -2545,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="17">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E12" s="18">
         <v>0.15151515151515152</v>
@@ -2555,7 +2497,7 @@
         <v>Wheat middlings</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>1</v>
       </c>
@@ -2566,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="17">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="E13" s="18">
         <v>0.40404040404040409</v>
@@ -2576,7 +2518,7 @@
         <v>Urea</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>2</v>
       </c>
@@ -2587,7 +2529,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="17">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E14" s="18">
         <v>6</v>
@@ -2597,7 +2539,7 @@
         <v>Alfalfa cubes</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>2</v>
       </c>
@@ -2608,7 +2550,7 @@
         <v>0</v>
       </c>
       <c r="D15" s="17">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E15" s="18">
         <v>0.19</v>
@@ -2618,7 +2560,7 @@
         <v>Citrus pulp, dry</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>2</v>
       </c>
@@ -2629,7 +2571,7 @@
         <v>0</v>
       </c>
       <c r="D16" s="17">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E16" s="18">
         <v>0.15</v>
@@ -2639,7 +2581,7 @@
         <v>Corn grain</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>2</v>
       </c>
@@ -2650,7 +2592,7 @@
         <v>0</v>
       </c>
       <c r="D17" s="17">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E17" s="18">
         <v>0.19</v>
@@ -2660,7 +2602,7 @@
         <v>Corn silage</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>2</v>
       </c>
@@ -2671,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="17">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E18" s="18">
         <v>0.14000000000000001</v>
@@ -2681,7 +2623,7 @@
         <v>Cottonseed whole</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>2</v>
       </c>
@@ -2692,7 +2634,7 @@
         <v>0</v>
       </c>
       <c r="D19" s="17">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E19" s="18">
         <v>0.08</v>
@@ -2702,7 +2644,7 @@
         <v>Distillers grain plus soluble, dry</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>2</v>
       </c>
@@ -2713,7 +2655,7 @@
         <v>0</v>
       </c>
       <c r="D20" s="17">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E20" s="18">
         <v>0.14000000000000001</v>
@@ -2723,7 +2665,7 @@
         <v>Grain sorghum grain</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>2</v>
       </c>
@@ -2734,7 +2676,7 @@
         <v>0</v>
       </c>
       <c r="D21" s="17">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E21" s="18">
         <v>0.16414141414141412</v>
@@ -2744,7 +2686,7 @@
         <v>Soybean hulls</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>2</v>
       </c>
@@ -2755,7 +2697,7 @@
         <v>0</v>
       </c>
       <c r="D22" s="17">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E22" s="18">
         <v>0.19696969696969696</v>
@@ -2765,7 +2707,7 @@
         <v>Soybean meal high CP</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>2</v>
       </c>
@@ -2776,7 +2718,7 @@
         <v>0</v>
       </c>
       <c r="D23" s="17">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E23" s="18">
         <v>0.15151515151515152</v>
@@ -2786,7 +2728,7 @@
         <v>Sugarcane silage</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>2</v>
       </c>
@@ -2797,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="D24" s="17">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E24" s="18">
         <v>0.5</v>
@@ -2805,6 +2747,48 @@
       <c r="F24" s="17" t="str">
         <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
         <v>Urea</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="16">
+        <v>2</v>
+      </c>
+      <c r="B25" s="17">
+        <v>58</v>
+      </c>
+      <c r="C25" s="17">
+        <v>0</v>
+      </c>
+      <c r="D25" s="17">
+        <v>100</v>
+      </c>
+      <c r="E25" s="18">
+        <v>0.33333333333333337</v>
+      </c>
+      <c r="F25" s="23" t="str">
+        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
+        <v>Cottonseed meal</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="17">
+        <v>2</v>
+      </c>
+      <c r="B26" s="17">
+        <v>77</v>
+      </c>
+      <c r="C26" s="17">
+        <v>0</v>
+      </c>
+      <c r="D26" s="17">
+        <v>100</v>
+      </c>
+      <c r="E26" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="F26" s="23" t="str">
+        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
+        <v>Fresh soybean forage</v>
       </c>
     </row>
   </sheetData>
@@ -2823,133 +2807,133 @@
   </sheetPr>
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5546875" customWidth="1"/>
+    <col min="3" max="3" width="8.44140625" customWidth="1"/>
+    <col min="4" max="4" width="7.33203125" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" customWidth="1"/>
+    <col min="6" max="6" width="5.33203125" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.33203125" customWidth="1"/>
+    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C1" s="26" t="s">
+        <v>336</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1" s="19" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="E1" s="26" t="s">
+      <c r="F1" s="19" t="s">
         <v>317</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="G1" s="19" t="s">
+        <v>318</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>319</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="I1" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="J1" s="19" t="s">
         <v>321</v>
       </c>
-      <c r="I1" s="26" t="s">
+      <c r="K1" s="19" t="s">
         <v>322</v>
       </c>
-      <c r="J1" s="26" t="s">
-        <v>323</v>
-      </c>
-      <c r="K1" s="26" t="s">
+      <c r="L1" s="20" t="s">
+        <v>329</v>
+      </c>
+      <c r="M1" s="21" t="s">
+        <v>325</v>
+      </c>
+      <c r="N1" s="21" t="s">
         <v>324</v>
       </c>
-      <c r="L1" s="27" t="s">
-        <v>332</v>
-      </c>
-      <c r="M1" s="28" t="s">
+      <c r="O1" s="21" t="s">
+        <v>326</v>
+      </c>
+      <c r="P1" s="21" t="s">
         <v>327</v>
       </c>
-      <c r="N1" s="28" t="s">
-        <v>326</v>
-      </c>
-      <c r="O1" s="28" t="s">
-        <v>329</v>
-      </c>
-      <c r="P1" s="28" t="s">
-        <v>330</v>
-      </c>
-      <c r="Q1" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="R1" s="29" t="s">
-        <v>341</v>
-      </c>
-      <c r="S1" s="29" t="s">
-        <v>342</v>
+      <c r="Q1" s="21" t="s">
+        <v>328</v>
+      </c>
+      <c r="R1" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>338</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="24">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" s="24" t="s">
-        <v>318</v>
-      </c>
-      <c r="D2" s="24">
+      <c r="C2" t="s">
+        <v>316</v>
+      </c>
+      <c r="D2">
         <v>300</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2">
         <v>5</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2">
         <v>1</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2" s="24">
-        <v>0</v>
-      </c>
-      <c r="J2" s="24">
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
         <v>6.2</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2">
         <v>1.44</v>
       </c>
-      <c r="L2" s="25">
+      <c r="L2">
         <v>0.87</v>
       </c>
-      <c r="M2" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="N2" s="23" t="s">
-        <v>328</v>
-      </c>
-      <c r="O2" s="23">
-        <v>0.8</v>
-      </c>
-      <c r="P2" s="23">
+      <c r="M2" t="s">
+        <v>347</v>
+      </c>
+      <c r="N2" t="s">
+        <v>344</v>
+      </c>
+      <c r="O2">
+        <v>1.3</v>
+      </c>
+      <c r="P2">
         <v>2</v>
       </c>
       <c r="Q2">
@@ -2959,18 +2943,18 @@
         <v>1</v>
       </c>
       <c r="S2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="30">
+      <c r="B3">
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D3">
         <v>300</v>
@@ -3000,36 +2984,36 @@
         <v>0.87</v>
       </c>
       <c r="M3" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="N3" t="s">
         <v>345</v>
       </c>
       <c r="O3">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="P3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q3">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="30">
+      <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D4">
         <v>300</v>
@@ -3059,25 +3043,25 @@
         <v>0.87</v>
       </c>
       <c r="M4" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="N4" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="O4">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="P4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q4">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="R4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -3095,42 +3079,42 @@
   </sheetPr>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="9.5703125" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" customWidth="1"/>
-    <col min="5" max="5" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="C1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D1" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="F1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="G1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3147,10 +3131,10 @@
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3167,7 +3151,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -3184,33 +3168,33 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="C1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
-      <c r="B2" s="31" t="str">
+      <c r="B2" s="23" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
         <v>Alfalfa cubes</v>
       </c>
@@ -3218,7 +3202,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>34</v>
       </c>
@@ -3230,7 +3214,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>45</v>
       </c>
@@ -3242,11 +3226,11 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="16">
         <v>50</v>
       </c>
-      <c r="B5" s="22" t="str">
+      <c r="B5" s="23" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
         <v>Corn silage</v>
       </c>
@@ -3254,7 +3238,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
         <v>58</v>
       </c>
@@ -3266,7 +3250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>59</v>
       </c>
@@ -3278,7 +3262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
         <v>60</v>
       </c>
@@ -3290,7 +3274,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
         <v>79</v>
       </c>
@@ -3302,7 +3286,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
         <v>133</v>
       </c>
@@ -3314,7 +3298,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>134</v>
       </c>
@@ -3326,7 +3310,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>148</v>
       </c>
@@ -3338,7 +3322,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>166</v>
       </c>
@@ -3350,7 +3334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>845</v>
       </c>
@@ -3360,6 +3344,18 @@
       </c>
       <c r="C14" s="17">
         <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
+        <v>77</v>
+      </c>
+      <c r="B15" s="23" t="str">
+        <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
+        <v>Fresh soybean forage</v>
+      </c>
+      <c r="C15" s="17">
+        <v>999</v>
       </c>
     </row>
   </sheetData>
@@ -3382,63 +3378,63 @@
       <selection sqref="A1:BF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="12" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="12" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="49" max="50" width="12" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="56" max="57" width="12" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -3614,7 +3610,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3788,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3962,7 +3958,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4136,7 +4132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4310,7 +4306,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4484,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4658,7 +4654,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4832,7 +4828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -5006,7 +5002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -5180,7 +5176,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -5354,7 +5350,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -5528,7 +5524,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -5702,7 +5698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -5876,7 +5872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -6050,7 +6046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -6224,7 +6220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -6398,7 +6394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -6572,7 +6568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -6746,7 +6742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -6920,7 +6916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -7094,7 +7090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -7268,7 +7264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -7442,7 +7438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -7616,7 +7612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -7790,7 +7786,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -7964,7 +7960,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -8138,7 +8134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -8312,7 +8308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -8486,7 +8482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -8660,7 +8656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -8834,7 +8830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -9008,7 +9004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -9182,7 +9178,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -9356,7 +9352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -9530,7 +9526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -9704,7 +9700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -9878,7 +9874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -10052,7 +10048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -10226,7 +10222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -10400,7 +10396,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -10574,7 +10570,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="42" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -10748,7 +10744,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -10922,7 +10918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -11096,7 +11092,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -11270,7 +11266,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -11444,7 +11440,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -11618,7 +11614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -11792,7 +11788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -11966,7 +11962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -12140,7 +12136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -12314,7 +12310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -12488,7 +12484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -12662,7 +12658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -12836,7 +12832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -13010,7 +13006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -13184,7 +13180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -13358,7 +13354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -13532,7 +13528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -13706,7 +13702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -13880,7 +13876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -14054,7 +14050,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="62" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -14228,7 +14224,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="63" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -14402,7 +14398,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="64" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -14576,7 +14572,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="65" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -14750,7 +14746,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -14924,7 +14920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -15098,7 +15094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -15272,7 +15268,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -15446,7 +15442,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -15620,7 +15616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -15794,7 +15790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -15968,7 +15964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -16142,7 +16138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -16316,7 +16312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -16490,7 +16486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -16664,7 +16660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -16838,7 +16834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -17012,7 +17008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -17186,7 +17182,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -17360,7 +17356,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -17534,7 +17530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -17708,7 +17704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -17882,7 +17878,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -18056,7 +18052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -18230,7 +18226,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -18404,7 +18400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -18578,7 +18574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -18752,7 +18748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -18926,7 +18922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -19100,7 +19096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -19274,7 +19270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -19448,7 +19444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -19622,7 +19618,7 @@
         <v>135.6</v>
       </c>
     </row>
-    <row r="94" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -19796,7 +19792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -19970,7 +19966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -20144,7 +20140,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="97" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -20318,7 +20314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -20492,7 +20488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -20666,7 +20662,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -20840,7 +20836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -21014,7 +21010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -21188,7 +21184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -21362,7 +21358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -21536,7 +21532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -21710,7 +21706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -21884,7 +21880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -22058,7 +22054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -22232,7 +22228,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -22406,7 +22402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -22580,7 +22576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -22754,7 +22750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -22928,7 +22924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -23102,7 +23098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -23276,7 +23272,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -23450,7 +23446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -23624,7 +23620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -23798,7 +23794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -23972,7 +23968,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -24146,7 +24142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -24320,7 +24316,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="121" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -24494,7 +24490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -24668,7 +24664,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -24842,7 +24838,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="124" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -25016,7 +25012,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="125" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -25190,7 +25186,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -25364,7 +25360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -25538,7 +25534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -25712,7 +25708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -25886,7 +25882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -26060,7 +26056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -26234,7 +26230,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -26408,7 +26404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -26582,7 +26578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -26756,7 +26752,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="135" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -26930,7 +26926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -27104,7 +27100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -27278,7 +27274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -27452,7 +27448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -27626,7 +27622,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="140" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -27800,7 +27796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -27974,7 +27970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -28148,7 +28144,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="143" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -28322,7 +28318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -28496,7 +28492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -28670,7 +28666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -28844,7 +28840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -29018,7 +29014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -29192,7 +29188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -29366,7 +29362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -29540,7 +29536,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="151" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -29714,7 +29710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -29888,7 +29884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -30062,7 +30058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -30236,7 +30232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -30410,7 +30406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -30584,7 +30580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -30758,7 +30754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -30932,7 +30928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -31106,7 +31102,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="160" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -31280,7 +31276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -31454,7 +31450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -31628,7 +31624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -31802,7 +31798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -31976,7 +31972,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="165" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -32150,7 +32146,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="166" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -32324,7 +32320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -32498,7 +32494,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="168" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -32672,7 +32668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -32846,7 +32842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -33020,7 +33016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -33194,7 +33190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>800</v>
       </c>
@@ -33370,7 +33366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>801</v>
       </c>
@@ -33546,7 +33542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>802</v>
       </c>
@@ -33722,7 +33718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>803</v>
       </c>
@@ -33898,7 +33894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>804</v>
       </c>
@@ -34074,7 +34070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>805</v>
       </c>
@@ -34248,7 +34244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>806</v>
       </c>
@@ -34422,7 +34418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>807</v>
       </c>
@@ -34596,7 +34592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>808</v>
       </c>
@@ -34770,7 +34766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>809</v>
       </c>
@@ -34946,7 +34942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>810</v>
       </c>
@@ -35122,7 +35118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>811</v>
       </c>
@@ -35298,7 +35294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>812</v>
       </c>
@@ -35474,7 +35470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>813</v>
       </c>
@@ -35650,7 +35646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>814</v>
       </c>
@@ -35826,7 +35822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>815</v>
       </c>
@@ -36002,7 +35998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>816</v>
       </c>
@@ -36178,7 +36174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>817</v>
       </c>
@@ -36354,7 +36350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>818</v>
       </c>
@@ -36530,7 +36526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>819</v>
       </c>
@@ -36704,7 +36700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>820</v>
       </c>
@@ -36878,7 +36874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>821</v>
       </c>
@@ -37054,7 +37050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>822</v>
       </c>
@@ -37230,7 +37226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>823</v>
       </c>
@@ -37406,7 +37402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>824</v>
       </c>
@@ -37582,7 +37578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>825</v>
       </c>
@@ -37756,7 +37752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>826</v>
       </c>
@@ -37930,7 +37926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>827</v>
       </c>
@@ -38106,7 +38102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>828</v>
       </c>
@@ -38282,7 +38278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>829</v>
       </c>
@@ -38458,7 +38454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>830</v>
       </c>
@@ -38634,7 +38630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>831</v>
       </c>
@@ -38810,7 +38806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>832</v>
       </c>
@@ -38986,7 +38982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>833</v>
       </c>
@@ -39162,7 +39158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>834</v>
       </c>
@@ -39338,7 +39334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>835</v>
       </c>
@@ -39512,7 +39508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>836</v>
       </c>
@@ -39688,7 +39684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>837</v>
       </c>
@@ -39864,7 +39860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>838</v>
       </c>
@@ -40040,7 +40036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>839</v>
       </c>
@@ -40216,7 +40212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>840</v>
       </c>
@@ -40392,7 +40388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>841</v>
       </c>
@@ -40568,7 +40564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>842</v>
       </c>
@@ -40744,7 +40740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>843</v>
       </c>
@@ -40920,7 +40916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>844</v>
       </c>
@@ -41096,7 +41092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>845</v>
       </c>
@@ -41270,7 +41266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>846</v>
       </c>
@@ -41446,7 +41442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>847</v>
       </c>
@@ -41624,10 +41620,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:BF219">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="1" stopIfTrue="1">
       <formula>ROW(A2)=$E$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="2" stopIfTrue="1">
       <formula>COLUMN(A2)=$F$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41647,297 +41643,297 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
         <v>55</v>
       </c>
@@ -42168,13 +42164,13 @@
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9544B578-CE8A-4753-8E47-B2C52E32EEC4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="000447b7-86fa-4362-939e-855579e16124"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="000447b7-86fa-4362-939e-855579e16124"/>
     <ds:schemaRef ds:uri="871f9270-bc3b-4105-9923-e7982e1cb312"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="348">
   <si>
     <t>IFN</t>
   </si>
@@ -1111,9 +1111,6 @@
     <t>LCA_GHG</t>
   </si>
   <si>
-    <t>Epislon</t>
-  </si>
-  <si>
     <t>Methane</t>
   </si>
   <si>
@@ -1135,25 +1132,10 @@
     <t>MaxProfit</t>
   </si>
   <si>
-    <t>MinCost</t>
-  </si>
-  <si>
-    <t>MaxProfitSWG</t>
-  </si>
-  <si>
     <t>LCA weight</t>
   </si>
   <si>
     <t>LCA cost</t>
-  </si>
-  <si>
-    <t>BF-Min</t>
-  </si>
-  <si>
-    <t>BF-Max</t>
-  </si>
-  <si>
-    <t>BF-MaxP per SWG</t>
   </si>
   <si>
     <t>BF</t>
@@ -1166,6 +1148,15 @@
   </si>
   <si>
     <t>Cost [US$/kg AF]</t>
+  </si>
+  <si>
+    <t>Multiobjective</t>
+  </si>
+  <si>
+    <t>MO-GSS</t>
+  </si>
+  <si>
+    <t>BF-LCA</t>
   </si>
 </sst>
 </file>
@@ -1327,6 +1318,22 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="76">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1624,22 +1631,6 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
@@ -1835,9 +1826,9 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:S4" totalsRowShown="0" headerRowDxfId="68" tableBorderDxfId="67">
-  <autoFilter ref="A1:S4"/>
-  <tableColumns count="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:T3" totalsRowShown="0" headerRowDxfId="68" tableBorderDxfId="67">
+  <autoFilter ref="A1:T3"/>
+  <tableColumns count="20">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="18" name="Feed Scenario" dataDxfId="66"/>
     <tableColumn id="2" name="Breed"/>
@@ -1856,6 +1847,7 @@
     <tableColumn id="15" name="UB"/>
     <tableColumn id="16" name="Tol"/>
     <tableColumn id="17" name="LCA ID"/>
+    <tableColumn id="20" name="Multiobjective"/>
     <tableColumn id="19" name="Obj"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1863,12 +1855,11 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:G3" totalsRowShown="0">
-  <autoFilter ref="A1:G3"/>
-  <tableColumns count="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F3" totalsRowShown="0">
+  <autoFilter ref="A1:F3"/>
+  <tableColumns count="6">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="LCA cost"/>
-    <tableColumn id="3" name="Epislon"/>
     <tableColumn id="4" name="LCA weight"/>
     <tableColumn id="6" name="LCA_GHG_weight"/>
     <tableColumn id="7" name="Methane"/>
@@ -1896,70 +1887,70 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:BF219" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:BF219" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
   <autoFilter ref="A1:BF219"/>
   <sortState ref="A2:BF219">
     <sortCondition ref="A4:A5"/>
   </sortState>
   <tableColumns count="58">
-    <tableColumn id="1" name="ID" dataDxfId="57"/>
-    <tableColumn id="2" name="Feed" dataDxfId="56"/>
-    <tableColumn id="4" name="IFN" dataDxfId="55"/>
-    <tableColumn id="5" name="Cost, $/Tonne AF" dataDxfId="54"/>
-    <tableColumn id="7" name="Forage, %DM" dataDxfId="53"/>
-    <tableColumn id="8" name="DM, %AF" dataDxfId="52"/>
-    <tableColumn id="16" name="CP, %DM" dataDxfId="51"/>
-    <tableColumn id="31" name="SP, %CP" dataDxfId="50"/>
-    <tableColumn id="29" name="ADICP, %CP" dataDxfId="49"/>
-    <tableColumn id="24" name="Sugars, %DM" dataDxfId="48"/>
-    <tableColumn id="25" name="OA, %DM" dataDxfId="47"/>
-    <tableColumn id="23" name="Fat, %DM" dataDxfId="46"/>
-    <tableColumn id="9" name="Ash, %DM" dataDxfId="45"/>
-    <tableColumn id="10" name="Starch, %DM" dataDxfId="44"/>
-    <tableColumn id="12" name="NDF, %DM" dataDxfId="43"/>
-    <tableColumn id="13" name="Lignin, %DM" dataDxfId="42"/>
-    <tableColumn id="14" name="TDN, %DM" dataDxfId="41"/>
-    <tableColumn id="15" name="ME, Mcal/kg" dataDxfId="40"/>
-    <tableColumn id="18" name="NEma, Mcal/kg" dataDxfId="39"/>
-    <tableColumn id="19" name="NEga, Mcal/kg" dataDxfId="38"/>
-    <tableColumn id="21" name="RUP, %CP" dataDxfId="37"/>
-    <tableColumn id="22" name="kd PB, %/h" dataDxfId="36"/>
-    <tableColumn id="26" name="kd CB1, %/h" dataDxfId="35"/>
-    <tableColumn id="27" name="kd CB2, %/h" dataDxfId="34"/>
-    <tableColumn id="17" name="kd CB3, %/h" dataDxfId="33"/>
-    <tableColumn id="28" name="PBID, %" dataDxfId="32"/>
-    <tableColumn id="6" name="CB1ID, %" dataDxfId="31"/>
-    <tableColumn id="3" name="CB2ID, %" dataDxfId="30"/>
-    <tableColumn id="20" name="pef, %NDF" dataDxfId="29"/>
-    <tableColumn id="11" name="ARG, %DM" dataDxfId="28"/>
-    <tableColumn id="32" name="HIS, %DM" dataDxfId="27"/>
-    <tableColumn id="33" name="ILE, %DM" dataDxfId="26"/>
-    <tableColumn id="34" name="LEU, %DM" dataDxfId="25"/>
-    <tableColumn id="35" name="LYS, %DM" dataDxfId="24"/>
-    <tableColumn id="36" name="MET, %DM" dataDxfId="23"/>
-    <tableColumn id="37" name="CYS, %DM" dataDxfId="22"/>
-    <tableColumn id="38" name="PHE, %DM" dataDxfId="21"/>
-    <tableColumn id="39" name="TYR, %DM" dataDxfId="20"/>
-    <tableColumn id="40" name="THR, %DM" dataDxfId="19"/>
-    <tableColumn id="41" name="TRP, %DM" dataDxfId="18"/>
-    <tableColumn id="42" name="VAL, %DM" dataDxfId="17"/>
-    <tableColumn id="43" name="Ca, % DM" dataDxfId="16"/>
-    <tableColumn id="44" name="P, % DM" dataDxfId="15"/>
-    <tableColumn id="45" name="Mg, % DM" dataDxfId="14"/>
-    <tableColumn id="46" name="Cl, % DM" dataDxfId="13"/>
-    <tableColumn id="47" name="K, % DM" dataDxfId="12"/>
-    <tableColumn id="48" name="Na, % DM" dataDxfId="11"/>
-    <tableColumn id="49" name="S, % DM" dataDxfId="10"/>
-    <tableColumn id="50" name="Co, mg/kg" dataDxfId="9"/>
-    <tableColumn id="51" name="Cu, mg/kg" dataDxfId="8"/>
-    <tableColumn id="52" name="I, mg/kg" dataDxfId="7"/>
-    <tableColumn id="53" name="Fe, mg/kg" dataDxfId="6"/>
-    <tableColumn id="54" name="Mn, mg/kg" dataDxfId="5"/>
-    <tableColumn id="55" name="Se, mg/kg" dataDxfId="4"/>
-    <tableColumn id="56" name="Zn, mg/kg" dataDxfId="3"/>
-    <tableColumn id="57" name="Vit A, IU/g" dataDxfId="2"/>
-    <tableColumn id="58" name="Vit D, IU/g" dataDxfId="1"/>
-    <tableColumn id="30" name="Vit E, IU/kg" dataDxfId="0"/>
+    <tableColumn id="1" name="ID" dataDxfId="59"/>
+    <tableColumn id="2" name="Feed" dataDxfId="58"/>
+    <tableColumn id="4" name="IFN" dataDxfId="57"/>
+    <tableColumn id="5" name="Cost, $/Tonne AF" dataDxfId="56"/>
+    <tableColumn id="7" name="Forage, %DM" dataDxfId="55"/>
+    <tableColumn id="8" name="DM, %AF" dataDxfId="54"/>
+    <tableColumn id="16" name="CP, %DM" dataDxfId="53"/>
+    <tableColumn id="31" name="SP, %CP" dataDxfId="52"/>
+    <tableColumn id="29" name="ADICP, %CP" dataDxfId="51"/>
+    <tableColumn id="24" name="Sugars, %DM" dataDxfId="50"/>
+    <tableColumn id="25" name="OA, %DM" dataDxfId="49"/>
+    <tableColumn id="23" name="Fat, %DM" dataDxfId="48"/>
+    <tableColumn id="9" name="Ash, %DM" dataDxfId="47"/>
+    <tableColumn id="10" name="Starch, %DM" dataDxfId="46"/>
+    <tableColumn id="12" name="NDF, %DM" dataDxfId="45"/>
+    <tableColumn id="13" name="Lignin, %DM" dataDxfId="44"/>
+    <tableColumn id="14" name="TDN, %DM" dataDxfId="43"/>
+    <tableColumn id="15" name="ME, Mcal/kg" dataDxfId="42"/>
+    <tableColumn id="18" name="NEma, Mcal/kg" dataDxfId="41"/>
+    <tableColumn id="19" name="NEga, Mcal/kg" dataDxfId="40"/>
+    <tableColumn id="21" name="RUP, %CP" dataDxfId="39"/>
+    <tableColumn id="22" name="kd PB, %/h" dataDxfId="38"/>
+    <tableColumn id="26" name="kd CB1, %/h" dataDxfId="37"/>
+    <tableColumn id="27" name="kd CB2, %/h" dataDxfId="36"/>
+    <tableColumn id="17" name="kd CB3, %/h" dataDxfId="35"/>
+    <tableColumn id="28" name="PBID, %" dataDxfId="34"/>
+    <tableColumn id="6" name="CB1ID, %" dataDxfId="33"/>
+    <tableColumn id="3" name="CB2ID, %" dataDxfId="32"/>
+    <tableColumn id="20" name="pef, %NDF" dataDxfId="31"/>
+    <tableColumn id="11" name="ARG, %DM" dataDxfId="30"/>
+    <tableColumn id="32" name="HIS, %DM" dataDxfId="29"/>
+    <tableColumn id="33" name="ILE, %DM" dataDxfId="28"/>
+    <tableColumn id="34" name="LEU, %DM" dataDxfId="27"/>
+    <tableColumn id="35" name="LYS, %DM" dataDxfId="26"/>
+    <tableColumn id="36" name="MET, %DM" dataDxfId="25"/>
+    <tableColumn id="37" name="CYS, %DM" dataDxfId="24"/>
+    <tableColumn id="38" name="PHE, %DM" dataDxfId="23"/>
+    <tableColumn id="39" name="TYR, %DM" dataDxfId="22"/>
+    <tableColumn id="40" name="THR, %DM" dataDxfId="21"/>
+    <tableColumn id="41" name="TRP, %DM" dataDxfId="20"/>
+    <tableColumn id="42" name="VAL, %DM" dataDxfId="19"/>
+    <tableColumn id="43" name="Ca, % DM" dataDxfId="18"/>
+    <tableColumn id="44" name="P, % DM" dataDxfId="17"/>
+    <tableColumn id="45" name="Mg, % DM" dataDxfId="16"/>
+    <tableColumn id="46" name="Cl, % DM" dataDxfId="15"/>
+    <tableColumn id="47" name="K, % DM" dataDxfId="14"/>
+    <tableColumn id="48" name="Na, % DM" dataDxfId="13"/>
+    <tableColumn id="49" name="S, % DM" dataDxfId="12"/>
+    <tableColumn id="50" name="Co, mg/kg" dataDxfId="11"/>
+    <tableColumn id="51" name="Cu, mg/kg" dataDxfId="10"/>
+    <tableColumn id="52" name="I, mg/kg" dataDxfId="9"/>
+    <tableColumn id="53" name="Fe, mg/kg" dataDxfId="8"/>
+    <tableColumn id="54" name="Mn, mg/kg" dataDxfId="7"/>
+    <tableColumn id="55" name="Se, mg/kg" dataDxfId="6"/>
+    <tableColumn id="56" name="Zn, mg/kg" dataDxfId="5"/>
+    <tableColumn id="57" name="Vit A, IU/g" dataDxfId="4"/>
+    <tableColumn id="58" name="Vit D, IU/g" dataDxfId="3"/>
+    <tableColumn id="30" name="Vit E, IU/kg" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2237,36 +2228,36 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B1" t="s">
         <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="D1" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="E1" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -2287,7 +2278,7 @@
         <v>Citrus pulp, dry</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -2308,7 +2299,7 @@
         <v>Corn grain</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -2329,7 +2320,7 @@
         <v>Corn silage</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -2350,7 +2341,7 @@
         <v>Cottonseed meal</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>1</v>
       </c>
@@ -2371,7 +2362,7 @@
         <v>Cottonseed whole</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>1</v>
       </c>
@@ -2392,7 +2383,7 @@
         <v>Distillers grain plus soluble, dry</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>1</v>
       </c>
@@ -2413,7 +2404,7 @@
         <v>Grain sorghum grain</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>1</v>
       </c>
@@ -2434,7 +2425,7 @@
         <v>Soybean hulls</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>1</v>
       </c>
@@ -2455,7 +2446,7 @@
         <v>Soybean meal high CP</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>1</v>
       </c>
@@ -2476,7 +2467,7 @@
         <v>Sugarcane silage</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>1</v>
       </c>
@@ -2497,7 +2488,7 @@
         <v>Wheat middlings</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>1</v>
       </c>
@@ -2518,7 +2509,7 @@
         <v>Urea</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>2</v>
       </c>
@@ -2539,7 +2530,7 @@
         <v>Alfalfa cubes</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>2</v>
       </c>
@@ -2560,7 +2551,7 @@
         <v>Citrus pulp, dry</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="17">
         <v>2</v>
       </c>
@@ -2581,7 +2572,7 @@
         <v>Corn grain</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="17">
         <v>2</v>
       </c>
@@ -2602,7 +2593,7 @@
         <v>Corn silage</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="17">
         <v>2</v>
       </c>
@@ -2623,7 +2614,7 @@
         <v>Cottonseed whole</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="17">
         <v>2</v>
       </c>
@@ -2644,7 +2635,7 @@
         <v>Distillers grain plus soluble, dry</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="17">
         <v>2</v>
       </c>
@@ -2665,7 +2656,7 @@
         <v>Grain sorghum grain</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="17">
         <v>2</v>
       </c>
@@ -2686,7 +2677,7 @@
         <v>Soybean hulls</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="17">
         <v>2</v>
       </c>
@@ -2707,7 +2698,7 @@
         <v>Soybean meal high CP</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
         <v>2</v>
       </c>
@@ -2728,7 +2719,7 @@
         <v>Sugarcane silage</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="17">
         <v>2</v>
       </c>
@@ -2749,7 +2740,7 @@
         <v>Urea</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="16">
         <v>2</v>
       </c>
@@ -2770,7 +2761,7 @@
         <v>Cottonseed meal</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
         <v>2</v>
       </c>
@@ -2805,35 +2796,35 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:S4"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5546875" customWidth="1"/>
-    <col min="3" max="3" width="8.44140625" customWidth="1"/>
-    <col min="4" max="4" width="7.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" customWidth="1"/>
-    <col min="6" max="6" width="5.33203125" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.33203125" customWidth="1"/>
-    <col min="9" max="9" width="5.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.5703125" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" customWidth="1"/>
+    <col min="5" max="5" width="6.42578125" customWidth="1"/>
+    <col min="6" max="6" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.28515625" customWidth="1"/>
+    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C1" s="19" t="s">
         <v>313</v>
@@ -2881,15 +2872,18 @@
         <v>328</v>
       </c>
       <c r="R1" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="S1" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="T1" s="22" t="s">
         <v>337</v>
       </c>
-      <c r="S1" s="22" t="s">
-        <v>338</v>
-      </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2925,16 +2919,16 @@
         <v>0.87</v>
       </c>
       <c r="M2" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="N2" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="O2">
         <v>1.3</v>
       </c>
       <c r="P2">
-        <v>2</v>
+        <v>1.9550000000000001</v>
       </c>
       <c r="Q2">
         <v>0.01</v>
@@ -2942,16 +2936,19 @@
       <c r="R2">
         <v>1</v>
       </c>
-      <c r="S2" t="s">
-        <v>339</v>
+      <c r="S2" t="b">
+        <v>1</v>
+      </c>
+      <c r="T2" t="s">
+        <v>338</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
         <v>316</v>
@@ -2984,10 +2981,10 @@
         <v>0.87</v>
       </c>
       <c r="M3" t="s">
+        <v>341</v>
+      </c>
+      <c r="N3" t="s">
         <v>347</v>
-      </c>
-      <c r="N3" t="s">
-        <v>345</v>
       </c>
       <c r="O3">
         <v>1.3</v>
@@ -2999,69 +2996,13 @@
         <v>0.01</v>
       </c>
       <c r="R3">
-        <v>1</v>
-      </c>
-      <c r="S3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>316</v>
-      </c>
-      <c r="D4">
-        <v>300</v>
-      </c>
-      <c r="E4">
-        <v>5</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>6.2</v>
-      </c>
-      <c r="K4">
-        <v>1.44</v>
-      </c>
-      <c r="L4">
-        <v>0.87</v>
-      </c>
-      <c r="M4" t="s">
-        <v>347</v>
-      </c>
-      <c r="N4" t="s">
-        <v>346</v>
-      </c>
-      <c r="O4">
-        <v>1.3</v>
-      </c>
-      <c r="P4">
         <v>2</v>
       </c>
-      <c r="Q4">
-        <v>0.01</v>
-      </c>
-      <c r="R4">
-        <v>2</v>
-      </c>
-      <c r="S4" t="s">
-        <v>341</v>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -3077,81 +3018,71 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="I17" sqref="F17:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="C1" t="s">
+        <v>339</v>
+      </c>
+      <c r="D1" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1" t="s">
         <v>332</v>
       </c>
-      <c r="D1" t="s">
-        <v>342</v>
-      </c>
-      <c r="E1" t="s">
-        <v>330</v>
-      </c>
       <c r="F1" t="s">
-        <v>333</v>
-      </c>
-      <c r="G1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>5.0000000000000004E-6</v>
       </c>
-      <c r="C2" t="b">
+      <c r="D2">
         <v>1</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
-        <v>334</v>
+      <c r="F2" t="s">
+        <v>333</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>5</v>
       </c>
-      <c r="C3" t="b">
+      <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="b">
         <v>1</v>
       </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>334</v>
+      <c r="F3" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -3171,15 +3102,16 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -3190,7 +3122,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -3202,7 +3134,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>34</v>
       </c>
@@ -3214,7 +3146,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>45</v>
       </c>
@@ -3226,7 +3158,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>50</v>
       </c>
@@ -3238,7 +3170,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>58</v>
       </c>
@@ -3250,103 +3182,103 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
-        <v>59</v>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>845</v>
       </c>
       <c r="B7" s="17" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
-        <v>Cottonseed whole</v>
+        <v>Urea</v>
       </c>
       <c r="C7" s="17">
-        <v>11</v>
+        <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B8" s="17" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
-        <v>Distillers grain plus soluble, dry</v>
+        <v>Cottonseed whole</v>
       </c>
       <c r="C8" s="17">
-        <v>44</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B9" s="17" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
-        <v>Grain sorghum grain</v>
+        <v>Distillers grain plus soluble, dry</v>
       </c>
       <c r="C9" s="17">
-        <v>54</v>
+        <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="B10" s="17" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
-        <v>Soybean hulls</v>
+        <v>Grain sorghum grain</v>
       </c>
       <c r="C10" s="17">
-        <v>66</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B11" s="17" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
-        <v>Soybean meal high CP</v>
+        <v>Soybean hulls</v>
       </c>
       <c r="C11" s="17">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="17">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B12" s="17" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
-        <v>Sugarcane silage</v>
+        <v>Soybean meal high CP</v>
       </c>
       <c r="C12" s="17">
-        <v>22</v>
+        <v>78</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="17">
-        <v>166</v>
+        <v>148</v>
       </c>
       <c r="B13" s="17" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
-        <v>Wheat middlings</v>
+        <v>Sugarcane silage</v>
       </c>
       <c r="C13" s="17">
-        <v>10</v>
+        <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="16">
-        <v>845</v>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="17">
+        <v>166</v>
       </c>
       <c r="B14" s="17" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
-        <v>Urea</v>
+        <v>Wheat middlings</v>
       </c>
       <c r="C14" s="17">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="17">
         <v>77</v>
       </c>
@@ -3378,63 +3310,63 @@
       <selection sqref="A1:BF1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="12" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="12" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.88671875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="49" max="50" width="12" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="56" max="57" width="12" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -3610,7 +3542,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3784,7 +3716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3958,7 +3890,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4132,7 +4064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4306,7 +4238,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4480,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4654,7 +4586,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4828,7 +4760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -5002,7 +4934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -5176,7 +5108,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -5350,7 +5282,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -5524,7 +5456,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -5698,7 +5630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -5872,7 +5804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -6046,7 +5978,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -6220,7 +6152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -6394,7 +6326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -6568,7 +6500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -6742,7 +6674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -6916,7 +6848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -7090,7 +7022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -7264,7 +7196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -7438,7 +7370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -7612,7 +7544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -7786,7 +7718,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -7960,7 +7892,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -8134,7 +8066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -8308,7 +8240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -8482,7 +8414,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -8656,7 +8588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -8830,7 +8762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -9004,7 +8936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -9178,7 +9110,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -9352,7 +9284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -9526,7 +9458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -9700,7 +9632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -9874,7 +9806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -10048,7 +9980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -10222,7 +10154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -10396,7 +10328,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -10570,7 +10502,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="42" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -10744,7 +10676,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -10918,7 +10850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -11092,7 +11024,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -11266,7 +11198,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -11440,7 +11372,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -11614,7 +11546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -11788,7 +11720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -11962,7 +11894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -12136,7 +12068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -12310,7 +12242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -12484,7 +12416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -12658,7 +12590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -12832,7 +12764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -13006,7 +12938,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -13180,7 +13112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -13354,7 +13286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -13528,7 +13460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -13702,7 +13634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -13876,7 +13808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -14050,7 +13982,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="62" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -14224,7 +14156,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="63" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -14398,7 +14330,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="64" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -14572,7 +14504,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="65" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -14746,7 +14678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -14920,7 +14852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -15094,7 +15026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -15268,7 +15200,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -15442,7 +15374,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -15616,7 +15548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -15790,7 +15722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -15964,7 +15896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -16138,7 +16070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -16312,7 +16244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -16486,7 +16418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -16660,7 +16592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -16834,7 +16766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -17008,7 +16940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -17182,7 +17114,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -17356,7 +17288,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -17530,7 +17462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -17704,7 +17636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -17878,7 +17810,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -18052,7 +17984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -18226,7 +18158,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -18400,7 +18332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -18574,7 +18506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -18748,7 +18680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -18922,7 +18854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -19096,7 +19028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -19270,7 +19202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -19444,7 +19376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -19618,7 +19550,7 @@
         <v>135.6</v>
       </c>
     </row>
-    <row r="94" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -19792,7 +19724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -19966,7 +19898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -20140,7 +20072,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="97" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -20314,7 +20246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -20488,7 +20420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -20662,7 +20594,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -20836,7 +20768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -21010,7 +20942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -21184,7 +21116,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -21358,7 +21290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -21532,7 +21464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -21706,7 +21638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -21880,7 +21812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -22054,7 +21986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -22228,7 +22160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -22402,7 +22334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -22576,7 +22508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -22750,7 +22682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -22924,7 +22856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -23098,7 +23030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -23272,7 +23204,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -23446,7 +23378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -23620,7 +23552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -23794,7 +23726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -23968,7 +23900,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -24142,7 +24074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -24316,7 +24248,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="121" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -24490,7 +24422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -24664,7 +24596,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -24838,7 +24770,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="124" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -25012,7 +24944,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="125" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -25186,7 +25118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -25360,7 +25292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -25534,7 +25466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -25708,7 +25640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -25882,7 +25814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -26056,7 +25988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -26230,7 +26162,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -26404,7 +26336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -26578,7 +26510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -26752,7 +26684,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="135" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -26926,7 +26858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -27100,7 +27032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -27274,7 +27206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -27448,7 +27380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -27622,7 +27554,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="140" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -27796,7 +27728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -27970,7 +27902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -28144,7 +28076,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="143" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -28318,7 +28250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -28492,7 +28424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -28666,7 +28598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -28840,7 +28772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -29014,7 +28946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -29188,7 +29120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -29362,7 +29294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -29536,7 +29468,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="151" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -29710,7 +29642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -29884,7 +29816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -30058,7 +29990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -30232,7 +30164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -30406,7 +30338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -30580,7 +30512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -30754,7 +30686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -30928,7 +30860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -31102,7 +31034,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="160" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -31276,7 +31208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -31450,7 +31382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -31624,7 +31556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -31798,7 +31730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -31972,7 +31904,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="165" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -32146,7 +32078,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="166" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -32320,7 +32252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -32494,7 +32426,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="168" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -32668,7 +32600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -32842,7 +32774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -33016,7 +32948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -33190,7 +33122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A172" s="3">
         <v>800</v>
       </c>
@@ -33366,7 +33298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A173" s="3">
         <v>801</v>
       </c>
@@ -33542,7 +33474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A174" s="3">
         <v>802</v>
       </c>
@@ -33718,7 +33650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A175" s="3">
         <v>803</v>
       </c>
@@ -33894,7 +33826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A176" s="3">
         <v>804</v>
       </c>
@@ -34070,7 +34002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A177" s="3">
         <v>805</v>
       </c>
@@ -34244,7 +34176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A178" s="3">
         <v>806</v>
       </c>
@@ -34418,7 +34350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A179" s="3">
         <v>807</v>
       </c>
@@ -34592,7 +34524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A180" s="3">
         <v>808</v>
       </c>
@@ -34766,7 +34698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A181" s="3">
         <v>809</v>
       </c>
@@ -34942,7 +34874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A182" s="3">
         <v>810</v>
       </c>
@@ -35118,7 +35050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A183" s="3">
         <v>811</v>
       </c>
@@ -35294,7 +35226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A184" s="3">
         <v>812</v>
       </c>
@@ -35470,7 +35402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A185" s="3">
         <v>813</v>
       </c>
@@ -35646,7 +35578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A186" s="3">
         <v>814</v>
       </c>
@@ -35822,7 +35754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A187" s="3">
         <v>815</v>
       </c>
@@ -35998,7 +35930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A188" s="3">
         <v>816</v>
       </c>
@@ -36174,7 +36106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A189" s="3">
         <v>817</v>
       </c>
@@ -36350,7 +36282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A190" s="3">
         <v>818</v>
       </c>
@@ -36526,7 +36458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A191" s="3">
         <v>819</v>
       </c>
@@ -36700,7 +36632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A192" s="3">
         <v>820</v>
       </c>
@@ -36874,7 +36806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A193" s="3">
         <v>821</v>
       </c>
@@ -37050,7 +36982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A194" s="3">
         <v>822</v>
       </c>
@@ -37226,7 +37158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A195" s="3">
         <v>823</v>
       </c>
@@ -37402,7 +37334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A196" s="3">
         <v>824</v>
       </c>
@@ -37578,7 +37510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A197" s="3">
         <v>825</v>
       </c>
@@ -37752,7 +37684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A198" s="3">
         <v>826</v>
       </c>
@@ -37926,7 +37858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A199" s="3">
         <v>827</v>
       </c>
@@ -38102,7 +38034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A200" s="3">
         <v>828</v>
       </c>
@@ -38278,7 +38210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A201" s="3">
         <v>829</v>
       </c>
@@ -38454,7 +38386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A202" s="3">
         <v>830</v>
       </c>
@@ -38630,7 +38562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A203" s="3">
         <v>831</v>
       </c>
@@ -38806,7 +38738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A204" s="3">
         <v>832</v>
       </c>
@@ -38982,7 +38914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A205" s="3">
         <v>833</v>
       </c>
@@ -39158,7 +39090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A206" s="3">
         <v>834</v>
       </c>
@@ -39334,7 +39266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A207" s="3">
         <v>835</v>
       </c>
@@ -39508,7 +39440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A208" s="3">
         <v>836</v>
       </c>
@@ -39684,7 +39616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A209" s="3">
         <v>837</v>
       </c>
@@ -39860,7 +39792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A210" s="3">
         <v>838</v>
       </c>
@@ -40036,7 +39968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A211" s="3">
         <v>839</v>
       </c>
@@ -40212,7 +40144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A212" s="3">
         <v>840</v>
       </c>
@@ -40388,7 +40320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A213" s="3">
         <v>841</v>
       </c>
@@ -40564,7 +40496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A214" s="3">
         <v>842</v>
       </c>
@@ -40740,7 +40672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A215" s="3">
         <v>843</v>
       </c>
@@ -40916,7 +40848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A216" s="3">
         <v>844</v>
       </c>
@@ -41092,7 +41024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A217" s="3">
         <v>845</v>
       </c>
@@ -41266,7 +41198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A218" s="3">
         <v>846</v>
       </c>
@@ -41442,7 +41374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:58" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:58" x14ac:dyDescent="0.25">
       <c r="A219" s="3">
         <v>847</v>
       </c>
@@ -41620,10 +41552,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:BF219">
-    <cfRule type="expression" dxfId="61" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>ROW(A2)=$E$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>COLUMN(A2)=$F$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41643,297 +41575,297 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="13" t="s">
         <v>55</v>
       </c>
@@ -41944,12 +41876,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -41958,9 +41884,15 @@
 </FormTemplates>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003C4402FDC8975A4FB65AB474AF423692" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="43da31f6e8d8dfaec40561525ce78865">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="871f9270-bc3b-4105-9923-e7982e1cb312" xmlns:ns4="000447b7-86fa-4362-939e-855579e16124" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b58fc7e6f492e58d10793199fba37542" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003C4402FDC8975A4FB65AB474AF423692" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="293b87d96ae3165967deaddc9dd3a283">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="871f9270-bc3b-4105-9923-e7982e1cb312" xmlns:ns4="000447b7-86fa-4362-939e-855579e16124" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="23a07973a4b986d214a26a52ed717842" ns3:_="" ns4:_="">
     <xsd:import namespace="871f9270-bc3b-4105-9923-e7982e1cb312"/>
     <xsd:import namespace="000447b7-86fa-4362-939e-855579e16124"/>
     <xsd:element name="properties">
@@ -41979,6 +41911,8 @@
                 <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -42024,6 +41958,18 @@
     <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="18" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="19" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -42162,15 +42108,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C60666F-AED0-4727-A902-9CA0ACF4D344}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9544B578-CE8A-4753-8E47-B2C52E32EEC4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="000447b7-86fa-4362-939e-855579e16124"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="871f9270-bc3b-4105-9923-e7982e1cb312"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -42178,16 +42132,8 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C60666F-AED0-4727-A902-9CA0ACF4D344}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CE8DA1A1-DD54-4881-BC06-911C3C5870BC}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C172DDCE-6A5B-4F5B-846C-532884D79266}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feeds" sheetId="2" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="349">
   <si>
     <t>IFN</t>
   </si>
@@ -1153,6 +1153,9 @@
     <t>Multiobjective</t>
   </si>
   <si>
+    <t>GSS</t>
+  </si>
+  <si>
     <t>MO-GSS</t>
   </si>
   <si>
@@ -1318,22 +1321,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="76">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1631,6 +1618,22 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
@@ -1872,8 +1875,8 @@
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela26" displayName="Tabela26" ref="A1:C15" totalsRowShown="0" dataDxfId="65">
   <autoFilter ref="A1:C15"/>
-  <sortState ref="A2:E30">
-    <sortCondition ref="A1:A30"/>
+  <sortState ref="A2:C15">
+    <sortCondition ref="A1:A15"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" name="ID" dataDxfId="64"/>
@@ -1887,70 +1890,70 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:BF219" totalsRowShown="0" headerRowDxfId="61" dataDxfId="60">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:BF219" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A1:BF219"/>
   <sortState ref="A2:BF219">
     <sortCondition ref="A4:A5"/>
   </sortState>
   <tableColumns count="58">
-    <tableColumn id="1" name="ID" dataDxfId="59"/>
-    <tableColumn id="2" name="Feed" dataDxfId="58"/>
-    <tableColumn id="4" name="IFN" dataDxfId="57"/>
-    <tableColumn id="5" name="Cost, $/Tonne AF" dataDxfId="56"/>
-    <tableColumn id="7" name="Forage, %DM" dataDxfId="55"/>
-    <tableColumn id="8" name="DM, %AF" dataDxfId="54"/>
-    <tableColumn id="16" name="CP, %DM" dataDxfId="53"/>
-    <tableColumn id="31" name="SP, %CP" dataDxfId="52"/>
-    <tableColumn id="29" name="ADICP, %CP" dataDxfId="51"/>
-    <tableColumn id="24" name="Sugars, %DM" dataDxfId="50"/>
-    <tableColumn id="25" name="OA, %DM" dataDxfId="49"/>
-    <tableColumn id="23" name="Fat, %DM" dataDxfId="48"/>
-    <tableColumn id="9" name="Ash, %DM" dataDxfId="47"/>
-    <tableColumn id="10" name="Starch, %DM" dataDxfId="46"/>
-    <tableColumn id="12" name="NDF, %DM" dataDxfId="45"/>
-    <tableColumn id="13" name="Lignin, %DM" dataDxfId="44"/>
-    <tableColumn id="14" name="TDN, %DM" dataDxfId="43"/>
-    <tableColumn id="15" name="ME, Mcal/kg" dataDxfId="42"/>
-    <tableColumn id="18" name="NEma, Mcal/kg" dataDxfId="41"/>
-    <tableColumn id="19" name="NEga, Mcal/kg" dataDxfId="40"/>
-    <tableColumn id="21" name="RUP, %CP" dataDxfId="39"/>
-    <tableColumn id="22" name="kd PB, %/h" dataDxfId="38"/>
-    <tableColumn id="26" name="kd CB1, %/h" dataDxfId="37"/>
-    <tableColumn id="27" name="kd CB2, %/h" dataDxfId="36"/>
-    <tableColumn id="17" name="kd CB3, %/h" dataDxfId="35"/>
-    <tableColumn id="28" name="PBID, %" dataDxfId="34"/>
-    <tableColumn id="6" name="CB1ID, %" dataDxfId="33"/>
-    <tableColumn id="3" name="CB2ID, %" dataDxfId="32"/>
-    <tableColumn id="20" name="pef, %NDF" dataDxfId="31"/>
-    <tableColumn id="11" name="ARG, %DM" dataDxfId="30"/>
-    <tableColumn id="32" name="HIS, %DM" dataDxfId="29"/>
-    <tableColumn id="33" name="ILE, %DM" dataDxfId="28"/>
-    <tableColumn id="34" name="LEU, %DM" dataDxfId="27"/>
-    <tableColumn id="35" name="LYS, %DM" dataDxfId="26"/>
-    <tableColumn id="36" name="MET, %DM" dataDxfId="25"/>
-    <tableColumn id="37" name="CYS, %DM" dataDxfId="24"/>
-    <tableColumn id="38" name="PHE, %DM" dataDxfId="23"/>
-    <tableColumn id="39" name="TYR, %DM" dataDxfId="22"/>
-    <tableColumn id="40" name="THR, %DM" dataDxfId="21"/>
-    <tableColumn id="41" name="TRP, %DM" dataDxfId="20"/>
-    <tableColumn id="42" name="VAL, %DM" dataDxfId="19"/>
-    <tableColumn id="43" name="Ca, % DM" dataDxfId="18"/>
-    <tableColumn id="44" name="P, % DM" dataDxfId="17"/>
-    <tableColumn id="45" name="Mg, % DM" dataDxfId="16"/>
-    <tableColumn id="46" name="Cl, % DM" dataDxfId="15"/>
-    <tableColumn id="47" name="K, % DM" dataDxfId="14"/>
-    <tableColumn id="48" name="Na, % DM" dataDxfId="13"/>
-    <tableColumn id="49" name="S, % DM" dataDxfId="12"/>
-    <tableColumn id="50" name="Co, mg/kg" dataDxfId="11"/>
-    <tableColumn id="51" name="Cu, mg/kg" dataDxfId="10"/>
-    <tableColumn id="52" name="I, mg/kg" dataDxfId="9"/>
-    <tableColumn id="53" name="Fe, mg/kg" dataDxfId="8"/>
-    <tableColumn id="54" name="Mn, mg/kg" dataDxfId="7"/>
-    <tableColumn id="55" name="Se, mg/kg" dataDxfId="6"/>
-    <tableColumn id="56" name="Zn, mg/kg" dataDxfId="5"/>
-    <tableColumn id="57" name="Vit A, IU/g" dataDxfId="4"/>
-    <tableColumn id="58" name="Vit D, IU/g" dataDxfId="3"/>
-    <tableColumn id="30" name="Vit E, IU/kg" dataDxfId="2"/>
+    <tableColumn id="1" name="ID" dataDxfId="57"/>
+    <tableColumn id="2" name="Feed" dataDxfId="56"/>
+    <tableColumn id="4" name="IFN" dataDxfId="55"/>
+    <tableColumn id="5" name="Cost, $/Tonne AF" dataDxfId="54"/>
+    <tableColumn id="7" name="Forage, %DM" dataDxfId="53"/>
+    <tableColumn id="8" name="DM, %AF" dataDxfId="52"/>
+    <tableColumn id="16" name="CP, %DM" dataDxfId="51"/>
+    <tableColumn id="31" name="SP, %CP" dataDxfId="50"/>
+    <tableColumn id="29" name="ADICP, %CP" dataDxfId="49"/>
+    <tableColumn id="24" name="Sugars, %DM" dataDxfId="48"/>
+    <tableColumn id="25" name="OA, %DM" dataDxfId="47"/>
+    <tableColumn id="23" name="Fat, %DM" dataDxfId="46"/>
+    <tableColumn id="9" name="Ash, %DM" dataDxfId="45"/>
+    <tableColumn id="10" name="Starch, %DM" dataDxfId="44"/>
+    <tableColumn id="12" name="NDF, %DM" dataDxfId="43"/>
+    <tableColumn id="13" name="Lignin, %DM" dataDxfId="42"/>
+    <tableColumn id="14" name="TDN, %DM" dataDxfId="41"/>
+    <tableColumn id="15" name="ME, Mcal/kg" dataDxfId="40"/>
+    <tableColumn id="18" name="NEma, Mcal/kg" dataDxfId="39"/>
+    <tableColumn id="19" name="NEga, Mcal/kg" dataDxfId="38"/>
+    <tableColumn id="21" name="RUP, %CP" dataDxfId="37"/>
+    <tableColumn id="22" name="kd PB, %/h" dataDxfId="36"/>
+    <tableColumn id="26" name="kd CB1, %/h" dataDxfId="35"/>
+    <tableColumn id="27" name="kd CB2, %/h" dataDxfId="34"/>
+    <tableColumn id="17" name="kd CB3, %/h" dataDxfId="33"/>
+    <tableColumn id="28" name="PBID, %" dataDxfId="32"/>
+    <tableColumn id="6" name="CB1ID, %" dataDxfId="31"/>
+    <tableColumn id="3" name="CB2ID, %" dataDxfId="30"/>
+    <tableColumn id="20" name="pef, %NDF" dataDxfId="29"/>
+    <tableColumn id="11" name="ARG, %DM" dataDxfId="28"/>
+    <tableColumn id="32" name="HIS, %DM" dataDxfId="27"/>
+    <tableColumn id="33" name="ILE, %DM" dataDxfId="26"/>
+    <tableColumn id="34" name="LEU, %DM" dataDxfId="25"/>
+    <tableColumn id="35" name="LYS, %DM" dataDxfId="24"/>
+    <tableColumn id="36" name="MET, %DM" dataDxfId="23"/>
+    <tableColumn id="37" name="CYS, %DM" dataDxfId="22"/>
+    <tableColumn id="38" name="PHE, %DM" dataDxfId="21"/>
+    <tableColumn id="39" name="TYR, %DM" dataDxfId="20"/>
+    <tableColumn id="40" name="THR, %DM" dataDxfId="19"/>
+    <tableColumn id="41" name="TRP, %DM" dataDxfId="18"/>
+    <tableColumn id="42" name="VAL, %DM" dataDxfId="17"/>
+    <tableColumn id="43" name="Ca, % DM" dataDxfId="16"/>
+    <tableColumn id="44" name="P, % DM" dataDxfId="15"/>
+    <tableColumn id="45" name="Mg, % DM" dataDxfId="14"/>
+    <tableColumn id="46" name="Cl, % DM" dataDxfId="13"/>
+    <tableColumn id="47" name="K, % DM" dataDxfId="12"/>
+    <tableColumn id="48" name="Na, % DM" dataDxfId="11"/>
+    <tableColumn id="49" name="S, % DM" dataDxfId="10"/>
+    <tableColumn id="50" name="Co, mg/kg" dataDxfId="9"/>
+    <tableColumn id="51" name="Cu, mg/kg" dataDxfId="8"/>
+    <tableColumn id="52" name="I, mg/kg" dataDxfId="7"/>
+    <tableColumn id="53" name="Fe, mg/kg" dataDxfId="6"/>
+    <tableColumn id="54" name="Mn, mg/kg" dataDxfId="5"/>
+    <tableColumn id="55" name="Se, mg/kg" dataDxfId="4"/>
+    <tableColumn id="56" name="Zn, mg/kg" dataDxfId="3"/>
+    <tableColumn id="57" name="Vit A, IU/g" dataDxfId="2"/>
+    <tableColumn id="58" name="Vit D, IU/g" dataDxfId="1"/>
+    <tableColumn id="30" name="Vit E, IU/kg" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2799,7 +2802,7 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2919,10 +2922,10 @@
         <v>0.87</v>
       </c>
       <c r="M2" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="N2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="O2">
         <v>1.3</v>
@@ -2931,7 +2934,7 @@
         <v>1.9550000000000001</v>
       </c>
       <c r="Q2">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="R2">
         <v>1</v>
@@ -2984,7 +2987,7 @@
         <v>341</v>
       </c>
       <c r="N3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="O3">
         <v>1.3</v>
@@ -3021,7 +3024,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="F17:I21"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3056,7 +3059,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5.0000000000000004E-6</v>
+        <v>0.05</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -3074,6 +3077,9 @@
       </c>
       <c r="B3">
         <v>5</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
       </c>
       <c r="D3">
         <v>1</v>
@@ -3102,7 +3108,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3131,7 +3137,7 @@
         <v>Alfalfa cubes</v>
       </c>
       <c r="C2" s="17">
-        <v>666</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -3183,39 +3189,39 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
-        <v>845</v>
+      <c r="A7" s="17">
+        <v>59</v>
       </c>
       <c r="B7" s="17" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
-        <v>Urea</v>
+        <v>Cottonseed whole</v>
       </c>
       <c r="C7" s="17">
-        <v>50</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B8" s="17" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
-        <v>Cottonseed whole</v>
+        <v>Distillers grain plus soluble, dry</v>
       </c>
       <c r="C8" s="17">
-        <v>11</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
-        <v>60</v>
-      </c>
-      <c r="B9" s="17" t="str">
+        <v>77</v>
+      </c>
+      <c r="B9" s="23" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
-        <v>Distillers grain plus soluble, dry</v>
+        <v>Fresh soybean forage</v>
       </c>
       <c r="C9" s="17">
-        <v>44</v>
+        <v>999</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -3279,15 +3285,15 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
-        <v>77</v>
-      </c>
-      <c r="B15" s="23" t="str">
+      <c r="A15" s="16">
+        <v>845</v>
+      </c>
+      <c r="B15" s="17" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
-        <v>Fresh soybean forage</v>
+        <v>Urea</v>
       </c>
       <c r="C15" s="17">
-        <v>999</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -41552,10 +41558,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:BF219">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="61" priority="1" stopIfTrue="1">
       <formula>ROW(A2)=$E$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="60" priority="2" stopIfTrue="1">
       <formula>COLUMN(A2)=$F$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41876,21 +41882,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003C4402FDC8975A4FB65AB474AF423692" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="293b87d96ae3165967deaddc9dd3a283">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="871f9270-bc3b-4105-9923-e7982e1cb312" xmlns:ns4="000447b7-86fa-4362-939e-855579e16124" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="23a07973a4b986d214a26a52ed717842" ns3:_="" ns4:_="">
     <xsd:import namespace="871f9270-bc3b-4105-9923-e7982e1cb312"/>
@@ -42107,32 +42098,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C60666F-AED0-4727-A902-9CA0ACF4D344}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9544B578-CE8A-4753-8E47-B2C52E32EEC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="000447b7-86fa-4362-939e-855579e16124"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="871f9270-bc3b-4105-9923-e7982e1cb312"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C172DDCE-6A5B-4F5B-846C-532884D79266}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -42149,4 +42130,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9544B578-CE8A-4753-8E47-B2C52E32EEC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="000447b7-86fa-4362-939e-855579e16124"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="871f9270-bc3b-4105-9923-e7982e1cb312"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C60666F-AED0-4727-A902-9CA0ACF4D344}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Input.xlsx
+++ b/Input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feeds" sheetId="2" r:id="rId1"/>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="360">
   <si>
     <t>IFN</t>
   </si>
@@ -1105,12 +1105,6 @@
     <t>Linearization factor</t>
   </si>
   <si>
-    <t>LCA_GHG_weight</t>
-  </si>
-  <si>
-    <t>LCA_GHG</t>
-  </si>
-  <si>
     <t>Methane</t>
   </si>
   <si>
@@ -1135,12 +1129,6 @@
     <t>LCA weight</t>
   </si>
   <si>
-    <t>LCA cost</t>
-  </si>
-  <si>
-    <t>BF</t>
-  </si>
-  <si>
     <t>Min %DM</t>
   </si>
   <si>
@@ -1156,10 +1144,55 @@
     <t>GSS</t>
   </si>
   <si>
-    <t>MO-GSS</t>
+    <t>LCA_Phosphorous consumption (kg P)</t>
   </si>
   <si>
-    <t>BF-LCA</t>
+    <t>LCA_CED 1.8 non renewable fossil+nuclear (MJ)</t>
+  </si>
+  <si>
+    <t>LCA_Climate change ILCD (kg CO2 eq)</t>
+  </si>
+  <si>
+    <t>LCA_Acidification ILCD (molc H+ eq)</t>
+  </si>
+  <si>
+    <t>LCA_Land competition CML non baseline (m2a)</t>
+  </si>
+  <si>
+    <t>LCA_Eutrophication CML baseline (kg PO4- eq)</t>
+  </si>
+  <si>
+    <t>weight_LCA_Phosphorous consumption (kg P)</t>
+  </si>
+  <si>
+    <t>weight_LCA_CED 1.8 non renewable fossil+nuclear (MJ)</t>
+  </si>
+  <si>
+    <t>weight_LCA_Climate change ILCD (kg CO2 eq)</t>
+  </si>
+  <si>
+    <t>weight_LCA_Acidification ILCD (molc H+ eq)</t>
+  </si>
+  <si>
+    <t>weight_LCA_Eutrophication CML baseline (kg PO4- eq)</t>
+  </si>
+  <si>
+    <t>weight_LCA_Land competition CML non baseline (m2a)</t>
+  </si>
+  <si>
+    <t>Feeding Time</t>
+  </si>
+  <si>
+    <t>Target Weight</t>
+  </si>
+  <si>
+    <t>GSS_MAX_T</t>
+  </si>
+  <si>
+    <t>GSS_MAX</t>
+  </si>
+  <si>
+    <t>MaxProfitSWG</t>
   </si>
 </sst>
 </file>
@@ -1200,7 +1233,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1225,8 +1258,14 @@
         <bgColor theme="4"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1266,6 +1305,46 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right style="thin">
         <color theme="4" tint="0.39997558519241921"/>
@@ -1274,20 +1353,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1" applyProtection="1">
@@ -1311,16 +1381,79 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="76">
+  <dxfs count="81">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1618,19 +1751,12 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1639,6 +1765,43 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1648,6 +1811,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1656,6 +1820,7 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1664,78 +1829,10 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4" tint="0.79998168889431442"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </left>
-        <right style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </right>
-        <top style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1809,18 +1906,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F26" totalsRowShown="0" dataDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F26" totalsRowShown="0" dataDxfId="80">
   <autoFilter ref="A1:F26"/>
   <sortState ref="B2:F30">
     <sortCondition ref="B1:B30"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="6" name="Feed Scenario" dataDxfId="74"/>
-    <tableColumn id="1" name="ID" dataDxfId="73"/>
-    <tableColumn id="2" name="Min %DM" dataDxfId="72"/>
-    <tableColumn id="3" name="Max %DM" dataDxfId="71"/>
-    <tableColumn id="4" name="Cost [US$/kg AF]" dataDxfId="70"/>
-    <tableColumn id="5" name="Name" dataDxfId="69">
+    <tableColumn id="6" name="Feed Scenario" dataDxfId="79"/>
+    <tableColumn id="1" name="ID" dataDxfId="78"/>
+    <tableColumn id="2" name="Min %DM" dataDxfId="77"/>
+    <tableColumn id="3" name="Max %DM" dataDxfId="76"/>
+    <tableColumn id="4" name="Cost [US$/kg AF]" dataDxfId="75"/>
+    <tableColumn id="5" name="Name" dataDxfId="74">
       <calculatedColumnFormula>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1829,131 +1926,142 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:T3" totalsRowShown="0" headerRowDxfId="68" tableBorderDxfId="67">
-  <autoFilter ref="A1:T3"/>
-  <tableColumns count="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:V3" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="3">
+  <autoFilter ref="A1:V3"/>
+  <tableColumns count="22">
     <tableColumn id="1" name="ID"/>
-    <tableColumn id="18" name="Feed Scenario" dataDxfId="66"/>
-    <tableColumn id="2" name="Breed"/>
-    <tableColumn id="3" name="SBW"/>
-    <tableColumn id="4" name="BCS"/>
-    <tableColumn id="5" name="BE"/>
-    <tableColumn id="6" name="L"/>
-    <tableColumn id="7" name="SEX"/>
-    <tableColumn id="8" name="a2"/>
-    <tableColumn id="9" name="PH"/>
-    <tableColumn id="10" name="Selling Price"/>
-    <tableColumn id="11" name="Linearization factor"/>
-    <tableColumn id="12" name="Algorithm"/>
-    <tableColumn id="13" name="Identifier"/>
-    <tableColumn id="14" name="LB"/>
-    <tableColumn id="15" name="UB"/>
-    <tableColumn id="16" name="Tol"/>
-    <tableColumn id="17" name="LCA ID"/>
-    <tableColumn id="20" name="Multiobjective"/>
-    <tableColumn id="19" name="Obj"/>
+    <tableColumn id="2" name="Feed Scenario"/>
+    <tableColumn id="3" name="Breed"/>
+    <tableColumn id="4" name="SBW"/>
+    <tableColumn id="5" name="Feeding Time"/>
+    <tableColumn id="6" name="Target Weight"/>
+    <tableColumn id="7" name="BCS"/>
+    <tableColumn id="8" name="BE"/>
+    <tableColumn id="9" name="L"/>
+    <tableColumn id="10" name="SEX"/>
+    <tableColumn id="11" name="a2"/>
+    <tableColumn id="12" name="PH"/>
+    <tableColumn id="13" name="Selling Price"/>
+    <tableColumn id="14" name="Linearization factor"/>
+    <tableColumn id="15" name="Algorithm"/>
+    <tableColumn id="16" name="Identifier"/>
+    <tableColumn id="17" name="LB"/>
+    <tableColumn id="18" name="UB"/>
+    <tableColumn id="19" name="Tol"/>
+    <tableColumn id="20" name="LCA ID"/>
+    <tableColumn id="21" name="Multiobjective"/>
+    <tableColumn id="22" name="Obj"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:F3" totalsRowShown="0">
-  <autoFilter ref="A1:F3"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:J3" totalsRowShown="0">
+  <autoFilter ref="A1:J3"/>
+  <tableColumns count="10">
     <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="LCA cost"/>
     <tableColumn id="4" name="LCA weight"/>
-    <tableColumn id="6" name="LCA_GHG_weight"/>
-    <tableColumn id="7" name="Methane"/>
-    <tableColumn id="8" name="Methane_Equation"/>
+    <tableColumn id="3" name="weight_LCA_Phosphorous consumption (kg P)"/>
+    <tableColumn id="5" name="weight_LCA_CED 1.8 non renewable fossil+nuclear (MJ)"/>
+    <tableColumn id="9" name="weight_LCA_Climate change ILCD (kg CO2 eq)"/>
+    <tableColumn id="10" name="weight_LCA_Acidification ILCD (molc H+ eq)"/>
+    <tableColumn id="11" name="weight_LCA_Eutrophication CML baseline (kg PO4- eq)"/>
+    <tableColumn id="12" name="weight_LCA_Land competition CML non baseline (m2a)"/>
+    <tableColumn id="13" name="Methane"/>
+    <tableColumn id="14" name="Methane_Equation"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela26" displayName="Tabela26" ref="A1:C15" totalsRowShown="0" dataDxfId="65">
-  <autoFilter ref="A1:C15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela26" displayName="Tabela26" ref="A1:H15" totalsRowShown="0" headerRowDxfId="73" dataDxfId="72">
+  <autoFilter ref="A1:H15"/>
   <sortState ref="A2:C15">
     <sortCondition ref="A1:A15"/>
   </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" name="ID" dataDxfId="64"/>
-    <tableColumn id="5" name="Name" dataDxfId="63">
+  <tableColumns count="8">
+    <tableColumn id="1" name="ID" dataDxfId="71"/>
+    <tableColumn id="5" name="Name" dataDxfId="70">
       <calculatedColumnFormula>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="LCA_GHG" dataDxfId="62"/>
+    <tableColumn id="2" name="LCA_Phosphorous consumption (kg P)" dataDxfId="69"/>
+    <tableColumn id="3" name="LCA_CED 1.8 non renewable fossil+nuclear (MJ)" dataDxfId="68"/>
+    <tableColumn id="4" name="LCA_Climate change ILCD (kg CO2 eq)" dataDxfId="67"/>
+    <tableColumn id="7" name="LCA_Acidification ILCD (molc H+ eq)" dataDxfId="66"/>
+    <tableColumn id="8" name="LCA_Eutrophication CML baseline (kg PO4- eq)" dataDxfId="65"/>
+    <tableColumn id="9" name="LCA_Land competition CML non baseline (m2a)" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:BF219" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:BF219" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
   <autoFilter ref="A1:BF219"/>
   <sortState ref="A2:BF219">
     <sortCondition ref="A4:A5"/>
   </sortState>
   <tableColumns count="58">
-    <tableColumn id="1" name="ID" dataDxfId="57"/>
-    <tableColumn id="2" name="Feed" dataDxfId="56"/>
-    <tableColumn id="4" name="IFN" dataDxfId="55"/>
-    <tableColumn id="5" name="Cost, $/Tonne AF" dataDxfId="54"/>
-    <tableColumn id="7" name="Forage, %DM" dataDxfId="53"/>
-    <tableColumn id="8" name="DM, %AF" dataDxfId="52"/>
-    <tableColumn id="16" name="CP, %DM" dataDxfId="51"/>
-    <tableColumn id="31" name="SP, %CP" dataDxfId="50"/>
-    <tableColumn id="29" name="ADICP, %CP" dataDxfId="49"/>
-    <tableColumn id="24" name="Sugars, %DM" dataDxfId="48"/>
-    <tableColumn id="25" name="OA, %DM" dataDxfId="47"/>
-    <tableColumn id="23" name="Fat, %DM" dataDxfId="46"/>
-    <tableColumn id="9" name="Ash, %DM" dataDxfId="45"/>
-    <tableColumn id="10" name="Starch, %DM" dataDxfId="44"/>
-    <tableColumn id="12" name="NDF, %DM" dataDxfId="43"/>
-    <tableColumn id="13" name="Lignin, %DM" dataDxfId="42"/>
-    <tableColumn id="14" name="TDN, %DM" dataDxfId="41"/>
-    <tableColumn id="15" name="ME, Mcal/kg" dataDxfId="40"/>
-    <tableColumn id="18" name="NEma, Mcal/kg" dataDxfId="39"/>
-    <tableColumn id="19" name="NEga, Mcal/kg" dataDxfId="38"/>
-    <tableColumn id="21" name="RUP, %CP" dataDxfId="37"/>
-    <tableColumn id="22" name="kd PB, %/h" dataDxfId="36"/>
-    <tableColumn id="26" name="kd CB1, %/h" dataDxfId="35"/>
-    <tableColumn id="27" name="kd CB2, %/h" dataDxfId="34"/>
-    <tableColumn id="17" name="kd CB3, %/h" dataDxfId="33"/>
-    <tableColumn id="28" name="PBID, %" dataDxfId="32"/>
-    <tableColumn id="6" name="CB1ID, %" dataDxfId="31"/>
-    <tableColumn id="3" name="CB2ID, %" dataDxfId="30"/>
-    <tableColumn id="20" name="pef, %NDF" dataDxfId="29"/>
-    <tableColumn id="11" name="ARG, %DM" dataDxfId="28"/>
-    <tableColumn id="32" name="HIS, %DM" dataDxfId="27"/>
-    <tableColumn id="33" name="ILE, %DM" dataDxfId="26"/>
-    <tableColumn id="34" name="LEU, %DM" dataDxfId="25"/>
-    <tableColumn id="35" name="LYS, %DM" dataDxfId="24"/>
-    <tableColumn id="36" name="MET, %DM" dataDxfId="23"/>
-    <tableColumn id="37" name="CYS, %DM" dataDxfId="22"/>
-    <tableColumn id="38" name="PHE, %DM" dataDxfId="21"/>
-    <tableColumn id="39" name="TYR, %DM" dataDxfId="20"/>
-    <tableColumn id="40" name="THR, %DM" dataDxfId="19"/>
-    <tableColumn id="41" name="TRP, %DM" dataDxfId="18"/>
-    <tableColumn id="42" name="VAL, %DM" dataDxfId="17"/>
-    <tableColumn id="43" name="Ca, % DM" dataDxfId="16"/>
-    <tableColumn id="44" name="P, % DM" dataDxfId="15"/>
-    <tableColumn id="45" name="Mg, % DM" dataDxfId="14"/>
-    <tableColumn id="46" name="Cl, % DM" dataDxfId="13"/>
-    <tableColumn id="47" name="K, % DM" dataDxfId="12"/>
-    <tableColumn id="48" name="Na, % DM" dataDxfId="11"/>
-    <tableColumn id="49" name="S, % DM" dataDxfId="10"/>
-    <tableColumn id="50" name="Co, mg/kg" dataDxfId="9"/>
-    <tableColumn id="51" name="Cu, mg/kg" dataDxfId="8"/>
-    <tableColumn id="52" name="I, mg/kg" dataDxfId="7"/>
-    <tableColumn id="53" name="Fe, mg/kg" dataDxfId="6"/>
-    <tableColumn id="54" name="Mn, mg/kg" dataDxfId="5"/>
-    <tableColumn id="55" name="Se, mg/kg" dataDxfId="4"/>
-    <tableColumn id="56" name="Zn, mg/kg" dataDxfId="3"/>
-    <tableColumn id="57" name="Vit A, IU/g" dataDxfId="2"/>
-    <tableColumn id="58" name="Vit D, IU/g" dataDxfId="1"/>
-    <tableColumn id="30" name="Vit E, IU/kg" dataDxfId="0"/>
+    <tableColumn id="1" name="ID" dataDxfId="61"/>
+    <tableColumn id="2" name="Feed" dataDxfId="60"/>
+    <tableColumn id="4" name="IFN" dataDxfId="59"/>
+    <tableColumn id="5" name="Cost, $/Tonne AF" dataDxfId="58"/>
+    <tableColumn id="7" name="Forage, %DM" dataDxfId="57"/>
+    <tableColumn id="8" name="DM, %AF" dataDxfId="56"/>
+    <tableColumn id="16" name="CP, %DM" dataDxfId="55"/>
+    <tableColumn id="31" name="SP, %CP" dataDxfId="54"/>
+    <tableColumn id="29" name="ADICP, %CP" dataDxfId="53"/>
+    <tableColumn id="24" name="Sugars, %DM" dataDxfId="52"/>
+    <tableColumn id="25" name="OA, %DM" dataDxfId="51"/>
+    <tableColumn id="23" name="Fat, %DM" dataDxfId="50"/>
+    <tableColumn id="9" name="Ash, %DM" dataDxfId="49"/>
+    <tableColumn id="10" name="Starch, %DM" dataDxfId="48"/>
+    <tableColumn id="12" name="NDF, %DM" dataDxfId="47"/>
+    <tableColumn id="13" name="Lignin, %DM" dataDxfId="46"/>
+    <tableColumn id="14" name="TDN, %DM" dataDxfId="45"/>
+    <tableColumn id="15" name="ME, Mcal/kg" dataDxfId="44"/>
+    <tableColumn id="18" name="NEma, Mcal/kg" dataDxfId="43"/>
+    <tableColumn id="19" name="NEga, Mcal/kg" dataDxfId="42"/>
+    <tableColumn id="21" name="RUP, %CP" dataDxfId="41"/>
+    <tableColumn id="22" name="kd PB, %/h" dataDxfId="40"/>
+    <tableColumn id="26" name="kd CB1, %/h" dataDxfId="39"/>
+    <tableColumn id="27" name="kd CB2, %/h" dataDxfId="38"/>
+    <tableColumn id="17" name="kd CB3, %/h" dataDxfId="37"/>
+    <tableColumn id="28" name="PBID, %" dataDxfId="36"/>
+    <tableColumn id="6" name="CB1ID, %" dataDxfId="35"/>
+    <tableColumn id="3" name="CB2ID, %" dataDxfId="34"/>
+    <tableColumn id="20" name="pef, %NDF" dataDxfId="33"/>
+    <tableColumn id="11" name="ARG, %DM" dataDxfId="32"/>
+    <tableColumn id="32" name="HIS, %DM" dataDxfId="31"/>
+    <tableColumn id="33" name="ILE, %DM" dataDxfId="30"/>
+    <tableColumn id="34" name="LEU, %DM" dataDxfId="29"/>
+    <tableColumn id="35" name="LYS, %DM" dataDxfId="28"/>
+    <tableColumn id="36" name="MET, %DM" dataDxfId="27"/>
+    <tableColumn id="37" name="CYS, %DM" dataDxfId="26"/>
+    <tableColumn id="38" name="PHE, %DM" dataDxfId="25"/>
+    <tableColumn id="39" name="TYR, %DM" dataDxfId="24"/>
+    <tableColumn id="40" name="THR, %DM" dataDxfId="23"/>
+    <tableColumn id="41" name="TRP, %DM" dataDxfId="22"/>
+    <tableColumn id="42" name="VAL, %DM" dataDxfId="21"/>
+    <tableColumn id="43" name="Ca, % DM" dataDxfId="20"/>
+    <tableColumn id="44" name="P, % DM" dataDxfId="19"/>
+    <tableColumn id="45" name="Mg, % DM" dataDxfId="18"/>
+    <tableColumn id="46" name="Cl, % DM" dataDxfId="17"/>
+    <tableColumn id="47" name="K, % DM" dataDxfId="16"/>
+    <tableColumn id="48" name="Na, % DM" dataDxfId="15"/>
+    <tableColumn id="49" name="S, % DM" dataDxfId="14"/>
+    <tableColumn id="50" name="Co, mg/kg" dataDxfId="13"/>
+    <tableColumn id="51" name="Cu, mg/kg" dataDxfId="12"/>
+    <tableColumn id="52" name="I, mg/kg" dataDxfId="11"/>
+    <tableColumn id="53" name="Fe, mg/kg" dataDxfId="10"/>
+    <tableColumn id="54" name="Mn, mg/kg" dataDxfId="9"/>
+    <tableColumn id="55" name="Se, mg/kg" dataDxfId="8"/>
+    <tableColumn id="56" name="Zn, mg/kg" dataDxfId="7"/>
+    <tableColumn id="57" name="Vit A, IU/g" dataDxfId="6"/>
+    <tableColumn id="58" name="Vit D, IU/g" dataDxfId="5"/>
+    <tableColumn id="30" name="Vit E, IU/kg" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2228,39 +2336,39 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="O11" sqref="M11:O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B1" t="s">
         <v>56</v>
       </c>
       <c r="C1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="E1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F1" t="s">
         <v>323</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="16">
         <v>1</v>
       </c>
@@ -2281,7 +2389,7 @@
         <v>Citrus pulp, dry</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="16">
         <v>1</v>
       </c>
@@ -2302,7 +2410,7 @@
         <v>Corn grain</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -2323,7 +2431,7 @@
         <v>Corn silage</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -2344,7 +2452,7 @@
         <v>Cottonseed meal</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="16">
         <v>1</v>
       </c>
@@ -2365,7 +2473,7 @@
         <v>Cottonseed whole</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="16">
         <v>1</v>
       </c>
@@ -2386,7 +2494,7 @@
         <v>Distillers grain plus soluble, dry</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="16">
         <v>1</v>
       </c>
@@ -2407,7 +2515,7 @@
         <v>Grain sorghum grain</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="16">
         <v>1</v>
       </c>
@@ -2428,7 +2536,7 @@
         <v>Soybean hulls</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="16">
         <v>1</v>
       </c>
@@ -2449,7 +2557,7 @@
         <v>Soybean meal high CP</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="16">
         <v>1</v>
       </c>
@@ -2470,7 +2578,7 @@
         <v>Sugarcane silage</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="16">
         <v>1</v>
       </c>
@@ -2491,7 +2599,7 @@
         <v>Wheat middlings</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="16">
         <v>1</v>
       </c>
@@ -2512,7 +2620,7 @@
         <v>Urea</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="16">
         <v>2</v>
       </c>
@@ -2533,7 +2641,7 @@
         <v>Alfalfa cubes</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>2</v>
       </c>
@@ -2554,7 +2662,7 @@
         <v>Citrus pulp, dry</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>2</v>
       </c>
@@ -2575,7 +2683,7 @@
         <v>Corn grain</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>2</v>
       </c>
@@ -2596,7 +2704,7 @@
         <v>Corn silage</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>2</v>
       </c>
@@ -2617,7 +2725,7 @@
         <v>Cottonseed whole</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>2</v>
       </c>
@@ -2638,7 +2746,7 @@
         <v>Distillers grain plus soluble, dry</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>2</v>
       </c>
@@ -2659,7 +2767,7 @@
         <v>Grain sorghum grain</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>2</v>
       </c>
@@ -2680,7 +2788,7 @@
         <v>Soybean hulls</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>2</v>
       </c>
@@ -2701,7 +2809,7 @@
         <v>Soybean meal high CP</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>2</v>
       </c>
@@ -2722,7 +2830,7 @@
         <v>Sugarcane silage</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>2</v>
       </c>
@@ -2743,7 +2851,7 @@
         <v>Urea</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="16">
         <v>2</v>
       </c>
@@ -2759,12 +2867,12 @@
       <c r="E25" s="18">
         <v>0.33333333333333337</v>
       </c>
-      <c r="F25" s="23" t="str">
+      <c r="F25" s="19" t="str">
         <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
         <v>Cottonseed meal</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>2</v>
       </c>
@@ -2780,7 +2888,7 @@
       <c r="E26" s="18">
         <v>0.1</v>
       </c>
-      <c r="F26" s="23" t="str">
+      <c r="F26" s="19" t="str">
         <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
         <v>Fresh soybean forage</v>
       </c>
@@ -2799,94 +2907,109 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:T3"/>
+  <dimension ref="A1:V3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.5703125" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7.28515625" customWidth="1"/>
-    <col min="5" max="5" width="6.42578125" customWidth="1"/>
-    <col min="6" max="6" width="5.28515625" customWidth="1"/>
-    <col min="7" max="7" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.28515625" customWidth="1"/>
-    <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
-    <col min="14" max="14" width="11.5703125" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.44140625" customWidth="1"/>
+    <col min="8" max="8" width="5.33203125" customWidth="1"/>
+    <col min="9" max="9" width="4.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.33203125" customWidth="1"/>
+    <col min="11" max="11" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A1" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>313</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>314</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>355</v>
+      </c>
+      <c r="F1" s="25" t="s">
+        <v>356</v>
+      </c>
+      <c r="G1" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="V1" s="26" t="s">
         <v>335</v>
       </c>
-      <c r="C1" s="19" t="s">
-        <v>313</v>
-      </c>
-      <c r="D1" s="19" t="s">
-        <v>314</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>315</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>317</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>318</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="I1" s="19" t="s">
-        <v>320</v>
-      </c>
-      <c r="J1" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="K1" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="L1" s="20" t="s">
-        <v>329</v>
-      </c>
-      <c r="M1" s="21" t="s">
-        <v>325</v>
-      </c>
-      <c r="N1" s="21" t="s">
-        <v>324</v>
-      </c>
-      <c r="O1" s="21" t="s">
-        <v>326</v>
-      </c>
-      <c r="P1" s="21" t="s">
-        <v>327</v>
-      </c>
-      <c r="Q1" s="21" t="s">
-        <v>328</v>
-      </c>
-      <c r="R1" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="S1" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="T1" s="22" t="s">
-        <v>337</v>
-      </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2898,114 +3021,121 @@
         <v>300</v>
       </c>
       <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="G2">
         <v>5</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
         <v>6.2</v>
       </c>
-      <c r="K2">
+      <c r="M2">
         <v>1.44</v>
       </c>
-      <c r="L2">
+      <c r="N2">
         <v>0.87</v>
       </c>
-      <c r="M2" t="s">
-        <v>346</v>
-      </c>
-      <c r="N2" t="s">
-        <v>347</v>
-      </c>
-      <c r="O2">
+      <c r="O2" t="s">
+        <v>342</v>
+      </c>
+      <c r="P2" t="s">
+        <v>358</v>
+      </c>
+      <c r="Q2">
         <v>1.3</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>1.9550000000000001</v>
       </c>
-      <c r="Q2">
+      <c r="S2">
         <v>1E-3</v>
       </c>
-      <c r="R2">
+      <c r="T2">
         <v>1</v>
       </c>
-      <c r="S2" t="b">
+      <c r="U2" t="b">
         <v>1</v>
       </c>
-      <c r="T2" t="s">
-        <v>338</v>
+      <c r="V2" t="s">
+        <v>336</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="27">
+        <v>3</v>
+      </c>
+      <c r="B3" s="28">
+        <v>1</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" s="28">
+        <v>300</v>
+      </c>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28">
+        <v>350</v>
+      </c>
+      <c r="G3" s="28">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="H3" s="28">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>316</v>
-      </c>
-      <c r="D3">
-        <v>300</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
+      <c r="I3" s="28">
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="J3" s="28">
         <v>1</v>
       </c>
-      <c r="H3">
+      <c r="K3" s="28">
+        <v>0</v>
+      </c>
+      <c r="L3" s="28">
+        <v>6.2</v>
+      </c>
+      <c r="M3" s="28">
+        <v>1.44</v>
+      </c>
+      <c r="N3" s="28">
+        <v>0.87</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>342</v>
+      </c>
+      <c r="P3" s="28" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q3" s="28">
+        <v>1.3</v>
+      </c>
+      <c r="R3" s="28">
+        <v>1.9550000000000001</v>
+      </c>
+      <c r="S3" s="28">
+        <v>0.01</v>
+      </c>
+      <c r="T3" s="28">
         <v>1</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>6.2</v>
-      </c>
-      <c r="K3">
-        <v>1.44</v>
-      </c>
-      <c r="L3">
-        <v>0.87</v>
-      </c>
-      <c r="M3" t="s">
-        <v>341</v>
-      </c>
-      <c r="N3" t="s">
-        <v>348</v>
-      </c>
-      <c r="O3">
-        <v>1.3</v>
-      </c>
-      <c r="P3">
-        <v>2</v>
-      </c>
-      <c r="Q3">
-        <v>0.01</v>
-      </c>
-      <c r="R3">
-        <v>2</v>
-      </c>
-      <c r="S3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" t="s">
-        <v>338</v>
+      <c r="U3" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="V3" s="29" t="s">
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3021,74 +3151,112 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="11" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="25.44140625" customWidth="1"/>
+    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D1" t="s">
+        <v>337</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>349</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="I1" t="s">
         <v>330</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>332</v>
       </c>
-      <c r="F1" t="s">
-        <v>334</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.05</v>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
         <v>1</v>
       </c>
-      <c r="E2" t="b">
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="b">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>333</v>
+      <c r="J2" t="s">
+        <v>331</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>0.15</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0.1</v>
       </c>
       <c r="D3">
+        <v>0.1</v>
+      </c>
+      <c r="E3">
+        <v>0.2</v>
+      </c>
+      <c r="F3">
+        <v>0.2</v>
+      </c>
+      <c r="G3">
+        <v>0.2</v>
+      </c>
+      <c r="H3">
+        <v>0.2</v>
+      </c>
+      <c r="I3" t="b">
         <v>1</v>
       </c>
-      <c r="E3" t="b">
-        <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>333</v>
+      <c r="J3" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -3105,195 +3273,427 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="17.21875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.21875" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" style="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.88671875" style="20" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="17.21875" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="30.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="20" t="s">
         <v>323</v>
       </c>
-      <c r="C1" t="s">
-        <v>331</v>
+      <c r="C1" s="20" t="s">
+        <v>343</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>344</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>345</v>
+      </c>
+      <c r="F1" s="20" t="s">
+        <v>346</v>
+      </c>
+      <c r="G1" s="20" t="s">
+        <v>348</v>
+      </c>
+      <c r="H1" s="20" t="s">
+        <v>347</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="str">
+      <c r="B2" s="22" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
         <v>Alfalfa cubes</v>
       </c>
-      <c r="C2" s="17">
-        <v>333</v>
+      <c r="C2" s="21">
+        <v>5.7853188500000001E-4</v>
+      </c>
+      <c r="D2" s="21">
+        <v>86.801472679200003</v>
+      </c>
+      <c r="E2" s="21">
+        <v>2.9328741889626602</v>
+      </c>
+      <c r="F2" s="21">
+        <v>1.1160703138091199E-2</v>
+      </c>
+      <c r="G2" s="21">
+        <v>1.01374851249478E-3</v>
+      </c>
+      <c r="H2" s="21">
+        <v>2.0151002788603999E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="23">
         <v>34</v>
       </c>
-      <c r="B3" s="17" t="str">
+      <c r="B3" s="21" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
         <v>Citrus pulp, dry</v>
       </c>
-      <c r="C3" s="17">
-        <v>10</v>
+      <c r="C3" s="21">
+        <v>5.4555828645999997E-3</v>
+      </c>
+      <c r="D3" s="21">
+        <v>111.022102277979</v>
+      </c>
+      <c r="E3" s="21">
+        <v>3.8697368171715398</v>
+      </c>
+      <c r="F3" s="21">
+        <v>3.00376953258857E-2</v>
+      </c>
+      <c r="G3" s="21">
+        <v>6.5448059814916396E-3</v>
+      </c>
+      <c r="H3" s="21">
+        <v>2.2146021761312902</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="16">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="23">
         <v>45</v>
       </c>
-      <c r="B4" s="17" t="str">
+      <c r="B4" s="21" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
         <v>Corn grain</v>
       </c>
-      <c r="C4" s="17">
-        <v>15</v>
+      <c r="C4" s="21">
+        <v>5.4555828645999997E-3</v>
+      </c>
+      <c r="D4" s="21">
+        <v>111.022102277979</v>
+      </c>
+      <c r="E4" s="21">
+        <v>3.8697368171715398</v>
+      </c>
+      <c r="F4" s="21">
+        <v>3.00376953258857E-2</v>
+      </c>
+      <c r="G4" s="21">
+        <v>6.5448059814916396E-3</v>
+      </c>
+      <c r="H4" s="21">
+        <v>2.2146021761312902</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="23">
         <v>50</v>
       </c>
-      <c r="B5" s="23" t="str">
+      <c r="B5" s="22" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
         <v>Corn silage</v>
       </c>
-      <c r="C5" s="17">
-        <v>22</v>
+      <c r="C5" s="21">
+        <v>1.0911165828999999E-2</v>
+      </c>
+      <c r="D5" s="21">
+        <v>222.04420589103901</v>
+      </c>
+      <c r="E5" s="21">
+        <v>7.7394735096710701</v>
+      </c>
+      <c r="F5" s="21">
+        <v>6.0075391492145497E-2</v>
+      </c>
+      <c r="G5" s="21">
+        <v>1.3089611966932599E-2</v>
+      </c>
+      <c r="H5" s="21">
+        <v>4.4292044514268802</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="21">
         <v>58</v>
       </c>
-      <c r="B6" s="17" t="str">
+      <c r="B6" s="21" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
         <v>Cottonseed meal</v>
       </c>
-      <c r="C6" s="17">
-        <v>13</v>
+      <c r="C6" s="21">
+        <v>1.0911165828999999E-2</v>
+      </c>
+      <c r="D6" s="21">
+        <v>222.04420589103901</v>
+      </c>
+      <c r="E6" s="21">
+        <v>7.7394735096710701</v>
+      </c>
+      <c r="F6" s="21">
+        <v>6.0075391492145497E-2</v>
+      </c>
+      <c r="G6" s="21">
+        <v>1.3089611966932599E-2</v>
+      </c>
+      <c r="H6" s="21">
+        <v>4.4292044514268802</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="21">
         <v>59</v>
       </c>
-      <c r="B7" s="17" t="str">
+      <c r="B7" s="21" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
         <v>Cottonseed whole</v>
       </c>
-      <c r="C7" s="17">
-        <v>11</v>
+      <c r="C7" s="21">
+        <v>3.1842876000000001E-6</v>
+      </c>
+      <c r="D7" s="21">
+        <v>5.9806682000000002</v>
+      </c>
+      <c r="E7" s="21">
+        <v>0.27015206000000003</v>
+      </c>
+      <c r="F7" s="21">
+        <v>3.9355282000000001E-4</v>
+      </c>
+      <c r="G7" s="21">
+        <v>2.7888866E-5</v>
+      </c>
+      <c r="H7" s="21">
+        <v>9.6235063000000003E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="21">
         <v>60</v>
       </c>
-      <c r="B8" s="17" t="str">
+      <c r="B8" s="21" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
         <v>Distillers grain plus soluble, dry</v>
       </c>
-      <c r="C8" s="17">
-        <v>44</v>
+      <c r="C8" s="21">
+        <v>1.2366235355525199E-3</v>
+      </c>
+      <c r="D8" s="21">
+        <v>6.2787819873855204</v>
+      </c>
+      <c r="E8" s="21">
+        <v>0.44534692545648202</v>
+      </c>
+      <c r="F8" s="21">
+        <v>4.8705551741001201E-3</v>
+      </c>
+      <c r="G8" s="21">
+        <v>1.10019102054642E-3</v>
+      </c>
+      <c r="H8" s="21">
+        <v>0.24006011305863501</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="21">
         <v>77</v>
       </c>
-      <c r="B9" s="23" t="str">
+      <c r="B9" s="22" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
         <v>Fresh soybean forage</v>
       </c>
-      <c r="C9" s="17">
-        <v>999</v>
+      <c r="C9" s="21">
+        <v>2.2941172970480399E-4</v>
+      </c>
+      <c r="D9" s="21">
+        <v>0.22375280524343599</v>
+      </c>
+      <c r="E9" s="21">
+        <v>3.65555080166442E-2</v>
+      </c>
+      <c r="F9" s="21">
+        <v>7.94353400725214E-4</v>
+      </c>
+      <c r="G9" s="21">
+        <v>2.9327633156495E-4</v>
+      </c>
+      <c r="H9" s="21">
+        <v>0.148553890640619</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="21">
         <v>79</v>
       </c>
-      <c r="B10" s="17" t="str">
+      <c r="B10" s="21" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
         <v>Grain sorghum grain</v>
       </c>
-      <c r="C10" s="17">
-        <v>54</v>
+      <c r="C10" s="21">
+        <v>4.0223127000394798E-4</v>
+      </c>
+      <c r="D10" s="21">
+        <v>1.2566682710455499</v>
+      </c>
+      <c r="E10" s="21">
+        <v>9.60910556776821E-2</v>
+      </c>
+      <c r="F10" s="21">
+        <v>1.5681751476930099E-3</v>
+      </c>
+      <c r="G10" s="21">
+        <v>5.5160918583113802E-4</v>
+      </c>
+      <c r="H10" s="21">
+        <v>0.25771561666967402</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="21">
         <v>133</v>
       </c>
-      <c r="B11" s="17" t="str">
+      <c r="B11" s="21" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
         <v>Soybean hulls</v>
       </c>
-      <c r="C11" s="17">
-        <v>66</v>
+      <c r="C11" s="21">
+        <v>2.3506151642503401E-4</v>
+      </c>
+      <c r="D11" s="21">
+        <v>0.73438932142768198</v>
+      </c>
+      <c r="E11" s="21">
+        <v>5.6155030568003E-2</v>
+      </c>
+      <c r="F11" s="21">
+        <v>9.1643205221998995E-4</v>
+      </c>
+      <c r="G11" s="21">
+        <v>3.2235706511374198E-4</v>
+      </c>
+      <c r="H11" s="21">
+        <v>0.15060744446892901</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="21">
         <v>134</v>
       </c>
-      <c r="B12" s="17" t="str">
+      <c r="B12" s="21" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
         <v>Soybean meal high CP</v>
       </c>
-      <c r="C12" s="17">
-        <v>78</v>
+      <c r="C12" s="21">
+        <v>8.5862720876232301E-4</v>
+      </c>
+      <c r="D12" s="21">
+        <v>4.8082355198033504</v>
+      </c>
+      <c r="E12" s="21">
+        <v>0.23545934859252499</v>
+      </c>
+      <c r="F12" s="21">
+        <v>3.4585477103897901E-3</v>
+      </c>
+      <c r="G12" s="21">
+        <v>1.1814151949432799E-3</v>
+      </c>
+      <c r="H12" s="21">
+        <v>0.54874832600940004</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="21">
         <v>148</v>
       </c>
-      <c r="B13" s="17" t="str">
+      <c r="B13" s="21" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
         <v>Sugarcane silage</v>
       </c>
-      <c r="C13" s="17">
-        <v>22</v>
+      <c r="C13" s="21">
+        <v>1.00892733401935E-4</v>
+      </c>
+      <c r="D13" s="21">
+        <v>0.499679920329611</v>
+      </c>
+      <c r="E13" s="21">
+        <v>3.3268046556405098E-2</v>
+      </c>
+      <c r="F13" s="21">
+        <v>4.1079849027603102E-4</v>
+      </c>
+      <c r="G13" s="21">
+        <v>1.3729890902837701E-4</v>
+      </c>
+      <c r="H13" s="21">
+        <v>6.2004128647020901E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="21">
         <v>166</v>
       </c>
-      <c r="B14" s="17" t="str">
+      <c r="B14" s="21" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
         <v>Wheat middlings</v>
       </c>
-      <c r="C14" s="17">
-        <v>10</v>
+      <c r="C14" s="21">
+        <v>3.5984889496467301E-3</v>
+      </c>
+      <c r="D14" s="21">
+        <v>2.7784047373411802</v>
+      </c>
+      <c r="E14" s="21">
+        <v>0.50707988090610701</v>
+      </c>
+      <c r="F14" s="21">
+        <v>1.2448931606192801E-2</v>
+      </c>
+      <c r="G14" s="21">
+        <v>5.13216118843392E-3</v>
+      </c>
+      <c r="H14" s="21">
+        <v>2.08430673711023</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="16">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="23">
         <v>845</v>
       </c>
-      <c r="B15" s="17" t="str">
+      <c r="B15" s="21" t="str">
         <f>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</f>
         <v>Urea</v>
       </c>
-      <c r="C15" s="17">
-        <v>50</v>
+      <c r="C15" s="21">
+        <v>3.5989479999999998E-3</v>
+      </c>
+      <c r="D15" s="21">
+        <v>3.0719221000000001</v>
+      </c>
+      <c r="E15" s="21">
+        <v>0.51678214</v>
+      </c>
+      <c r="F15" s="21">
+        <v>1.2578873000000001E-2</v>
+      </c>
+      <c r="G15" s="21">
+        <v>5.1424534999999997E-3</v>
+      </c>
+      <c r="H15" s="21">
+        <v>2.0854924000000001</v>
       </c>
     </row>
   </sheetData>
@@ -3313,66 +3713,66 @@
   <dimension ref="A1:BF219"/>
   <sheetViews>
     <sheetView topLeftCell="AP1" workbookViewId="0">
-      <selection sqref="A1:BF1"/>
+      <selection activeCell="BC11" sqref="BC11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="14" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="28" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="25" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="12" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="11.6640625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="12" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="12" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="49" max="50" width="12" bestFit="1" customWidth="1"/>
-    <col min="51" max="51" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="53" max="53" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="56" max="57" width="12" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -3548,7 +3948,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -3722,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3896,7 +4296,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -4070,7 +4470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -4244,7 +4644,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="6" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -4418,7 +4818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -4592,7 +4992,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -4766,7 +5166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -4940,7 +5340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -5114,7 +5514,7 @@
         <v>44.9</v>
       </c>
     </row>
-    <row r="11" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -5288,7 +5688,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="12" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -5462,7 +5862,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="13" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -5636,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -5810,7 +6210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -5984,7 +6384,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -6158,7 +6558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -6332,7 +6732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -6506,7 +6906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -6680,7 +7080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -6854,7 +7254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -7028,7 +7428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -7202,7 +7602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -7376,7 +7776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -7550,7 +7950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -7724,7 +8124,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="26" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -7898,7 +8298,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>26</v>
       </c>
@@ -8072,7 +8472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>27</v>
       </c>
@@ -8246,7 +8646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>28</v>
       </c>
@@ -8420,7 +8820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>29</v>
       </c>
@@ -8594,7 +8994,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>30</v>
       </c>
@@ -8768,7 +9168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>31</v>
       </c>
@@ -8942,7 +9342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>32</v>
       </c>
@@ -9116,7 +9516,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>33</v>
       </c>
@@ -9290,7 +9690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>34</v>
       </c>
@@ -9464,7 +9864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>35</v>
       </c>
@@ -9638,7 +10038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>36</v>
       </c>
@@ -9812,7 +10212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>37</v>
       </c>
@@ -9986,7 +10386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>38</v>
       </c>
@@ -10160,7 +10560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>39</v>
       </c>
@@ -10334,7 +10734,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="41" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>40</v>
       </c>
@@ -10508,7 +10908,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="42" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>41</v>
       </c>
@@ -10682,7 +11082,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>42</v>
       </c>
@@ -10856,7 +11256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>43</v>
       </c>
@@ -11030,7 +11430,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="45" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>44</v>
       </c>
@@ -11204,7 +11604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>45</v>
       </c>
@@ -11378,7 +11778,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>46</v>
       </c>
@@ -11552,7 +11952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>47</v>
       </c>
@@ -11726,7 +12126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>48</v>
       </c>
@@ -11900,7 +12300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>49</v>
       </c>
@@ -12074,7 +12474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>50</v>
       </c>
@@ -12248,7 +12648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>51</v>
       </c>
@@ -12422,7 +12822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>52</v>
       </c>
@@ -12596,7 +12996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>53</v>
       </c>
@@ -12770,7 +13170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>54</v>
       </c>
@@ -12944,7 +13344,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>55</v>
       </c>
@@ -13118,7 +13518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>56</v>
       </c>
@@ -13292,7 +13692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>57</v>
       </c>
@@ -13466,7 +13866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>58</v>
       </c>
@@ -13640,7 +14040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>59</v>
       </c>
@@ -13814,7 +14214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>60</v>
       </c>
@@ -13988,7 +14388,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="62" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>61</v>
       </c>
@@ -14162,7 +14562,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="63" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>62</v>
       </c>
@@ -14336,7 +14736,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="64" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>63</v>
       </c>
@@ -14510,7 +14910,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="65" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>64</v>
       </c>
@@ -14684,7 +15084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>65</v>
       </c>
@@ -14858,7 +15258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>66</v>
       </c>
@@ -15032,7 +15432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>67</v>
       </c>
@@ -15206,7 +15606,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="69" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>68</v>
       </c>
@@ -15380,7 +15780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>69</v>
       </c>
@@ -15554,7 +15954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>70</v>
       </c>
@@ -15728,7 +16128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>71</v>
       </c>
@@ -15902,7 +16302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>72</v>
       </c>
@@ -16076,7 +16476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A74" s="3">
         <v>73</v>
       </c>
@@ -16250,7 +16650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>74</v>
       </c>
@@ -16424,7 +16824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>75</v>
       </c>
@@ -16598,7 +16998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>76</v>
       </c>
@@ -16772,7 +17172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>77</v>
       </c>
@@ -16946,7 +17346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>78</v>
       </c>
@@ -17120,7 +17520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="80" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>79</v>
       </c>
@@ -17294,7 +17694,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>80</v>
       </c>
@@ -17468,7 +17868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>81</v>
       </c>
@@ -17642,7 +18042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>82</v>
       </c>
@@ -17816,7 +18216,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>83</v>
       </c>
@@ -17990,7 +18390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>84</v>
       </c>
@@ -18164,7 +18564,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="86" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>85</v>
       </c>
@@ -18338,7 +18738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>86</v>
       </c>
@@ -18512,7 +18912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>87</v>
       </c>
@@ -18686,7 +19086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>88</v>
       </c>
@@ -18860,7 +19260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>89</v>
       </c>
@@ -19034,7 +19434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>90</v>
       </c>
@@ -19208,7 +19608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>91</v>
       </c>
@@ -19382,7 +19782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>92</v>
       </c>
@@ -19556,7 +19956,7 @@
         <v>135.6</v>
       </c>
     </row>
-    <row r="94" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>93</v>
       </c>
@@ -19730,7 +20130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>94</v>
       </c>
@@ -19904,7 +20304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>95</v>
       </c>
@@ -20078,7 +20478,7 @@
         <v>26.2</v>
       </c>
     </row>
-    <row r="97" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>96</v>
       </c>
@@ -20252,7 +20652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>97</v>
       </c>
@@ -20426,7 +20826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>98</v>
       </c>
@@ -20600,7 +21000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="100" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>99</v>
       </c>
@@ -20774,7 +21174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>100</v>
       </c>
@@ -20948,7 +21348,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>101</v>
       </c>
@@ -21122,7 +21522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>102</v>
       </c>
@@ -21296,7 +21696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>103</v>
       </c>
@@ -21470,7 +21870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>104</v>
       </c>
@@ -21644,7 +22044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>105</v>
       </c>
@@ -21818,7 +22218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>106</v>
       </c>
@@ -21992,7 +22392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>107</v>
       </c>
@@ -22166,7 +22566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>108</v>
       </c>
@@ -22340,7 +22740,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="110" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>109</v>
       </c>
@@ -22514,7 +22914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>110</v>
       </c>
@@ -22688,7 +23088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>111</v>
       </c>
@@ -22862,7 +23262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>112</v>
       </c>
@@ -23036,7 +23436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>113</v>
       </c>
@@ -23210,7 +23610,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="115" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>114</v>
       </c>
@@ -23384,7 +23784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>115</v>
       </c>
@@ -23558,7 +23958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>116</v>
       </c>
@@ -23732,7 +24132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>117</v>
       </c>
@@ -23906,7 +24306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="119" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>118</v>
       </c>
@@ -24080,7 +24480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>119</v>
       </c>
@@ -24254,7 +24654,7 @@
         <v>49.4</v>
       </c>
     </row>
-    <row r="121" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>120</v>
       </c>
@@ -24428,7 +24828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>121</v>
       </c>
@@ -24602,7 +25002,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>122</v>
       </c>
@@ -24776,7 +25176,7 @@
         <v>66.7</v>
       </c>
     </row>
-    <row r="124" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>123</v>
       </c>
@@ -24950,7 +25350,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="125" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>124</v>
       </c>
@@ -25124,7 +25524,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>125</v>
       </c>
@@ -25298,7 +25698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>126</v>
       </c>
@@ -25472,7 +25872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>127</v>
       </c>
@@ -25646,7 +26046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>128</v>
       </c>
@@ -25820,7 +26220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>129</v>
       </c>
@@ -25994,7 +26394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>130</v>
       </c>
@@ -26168,7 +26568,7 @@
         <v>16.600000000000001</v>
       </c>
     </row>
-    <row r="132" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>131</v>
       </c>
@@ -26342,7 +26742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>132</v>
       </c>
@@ -26516,7 +26916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>133</v>
       </c>
@@ -26690,7 +27090,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="135" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>134</v>
       </c>
@@ -26864,7 +27264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>135</v>
       </c>
@@ -27038,7 +27438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>136</v>
       </c>
@@ -27212,7 +27612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>137</v>
       </c>
@@ -27386,7 +27786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>138</v>
       </c>
@@ -27560,7 +27960,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="140" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>139</v>
       </c>
@@ -27734,7 +28134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>140</v>
       </c>
@@ -27908,7 +28308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>141</v>
       </c>
@@ -28082,7 +28482,7 @@
         <v>36.6</v>
       </c>
     </row>
-    <row r="143" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>142</v>
       </c>
@@ -28256,7 +28656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>143</v>
       </c>
@@ -28430,7 +28830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>144</v>
       </c>
@@ -28604,7 +29004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>145</v>
       </c>
@@ -28778,7 +29178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>146</v>
       </c>
@@ -28952,7 +29352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>147</v>
       </c>
@@ -29126,7 +29526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>148</v>
       </c>
@@ -29300,7 +29700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>149</v>
       </c>
@@ -29474,7 +29874,7 @@
         <v>3.7</v>
       </c>
     </row>
-    <row r="151" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>150</v>
       </c>
@@ -29648,7 +30048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>151</v>
       </c>
@@ -29822,7 +30222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>152</v>
       </c>
@@ -29996,7 +30396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>153</v>
       </c>
@@ -30170,7 +30570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>154</v>
       </c>
@@ -30344,7 +30744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>155</v>
       </c>
@@ -30518,7 +30918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>156</v>
       </c>
@@ -30692,7 +31092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>157</v>
       </c>
@@ -30866,7 +31266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>158</v>
       </c>
@@ -31040,7 +31440,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="160" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>159</v>
       </c>
@@ -31214,7 +31614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>160</v>
       </c>
@@ -31388,7 +31788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>161</v>
       </c>
@@ -31562,7 +31962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>162</v>
       </c>
@@ -31736,7 +32136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>163</v>
       </c>
@@ -31910,7 +32310,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="165" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>164</v>
       </c>
@@ -32084,7 +32484,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="166" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>165</v>
       </c>
@@ -32258,7 +32658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>166</v>
       </c>
@@ -32432,7 +32832,7 @@
         <v>26.9</v>
       </c>
     </row>
-    <row r="168" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>167</v>
       </c>
@@ -32606,7 +33006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>168</v>
       </c>
@@ -32780,7 +33180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>169</v>
       </c>
@@ -32954,7 +33354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>170</v>
       </c>
@@ -33128,7 +33528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>800</v>
       </c>
@@ -33304,7 +33704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>801</v>
       </c>
@@ -33480,7 +33880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>802</v>
       </c>
@@ -33656,7 +34056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>803</v>
       </c>
@@ -33832,7 +34232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>804</v>
       </c>
@@ -34008,7 +34408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>805</v>
       </c>
@@ -34182,7 +34582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>806</v>
       </c>
@@ -34356,7 +34756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>807</v>
       </c>
@@ -34530,7 +34930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>808</v>
       </c>
@@ -34704,7 +35104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>809</v>
       </c>
@@ -34880,7 +35280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>810</v>
       </c>
@@ -35056,7 +35456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>811</v>
       </c>
@@ -35232,7 +35632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A184" s="3">
         <v>812</v>
       </c>
@@ -35408,7 +35808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>813</v>
       </c>
@@ -35584,7 +35984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>814</v>
       </c>
@@ -35760,7 +36160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>815</v>
       </c>
@@ -35936,7 +36336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>816</v>
       </c>
@@ -36112,7 +36512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>817</v>
       </c>
@@ -36288,7 +36688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>818</v>
       </c>
@@ -36464,7 +36864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>819</v>
       </c>
@@ -36638,7 +37038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>820</v>
       </c>
@@ -36812,7 +37212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>821</v>
       </c>
@@ -36988,7 +37388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>822</v>
       </c>
@@ -37164,7 +37564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>823</v>
       </c>
@@ -37340,7 +37740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>824</v>
       </c>
@@ -37516,7 +37916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>825</v>
       </c>
@@ -37690,7 +38090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>826</v>
       </c>
@@ -37864,7 +38264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>827</v>
       </c>
@@ -38040,7 +38440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>828</v>
       </c>
@@ -38216,7 +38616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>829</v>
       </c>
@@ -38392,7 +38792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>830</v>
       </c>
@@ -38568,7 +38968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>831</v>
       </c>
@@ -38744,7 +39144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>832</v>
       </c>
@@ -38920,7 +39320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>833</v>
       </c>
@@ -39096,7 +39496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>834</v>
       </c>
@@ -39272,7 +39672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>835</v>
       </c>
@@ -39446,7 +39846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>836</v>
       </c>
@@ -39622,7 +40022,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>837</v>
       </c>
@@ -39798,7 +40198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>838</v>
       </c>
@@ -39974,7 +40374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>839</v>
       </c>
@@ -40150,7 +40550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>840</v>
       </c>
@@ -40326,7 +40726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>841</v>
       </c>
@@ -40502,7 +40902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>842</v>
       </c>
@@ -40678,7 +41078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>843</v>
       </c>
@@ -40854,7 +41254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>844</v>
       </c>
@@ -41030,7 +41430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>845</v>
       </c>
@@ -41204,7 +41604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>846</v>
       </c>
@@ -41380,7 +41780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:58" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>847</v>
       </c>
@@ -41558,10 +41958,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:BF219">
-    <cfRule type="expression" dxfId="61" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>ROW(A2)=$E$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="60" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>COLUMN(A2)=$F$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -41581,297 +41981,297 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="14" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" s="15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="12" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" s="11" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" s="11" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" s="11" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" s="11" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" s="11" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" s="11" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" s="11" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" s="11" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" s="11" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="11" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="11" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="11" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="11" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="11" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="11" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
         <v>55</v>
       </c>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="Scenario" sheetId="3" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="126">
   <si>
     <t>IFN</t>
   </si>
@@ -397,13 +397,16 @@
     <t>GSS</t>
   </si>
   <si>
-    <t>GSS-MAX</t>
-  </si>
-  <si>
-    <t>GSS-MAX-BALANCED</t>
-  </si>
-  <si>
     <t>Normalize</t>
+  </si>
+  <si>
+    <t>GSS-MAX_CO2</t>
+  </si>
+  <si>
+    <t>GSS-MAX_BALANCED</t>
+  </si>
+  <si>
+    <t>GSS-MAX_BALANCED_N</t>
   </si>
 </sst>
 </file>
@@ -588,134 +591,6 @@
   </cellStyles>
   <dxfs count="54">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
@@ -826,6 +701,54 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -933,6 +856,54 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -990,6 +961,38 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1007,8 +1010,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:V3" totalsRowShown="0">
-  <autoFilter ref="A1:V3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:V4" totalsRowShown="0">
+  <autoFilter ref="A1:V4"/>
   <tableColumns count="22">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Feed Scenario"/>
@@ -1038,18 +1041,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F21" totalsRowShown="0" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F21" totalsRowShown="0" dataDxfId="49">
   <autoFilter ref="A1:F21"/>
   <sortState ref="B2:F30">
     <sortCondition ref="B1:B30"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="6" name="Feed Scenario" dataDxfId="52"/>
-    <tableColumn id="1" name="ID" dataDxfId="51"/>
-    <tableColumn id="2" name="Min %DM" dataDxfId="50"/>
-    <tableColumn id="3" name="Max %DM" dataDxfId="49"/>
-    <tableColumn id="4" name="Cost [US$/kg AF]" dataDxfId="48"/>
-    <tableColumn id="5" name="Name" dataDxfId="47">
+    <tableColumn id="6" name="Feed Scenario" dataDxfId="48"/>
+    <tableColumn id="1" name="ID" dataDxfId="47"/>
+    <tableColumn id="2" name="Min %DM" dataDxfId="46"/>
+    <tableColumn id="3" name="Max %DM" dataDxfId="45"/>
+    <tableColumn id="4" name="Cost [US$/kg AF]" dataDxfId="44"/>
+    <tableColumn id="5" name="Name" dataDxfId="43">
       <calculatedColumnFormula>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1058,8 +1061,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:K3" totalsRowShown="0">
-  <autoFilter ref="A1:K3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:K4" totalsRowShown="0">
+  <autoFilter ref="A1:K4"/>
   <tableColumns count="11">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="4" name="LCA weight"/>
@@ -1078,53 +1081,53 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela26" displayName="Tabela26" ref="A1:H21" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela26" displayName="Tabela26" ref="A1:H21" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A1:H21"/>
   <sortState ref="A2:C15">
     <sortCondition ref="A1:A15"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="ID" dataDxfId="44"/>
-    <tableColumn id="5" name="Name" dataDxfId="43">
+    <tableColumn id="1" name="ID" dataDxfId="34"/>
+    <tableColumn id="5" name="Name" dataDxfId="33">
       <calculatedColumnFormula>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="LCA_Phosphorous consumption (kg P)" dataDxfId="42"/>
-    <tableColumn id="3" name="LCA_CED 1.8 non renewable fossil+nuclear (MJ)" dataDxfId="41"/>
-    <tableColumn id="4" name="LCA_Climate change ILCD (kg CO2 eq)" dataDxfId="40"/>
-    <tableColumn id="7" name="LCA_Acidification ILCD (molc H+ eq)" dataDxfId="39"/>
-    <tableColumn id="8" name="LCA_Eutrophication CML baseline (kg PO4- eq)" dataDxfId="38"/>
-    <tableColumn id="9" name="LCA_Land competition CML non baseline (m2a)" dataDxfId="37"/>
+    <tableColumn id="2" name="LCA_Phosphorous consumption (kg P)" dataDxfId="32"/>
+    <tableColumn id="3" name="LCA_CED 1.8 non renewable fossil+nuclear (MJ)" dataDxfId="31"/>
+    <tableColumn id="4" name="LCA_Climate change ILCD (kg CO2 eq)" dataDxfId="30"/>
+    <tableColumn id="7" name="LCA_Acidification ILCD (molc H+ eq)" dataDxfId="29"/>
+    <tableColumn id="8" name="LCA_Eutrophication CML baseline (kg PO4- eq)" dataDxfId="28"/>
+    <tableColumn id="9" name="LCA_Land competition CML non baseline (m2a)" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:S21" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:S21" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:S21"/>
   <sortState ref="A2:BF219">
     <sortCondition ref="A4:A5"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="ID" dataDxfId="34"/>
-    <tableColumn id="2" name="Feed" dataDxfId="33"/>
-    <tableColumn id="7" name="Forage, %DM" dataDxfId="32"/>
-    <tableColumn id="8" name="DM, %AF" dataDxfId="31"/>
-    <tableColumn id="16" name="CP, %DM" dataDxfId="30"/>
-    <tableColumn id="31" name="SP, %CP" dataDxfId="29"/>
-    <tableColumn id="29" name="ADICP, %CP" dataDxfId="28"/>
-    <tableColumn id="24" name="Sugars, %DM" dataDxfId="27"/>
-    <tableColumn id="25" name="OA, %DM" dataDxfId="26"/>
-    <tableColumn id="23" name="Fat, %DM" dataDxfId="25"/>
-    <tableColumn id="9" name="Ash, %DM" dataDxfId="24"/>
-    <tableColumn id="10" name="Starch, %DM" dataDxfId="23"/>
-    <tableColumn id="12" name="NDF, %DM" dataDxfId="22"/>
-    <tableColumn id="13" name="Lignin, %DM" dataDxfId="21"/>
-    <tableColumn id="14" name="TDN, %DM" dataDxfId="20"/>
-    <tableColumn id="18" name="NEma, Mcal/kg" dataDxfId="19"/>
-    <tableColumn id="19" name="NEga, Mcal/kg" dataDxfId="18"/>
-    <tableColumn id="21" name="RUP, %CP" dataDxfId="17"/>
-    <tableColumn id="20" name="pef, %NDF" dataDxfId="16"/>
+    <tableColumn id="1" name="ID" dataDxfId="18"/>
+    <tableColumn id="2" name="Feed" dataDxfId="17"/>
+    <tableColumn id="7" name="Forage, %DM" dataDxfId="16"/>
+    <tableColumn id="8" name="DM, %AF" dataDxfId="15"/>
+    <tableColumn id="16" name="CP, %DM" dataDxfId="14"/>
+    <tableColumn id="31" name="SP, %CP" dataDxfId="13"/>
+    <tableColumn id="29" name="ADICP, %CP" dataDxfId="12"/>
+    <tableColumn id="24" name="Sugars, %DM" dataDxfId="11"/>
+    <tableColumn id="25" name="OA, %DM" dataDxfId="10"/>
+    <tableColumn id="23" name="Fat, %DM" dataDxfId="9"/>
+    <tableColumn id="9" name="Ash, %DM" dataDxfId="8"/>
+    <tableColumn id="10" name="Starch, %DM" dataDxfId="7"/>
+    <tableColumn id="12" name="NDF, %DM" dataDxfId="6"/>
+    <tableColumn id="13" name="Lignin, %DM" dataDxfId="5"/>
+    <tableColumn id="14" name="TDN, %DM" dataDxfId="4"/>
+    <tableColumn id="18" name="NEma, Mcal/kg" dataDxfId="3"/>
+    <tableColumn id="19" name="NEga, Mcal/kg" dataDxfId="2"/>
+    <tableColumn id="21" name="RUP, %CP" dataDxfId="1"/>
+    <tableColumn id="20" name="pef, %NDF" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1396,10 +1399,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:V3"/>
+  <dimension ref="A1:V4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1511,7 +1514,7 @@
         <v>375</v>
       </c>
       <c r="F2">
-        <v>650</v>
+        <v>620</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -1532,7 +1535,7 @@
         <v>6.2</v>
       </c>
       <c r="M2">
-        <v>1.44</v>
+        <v>2.44</v>
       </c>
       <c r="N2">
         <v>0.87</v>
@@ -1541,7 +1544,7 @@
         <v>121</v>
       </c>
       <c r="P2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q2">
         <v>1.17</v>
@@ -1550,7 +1553,7 @@
         <v>1.91</v>
       </c>
       <c r="S2">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="T2">
         <v>1</v>
@@ -1564,7 +1567,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1576,7 +1579,7 @@
         <v>375</v>
       </c>
       <c r="F3">
-        <v>650</v>
+        <v>620</v>
       </c>
       <c r="G3">
         <v>5</v>
@@ -1597,7 +1600,7 @@
         <v>6.2</v>
       </c>
       <c r="M3">
-        <v>1.44</v>
+        <v>2.44</v>
       </c>
       <c r="N3">
         <v>0.87</v>
@@ -1606,7 +1609,7 @@
         <v>121</v>
       </c>
       <c r="P3" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q3">
         <v>1.17</v>
@@ -1615,7 +1618,7 @@
         <v>1.91</v>
       </c>
       <c r="S3">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="T3">
         <v>2</v>
@@ -1624,6 +1627,71 @@
         <v>1</v>
       </c>
       <c r="V3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4">
+        <v>375</v>
+      </c>
+      <c r="F4">
+        <v>620</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>6.2</v>
+      </c>
+      <c r="M4">
+        <v>2.44</v>
+      </c>
+      <c r="N4">
+        <v>0.87</v>
+      </c>
+      <c r="O4" t="s">
+        <v>121</v>
+      </c>
+      <c r="P4" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q4">
+        <v>1.17</v>
+      </c>
+      <c r="R4">
+        <v>1.91</v>
+      </c>
+      <c r="S4">
+        <v>1E-3</v>
+      </c>
+      <c r="T4">
+        <v>3</v>
+      </c>
+      <c r="U4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
         <v>83</v>
       </c>
     </row>
@@ -1642,8 +1710,8 @@
   </sheetPr>
   <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2099,18 +2167,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B21">
-    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="3" stopIfTrue="1">
       <formula>ROW(B2)=$C$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="4" stopIfTrue="1">
       <formula>COLUMN(B2)=$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B21">
-    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="1" stopIfTrue="1">
       <formula>ROW(B21)=$E$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="2" stopIfTrue="1">
       <formula>COLUMN(B21)=$F$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2126,10 +2194,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2174,7 +2242,7 @@
         <v>79</v>
       </c>
       <c r="K1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -2226,25 +2294,63 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="F3">
+        <f t="shared" ref="F3:H4" si="0">1/7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>78</v>
+      </c>
+      <c r="K3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="C4">
         <f>1/7</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="G3">
+      <c r="D4">
         <f>1/7</f>
         <v>0.14285714285714285</v>
       </c>
-      <c r="H3">
-        <f>1/7</f>
+      <c r="E4">
+        <f>2/7</f>
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
         <v>0.14285714285714285</v>
       </c>
-      <c r="I3" t="b">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="0"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I4" t="b">
         <v>1</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J4" t="s">
         <v>78</v>
       </c>
-      <c r="K3" t="b">
-        <v>1</v>
+      <c r="K4" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2264,7 +2370,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="D25:E27"/>
+      <selection activeCell="A21" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.6640625" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2842,26 +2948,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A19">
-    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="5" stopIfTrue="1">
       <formula>ROW(A2)=$C$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="6" stopIfTrue="1">
       <formula>COLUMN(A2)=$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="3" stopIfTrue="1">
       <formula>ROW(A21)=$C$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="4" stopIfTrue="1">
       <formula>COLUMN(A21)=$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="1" stopIfTrue="1">
       <formula>ROW(A21)=$E$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="2" stopIfTrue="1">
       <formula>COLUMN(A21)=$F$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2881,7 +2987,7 @@
   <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="A21" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4147,26 +4253,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S20 A21:B21 S21">
-    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
       <formula>ROW(A2)=$C$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
       <formula>COLUMN(A2)=$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:M21">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="3" stopIfTrue="1">
       <formula>ROW(C21)=$E$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
       <formula>COLUMN(C21)=$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:R21">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="1" stopIfTrue="1">
       <formula>ROW(N21)=$E$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="2" stopIfTrue="1">
       <formula>COLUMN(N21)=$F$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4488,15 +4594,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003C4402FDC8975A4FB65AB474AF423692" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="293b87d96ae3165967deaddc9dd3a283">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="871f9270-bc3b-4105-9923-e7982e1cb312" xmlns:ns4="000447b7-86fa-4362-939e-855579e16124" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="23a07973a4b986d214a26a52ed717842" ns3:_="" ns4:_="">
     <xsd:import namespace="871f9270-bc3b-4105-9923-e7982e1cb312"/>
@@ -4713,21 +4810,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
 </p:properties>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C60666F-AED0-4727-A902-9CA0ACF4D344}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C172DDCE-6A5B-4F5B-846C-532884D79266}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4746,7 +4844,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9544B578-CE8A-4753-8E47-B2C52E32EEC4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
@@ -4761,4 +4859,12 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C60666F-AED0-4727-A902-9CA0ACF4D344}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Input.xlsx
+++ b/Input.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="125">
   <si>
     <t>IFN</t>
   </si>
@@ -259,9 +259,6 @@
     <t>Tol</t>
   </si>
   <si>
-    <t>Linearization factor</t>
-  </si>
-  <si>
     <t>Methane</t>
   </si>
   <si>
@@ -391,22 +388,22 @@
     <t>UREA</t>
   </si>
   <si>
-    <t xml:space="preserve">Limousin </t>
-  </si>
-  <si>
-    <t>GSS</t>
-  </si>
-  <si>
     <t>Normalize</t>
   </si>
   <si>
-    <t>GSS-MAX_CO2</t>
-  </si>
-  <si>
-    <t>GSS-MAX_BALANCED</t>
-  </si>
-  <si>
-    <t>GSS-MAX_BALANCED_N</t>
+    <t>Baled grass, temporary meadow, with clover, Northwestern region, at farm/FR S</t>
+  </si>
+  <si>
+    <t>Grass silage, horizontal silo, temporary meadow, with clover, Northwestern region, at farm/FR S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charolais </t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -416,7 +413,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -448,6 +445,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -528,7 +532,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
@@ -585,6 +589,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1010,9 +1022,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:V4" totalsRowShown="0">
-  <autoFilter ref="A1:V4"/>
-  <tableColumns count="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:U2" totalsRowShown="0">
+  <autoFilter ref="A1:U2"/>
+  <tableColumns count="21">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Feed Scenario"/>
     <tableColumn id="3" name="Breed"/>
@@ -1026,7 +1038,6 @@
     <tableColumn id="11" name="a2"/>
     <tableColumn id="12" name="PH"/>
     <tableColumn id="13" name="Selling Price"/>
-    <tableColumn id="14" name="Linearization factor"/>
     <tableColumn id="15" name="Algorithm"/>
     <tableColumn id="16" name="Identifier"/>
     <tableColumn id="17" name="LB"/>
@@ -1041,8 +1052,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F21" totalsRowShown="0" dataDxfId="49">
-  <autoFilter ref="A1:F21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F22" totalsRowShown="0" dataDxfId="49">
+  <autoFilter ref="A1:F22"/>
   <sortState ref="B2:F30">
     <sortCondition ref="B1:B30"/>
   </sortState>
@@ -1061,8 +1072,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:K4" totalsRowShown="0">
-  <autoFilter ref="A1:K4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:K5" totalsRowShown="0">
+  <autoFilter ref="A1:K5"/>
   <tableColumns count="11">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="4" name="LCA weight"/>
@@ -1081,8 +1092,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela26" displayName="Tabela26" ref="A1:H21" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
-  <autoFilter ref="A1:H21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela26" displayName="Tabela26" ref="A1:H23" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+  <autoFilter ref="A1:H23"/>
   <sortState ref="A2:C15">
     <sortCondition ref="A1:A15"/>
   </sortState>
@@ -1103,8 +1114,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:S21" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
-  <autoFilter ref="A1:S21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:S23" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+  <autoFilter ref="A1:S23"/>
   <sortState ref="A2:BF219">
     <sortCondition ref="A4:A5"/>
   </sortState>
@@ -1399,10 +1410,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:V4"/>
+  <dimension ref="A1:U2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1420,24 +1431,23 @@
     <col min="11" max="11" width="5.21875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="6" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.88671875" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.21875" customWidth="1"/>
+    <col min="16" max="16" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
         <v>61</v>
@@ -1446,10 +1456,10 @@
         <v>62</v>
       </c>
       <c r="E1" t="s">
+        <v>100</v>
+      </c>
+      <c r="F1" t="s">
         <v>101</v>
-      </c>
-      <c r="F1" t="s">
-        <v>102</v>
       </c>
       <c r="G1" t="s">
         <v>63</v>
@@ -1473,34 +1483,31 @@
         <v>69</v>
       </c>
       <c r="N1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="O1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="P1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="R1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="T1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U1" t="s">
         <v>81</v>
       </c>
-      <c r="U1" t="s">
-        <v>88</v>
-      </c>
-      <c r="V1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1508,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D2">
         <v>375</v>
@@ -1535,170 +1542,38 @@
         <v>6.2</v>
       </c>
       <c r="M2">
-        <v>2.44</v>
-      </c>
-      <c r="N2">
-        <v>0.87</v>
+        <v>3.84</v>
+      </c>
+      <c r="N2" t="s">
+        <v>123</v>
       </c>
       <c r="O2" t="s">
-        <v>121</v>
-      </c>
-      <c r="P2" t="s">
-        <v>123</v>
+        <v>124</v>
+      </c>
+      <c r="P2">
+        <v>1.17</v>
       </c>
       <c r="Q2">
-        <v>1.17</v>
+        <v>1.91</v>
       </c>
       <c r="R2">
-        <v>1.91</v>
+        <v>1E-3</v>
       </c>
       <c r="S2">
-        <v>1E-3</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2" t="b">
-        <v>1</v>
-      </c>
-      <c r="V2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D3">
-        <v>375</v>
-      </c>
-      <c r="F3">
-        <v>620</v>
-      </c>
-      <c r="G3">
-        <v>5</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>6.2</v>
-      </c>
-      <c r="M3">
-        <v>2.44</v>
-      </c>
-      <c r="N3">
-        <v>0.87</v>
-      </c>
-      <c r="O3" t="s">
-        <v>121</v>
-      </c>
-      <c r="P3" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q3">
-        <v>1.17</v>
-      </c>
-      <c r="R3">
-        <v>1.91</v>
-      </c>
-      <c r="S3">
-        <v>1E-3</v>
-      </c>
-      <c r="T3">
-        <v>2</v>
-      </c>
-      <c r="U3" t="b">
-        <v>1</v>
-      </c>
-      <c r="V3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4">
-        <v>375</v>
-      </c>
-      <c r="F4">
-        <v>620</v>
-      </c>
-      <c r="G4">
-        <v>5</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>6.2</v>
-      </c>
-      <c r="M4">
-        <v>2.44</v>
-      </c>
-      <c r="N4">
-        <v>0.87</v>
-      </c>
-      <c r="O4" t="s">
-        <v>121</v>
-      </c>
-      <c r="P4" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q4">
-        <v>1.17</v>
-      </c>
-      <c r="R4">
-        <v>1.91</v>
-      </c>
-      <c r="S4">
-        <v>1E-3</v>
-      </c>
-      <c r="T4">
-        <v>3</v>
-      </c>
-      <c r="U4" t="b">
-        <v>1</v>
-      </c>
-      <c r="V4" t="s">
-        <v>83</v>
+        <v>-1</v>
+      </c>
+      <c r="T2" t="b">
+        <v>0</v>
+      </c>
+      <c r="U2" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1708,10 +1583,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B21"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1727,19 +1602,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
         <v>56</v>
       </c>
       <c r="C1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" t="s">
         <v>85</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>86</v>
-      </c>
-      <c r="E1" t="s">
-        <v>87</v>
       </c>
       <c r="F1" t="s">
         <v>70</v>
@@ -2127,46 +2002,67 @@
       <c r="A20" s="28">
         <v>1</v>
       </c>
-      <c r="B20" s="28">
-        <v>263</v>
+      <c r="B20" s="36">
+        <v>845</v>
       </c>
       <c r="C20" s="28">
         <v>0</v>
       </c>
       <c r="D20" s="28">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="E20" s="29">
-        <v>0.15</v>
+        <v>0.4</v>
       </c>
       <c r="F20" s="30" t="str">
         <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
-        <v>Corn Silage Processed 25 DM 41 NDF Medium</v>
+        <v>UREA</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="28">
+      <c r="A21" s="14">
         <v>1</v>
       </c>
-      <c r="B21" s="36">
-        <v>845</v>
-      </c>
-      <c r="C21" s="28">
-        <v>0</v>
-      </c>
-      <c r="D21" s="28">
+      <c r="B21" s="20">
+        <v>101</v>
+      </c>
+      <c r="C21" s="14">
+        <v>0</v>
+      </c>
+      <c r="D21" s="14">
         <v>100</v>
       </c>
       <c r="E21" s="29">
-        <v>0.4</v>
-      </c>
-      <c r="F21" s="30" t="str">
+        <v>0.3</v>
+      </c>
+      <c r="F21" s="22" t="str">
         <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
-        <v>UREA</v>
+        <v>Baled grass, temporary meadow, with clover, Northwestern region, at farm/FR S</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="14">
+        <v>1</v>
+      </c>
+      <c r="B22" s="20">
+        <v>102</v>
+      </c>
+      <c r="C22" s="14">
+        <v>0</v>
+      </c>
+      <c r="D22" s="14">
+        <v>100</v>
+      </c>
+      <c r="E22" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="F22" s="22" t="str">
+        <f>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</f>
+        <v>Grass silage, horizontal silo, temporary meadow, with clover, Northwestern region, at farm/FR S</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B21">
+  <conditionalFormatting sqref="B2:B22">
     <cfRule type="expression" dxfId="53" priority="3" stopIfTrue="1">
       <formula>ROW(B2)=$C$1</formula>
     </cfRule>
@@ -2174,17 +2070,18 @@
       <formula>COLUMN(B2)=$D$1</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B21">
+  <conditionalFormatting sqref="B20">
     <cfRule type="expression" dxfId="51" priority="1" stopIfTrue="1">
-      <formula>ROW(B21)=$E$1</formula>
+      <formula>ROW(B20)=$E$1</formula>
     </cfRule>
     <cfRule type="expression" dxfId="50" priority="2" stopIfTrue="1">
-      <formula>COLUMN(B21)=$F$1</formula>
+      <formula>COLUMN(B20)=$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2194,10 +2091,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2215,34 +2112,34 @@
         <v>56</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="16" t="s">
-        <v>100</v>
-      </c>
       <c r="I1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
@@ -2271,7 +2168,7 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K2" t="b">
         <v>0</v>
@@ -2309,7 +2206,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K3" t="b">
         <v>1</v>
@@ -2347,10 +2244,42 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K4" t="b">
         <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0.2</v>
+      </c>
+      <c r="D5">
+        <v>0.2</v>
+      </c>
+      <c r="E5">
+        <v>0.4</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.2</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2367,10 +2296,10 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A2:A21"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.6640625" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2388,22 +2317,22 @@
         <v>70</v>
       </c>
       <c r="C1" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="E1" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="F1" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="G1" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="19" t="s">
         <v>92</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="H1" s="19" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
@@ -2944,6 +2873,58 @@
       </c>
       <c r="H21" s="27">
         <v>0.29275619000000003</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="39">
+        <v>101</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="40">
+        <v>7.2338821999999997E-3</v>
+      </c>
+      <c r="D22" s="39">
+        <v>2.1388340000000001</v>
+      </c>
+      <c r="E22" s="39">
+        <v>0.31076082999999999</v>
+      </c>
+      <c r="F22" s="39">
+        <v>3.6478406000000001E-3</v>
+      </c>
+      <c r="G22" s="39">
+        <v>9.9511690999999993E-4</v>
+      </c>
+      <c r="H22" s="39">
+        <v>1.448909</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="39">
+        <v>102</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="40">
+        <v>1.398646E-5</v>
+      </c>
+      <c r="D23" s="39">
+        <v>1.0869945000000001</v>
+      </c>
+      <c r="E23" s="39">
+        <v>0.18026732000000001</v>
+      </c>
+      <c r="F23" s="39">
+        <v>7.1452427000000002E-3</v>
+      </c>
+      <c r="G23" s="39">
+        <v>1.8322938999999999E-3</v>
+      </c>
+      <c r="H23" s="39">
+        <v>1.1594272000000001</v>
       </c>
     </row>
   </sheetData>
@@ -2984,10 +2965,10 @@
   <sheetPr codeName="Sheet5">
     <tabColor theme="2"/>
   </sheetPr>
-  <dimension ref="A1:S21"/>
+  <dimension ref="A1:S23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A2:A21"/>
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3076,7 +3057,7 @@
         <v>159</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C2" s="3">
         <v>0</v>
@@ -3135,7 +3116,7 @@
         <v>169</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C3" s="3">
         <v>0</v>
@@ -3194,7 +3175,7 @@
         <v>520</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="3">
         <v>0</v>
@@ -3253,7 +3234,7 @@
         <v>242</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C5" s="3">
         <v>0</v>
@@ -3312,7 +3293,7 @@
         <v>211</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -3371,7 +3352,7 @@
         <v>511</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C7" s="3">
         <v>0</v>
@@ -3430,7 +3411,7 @@
         <v>119</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
@@ -3489,7 +3470,7 @@
         <v>535</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
@@ -3548,7 +3529,7 @@
         <v>539</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="3">
         <v>0</v>
@@ -3607,7 +3588,7 @@
         <v>519</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="3">
         <v>0</v>
@@ -3666,7 +3647,7 @@
         <v>525</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="3">
         <v>0</v>
@@ -3784,7 +3765,7 @@
         <v>127</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="3">
         <v>0</v>
@@ -3902,7 +3883,7 @@
         <v>508</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" s="3">
         <v>0</v>
@@ -3961,7 +3942,7 @@
         <v>244</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C17" s="3">
         <v>0</v>
@@ -4020,7 +4001,7 @@
         <v>248</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C18" s="3">
         <v>0</v>
@@ -4138,7 +4119,7 @@
         <v>263</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" s="3">
         <v>100</v>
@@ -4197,7 +4178,7 @@
         <v>845</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C21" s="3">
         <v>0</v>
@@ -4249,6 +4230,124 @@
       </c>
       <c r="S21" s="3">
         <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="24">
+        <v>101</v>
+      </c>
+      <c r="B22" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22" s="3">
+        <v>100</v>
+      </c>
+      <c r="D22" s="38">
+        <v>70.83</v>
+      </c>
+      <c r="E22" s="38">
+        <v>10.63</v>
+      </c>
+      <c r="F22" s="23">
+        <v>39</v>
+      </c>
+      <c r="G22" s="23">
+        <v>14.3</v>
+      </c>
+      <c r="H22" s="23">
+        <v>0</v>
+      </c>
+      <c r="I22" s="23">
+        <v>0</v>
+      </c>
+      <c r="J22" s="23">
+        <v>2.8</v>
+      </c>
+      <c r="K22" s="38">
+        <v>8.48</v>
+      </c>
+      <c r="L22" s="23">
+        <v>9.89</v>
+      </c>
+      <c r="M22" s="38">
+        <v>46</v>
+      </c>
+      <c r="N22" s="38">
+        <v>2.57</v>
+      </c>
+      <c r="O22" s="3">
+        <v>49.599998474121094</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0.94999998807907104</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0.40000000596046448</v>
+      </c>
+      <c r="R22" s="23">
+        <v>29</v>
+      </c>
+      <c r="S22" s="23">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="24">
+        <v>102</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="3">
+        <v>100</v>
+      </c>
+      <c r="D23" s="3">
+        <v>33.76</v>
+      </c>
+      <c r="E23" s="3">
+        <v>13.23</v>
+      </c>
+      <c r="F23" s="3">
+        <v>70</v>
+      </c>
+      <c r="G23" s="3">
+        <v>5</v>
+      </c>
+      <c r="H23" s="3">
+        <v>1.62</v>
+      </c>
+      <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2.44</v>
+      </c>
+      <c r="K23" s="3">
+        <v>4.1999998092651367</v>
+      </c>
+      <c r="L23" s="3">
+        <v>32.549999237060547</v>
+      </c>
+      <c r="M23" s="3">
+        <v>53.38</v>
+      </c>
+      <c r="N23" s="3">
+        <v>7</v>
+      </c>
+      <c r="O23" s="3">
+        <v>72.900001525878906</v>
+      </c>
+      <c r="P23" s="3">
+        <v>1.7200000286102295</v>
+      </c>
+      <c r="Q23" s="3">
+        <v>1.1000000238418579</v>
+      </c>
+      <c r="R23" s="3">
+        <v>17</v>
+      </c>
+      <c r="S23" s="3">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -4594,6 +4693,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003C4402FDC8975A4FB65AB474AF423692" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="293b87d96ae3165967deaddc9dd3a283">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="871f9270-bc3b-4105-9923-e7982e1cb312" xmlns:ns4="000447b7-86fa-4362-939e-855579e16124" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="23a07973a4b986d214a26a52ed717842" ns3:_="" ns4:_="">
     <xsd:import namespace="871f9270-bc3b-4105-9923-e7982e1cb312"/>
@@ -4810,36 +4924,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C172DDCE-6A5B-4F5B-846C-532884D79266}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C60666F-AED0-4727-A902-9CA0ACF4D344}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="871f9270-bc3b-4105-9923-e7982e1cb312"/>
-    <ds:schemaRef ds:uri="000447b7-86fa-4362-939e-855579e16124"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4862,9 +4950,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C60666F-AED0-4727-A902-9CA0ACF4D344}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C172DDCE-6A5B-4F5B-846C-532884D79266}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="871f9270-bc3b-4105-9923-e7982e1cb312"/>
+    <ds:schemaRef ds:uri="000447b7-86fa-4362-939e-855579e16124"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Input.xlsx
+++ b/Input.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="134">
   <si>
     <t>IFN</t>
   </si>
@@ -404,6 +404,33 @@
   </si>
   <si>
     <t>Test</t>
+  </si>
+  <si>
+    <t>GSS-MAX_CO2</t>
+  </si>
+  <si>
+    <t>GSS-MAX_BALANCED_N</t>
+  </si>
+  <si>
+    <t>GSS-MAX_BALANCED_FLOR</t>
+  </si>
+  <si>
+    <t>GSS</t>
+  </si>
+  <si>
+    <t>GSS-MAX_BALANCED</t>
+  </si>
+  <si>
+    <t>GSS-MAX_BALANCED_FLOR_N</t>
+  </si>
+  <si>
+    <t>GSS-MAX_CO2_MONO</t>
+  </si>
+  <si>
+    <t>DMI Equation</t>
+  </si>
+  <si>
+    <t>NRC2016</t>
   </si>
 </sst>
 </file>
@@ -603,6 +630,134 @@
   </cellStyles>
   <dxfs count="54">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
@@ -713,54 +868,6 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -868,54 +975,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -976,38 +1035,6 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1022,9 +1049,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:U2" totalsRowShown="0">
-  <autoFilter ref="A1:U2"/>
-  <tableColumns count="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:V8" totalsRowShown="0">
+  <autoFilter ref="A1:V8"/>
+  <tableColumns count="22">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="2" name="Feed Scenario"/>
     <tableColumn id="3" name="Breed"/>
@@ -1043,6 +1070,7 @@
     <tableColumn id="17" name="LB"/>
     <tableColumn id="18" name="UB"/>
     <tableColumn id="19" name="Tol"/>
+    <tableColumn id="14" name="DMI Equation"/>
     <tableColumn id="20" name="LCA ID"/>
     <tableColumn id="21" name="Multiobjective"/>
     <tableColumn id="22" name="Obj"/>
@@ -1052,18 +1080,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F22" totalsRowShown="0" dataDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F22" totalsRowShown="0" dataDxfId="53">
   <autoFilter ref="A1:F22"/>
   <sortState ref="B2:F30">
     <sortCondition ref="B1:B30"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="6" name="Feed Scenario" dataDxfId="48"/>
-    <tableColumn id="1" name="ID" dataDxfId="47"/>
-    <tableColumn id="2" name="Min %DM" dataDxfId="46"/>
-    <tableColumn id="3" name="Max %DM" dataDxfId="45"/>
-    <tableColumn id="4" name="Cost [US$/kg AF]" dataDxfId="44"/>
-    <tableColumn id="5" name="Name" dataDxfId="43">
+    <tableColumn id="6" name="Feed Scenario" dataDxfId="52"/>
+    <tableColumn id="1" name="ID" dataDxfId="51"/>
+    <tableColumn id="2" name="Min %DM" dataDxfId="50"/>
+    <tableColumn id="3" name="Max %DM" dataDxfId="49"/>
+    <tableColumn id="4" name="Cost [US$/kg AF]" dataDxfId="48"/>
+    <tableColumn id="5" name="Name" dataDxfId="47">
       <calculatedColumnFormula>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1072,8 +1100,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:K5" totalsRowShown="0">
-  <autoFilter ref="A1:K5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:K6" totalsRowShown="0">
+  <autoFilter ref="A1:K6"/>
   <tableColumns count="11">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="4" name="LCA weight"/>
@@ -1092,53 +1120,53 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela26" displayName="Tabela26" ref="A1:H23" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela26" displayName="Tabela26" ref="A1:H23" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
   <autoFilter ref="A1:H23"/>
   <sortState ref="A2:C15">
     <sortCondition ref="A1:A15"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="ID" dataDxfId="34"/>
-    <tableColumn id="5" name="Name" dataDxfId="33">
+    <tableColumn id="1" name="ID" dataDxfId="44"/>
+    <tableColumn id="5" name="Name" dataDxfId="43">
       <calculatedColumnFormula>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="LCA_Phosphorous consumption (kg P)" dataDxfId="32"/>
-    <tableColumn id="3" name="LCA_CED 1.8 non renewable fossil+nuclear (MJ)" dataDxfId="31"/>
-    <tableColumn id="4" name="LCA_Climate change ILCD (kg CO2 eq)" dataDxfId="30"/>
-    <tableColumn id="7" name="LCA_Acidification ILCD (molc H+ eq)" dataDxfId="29"/>
-    <tableColumn id="8" name="LCA_Eutrophication CML baseline (kg PO4- eq)" dataDxfId="28"/>
-    <tableColumn id="9" name="LCA_Land competition CML non baseline (m2a)" dataDxfId="27"/>
+    <tableColumn id="2" name="LCA_Phosphorous consumption (kg P)" dataDxfId="42"/>
+    <tableColumn id="3" name="LCA_CED 1.8 non renewable fossil+nuclear (MJ)" dataDxfId="41"/>
+    <tableColumn id="4" name="LCA_Climate change ILCD (kg CO2 eq)" dataDxfId="40"/>
+    <tableColumn id="7" name="LCA_Acidification ILCD (molc H+ eq)" dataDxfId="39"/>
+    <tableColumn id="8" name="LCA_Eutrophication CML baseline (kg PO4- eq)" dataDxfId="38"/>
+    <tableColumn id="9" name="LCA_Land competition CML non baseline (m2a)" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:S23" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:S23" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A1:S23"/>
   <sortState ref="A2:BF219">
     <sortCondition ref="A4:A5"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="ID" dataDxfId="18"/>
-    <tableColumn id="2" name="Feed" dataDxfId="17"/>
-    <tableColumn id="7" name="Forage, %DM" dataDxfId="16"/>
-    <tableColumn id="8" name="DM, %AF" dataDxfId="15"/>
-    <tableColumn id="16" name="CP, %DM" dataDxfId="14"/>
-    <tableColumn id="31" name="SP, %CP" dataDxfId="13"/>
-    <tableColumn id="29" name="ADICP, %CP" dataDxfId="12"/>
-    <tableColumn id="24" name="Sugars, %DM" dataDxfId="11"/>
-    <tableColumn id="25" name="OA, %DM" dataDxfId="10"/>
-    <tableColumn id="23" name="Fat, %DM" dataDxfId="9"/>
-    <tableColumn id="9" name="Ash, %DM" dataDxfId="8"/>
-    <tableColumn id="10" name="Starch, %DM" dataDxfId="7"/>
-    <tableColumn id="12" name="NDF, %DM" dataDxfId="6"/>
-    <tableColumn id="13" name="Lignin, %DM" dataDxfId="5"/>
-    <tableColumn id="14" name="TDN, %DM" dataDxfId="4"/>
-    <tableColumn id="18" name="NEma, Mcal/kg" dataDxfId="3"/>
-    <tableColumn id="19" name="NEga, Mcal/kg" dataDxfId="2"/>
-    <tableColumn id="21" name="RUP, %CP" dataDxfId="1"/>
-    <tableColumn id="20" name="pef, %NDF" dataDxfId="0"/>
+    <tableColumn id="1" name="ID" dataDxfId="34"/>
+    <tableColumn id="2" name="Feed" dataDxfId="33"/>
+    <tableColumn id="7" name="Forage, %DM" dataDxfId="32"/>
+    <tableColumn id="8" name="DM, %AF" dataDxfId="31"/>
+    <tableColumn id="16" name="CP, %DM" dataDxfId="30"/>
+    <tableColumn id="31" name="SP, %CP" dataDxfId="29"/>
+    <tableColumn id="29" name="ADICP, %CP" dataDxfId="28"/>
+    <tableColumn id="24" name="Sugars, %DM" dataDxfId="27"/>
+    <tableColumn id="25" name="OA, %DM" dataDxfId="26"/>
+    <tableColumn id="23" name="Fat, %DM" dataDxfId="25"/>
+    <tableColumn id="9" name="Ash, %DM" dataDxfId="24"/>
+    <tableColumn id="10" name="Starch, %DM" dataDxfId="23"/>
+    <tableColumn id="12" name="NDF, %DM" dataDxfId="22"/>
+    <tableColumn id="13" name="Lignin, %DM" dataDxfId="21"/>
+    <tableColumn id="14" name="TDN, %DM" dataDxfId="20"/>
+    <tableColumn id="18" name="NEma, Mcal/kg" dataDxfId="19"/>
+    <tableColumn id="19" name="NEga, Mcal/kg" dataDxfId="18"/>
+    <tableColumn id="21" name="RUP, %CP" dataDxfId="17"/>
+    <tableColumn id="20" name="pef, %NDF" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1410,10 +1438,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:U2"/>
+  <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="S2" sqref="S2:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1432,17 +1460,18 @@
     <col min="12" max="12" width="5.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.21875" customWidth="1"/>
+    <col min="15" max="15" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="5.21875" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8.88671875" customWidth="1"/>
+    <col min="19" max="19" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -1498,16 +1527,19 @@
         <v>75</v>
       </c>
       <c r="S1" t="s">
+        <v>132</v>
+      </c>
+      <c r="T1" t="s">
         <v>80</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>87</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1551,21 +1583,414 @@
         <v>124</v>
       </c>
       <c r="P2">
-        <v>1.17</v>
+        <v>0.96</v>
       </c>
       <c r="Q2">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="R2">
         <v>1E-3</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="s">
+        <v>133</v>
+      </c>
+      <c r="T2">
         <v>-1</v>
       </c>
-      <c r="T2" t="b">
-        <v>0</v>
-      </c>
-      <c r="U2" t="s">
+      <c r="U2" t="b">
+        <v>0</v>
+      </c>
+      <c r="V2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3">
+        <v>375</v>
+      </c>
+      <c r="F3">
+        <v>620</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>6.2</v>
+      </c>
+      <c r="M3">
+        <v>3.84</v>
+      </c>
+      <c r="N3" t="s">
+        <v>128</v>
+      </c>
+      <c r="O3" t="s">
+        <v>131</v>
+      </c>
+      <c r="P3">
+        <v>0.96</v>
+      </c>
+      <c r="Q3">
+        <v>2.02</v>
+      </c>
+      <c r="R3">
+        <v>1E-3</v>
+      </c>
+      <c r="S3" t="s">
+        <v>133</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
+      </c>
+      <c r="U3" t="b">
+        <v>0</v>
+      </c>
+      <c r="V3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D4">
+        <v>375</v>
+      </c>
+      <c r="F4">
+        <v>620</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>6.2</v>
+      </c>
+      <c r="M4">
+        <v>3.84</v>
+      </c>
+      <c r="N4" t="s">
+        <v>128</v>
+      </c>
+      <c r="O4" t="s">
+        <v>125</v>
+      </c>
+      <c r="P4">
+        <v>0.96</v>
+      </c>
+      <c r="Q4">
+        <v>2.02</v>
+      </c>
+      <c r="R4">
+        <v>1E-3</v>
+      </c>
+      <c r="S4" t="s">
+        <v>133</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4" t="b">
+        <v>1</v>
+      </c>
+      <c r="V4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D5">
+        <v>375</v>
+      </c>
+      <c r="F5">
+        <v>620</v>
+      </c>
+      <c r="G5">
+        <v>5</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>6.2</v>
+      </c>
+      <c r="M5">
+        <v>3.84</v>
+      </c>
+      <c r="N5" t="s">
+        <v>128</v>
+      </c>
+      <c r="O5" t="s">
+        <v>126</v>
+      </c>
+      <c r="P5">
+        <v>0.96</v>
+      </c>
+      <c r="Q5">
+        <v>2.02</v>
+      </c>
+      <c r="R5">
+        <v>1E-3</v>
+      </c>
+      <c r="S5" t="s">
+        <v>133</v>
+      </c>
+      <c r="T5">
+        <v>2</v>
+      </c>
+      <c r="U5" t="b">
+        <v>1</v>
+      </c>
+      <c r="V5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6">
+        <v>375</v>
+      </c>
+      <c r="F6">
+        <v>620</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>6.2</v>
+      </c>
+      <c r="M6">
+        <v>3.84</v>
+      </c>
+      <c r="N6" t="s">
+        <v>128</v>
+      </c>
+      <c r="O6" t="s">
+        <v>129</v>
+      </c>
+      <c r="P6">
+        <v>0.96</v>
+      </c>
+      <c r="Q6">
+        <v>2.02</v>
+      </c>
+      <c r="R6">
+        <v>1E-3</v>
+      </c>
+      <c r="S6" t="s">
+        <v>133</v>
+      </c>
+      <c r="T6">
+        <v>3</v>
+      </c>
+      <c r="U6" t="b">
+        <v>1</v>
+      </c>
+      <c r="V6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
+      <c r="D7">
+        <v>375</v>
+      </c>
+      <c r="F7">
+        <v>620</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>6.2</v>
+      </c>
+      <c r="M7">
+        <v>3.84</v>
+      </c>
+      <c r="N7" t="s">
+        <v>128</v>
+      </c>
+      <c r="O7" t="s">
+        <v>130</v>
+      </c>
+      <c r="P7">
+        <v>0.96</v>
+      </c>
+      <c r="Q7">
+        <v>2.02</v>
+      </c>
+      <c r="R7">
+        <v>1E-3</v>
+      </c>
+      <c r="S7" t="s">
+        <v>133</v>
+      </c>
+      <c r="T7">
+        <v>4</v>
+      </c>
+      <c r="U7" t="b">
+        <v>1</v>
+      </c>
+      <c r="V7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>122</v>
+      </c>
+      <c r="D8">
+        <v>375</v>
+      </c>
+      <c r="F8">
+        <v>620</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>6.2</v>
+      </c>
+      <c r="M8">
+        <v>3.84</v>
+      </c>
+      <c r="N8" t="s">
+        <v>128</v>
+      </c>
+      <c r="O8" t="s">
+        <v>127</v>
+      </c>
+      <c r="P8">
+        <v>0.96</v>
+      </c>
+      <c r="Q8">
+        <v>2.02</v>
+      </c>
+      <c r="R8">
+        <v>1E-3</v>
+      </c>
+      <c r="S8" t="s">
+        <v>133</v>
+      </c>
+      <c r="T8">
+        <v>5</v>
+      </c>
+      <c r="U8" t="b">
+        <v>1</v>
+      </c>
+      <c r="V8" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2063,18 +2488,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B22">
-    <cfRule type="expression" dxfId="53" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
       <formula>ROW(B2)=$C$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="52" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
       <formula>COLUMN(B2)=$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="51" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
       <formula>ROW(B20)=$E$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="50" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
       <formula>COLUMN(B20)=$F$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2091,10 +2516,10 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2280,6 +2705,38 @@
       </c>
       <c r="K5" t="b">
         <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>0.2</v>
+      </c>
+      <c r="D6">
+        <v>0.2</v>
+      </c>
+      <c r="E6">
+        <v>0.4</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0.2</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2929,26 +3386,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A19">
-    <cfRule type="expression" dxfId="42" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
       <formula>ROW(A2)=$C$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
       <formula>COLUMN(A2)=$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="40" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
       <formula>ROW(A21)=$C$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
       <formula>COLUMN(A21)=$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="38" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
       <formula>ROW(A21)=$E$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
       <formula>COLUMN(A21)=$F$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4352,26 +4809,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S20 A21:B21 S21">
-    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
       <formula>ROW(A2)=$C$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
       <formula>COLUMN(A2)=$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:M21">
-    <cfRule type="expression" dxfId="24" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>ROW(C21)=$E$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
       <formula>COLUMN(C21)=$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:R21">
-    <cfRule type="expression" dxfId="22" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>ROW(N21)=$E$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
       <formula>COLUMN(N21)=$F$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4693,21 +5150,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003C4402FDC8975A4FB65AB474AF423692" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="293b87d96ae3165967deaddc9dd3a283">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="871f9270-bc3b-4105-9923-e7982e1cb312" xmlns:ns4="000447b7-86fa-4362-939e-855579e16124" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="23a07973a4b986d214a26a52ed717842" ns3:_="" ns4:_="">
     <xsd:import namespace="871f9270-bc3b-4105-9923-e7982e1cb312"/>
@@ -4924,32 +5366,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C60666F-AED0-4727-A902-9CA0ACF4D344}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9544B578-CE8A-4753-8E47-B2C52E32EEC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="000447b7-86fa-4362-939e-855579e16124"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="871f9270-bc3b-4105-9923-e7982e1cb312"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C172DDCE-6A5B-4F5B-846C-532884D79266}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4966,4 +5398,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C60666F-AED0-4727-A902-9CA0ACF4D344}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9544B578-CE8A-4753-8E47-B2C52E32EEC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="000447b7-86fa-4362-939e-855579e16124"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="871f9270-bc3b-4105-9923-e7982e1cb312"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Input.xlsx
+++ b/Input.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="136">
   <si>
     <t>IFN</t>
   </si>
@@ -431,6 +431,12 @@
   </si>
   <si>
     <t>NRC2016</t>
+  </si>
+  <si>
+    <t>N2O</t>
+  </si>
+  <si>
+    <t>N2O_Equation</t>
   </si>
 </sst>
 </file>
@@ -630,134 +636,6 @@
   </cellStyles>
   <dxfs count="54">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
@@ -868,6 +746,54 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color auto="1"/>
       </font>
@@ -975,6 +901,54 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -1035,6 +1009,38 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1080,18 +1086,18 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F22" totalsRowShown="0" dataDxfId="53">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela2" displayName="Tabela2" ref="A1:F22" totalsRowShown="0" dataDxfId="49">
   <autoFilter ref="A1:F22"/>
   <sortState ref="B2:F30">
     <sortCondition ref="B1:B30"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="6" name="Feed Scenario" dataDxfId="52"/>
-    <tableColumn id="1" name="ID" dataDxfId="51"/>
-    <tableColumn id="2" name="Min %DM" dataDxfId="50"/>
-    <tableColumn id="3" name="Max %DM" dataDxfId="49"/>
-    <tableColumn id="4" name="Cost [US$/kg AF]" dataDxfId="48"/>
-    <tableColumn id="5" name="Name" dataDxfId="47">
+    <tableColumn id="6" name="Feed Scenario" dataDxfId="48"/>
+    <tableColumn id="1" name="ID" dataDxfId="47"/>
+    <tableColumn id="2" name="Min %DM" dataDxfId="46"/>
+    <tableColumn id="3" name="Max %DM" dataDxfId="45"/>
+    <tableColumn id="4" name="Cost [US$/kg AF]" dataDxfId="44"/>
+    <tableColumn id="5" name="Name" dataDxfId="43">
       <calculatedColumnFormula>VLOOKUP(Tabela2[[#This Row],[ID]],FeedLib[#Data],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1100,9 +1106,9 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:K6" totalsRowShown="0">
-  <autoFilter ref="A1:K6"/>
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table4" displayName="Table4" ref="A1:M6" totalsRowShown="0">
+  <autoFilter ref="A1:M6"/>
+  <tableColumns count="13">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="4" name="LCA weight"/>
     <tableColumn id="3" name="weight_LCA_Phosphorous consumption (kg P)"/>
@@ -1113,6 +1119,8 @@
     <tableColumn id="12" name="weight_LCA_Land competition CML non baseline (m2a)"/>
     <tableColumn id="13" name="Methane"/>
     <tableColumn id="14" name="Methane_Equation"/>
+    <tableColumn id="8" name="N2O"/>
+    <tableColumn id="7" name="N2O_Equation"/>
     <tableColumn id="2" name="Normalize"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1120,53 +1128,53 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela26" displayName="Tabela26" ref="A1:H23" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tabela26" displayName="Tabela26" ref="A1:H23" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A1:H23"/>
   <sortState ref="A2:C15">
     <sortCondition ref="A1:A15"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="ID" dataDxfId="44"/>
-    <tableColumn id="5" name="Name" dataDxfId="43">
+    <tableColumn id="1" name="ID" dataDxfId="34"/>
+    <tableColumn id="5" name="Name" dataDxfId="33">
       <calculatedColumnFormula>VLOOKUP(Tabela26[[#This Row],[ID]],FeedLib[],2,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="LCA_Phosphorous consumption (kg P)" dataDxfId="42"/>
-    <tableColumn id="3" name="LCA_CED 1.8 non renewable fossil+nuclear (MJ)" dataDxfId="41"/>
-    <tableColumn id="4" name="LCA_Climate change ILCD (kg CO2 eq)" dataDxfId="40"/>
-    <tableColumn id="7" name="LCA_Acidification ILCD (molc H+ eq)" dataDxfId="39"/>
-    <tableColumn id="8" name="LCA_Eutrophication CML baseline (kg PO4- eq)" dataDxfId="38"/>
-    <tableColumn id="9" name="LCA_Land competition CML non baseline (m2a)" dataDxfId="37"/>
+    <tableColumn id="2" name="LCA_Phosphorous consumption (kg P)" dataDxfId="32"/>
+    <tableColumn id="3" name="LCA_CED 1.8 non renewable fossil+nuclear (MJ)" dataDxfId="31"/>
+    <tableColumn id="4" name="LCA_Climate change ILCD (kg CO2 eq)" dataDxfId="30"/>
+    <tableColumn id="7" name="LCA_Acidification ILCD (molc H+ eq)" dataDxfId="29"/>
+    <tableColumn id="8" name="LCA_Eutrophication CML baseline (kg PO4- eq)" dataDxfId="28"/>
+    <tableColumn id="9" name="LCA_Land competition CML non baseline (m2a)" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:S23" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:S23" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:S23"/>
   <sortState ref="A2:BF219">
     <sortCondition ref="A4:A5"/>
   </sortState>
   <tableColumns count="19">
-    <tableColumn id="1" name="ID" dataDxfId="34"/>
-    <tableColumn id="2" name="Feed" dataDxfId="33"/>
-    <tableColumn id="7" name="Forage, %DM" dataDxfId="32"/>
-    <tableColumn id="8" name="DM, %AF" dataDxfId="31"/>
-    <tableColumn id="16" name="CP, %DM" dataDxfId="30"/>
-    <tableColumn id="31" name="SP, %CP" dataDxfId="29"/>
-    <tableColumn id="29" name="ADICP, %CP" dataDxfId="28"/>
-    <tableColumn id="24" name="Sugars, %DM" dataDxfId="27"/>
-    <tableColumn id="25" name="OA, %DM" dataDxfId="26"/>
-    <tableColumn id="23" name="Fat, %DM" dataDxfId="25"/>
-    <tableColumn id="9" name="Ash, %DM" dataDxfId="24"/>
-    <tableColumn id="10" name="Starch, %DM" dataDxfId="23"/>
-    <tableColumn id="12" name="NDF, %DM" dataDxfId="22"/>
-    <tableColumn id="13" name="Lignin, %DM" dataDxfId="21"/>
-    <tableColumn id="14" name="TDN, %DM" dataDxfId="20"/>
-    <tableColumn id="18" name="NEma, Mcal/kg" dataDxfId="19"/>
-    <tableColumn id="19" name="NEga, Mcal/kg" dataDxfId="18"/>
-    <tableColumn id="21" name="RUP, %CP" dataDxfId="17"/>
-    <tableColumn id="20" name="pef, %NDF" dataDxfId="16"/>
+    <tableColumn id="1" name="ID" dataDxfId="18"/>
+    <tableColumn id="2" name="Feed" dataDxfId="17"/>
+    <tableColumn id="7" name="Forage, %DM" dataDxfId="16"/>
+    <tableColumn id="8" name="DM, %AF" dataDxfId="15"/>
+    <tableColumn id="16" name="CP, %DM" dataDxfId="14"/>
+    <tableColumn id="31" name="SP, %CP" dataDxfId="13"/>
+    <tableColumn id="29" name="ADICP, %CP" dataDxfId="12"/>
+    <tableColumn id="24" name="Sugars, %DM" dataDxfId="11"/>
+    <tableColumn id="25" name="OA, %DM" dataDxfId="10"/>
+    <tableColumn id="23" name="Fat, %DM" dataDxfId="9"/>
+    <tableColumn id="9" name="Ash, %DM" dataDxfId="8"/>
+    <tableColumn id="10" name="Starch, %DM" dataDxfId="7"/>
+    <tableColumn id="12" name="NDF, %DM" dataDxfId="6"/>
+    <tableColumn id="13" name="Lignin, %DM" dataDxfId="5"/>
+    <tableColumn id="14" name="TDN, %DM" dataDxfId="4"/>
+    <tableColumn id="18" name="NEma, Mcal/kg" dataDxfId="3"/>
+    <tableColumn id="19" name="NEga, Mcal/kg" dataDxfId="2"/>
+    <tableColumn id="21" name="RUP, %CP" dataDxfId="1"/>
+    <tableColumn id="20" name="pef, %NDF" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1441,37 +1449,37 @@
   <dimension ref="A1:V8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:S8"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.44140625" customWidth="1"/>
-    <col min="8" max="8" width="5.33203125" customWidth="1"/>
-    <col min="9" max="9" width="4.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.33203125" customWidth="1"/>
-    <col min="11" max="11" width="5.21875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.42578125" customWidth="1"/>
+    <col min="8" max="8" width="5.28515625" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" customWidth="1"/>
+    <col min="11" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="7" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.88671875" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -1539,9 +1547,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1583,10 +1591,10 @@
         <v>124</v>
       </c>
       <c r="P2">
-        <v>0.96</v>
+        <v>0.8</v>
       </c>
       <c r="Q2">
-        <v>2.02</v>
+        <v>3</v>
       </c>
       <c r="R2">
         <v>1E-3</v>
@@ -1604,9 +1612,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1651,7 +1659,7 @@
         <v>0.96</v>
       </c>
       <c r="Q3">
-        <v>2.02</v>
+        <v>2.006987724268178</v>
       </c>
       <c r="R3">
         <v>1E-3</v>
@@ -1669,9 +1677,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1716,7 +1724,7 @@
         <v>0.96</v>
       </c>
       <c r="Q4">
-        <v>2.02</v>
+        <v>2.006987724268178</v>
       </c>
       <c r="R4">
         <v>1E-3</v>
@@ -1734,9 +1742,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1781,7 +1789,7 @@
         <v>0.96</v>
       </c>
       <c r="Q5">
-        <v>2.02</v>
+        <v>2.006987724268178</v>
       </c>
       <c r="R5">
         <v>1E-3</v>
@@ -1799,9 +1807,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1846,7 +1854,7 @@
         <v>0.96</v>
       </c>
       <c r="Q6">
-        <v>2.02</v>
+        <v>2.006987724268178</v>
       </c>
       <c r="R6">
         <v>1E-3</v>
@@ -1864,7 +1872,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1911,7 +1919,7 @@
         <v>0.96</v>
       </c>
       <c r="Q7">
-        <v>2.02</v>
+        <v>2.006987724268178</v>
       </c>
       <c r="R7">
         <v>1E-3</v>
@@ -1929,9 +1937,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -1976,7 +1984,7 @@
         <v>0.96</v>
       </c>
       <c r="Q8">
-        <v>2.02</v>
+        <v>2.006987724268178</v>
       </c>
       <c r="R8">
         <v>1E-3</v>
@@ -2011,21 +2019,21 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="F29" sqref="F29:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="28.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.88671875" customWidth="1"/>
+    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>79</v>
       </c>
@@ -2045,7 +2053,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -2066,7 +2074,7 @@
         <v>Sugar beet pulp dehydrated</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -2087,7 +2095,7 @@
         <v>Corn gluten feed</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
         <v>1</v>
       </c>
@@ -2108,7 +2116,7 @@
         <v>Corn gluten meal (gluten 60)</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
         <v>1</v>
       </c>
@@ -2129,7 +2137,7 @@
         <v>Faba bean dehulled</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
         <v>1</v>
       </c>
@@ -2150,7 +2158,7 @@
         <v>Molasses</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
         <v>1</v>
       </c>
@@ -2171,7 +2179,7 @@
         <v>Rapeseed meal</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
         <v>1</v>
       </c>
@@ -2192,7 +2200,7 @@
         <v>Rapeseed oil</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
         <v>1</v>
       </c>
@@ -2213,7 +2221,7 @@
         <v>Soybean extruded</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="13">
         <v>1</v>
       </c>
@@ -2234,7 +2242,7 @@
         <v>Sunflower meal low dehulling</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -2255,7 +2263,7 @@
         <v>Sunflower meal without dehulling</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>1</v>
       </c>
@@ -2276,7 +2284,7 @@
         <v>Sunflower meal high dehulling</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>1</v>
       </c>
@@ -2297,7 +2305,7 @@
         <v>Sunflower meal</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>1</v>
       </c>
@@ -2318,7 +2326,7 @@
         <v>Sunflower oil without dehulling</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>1</v>
       </c>
@@ -2339,7 +2347,7 @@
         <v>Wheat bran</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>1</v>
       </c>
@@ -2360,7 +2368,7 @@
         <v>DDGS Wheat</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>1</v>
       </c>
@@ -2381,7 +2389,7 @@
         <v>Wheat feed flour</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>1</v>
       </c>
@@ -2402,7 +2410,7 @@
         <v>Wheat gluten feed</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>1</v>
       </c>
@@ -2423,7 +2431,7 @@
         <v>Wheat middlings</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="28">
         <v>1</v>
       </c>
@@ -2444,7 +2452,7 @@
         <v>UREA</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="14">
         <v>1</v>
       </c>
@@ -2465,7 +2473,7 @@
         <v>Baled grass, temporary meadow, with clover, Northwestern region, at farm/FR S</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="14">
         <v>1</v>
       </c>
@@ -2488,18 +2496,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B22">
-    <cfRule type="expression" dxfId="15" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="53" priority="3" stopIfTrue="1">
       <formula>ROW(B2)=$C$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="52" priority="4" stopIfTrue="1">
       <formula>COLUMN(B2)=$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="1" stopIfTrue="1">
       <formula>ROW(B20)=$E$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="50" priority="2" stopIfTrue="1">
       <formula>COLUMN(B20)=$F$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2516,23 +2524,24 @@
   <sheetPr codeName="Sheet3">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="25.44140625" customWidth="1"/>
-    <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="25.42578125" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="19.7109375" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>56</v>
       </c>
@@ -2564,10 +2573,16 @@
         <v>78</v>
       </c>
       <c r="K1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2596,10 +2611,16 @@
         <v>77</v>
       </c>
       <c r="K2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M2" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2636,8 +2657,14 @@
       <c r="K3" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2672,10 +2699,16 @@
         <v>77</v>
       </c>
       <c r="K4" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2706,8 +2739,14 @@
       <c r="K5" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2736,6 +2775,12 @@
         <v>77</v>
       </c>
       <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2753,20 +2798,20 @@
   <sheetPr codeName="Sheet4">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:H23"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C24" sqref="C24:J32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.6640625" defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.109375" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="21.6640625" style="16"/>
+    <col min="2" max="2" width="39.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="21.7109375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="19" t="s">
         <v>56</v>
       </c>
@@ -2792,7 +2837,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>159</v>
       </c>
@@ -2819,7 +2864,7 @@
         <v>0.54874832600940004</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>169</v>
       </c>
@@ -2846,7 +2891,7 @@
         <v>0.45797083</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>520</v>
       </c>
@@ -2873,7 +2918,7 @@
         <v>2.1646242999999998</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>242</v>
       </c>
@@ -2900,7 +2945,7 @@
         <v>2.3167452000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>211</v>
       </c>
@@ -2927,7 +2972,7 @@
         <v>0.25771561666967402</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>511</v>
       </c>
@@ -2954,7 +2999,7 @@
         <v>1.2141019</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>119</v>
       </c>
@@ -2981,7 +3026,7 @@
         <v>5.7653479000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>535</v>
       </c>
@@ -3008,7 +3053,7 @@
         <v>3.8140402</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>539</v>
       </c>
@@ -3035,7 +3080,7 @@
         <v>1.9794404000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>519</v>
       </c>
@@ -3062,7 +3107,7 @@
         <v>1.6674973</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>525</v>
       </c>
@@ -3089,7 +3134,7 @@
         <v>1.9794404000000001</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>219</v>
       </c>
@@ -3116,7 +3161,7 @@
         <v>1.9794404000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>127</v>
       </c>
@@ -3143,7 +3188,7 @@
         <v>8.7219628999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>243</v>
       </c>
@@ -3170,7 +3215,7 @@
         <v>0.23108432000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>508</v>
       </c>
@@ -3197,7 +3242,7 @@
         <v>0.98323351999999997</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>244</v>
       </c>
@@ -3224,7 +3269,7 @@
         <v>0.33416265000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>248</v>
       </c>
@@ -3251,7 +3296,7 @@
         <v>0.86476154999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>246</v>
       </c>
@@ -3278,7 +3323,7 @@
         <v>0.29275619000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="25">
         <v>263</v>
       </c>
@@ -3305,7 +3350,7 @@
         <v>0.29275619000000003</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="37">
         <v>845</v>
       </c>
@@ -3332,7 +3377,7 @@
         <v>0.29275619000000003</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="39">
         <v>101</v>
       </c>
@@ -3358,7 +3403,7 @@
         <v>1.448909</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39">
         <v>102</v>
       </c>
@@ -3384,28 +3429,118 @@
         <v>1.1594272000000001</v>
       </c>
     </row>
+    <row r="24" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24"/>
+      <c r="D24"/>
+      <c r="E24"/>
+      <c r="F24"/>
+      <c r="G24"/>
+      <c r="H24"/>
+      <c r="I24"/>
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C25"/>
+      <c r="D25"/>
+      <c r="E25"/>
+      <c r="F25"/>
+      <c r="G25"/>
+      <c r="H25"/>
+      <c r="I25"/>
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C26"/>
+      <c r="D26"/>
+      <c r="E26"/>
+      <c r="F26"/>
+      <c r="G26"/>
+      <c r="H26"/>
+      <c r="I26"/>
+      <c r="J26"/>
+    </row>
+    <row r="27" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C27"/>
+      <c r="D27"/>
+      <c r="E27"/>
+      <c r="F27"/>
+      <c r="G27"/>
+      <c r="H27"/>
+      <c r="I27"/>
+      <c r="J27"/>
+    </row>
+    <row r="28" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+    </row>
+    <row r="29" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+    </row>
+    <row r="30" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C30"/>
+      <c r="D30"/>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="J30"/>
+    </row>
+    <row r="31" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+    </row>
+    <row r="32" spans="1:10" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C32"/>
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+      <c r="J32"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A19">
-    <cfRule type="expression" dxfId="11" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="5" stopIfTrue="1">
       <formula>ROW(A2)=$C$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="6" stopIfTrue="1">
       <formula>COLUMN(A2)=$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="9" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="3" stopIfTrue="1">
       <formula>ROW(A21)=$C$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="4" stopIfTrue="1">
       <formula>COLUMN(A21)=$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A21">
-    <cfRule type="expression" dxfId="7" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="1" stopIfTrue="1">
       <formula>ROW(A21)=$E$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="2" stopIfTrue="1">
       <formula>COLUMN(A21)=$F$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3428,29 +3563,29 @@
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -3509,7 +3644,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="20">
         <v>159</v>
       </c>
@@ -3568,7 +3703,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>169</v>
       </c>
@@ -3627,7 +3762,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>520</v>
       </c>
@@ -3686,7 +3821,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="14">
         <v>242</v>
       </c>
@@ -3745,7 +3880,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="14">
         <v>211</v>
       </c>
@@ -3804,7 +3939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="14">
         <v>511</v>
       </c>
@@ -3863,7 +3998,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>119</v>
       </c>
@@ -3922,7 +4057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>535</v>
       </c>
@@ -3981,7 +4116,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>539</v>
       </c>
@@ -4040,7 +4175,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="20">
         <v>519</v>
       </c>
@@ -4099,7 +4234,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="20">
         <v>525</v>
       </c>
@@ -4158,7 +4293,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="20">
         <v>219</v>
       </c>
@@ -4217,7 +4352,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="20">
         <v>127</v>
       </c>
@@ -4276,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="20">
         <v>243</v>
       </c>
@@ -4335,7 +4470,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="20">
         <v>508</v>
       </c>
@@ -4394,7 +4529,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" s="20">
         <v>244</v>
       </c>
@@ -4453,7 +4588,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" s="20">
         <v>248</v>
       </c>
@@ -4512,7 +4647,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="20">
         <v>246</v>
       </c>
@@ -4571,7 +4706,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>263</v>
       </c>
@@ -4630,7 +4765,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>845</v>
       </c>
@@ -4689,7 +4824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <v>101</v>
       </c>
@@ -4748,7 +4883,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <v>102</v>
       </c>
@@ -4809,26 +4944,26 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:S20 A21:B21 S21">
-    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="7" stopIfTrue="1">
       <formula>ROW(A2)=$C$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="8" stopIfTrue="1">
       <formula>COLUMN(A2)=$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:M21">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="3" stopIfTrue="1">
       <formula>ROW(C21)=$E$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="4" stopIfTrue="1">
       <formula>COLUMN(C21)=$F$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N21:R21">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="1" stopIfTrue="1">
       <formula>ROW(N21)=$E$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="2" stopIfTrue="1">
       <formula>COLUMN(N21)=$F$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4849,297 +4984,297 @@
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>55</v>
       </c>
@@ -5150,6 +5285,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101003C4402FDC8975A4FB65AB474AF423692" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="293b87d96ae3165967deaddc9dd3a283">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="871f9270-bc3b-4105-9923-e7982e1cb312" xmlns:ns4="000447b7-86fa-4362-939e-855579e16124" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="23a07973a4b986d214a26a52ed717842" ns3:_="" ns4:_="">
     <xsd:import namespace="871f9270-bc3b-4105-9923-e7982e1cb312"/>
@@ -5366,22 +5516,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9544B578-CE8A-4753-8E47-B2C52E32EEC4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="000447b7-86fa-4362-939e-855579e16124"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="871f9270-bc3b-4105-9923-e7982e1cb312"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C60666F-AED0-4727-A902-9CA0ACF4D344}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C172DDCE-6A5B-4F5B-846C-532884D79266}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5398,29 +5558,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C60666F-AED0-4727-A902-9CA0ACF4D344}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9544B578-CE8A-4753-8E47-B2C52E32EEC4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="000447b7-86fa-4362-939e-855579e16124"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="871f9270-bc3b-4105-9923-e7982e1cb312"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Input.xlsx
+++ b/Input.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1896157\OneDrive - University of Edinburgh\Gabriel\Models\EMB_MaxProfitDiet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1896157\OneDrive - University of Edinburgh\Gabriel\Models\GreenFeeding\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="14490" windowHeight="11160" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="14490" windowHeight="11160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feeds" sheetId="2" r:id="rId1"/>
@@ -509,7 +509,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="142">
   <si>
     <t>Feed Scenario</t>
   </si>
@@ -793,9 +793,6 @@
     <t>NRC2016</t>
   </si>
   <si>
-    <t>Batch_02.csv</t>
-  </si>
-  <si>
     <t>time</t>
   </si>
   <si>
@@ -935,6 +932,9 @@
   </si>
   <si>
     <t>NPN, %DM</t>
+  </si>
+  <si>
+    <t>Batch_AC.csv</t>
   </si>
 </sst>
 </file>
@@ -6237,8 +6237,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="batch" displayName="batch" ref="A1:F3" totalsRowShown="0">
-  <autoFilter ref="A1:F3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="batch" displayName="batch" ref="A1:F2" totalsRowShown="0">
+  <autoFilter ref="A1:F2"/>
   <tableColumns count="6">
     <tableColumn id="1" name="Batch ID"/>
     <tableColumn id="2" name="Filename"/>
@@ -6590,7 +6590,7 @@
   </sheetPr>
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -7191,10 +7191,10 @@
         <v>87</v>
       </c>
       <c r="W1" s="36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="X1" s="44" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -7205,10 +7205,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E2" s="32">
         <v>375</v>
@@ -7241,10 +7241,10 @@
         <v>2.02</v>
       </c>
       <c r="O2" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="P2" s="32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q2" s="32">
         <v>0.8</v>
@@ -7282,7 +7282,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E3" s="35">
         <v>375</v>
@@ -7315,10 +7315,10 @@
         <v>2.02</v>
       </c>
       <c r="O3" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P3" s="35" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q3" s="32">
         <v>1.6</v>
@@ -7356,7 +7356,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E4" s="35">
         <v>375</v>
@@ -7389,10 +7389,10 @@
         <v>2.02</v>
       </c>
       <c r="O4" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P4" s="35" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Q4" s="32">
         <v>1.6</v>
@@ -7430,7 +7430,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E5" s="32">
         <v>375</v>
@@ -7463,10 +7463,10 @@
         <v>2.02</v>
       </c>
       <c r="O5" s="32" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P5" s="32" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q5" s="32">
         <v>1.6</v>
@@ -7504,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E6" s="35">
         <v>375</v>
@@ -7537,10 +7537,10 @@
         <v>2.02</v>
       </c>
       <c r="O6" s="35" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P6" s="35" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="Q6" s="32">
         <v>1.6</v>
@@ -7578,7 +7578,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="30" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E7" s="30">
         <v>375</v>
@@ -7611,10 +7611,10 @@
         <v>2.02</v>
       </c>
       <c r="O7" s="30" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P7" s="30" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="Q7" s="32">
         <v>1.6</v>
@@ -7658,9 +7658,11 @@
   <sheetPr codeName="Planilha3">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7698,10 +7700,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="D2" s="2">
         <v>5</v>
@@ -7711,26 +7713,6 @@
       </c>
       <c r="F2" s="2">
         <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="D3" s="2">
-        <v>4</v>
-      </c>
-      <c r="E3" s="2">
-        <v>5</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7749,7 +7731,7 @@
   </sheetPr>
   <dimension ref="A1:T30"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
@@ -7835,7 +7817,7 @@
         <v>54</v>
       </c>
       <c r="T1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -7843,7 +7825,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="23" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
@@ -7905,7 +7887,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
@@ -7967,7 +7949,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
@@ -8029,7 +8011,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
@@ -8091,7 +8073,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
@@ -8153,7 +8135,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="5">
         <v>0</v>
@@ -8215,7 +8197,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="5">
         <v>0</v>
@@ -8277,7 +8259,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="5">
         <v>0</v>
@@ -8339,7 +8321,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="5">
         <v>0</v>
@@ -8401,7 +8383,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="5">
         <v>0</v>
@@ -8463,7 +8445,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="5">
         <v>0</v>
@@ -8525,7 +8507,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="5">
         <v>0</v>
@@ -8649,7 +8631,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="5">
         <v>0</v>
@@ -8773,7 +8755,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="5">
         <v>0</v>
@@ -8835,7 +8817,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="5">
         <v>0</v>
@@ -8897,7 +8879,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" s="5">
         <v>0</v>
@@ -9021,7 +9003,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" s="5">
         <v>100</v>
@@ -9083,7 +9065,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" s="5">
         <v>100</v>
@@ -9224,31 +9206,31 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" t="s">
         <v>120</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>121</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>122</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>123</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>124</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>125</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>126</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>127</v>
-      </c>
-      <c r="J1" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -9274,10 +9256,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -9312,10 +9294,10 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="H3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -9350,10 +9332,10 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="H4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -9382,10 +9364,10 @@
         <v>0.2</v>
       </c>
       <c r="H5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -9414,10 +9396,10 @@
         <v>0.2</v>
       </c>
       <c r="H6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -9437,7 +9419,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -9458,22 +9440,22 @@
         <v>5</v>
       </c>
       <c r="C1" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="D1" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="39" t="s">
+      <c r="E1" s="39" t="s">
         <v>131</v>
       </c>
-      <c r="E1" s="39" t="s">
+      <c r="F1" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="G1" s="39" t="s">
         <v>133</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="H1" s="39" t="s">
         <v>134</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -9481,7 +9463,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C2" s="48">
         <v>9.0412228999999997E-4</v>
@@ -9507,7 +9489,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2">
         <v>6.5774577999999997E-4</v>
@@ -9533,7 +9515,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2">
         <v>9.8875607000000008E-4</v>
@@ -9559,7 +9541,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2">
         <v>4.6734098000000002E-3</v>
@@ -9585,7 +9567,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2">
         <v>5.2979589999999997E-3</v>
@@ -9611,7 +9593,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C7" s="2">
         <v>3.0914954E-4</v>
@@ -9637,7 +9619,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2">
         <v>2.4268531000000001E-3</v>
@@ -9663,7 +9645,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C9" s="47">
         <v>1.1524281000000001E-2</v>
@@ -9689,7 +9671,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="40" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C10" s="47">
         <v>3.8977495E-3</v>
@@ -9715,7 +9697,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C11" s="2">
         <v>2.1675339E-3</v>
@@ -9741,7 +9723,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C12" s="47">
         <v>1.8296865E-3</v>
@@ -9767,7 +9749,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C13" s="47">
         <v>2.1675339E-3</v>
@@ -9819,7 +9801,7 @@
         <v>16</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="47">
         <v>9.5703047000000006E-3</v>
@@ -9871,7 +9853,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C17" s="47">
         <v>2.0170432000000001E-3</v>
@@ -9897,7 +9879,7 @@
         <v>19</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="47">
         <v>6.8793711999999996E-4</v>
@@ -9923,7 +9905,7 @@
         <v>20</v>
       </c>
       <c r="B19" s="40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C19" s="47">
         <v>1.7751223E-3</v>
@@ -9975,7 +9957,7 @@
         <v>24</v>
       </c>
       <c r="B21" s="40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C21" s="50">
         <v>1.398646E-5</v>
@@ -10001,7 +9983,7 @@
         <v>25</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C22" s="50">
         <v>1.4474578E-5</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1896157\OneDrive - University of Edinburgh\Gabriel\Models\GreenFeeding\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1896157\OneDrive - University of Edinburgh\Gabriel\Models\EMB_MaxProfitDiet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="14490" windowHeight="11160" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="14490" windowHeight="11160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feeds" sheetId="2" r:id="rId1"/>
@@ -21,19 +21,6 @@
     <sheet name="Parameters List" sheetId="6" state="hidden" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -509,7 +496,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="147">
   <si>
     <t>Feed Scenario</t>
   </si>
@@ -763,15 +750,6 @@
     <t>Vit E, IU/kg</t>
   </si>
   <si>
-    <t>Sunflower meal</t>
-  </si>
-  <si>
-    <t>Wheat bran</t>
-  </si>
-  <si>
-    <t>Wheat middlings</t>
-  </si>
-  <si>
     <t>Find Reduced Cost</t>
   </si>
   <si>
@@ -793,72 +771,9 @@
     <t>NRC2016</t>
   </si>
   <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>Ingredient Level</t>
   </si>
   <si>
-    <t>BF</t>
-  </si>
-  <si>
-    <t>Sugar beet pulp dehydrated</t>
-  </si>
-  <si>
-    <t>Corn gluten feed</t>
-  </si>
-  <si>
-    <t>Corn gluten meal (gluten 60)</t>
-  </si>
-  <si>
-    <t>Faba bean dehulled</t>
-  </si>
-  <si>
-    <t>Molasses</t>
-  </si>
-  <si>
-    <t>Rapeseed meal</t>
-  </si>
-  <si>
-    <t>Rapeseed oil</t>
-  </si>
-  <si>
-    <t>Soybean extruded</t>
-  </si>
-  <si>
-    <t>Sunflower meal low dehulling</t>
-  </si>
-  <si>
-    <t>Sunflower meal without dehulling</t>
-  </si>
-  <si>
-    <t>Sunflower meal high dehulling</t>
-  </si>
-  <si>
-    <t>Sunflower oil without dehulling</t>
-  </si>
-  <si>
-    <t>DDGS Wheat</t>
-  </si>
-  <si>
-    <t>Wheat feed flour</t>
-  </si>
-  <si>
-    <t>Wheat gluten feed</t>
-  </si>
-  <si>
-    <t>UREA</t>
-  </si>
-  <si>
-    <t>Baled grass, temporary meadow, with clover, Northwestern region, at farm/FR S</t>
-  </si>
-  <si>
-    <t>Grass silage, horizontal silo, temporary meadow, with clover, Northwestern region, at farm/FR S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charolais </t>
-  </si>
-  <si>
     <t>Test</t>
   </si>
   <si>
@@ -916,9 +831,6 @@
     <t>LCA_Land competition CML non baseline (m2a)</t>
   </si>
   <si>
-    <t>GSS-MAX_CCS</t>
-  </si>
-  <si>
     <t>GSS-MAX_BIS_N</t>
   </si>
   <si>
@@ -935,6 +847,96 @@
   </si>
   <si>
     <t>Batch_AC.csv</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>Soybean_Hulls</t>
+  </si>
+  <si>
+    <t>Cottonseed_Whole</t>
+  </si>
+  <si>
+    <t>Cottonseed_Meal</t>
+  </si>
+  <si>
+    <t>Peanut_Meal</t>
+  </si>
+  <si>
+    <t>Rice_Bran</t>
+  </si>
+  <si>
+    <t>Wheat_Meal</t>
+  </si>
+  <si>
+    <t>Urea</t>
+  </si>
+  <si>
+    <t>Soybean_Meal</t>
+  </si>
+  <si>
+    <t>Citrus_Pulp</t>
+  </si>
+  <si>
+    <t>F_Corn_Silage</t>
+  </si>
+  <si>
+    <t>F_Sugarcane_Silage</t>
+  </si>
+  <si>
+    <t>Nellore</t>
+  </si>
+  <si>
+    <t>animal_price</t>
+  </si>
+  <si>
+    <t>Citrus pulp, dry</t>
+  </si>
+  <si>
+    <t>Corn grain - BR</t>
+  </si>
+  <si>
+    <t>Cottonseed Meal 38% - BR</t>
+  </si>
+  <si>
+    <t>Cottonseed Whole - BR</t>
+  </si>
+  <si>
+    <t>Soybean Hulls - BR</t>
+  </si>
+  <si>
+    <t>Soybean Meal 49% - BR</t>
+  </si>
+  <si>
+    <t>Wheat Meal - BR</t>
+  </si>
+  <si>
+    <t>Urea - BR</t>
+  </si>
+  <si>
+    <t>Corn Silage - BR</t>
+  </si>
+  <si>
+    <t>Peanut meal</t>
+  </si>
+  <si>
+    <t>Rice bran</t>
+  </si>
+  <si>
+    <t>Corn_Grain</t>
+  </si>
+  <si>
+    <t>Sugarcane (S. officinarum) Bagasse Brazil Medium Chop</t>
+  </si>
+  <si>
+    <t>Corn Dist Ethanol</t>
+  </si>
+  <si>
+    <t>Sugarcane Silage - BR</t>
+  </si>
+  <si>
+    <t>RC_Sugarcane</t>
   </si>
 </sst>
 </file>
@@ -942,15 +944,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
+    <numFmt numFmtId="164" formatCode="0.0;0.0;0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -981,20 +990,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1F497D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1002,12 +997,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF080808"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1054,6 +1043,42 @@
       <name val="Lucida Console"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Lucida Console"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1099,7 +1124,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1191,12 +1216,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1204,87 +1240,233 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="18" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 3" xfId="2"/>
+    <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="68">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
+          <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1303,12 +1485,9 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="165" formatCode="0.0;0.0;0;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1325,182 +1504,6 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -2412,7 +2415,7 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="11"/>
-        <color auto="1"/>
+        <color theme="1"/>
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
@@ -2422,9 +2425,217 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFBDD6EE"/>
+          <bgColor rgb="FFBDD6EE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFDEEAF6"/>
+          <bgColor rgb="FFDEEAF6"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor theme="4"/>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="6" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="Feeds-style" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="67"/>
+      <tableStyleElement type="firstRowStripe" dxfId="66"/>
+      <tableStyleElement type="secondRowStripe" dxfId="65"/>
+    </tableStyle>
+    <tableStyle name="Scenario-style" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="64"/>
+      <tableStyleElement type="firstRowStripe" dxfId="63"/>
+      <tableStyleElement type="secondRowStripe" dxfId="62"/>
+    </tableStyle>
+    <tableStyle name="Batch-style" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="61"/>
+      <tableStyleElement type="firstRowStripe" dxfId="60"/>
+      <tableStyleElement type="secondRowStripe" dxfId="59"/>
+    </tableStyle>
+    <tableStyle name="Feed Library-style" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="58"/>
+      <tableStyleElement type="firstRowStripe" dxfId="57"/>
+      <tableStyleElement type="secondRowStripe" dxfId="56"/>
+    </tableStyle>
+    <tableStyle name="LCA-style" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="55"/>
+      <tableStyleElement type="firstRowStripe" dxfId="54"/>
+      <tableStyleElement type="secondRowStripe" dxfId="53"/>
+    </tableStyle>
+    <tableStyle name="LCA Library-style" pivot="0" count="3">
+      <tableStyleElement type="headerRow" dxfId="52"/>
+      <tableStyleElement type="firstRowStripe" dxfId="51"/>
+      <tableStyleElement type="secondRowStripe" dxfId="50"/>
+    </tableStyle>
+  </tableStyles>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -2514,8 +2725,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2563,8 +2774,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2612,8 +2823,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2661,8 +2872,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2710,8 +2921,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2759,8 +2970,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2808,8 +3019,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2857,8 +3068,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2906,8 +3117,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -2955,8 +3166,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3004,8 +3215,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3058,8 +3269,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3112,8 +3323,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3166,8 +3377,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3220,8 +3431,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3274,8 +3485,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3328,8 +3539,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3382,8 +3593,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3436,8 +3647,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3490,8 +3701,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3544,8 +3755,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3598,8 +3809,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3652,8 +3863,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3706,8 +3917,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3760,8 +3971,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3814,8 +4025,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3868,8 +4079,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3922,8 +4133,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -3976,8 +4187,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4030,8 +4241,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4084,8 +4295,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4138,8 +4349,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4192,8 +4403,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4246,8 +4457,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4300,8 +4511,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4354,8 +4565,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4408,8 +4619,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4462,8 +4673,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4516,8 +4727,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4570,8 +4781,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4624,8 +4835,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4678,8 +4889,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4732,8 +4943,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4786,8 +4997,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4840,8 +5051,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4894,8 +5105,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -4948,8 +5159,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5002,8 +5213,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5056,8 +5267,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5110,8 +5321,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5164,8 +5375,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5218,8 +5429,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5272,8 +5483,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5326,8 +5537,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5380,8 +5591,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5434,8 +5645,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5488,8 +5699,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5542,8 +5753,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5596,8 +5807,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5650,8 +5861,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5704,8 +5915,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -5758,8 +5969,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -6182,21 +6393,345 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9439275" cy="502920"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9439275" cy="502920"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9439275" cy="502920"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9439275" cy="381000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0666D43A-ADED-4D3B-AF69-A2474C82F50E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9439275" cy="381000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E7DC4C3-566A-49F6-9A8F-B7812E354531}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9439275" cy="381000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="feeds" displayName="feeds" ref="A1:F22" totalsRowShown="0">
-  <autoFilter ref="A1:F22"/>
-  <sortState ref="A2:F22">
-    <sortCondition ref="B1:B22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="feeds" displayName="feeds" ref="A1:F29" totalsRowShown="0">
+  <autoFilter ref="A1:F29"/>
+  <sortState ref="A2:F29">
+    <sortCondition ref="A1:A29"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" name="Feed Scenario"/>
-    <tableColumn id="2" name="ID" dataDxfId="55"/>
-    <tableColumn id="3" name="Min %DM" dataDxfId="54"/>
-    <tableColumn id="4" name="Max %DM" dataDxfId="53"/>
-    <tableColumn id="5" name="Cost [US$/kg AF]" dataDxfId="52"/>
+    <tableColumn id="2" name="ID" dataDxfId="45" dataCellStyle="Normal 3"/>
+    <tableColumn id="3" name="Min %DM" dataDxfId="44"/>
+    <tableColumn id="4" name="Max %DM" dataDxfId="43"/>
+    <tableColumn id="5" name="Cost [US$/kg AF]" dataDxfId="42"/>
     <tableColumn id="6" name="Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6204,33 +6739,33 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="scenario" displayName="scenario" ref="A1:X7" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50" tableBorderDxfId="49">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="scenario" displayName="scenario" ref="A1:X7" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" tableBorderDxfId="39">
   <autoFilter ref="A1:X7"/>
   <tableColumns count="24">
-    <tableColumn id="1" name="ID" dataDxfId="48"/>
-    <tableColumn id="2" name="Feed Scenario" dataDxfId="47"/>
-    <tableColumn id="3" name="Batch" dataDxfId="46"/>
-    <tableColumn id="4" name="Breed" dataDxfId="45"/>
-    <tableColumn id="5" name="SBW" dataDxfId="44"/>
-    <tableColumn id="6" name="Feeding Time" dataDxfId="43"/>
-    <tableColumn id="7" name="Target Weight" dataDxfId="42"/>
-    <tableColumn id="8" name="BCS" dataDxfId="41"/>
-    <tableColumn id="9" name="BE" dataDxfId="40"/>
-    <tableColumn id="10" name="L" dataDxfId="39"/>
-    <tableColumn id="11" name="SEX" dataDxfId="38"/>
-    <tableColumn id="12" name="a2" dataDxfId="37"/>
-    <tableColumn id="13" name="PH" dataDxfId="36"/>
-    <tableColumn id="14" name="Selling Price [US$]" dataDxfId="35"/>
-    <tableColumn id="15" name="Algorithm" dataDxfId="34"/>
-    <tableColumn id="16" name="Identifier" dataDxfId="33"/>
-    <tableColumn id="17" name="LB" dataDxfId="32"/>
-    <tableColumn id="18" name="UB" dataDxfId="31"/>
-    <tableColumn id="19" name="Tol" dataDxfId="30"/>
-    <tableColumn id="20" name="DMI Equation" dataDxfId="29"/>
-    <tableColumn id="21" name="Obj" dataDxfId="28"/>
-    <tableColumn id="22" name="Find Reduced Cost" dataDxfId="27"/>
-    <tableColumn id="23" name="Ingredient Level" dataDxfId="26"/>
-    <tableColumn id="24" name="LCA ID" dataDxfId="25"/>
+    <tableColumn id="1" name="ID" dataDxfId="38"/>
+    <tableColumn id="2" name="Feed Scenario" dataDxfId="37"/>
+    <tableColumn id="3" name="Batch" dataDxfId="36"/>
+    <tableColumn id="4" name="Breed" dataDxfId="35"/>
+    <tableColumn id="5" name="SBW" dataDxfId="34"/>
+    <tableColumn id="6" name="Feeding Time" dataDxfId="33"/>
+    <tableColumn id="7" name="Target Weight" dataDxfId="32"/>
+    <tableColumn id="8" name="BCS" dataDxfId="31"/>
+    <tableColumn id="9" name="BE" dataDxfId="30"/>
+    <tableColumn id="10" name="L" dataDxfId="29"/>
+    <tableColumn id="11" name="SEX" dataDxfId="28"/>
+    <tableColumn id="12" name="a2" dataDxfId="27"/>
+    <tableColumn id="13" name="PH" dataDxfId="26"/>
+    <tableColumn id="14" name="Selling Price [US$]" dataDxfId="25"/>
+    <tableColumn id="15" name="Algorithm" dataDxfId="24"/>
+    <tableColumn id="16" name="Identifier" dataDxfId="23"/>
+    <tableColumn id="17" name="LB" dataDxfId="22"/>
+    <tableColumn id="18" name="UB" dataDxfId="21"/>
+    <tableColumn id="19" name="Tol" dataDxfId="20"/>
+    <tableColumn id="20" name="DMI Equation" dataDxfId="19"/>
+    <tableColumn id="21" name="Obj" dataDxfId="18"/>
+    <tableColumn id="22" name="Find Reduced Cost" dataDxfId="17"/>
+    <tableColumn id="23" name="Ingredient Level" dataDxfId="16"/>
+    <tableColumn id="24" name="LCA ID" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6252,10 +6787,10 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:T22" totalsRowShown="0">
-  <autoFilter ref="A1:T22"/>
-  <sortState ref="A2:S22">
-    <sortCondition ref="A1:A22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:T15" totalsRowShown="0">
+  <autoFilter ref="A1:T15"/>
+  <sortState ref="A2:T15">
+    <sortCondition ref="A1:A15"/>
   </sortState>
   <tableColumns count="20">
     <tableColumn id="1" name="ID"/>
@@ -6277,7 +6812,7 @@
     <tableColumn id="20" name="NEga, Mcal/kg"/>
     <tableColumn id="21" name="RUP, %CP"/>
     <tableColumn id="29" name="pef, %NDF"/>
-    <tableColumn id="3" name="NPN, %DM" dataDxfId="24"/>
+    <tableColumn id="3" name="NPN, %DM" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6303,20 +6838,20 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela26" displayName="Tabela26" ref="A1:H22" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A1:H22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela26" displayName="Tabela26" ref="A1:H15" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A1:H15"/>
   <sortState ref="A2:H22">
     <sortCondition ref="A1:A22"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="ID" dataDxfId="21"/>
-    <tableColumn id="5" name="Name" dataDxfId="20"/>
-    <tableColumn id="2" name="LCA_Phosphorous consumption (kg P)" dataDxfId="19"/>
-    <tableColumn id="3" name="LCA_CED 1.8 non renewable fossil+nuclear (MJ)" dataDxfId="18"/>
-    <tableColumn id="4" name="LCA_Climate change ILCD (kg CO2 eq)" dataDxfId="17"/>
-    <tableColumn id="7" name="LCA_Acidification ILCD (molc H+ eq)" dataDxfId="16"/>
-    <tableColumn id="8" name="LCA_Eutrophication CML baseline (kg PO4- eq)" dataDxfId="15"/>
-    <tableColumn id="9" name="LCA_Land competition CML non baseline (m2a)" dataDxfId="14"/>
+    <tableColumn id="1" name="ID" dataDxfId="7" dataCellStyle="Normal 3"/>
+    <tableColumn id="5" name="Name" dataDxfId="6" dataCellStyle="Normal 3"/>
+    <tableColumn id="2" name="LCA_Phosphorous consumption (kg P)" dataDxfId="5"/>
+    <tableColumn id="3" name="LCA_CED 1.8 non renewable fossil+nuclear (MJ)" dataDxfId="4"/>
+    <tableColumn id="4" name="LCA_Climate change ILCD (kg CO2 eq)" dataDxfId="3"/>
+    <tableColumn id="7" name="LCA_Acidification ILCD (molc H+ eq)" dataDxfId="2"/>
+    <tableColumn id="8" name="LCA_Eutrophication CML baseline (kg PO4- eq)" dataDxfId="1"/>
+    <tableColumn id="9" name="LCA_Land competition CML non baseline (m2a)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6588,10 +7123,10 @@
   <sheetPr codeName="Planilha1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6602,7 +7137,7 @@
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="6" width="29.28515625" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="8" max="1021" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -6626,453 +7161,622 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="38">
         <v>3</v>
       </c>
-      <c r="C2" s="26">
-        <v>0</v>
-      </c>
-      <c r="D2" s="26">
-        <v>4</v>
-      </c>
-      <c r="E2" s="27">
-        <v>0.4</v>
-      </c>
-      <c r="F2" s="2" t="str">
+      <c r="C2" s="17">
+        <v>0</v>
+      </c>
+      <c r="D2" s="37">
+        <v>1.5</v>
+      </c>
+      <c r="E2" s="50" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="16" t="str">
         <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>UREA</v>
+        <v>Urea - BR</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="19">
-        <v>4</v>
-      </c>
-      <c r="C3" s="20">
-        <v>0</v>
-      </c>
-      <c r="D3" s="19">
-        <v>40</v>
-      </c>
-      <c r="E3" s="18">
-        <v>0.249</v>
-      </c>
-      <c r="F3" s="2" t="str">
+      <c r="B3" s="37">
+        <v>24</v>
+      </c>
+      <c r="C3" s="17">
+        <v>0</v>
+      </c>
+      <c r="D3" s="38">
+        <v>50</v>
+      </c>
+      <c r="E3" s="51" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="16" t="str">
         <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Sugar beet pulp dehydrated</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+        <v>Citrus pulp, dry</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
         <v>1</v>
       </c>
-      <c r="B4" s="20">
-        <v>5</v>
-      </c>
-      <c r="C4" s="20">
-        <v>0</v>
-      </c>
-      <c r="D4" s="20">
+      <c r="B4" s="38">
+        <v>25</v>
+      </c>
+      <c r="C4" s="17">
+        <v>0</v>
+      </c>
+      <c r="D4" s="38">
+        <v>60</v>
+      </c>
+      <c r="E4" s="50" t="s">
+        <v>127</v>
+      </c>
+      <c r="F4" s="16" t="str">
+        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
+        <v>Corn Silage - BR</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="38">
+        <v>26</v>
+      </c>
+      <c r="C5" s="17">
+        <v>0</v>
+      </c>
+      <c r="D5" s="38">
+        <v>80</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="F5" s="2" t="str">
+        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
+        <v>Corn grain - BR</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16">
+        <v>1</v>
+      </c>
+      <c r="B6" s="37">
+        <v>27</v>
+      </c>
+      <c r="C6" s="17">
+        <v>0</v>
+      </c>
+      <c r="D6" s="37">
         <v>30</v>
       </c>
-      <c r="E4" s="18">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="F4" s="17" t="str">
+      <c r="E6" s="50" t="s">
+        <v>120</v>
+      </c>
+      <c r="F6" s="16" t="str">
         <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Corn gluten feed</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
+        <v>Cottonseed Meal 38% - BR</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
         <v>1</v>
       </c>
-      <c r="B5" s="20">
-        <v>6</v>
-      </c>
-      <c r="C5" s="20">
-        <v>0</v>
-      </c>
-      <c r="D5" s="20">
-        <v>20</v>
-      </c>
-      <c r="E5" s="18">
-        <v>0.91900000000000004</v>
-      </c>
-      <c r="F5" s="17" t="str">
+      <c r="B7" s="37">
+        <v>28</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0</v>
+      </c>
+      <c r="D7" s="38">
+        <v>18</v>
+      </c>
+      <c r="E7" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="F7" s="16" t="str">
         <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Corn gluten meal (gluten 60)</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
+        <v>Cottonseed Whole - BR</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
         <v>1</v>
       </c>
-      <c r="B6" s="20">
-        <v>7</v>
-      </c>
-      <c r="C6" s="20">
-        <v>0</v>
-      </c>
-      <c r="D6" s="20">
-        <v>15</v>
-      </c>
-      <c r="E6" s="18">
-        <v>0.216</v>
-      </c>
-      <c r="F6" s="17" t="str">
+      <c r="B8" s="37">
+        <v>29</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0</v>
+      </c>
+      <c r="D8" s="38">
+        <v>30</v>
+      </c>
+      <c r="E8" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="F8" s="16" t="str">
         <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Faba bean dehulled</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
+        <v>Soybean Hulls - BR</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B7" s="20">
-        <v>8</v>
-      </c>
-      <c r="C7" s="20">
-        <v>0</v>
-      </c>
-      <c r="D7" s="20">
-        <v>8</v>
-      </c>
-      <c r="E7" s="18">
-        <v>0.247</v>
-      </c>
-      <c r="F7" s="17" t="str">
+      <c r="B9" s="37">
+        <v>30</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="37">
+        <v>30</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="16" t="str">
         <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Molasses</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
+        <v>Soybean Meal 49% - BR</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>1</v>
       </c>
-      <c r="B8" s="20">
-        <v>9</v>
-      </c>
-      <c r="C8" s="20">
-        <v>0</v>
-      </c>
-      <c r="D8" s="20">
+      <c r="B10" s="38">
+        <v>31</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0</v>
+      </c>
+      <c r="D10" s="37">
+        <v>100</v>
+      </c>
+      <c r="E10" s="50" t="s">
+        <v>121</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
+        <v>Peanut meal</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16">
+        <v>1</v>
+      </c>
+      <c r="B11" s="38">
+        <v>32</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="37">
         <v>50</v>
       </c>
-      <c r="E8" s="18">
-        <v>0.221</v>
-      </c>
-      <c r="F8" s="17" t="str">
+      <c r="E11" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="16" t="str">
         <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Rapeseed meal</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
+        <v>Rice bran</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="19">
+      <c r="B12" s="37">
+        <v>33</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0</v>
+      </c>
+      <c r="D12" s="37">
+        <v>50</v>
+      </c>
+      <c r="E12" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="16" t="str">
+        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
+        <v>Wheat Meal - BR</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="16">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>35</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0</v>
+      </c>
+      <c r="D13" s="38">
+        <v>100</v>
+      </c>
+      <c r="E13" s="52">
         <v>10</v>
       </c>
-      <c r="C9" s="20">
-        <v>0</v>
-      </c>
-      <c r="D9" s="19">
+      <c r="F13" s="16" t="str">
+        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
+        <v>Sugarcane (S. officinarum) Bagasse Brazil Medium Chop</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>36</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0</v>
+      </c>
+      <c r="D14" s="39">
+        <v>0</v>
+      </c>
+      <c r="E14" s="52">
+        <v>10</v>
+      </c>
+      <c r="F14" s="16" t="str">
+        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
+        <v>Corn Dist Ethanol</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="38">
+        <v>37</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0</v>
+      </c>
+      <c r="D15" s="39">
+        <v>100</v>
+      </c>
+      <c r="E15" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="16" t="str">
+        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
+        <v>Sugarcane Silage - BR</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="43">
         <v>2</v>
       </c>
-      <c r="E9" s="18">
-        <v>0.77899699999999994</v>
-      </c>
-      <c r="F9" s="17" t="str">
+      <c r="B16" s="47">
+        <v>3</v>
+      </c>
+      <c r="C16" s="45">
+        <v>0</v>
+      </c>
+      <c r="D16" s="44">
+        <v>50</v>
+      </c>
+      <c r="E16" s="41">
+        <f t="shared" ref="E16:E29" ca="1" si="0">RAND()*2</f>
+        <v>3.0090777697150406E-2</v>
+      </c>
+      <c r="F16" s="43" t="str">
         <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Rapeseed oil</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17">
-        <v>1</v>
-      </c>
-      <c r="B10" s="19">
-        <v>11</v>
-      </c>
-      <c r="C10" s="20">
-        <v>0</v>
-      </c>
-      <c r="D10" s="19">
-        <v>8</v>
-      </c>
-      <c r="E10" s="18">
-        <v>0.46600000000000003</v>
-      </c>
-      <c r="F10" s="17" t="str">
+        <v>Urea - BR</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="43">
+        <v>2</v>
+      </c>
+      <c r="B17" s="47">
+        <v>24</v>
+      </c>
+      <c r="C17" s="45">
+        <v>0</v>
+      </c>
+      <c r="D17" s="44">
+        <v>50</v>
+      </c>
+      <c r="E17" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.98398253298434502</v>
+      </c>
+      <c r="F17" s="43" t="str">
         <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Soybean extruded</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17">
-        <v>1</v>
-      </c>
-      <c r="B11" s="19">
-        <v>12</v>
-      </c>
-      <c r="C11" s="20">
-        <v>0</v>
-      </c>
-      <c r="D11" s="19">
-        <v>10</v>
-      </c>
-      <c r="E11" s="18">
-        <v>0.222</v>
-      </c>
-      <c r="F11" s="17" t="str">
+        <v>Citrus pulp, dry</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="43">
+        <v>2</v>
+      </c>
+      <c r="B18" s="47">
+        <v>25</v>
+      </c>
+      <c r="C18" s="45">
+        <v>0</v>
+      </c>
+      <c r="D18" s="44">
+        <v>60</v>
+      </c>
+      <c r="E18" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.0250384740856502</v>
+      </c>
+      <c r="F18" s="43" t="str">
         <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Sunflower meal low dehulling</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="17">
-        <v>1</v>
-      </c>
-      <c r="B12" s="19">
-        <v>13</v>
-      </c>
-      <c r="C12" s="20">
-        <v>0</v>
-      </c>
-      <c r="D12" s="19">
+        <v>Corn Silage - BR</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="43">
+        <v>2</v>
+      </c>
+      <c r="B19" s="47">
+        <v>26</v>
+      </c>
+      <c r="C19" s="45">
+        <v>0</v>
+      </c>
+      <c r="D19" s="44">
+        <v>80</v>
+      </c>
+      <c r="E19" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.785552835209298</v>
+      </c>
+      <c r="F19" s="43" t="str">
+        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
+        <v>Corn grain - BR</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="43">
+        <v>2</v>
+      </c>
+      <c r="B20" s="47">
+        <v>27</v>
+      </c>
+      <c r="C20" s="45">
+        <v>0</v>
+      </c>
+      <c r="D20" s="44">
         <v>30</v>
       </c>
-      <c r="E12" s="18">
-        <v>0.161</v>
-      </c>
-      <c r="F12" s="17" t="str">
+      <c r="E20" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.6302588903304851</v>
+      </c>
+      <c r="F20" s="43" t="str">
         <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Sunflower meal without dehulling</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
-        <v>1</v>
-      </c>
-      <c r="B13" s="19">
-        <v>14</v>
-      </c>
-      <c r="C13" s="20">
-        <v>0</v>
-      </c>
-      <c r="D13" s="19">
-        <v>10</v>
-      </c>
-      <c r="E13" s="18">
-        <v>0.21299999999999999</v>
-      </c>
-      <c r="F13" s="17" t="str">
+        <v>Cottonseed Meal 38% - BR</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="43">
+        <v>2</v>
+      </c>
+      <c r="B21" s="47">
+        <v>28</v>
+      </c>
+      <c r="C21" s="45">
+        <v>0</v>
+      </c>
+      <c r="D21" s="44">
+        <v>18</v>
+      </c>
+      <c r="E21" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.87928823044778448</v>
+      </c>
+      <c r="F21" s="43" t="str">
         <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Sunflower meal high dehulling</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
-        <v>1</v>
-      </c>
-      <c r="B14" s="19">
-        <v>15</v>
-      </c>
-      <c r="C14" s="20">
-        <v>0</v>
-      </c>
-      <c r="D14" s="19">
-        <v>10</v>
-      </c>
-      <c r="E14" s="18">
-        <v>0.26300000000000001</v>
-      </c>
-      <c r="F14" s="17" t="str">
+        <v>Cottonseed Whole - BR</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="43">
+        <v>2</v>
+      </c>
+      <c r="B22" s="47">
+        <v>29</v>
+      </c>
+      <c r="C22" s="45">
+        <v>0</v>
+      </c>
+      <c r="D22" s="44">
+        <v>30</v>
+      </c>
+      <c r="E22" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7980603442782361</v>
+      </c>
+      <c r="F22" s="43" t="str">
         <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Sunflower meal</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="17">
-        <v>1</v>
-      </c>
-      <c r="B15" s="19">
-        <v>16</v>
-      </c>
-      <c r="C15" s="20">
-        <v>0</v>
-      </c>
-      <c r="D15" s="19">
+        <v>Soybean Hulls - BR</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="43">
         <v>2</v>
       </c>
-      <c r="E15" s="18">
-        <v>0.69799999999999995</v>
-      </c>
-      <c r="F15" s="17" t="str">
+      <c r="B23" s="47">
+        <v>30</v>
+      </c>
+      <c r="C23" s="45">
+        <v>0</v>
+      </c>
+      <c r="D23" s="44">
+        <v>30</v>
+      </c>
+      <c r="E23" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2440121310702519</v>
+      </c>
+      <c r="F23" s="43" t="str">
         <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Sunflower oil without dehulling</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
-        <v>1</v>
-      </c>
-      <c r="B16" s="19">
-        <v>17</v>
-      </c>
-      <c r="C16" s="20">
-        <v>0</v>
-      </c>
-      <c r="D16" s="19">
-        <v>30</v>
-      </c>
-      <c r="E16" s="18">
-        <v>0.107</v>
-      </c>
-      <c r="F16" s="17" t="str">
+        <v>Soybean Meal 49% - BR</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="43">
+        <v>2</v>
+      </c>
+      <c r="B24" s="47">
+        <v>31</v>
+      </c>
+      <c r="C24" s="45">
+        <v>0</v>
+      </c>
+      <c r="D24" s="44">
+        <v>100</v>
+      </c>
+      <c r="E24" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.50115360236887185</v>
+      </c>
+      <c r="F24" s="43" t="str">
         <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Wheat bran</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="17">
-        <v>1</v>
-      </c>
-      <c r="B17" s="19">
-        <v>18</v>
-      </c>
-      <c r="C17" s="20">
-        <v>0</v>
-      </c>
-      <c r="D17" s="19">
-        <v>30</v>
-      </c>
-      <c r="E17" s="18">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="F17" s="17" t="str">
+        <v>Peanut meal</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="43">
+        <v>2</v>
+      </c>
+      <c r="B25" s="47">
+        <v>32</v>
+      </c>
+      <c r="C25" s="45">
+        <v>0</v>
+      </c>
+      <c r="D25" s="44">
+        <v>50</v>
+      </c>
+      <c r="E25" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.19232468952752635</v>
+      </c>
+      <c r="F25" s="43" t="str">
         <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>DDGS Wheat</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="17">
-        <v>1</v>
-      </c>
-      <c r="B18" s="19">
-        <v>19</v>
-      </c>
-      <c r="C18" s="20">
-        <v>0</v>
-      </c>
-      <c r="D18" s="19">
-        <v>30</v>
-      </c>
-      <c r="E18" s="18">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="F18" s="17" t="str">
+        <v>Rice bran</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="43">
+        <v>2</v>
+      </c>
+      <c r="B26" s="47">
+        <v>33</v>
+      </c>
+      <c r="C26" s="45">
+        <v>0</v>
+      </c>
+      <c r="D26" s="44">
+        <v>1.5</v>
+      </c>
+      <c r="E26" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.5006227508412389</v>
+      </c>
+      <c r="F26" s="43" t="str">
         <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Wheat feed flour</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
-        <v>1</v>
-      </c>
-      <c r="B19" s="19">
-        <v>20</v>
-      </c>
-      <c r="C19" s="20">
-        <v>0</v>
-      </c>
-      <c r="D19" s="19">
-        <v>40</v>
-      </c>
-      <c r="E19" s="18">
-        <v>0.157</v>
-      </c>
-      <c r="F19" s="17" t="str">
+        <v>Wheat Meal - BR</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="43">
+        <v>2</v>
+      </c>
+      <c r="B27" s="43">
+        <v>35</v>
+      </c>
+      <c r="C27" s="45">
+        <v>0</v>
+      </c>
+      <c r="D27" s="44">
+        <v>100</v>
+      </c>
+      <c r="E27" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.834642213237524</v>
+      </c>
+      <c r="F27" s="43" t="str">
         <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Wheat gluten feed</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="17">
-        <v>1</v>
-      </c>
-      <c r="B20" s="19">
-        <v>21</v>
-      </c>
-      <c r="C20" s="20">
-        <v>0</v>
-      </c>
-      <c r="D20" s="19">
-        <v>30</v>
-      </c>
-      <c r="E20" s="18">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="F20" s="17" t="str">
+        <v>Sugarcane (S. officinarum) Bagasse Brazil Medium Chop</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="43">
+        <v>2</v>
+      </c>
+      <c r="B28" s="43">
+        <v>36</v>
+      </c>
+      <c r="C28" s="45">
+        <v>0</v>
+      </c>
+      <c r="D28" s="46">
+        <v>100</v>
+      </c>
+      <c r="E28" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.7225592945713657</v>
+      </c>
+      <c r="F28" s="43" t="str">
         <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Wheat middlings</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="17">
-        <v>1</v>
-      </c>
-      <c r="B21" s="28">
-        <v>24</v>
-      </c>
-      <c r="C21" s="20">
-        <v>0</v>
-      </c>
-      <c r="D21" s="20">
+        <v>Corn Dist Ethanol</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="43">
+        <v>2</v>
+      </c>
+      <c r="B29" s="47">
+        <v>37</v>
+      </c>
+      <c r="C29" s="45">
+        <v>0</v>
+      </c>
+      <c r="D29" s="46">
         <v>100</v>
       </c>
-      <c r="E21" s="27">
-        <v>0.3</v>
-      </c>
-      <c r="F21" s="17" t="str">
+      <c r="E29" s="41">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.28291533422733561</v>
+      </c>
+      <c r="F29" s="43" t="str">
         <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Grass silage, horizontal silo, temporary meadow, with clover, Northwestern region, at farm/FR S</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="17">
-        <v>1</v>
-      </c>
-      <c r="B22" s="28">
-        <v>25</v>
-      </c>
-      <c r="C22" s="20">
-        <v>0</v>
-      </c>
-      <c r="D22" s="20">
-        <v>100</v>
-      </c>
-      <c r="E22" s="27">
-        <v>0.3</v>
-      </c>
-      <c r="F22" s="17" t="str">
-        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Baled grass, temporary meadow, with clover, Northwestern region, at farm/FR S</v>
+        <v>Sugarcane Silage - BR</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B20:B22 B2:B17">
-    <cfRule type="expression" dxfId="13" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="B2:B15">
+    <cfRule type="expression" dxfId="49" priority="3" stopIfTrue="1">
       <formula>ROW(B2)=$C$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="4" stopIfTrue="1">
       <formula>COLUMN(B2)=$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:B29">
+    <cfRule type="expression" dxfId="47" priority="1" stopIfTrue="1">
+      <formula>ROW(B16)=$C$1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="46" priority="2" stopIfTrue="1">
+      <formula>COLUMN(B16)=$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -7089,10 +7793,10 @@
   <sheetPr codeName="Planilha2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7124,525 +7828,605 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="36" t="s">
+      <c r="B1" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="25" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H1" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="N1" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="P1" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q1" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="R1" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="T1" s="25" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="U1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="X1" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21">
+        <v>1</v>
+      </c>
+      <c r="C2" s="21">
+        <v>1</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E2" s="21">
+        <v>365</v>
+      </c>
+      <c r="F2" s="21">
+        <v>0</v>
+      </c>
+      <c r="G2" s="20">
+        <v>528</v>
+      </c>
+      <c r="H2" s="21">
+        <v>4</v>
+      </c>
+      <c r="I2" s="21">
+        <v>1</v>
+      </c>
+      <c r="J2" s="21">
+        <v>1</v>
+      </c>
+      <c r="K2" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="L2" s="21">
+        <v>0</v>
+      </c>
+      <c r="M2" s="21">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N2" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="O2" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="P2" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q2" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="R2" s="21">
+        <v>3</v>
+      </c>
+      <c r="S2" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="T2" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="H1" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>11</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>12</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="P1" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="R1" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="S1" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="T1" s="36" t="s">
+      <c r="U2" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="V2" s="21">
+        <v>35</v>
+      </c>
+      <c r="W2" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="X2" s="20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="21">
+        <v>2</v>
+      </c>
+      <c r="C3" s="21">
+        <v>-1</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="21">
+        <v>365</v>
+      </c>
+      <c r="F3" s="21">
+        <v>0</v>
+      </c>
+      <c r="G3" s="20">
+        <v>528</v>
+      </c>
+      <c r="H3" s="21">
+        <v>4</v>
+      </c>
+      <c r="I3" s="21">
+        <v>1</v>
+      </c>
+      <c r="J3" s="21">
+        <v>1</v>
+      </c>
+      <c r="K3" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="L3" s="21">
+        <v>0</v>
+      </c>
+      <c r="M3" s="21">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>130</v>
+      </c>
+      <c r="O3" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="P3" s="21" t="s">
         <v>92</v>
       </c>
-      <c r="U1" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="W1" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="X1" s="44" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
+      <c r="Q3" s="21">
+        <v>0.8</v>
+      </c>
+      <c r="R3" s="21">
+        <v>3</v>
+      </c>
+      <c r="S3" s="21">
+        <v>0.01</v>
+      </c>
+      <c r="T3" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="U3" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="V3" s="21">
+        <v>35</v>
+      </c>
+      <c r="W3" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="X3" s="20">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="24">
         <v>1</v>
       </c>
-      <c r="B2" s="32">
+      <c r="C4" s="21">
+        <v>0</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E4" s="21">
+        <v>365</v>
+      </c>
+      <c r="F4" s="21">
+        <v>0</v>
+      </c>
+      <c r="G4" s="20">
+        <v>528</v>
+      </c>
+      <c r="H4" s="21">
+        <v>4</v>
+      </c>
+      <c r="I4" s="24">
         <v>1</v>
       </c>
-      <c r="C2" s="32">
-        <v>0</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E2" s="32">
-        <v>375</v>
-      </c>
-      <c r="F2" s="32">
-        <v>0</v>
-      </c>
-      <c r="G2" s="31">
-        <v>620</v>
-      </c>
-      <c r="H2" s="32">
+      <c r="J4" s="24">
+        <v>1</v>
+      </c>
+      <c r="K4" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="L4" s="24">
+        <v>0</v>
+      </c>
+      <c r="M4" s="21">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N4" s="22">
+        <v>2.02</v>
+      </c>
+      <c r="O4" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="R4" s="24">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="S4" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="T4" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="U4" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="V4" s="24">
+        <v>0</v>
+      </c>
+      <c r="W4" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="X4" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
+        <v>-1</v>
+      </c>
+      <c r="B5" s="21">
+        <v>1</v>
+      </c>
+      <c r="C5" s="21">
+        <v>0</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="21">
+        <v>365</v>
+      </c>
+      <c r="F5" s="21">
+        <v>0</v>
+      </c>
+      <c r="G5" s="20">
+        <v>528</v>
+      </c>
+      <c r="H5" s="21">
+        <v>4</v>
+      </c>
+      <c r="I5" s="21">
+        <v>1</v>
+      </c>
+      <c r="J5" s="21">
+        <v>1</v>
+      </c>
+      <c r="K5" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="L5" s="21">
+        <v>0</v>
+      </c>
+      <c r="M5" s="21">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N5" s="22">
+        <v>2.02</v>
+      </c>
+      <c r="O5" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="P5" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="R5" s="24">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="S5" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="T5" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="U5" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="V5" s="21">
+        <v>0</v>
+      </c>
+      <c r="W5" s="21">
+        <v>0.1</v>
+      </c>
+      <c r="X5" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="21">
+        <v>-1</v>
+      </c>
+      <c r="B6" s="24">
+        <v>1</v>
+      </c>
+      <c r="C6" s="21">
+        <v>0</v>
+      </c>
+      <c r="D6" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="21">
+        <v>365</v>
+      </c>
+      <c r="F6" s="21">
+        <v>0</v>
+      </c>
+      <c r="G6" s="20">
+        <v>528</v>
+      </c>
+      <c r="H6" s="21">
+        <v>4</v>
+      </c>
+      <c r="I6" s="24">
+        <v>1</v>
+      </c>
+      <c r="J6" s="24">
+        <v>1</v>
+      </c>
+      <c r="K6" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="L6" s="24">
+        <v>0</v>
+      </c>
+      <c r="M6" s="21">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N6" s="22">
+        <v>2.02</v>
+      </c>
+      <c r="O6" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="P6" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="R6" s="24">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="S6" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="T6" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="U6" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="V6" s="24">
+        <v>0</v>
+      </c>
+      <c r="W6" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="X6" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="21">
+        <v>-1</v>
+      </c>
+      <c r="B7" s="19">
+        <v>1</v>
+      </c>
+      <c r="C7" s="21">
+        <v>0</v>
+      </c>
+      <c r="D7" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E7" s="21">
+        <v>365</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0</v>
+      </c>
+      <c r="G7" s="20">
+        <v>528</v>
+      </c>
+      <c r="H7" s="21">
+        <v>4</v>
+      </c>
+      <c r="I7" s="19">
+        <v>1</v>
+      </c>
+      <c r="J7" s="19">
+        <v>1</v>
+      </c>
+      <c r="K7" s="21">
+        <v>1.2</v>
+      </c>
+      <c r="L7" s="19">
+        <v>0</v>
+      </c>
+      <c r="M7" s="21">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N7" s="22">
+        <v>2.02</v>
+      </c>
+      <c r="O7" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="P7" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>1.6</v>
+      </c>
+      <c r="R7" s="24">
+        <v>1.9990000000000001</v>
+      </c>
+      <c r="S7" s="24">
+        <v>0.01</v>
+      </c>
+      <c r="T7" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="U7" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="V7" s="19">
+        <v>0</v>
+      </c>
+      <c r="W7" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="X7" s="18">
         <v>5</v>
       </c>
-      <c r="I2" s="32">
-        <v>1</v>
-      </c>
-      <c r="J2" s="32">
-        <v>1</v>
-      </c>
-      <c r="K2" s="32">
-        <v>1</v>
-      </c>
-      <c r="L2" s="32">
-        <v>0</v>
-      </c>
-      <c r="M2" s="32">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="N2" s="33">
-        <v>2.02</v>
-      </c>
-      <c r="O2" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="P2" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q2" s="32">
-        <v>0.8</v>
-      </c>
-      <c r="R2" s="32">
-        <v>3</v>
-      </c>
-      <c r="S2" s="32">
-        <v>0.01</v>
-      </c>
-      <c r="T2" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="U2" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="V2" s="32">
-        <v>0</v>
-      </c>
-      <c r="W2" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="X2" s="31">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
-        <v>-1</v>
-      </c>
-      <c r="B3" s="35">
-        <v>1</v>
-      </c>
-      <c r="C3" s="32">
-        <v>0</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="35">
-        <v>375</v>
-      </c>
-      <c r="F3" s="32">
-        <v>0</v>
-      </c>
-      <c r="G3" s="34">
-        <v>620</v>
-      </c>
-      <c r="H3" s="35">
-        <v>5</v>
-      </c>
-      <c r="I3" s="35">
-        <v>1</v>
-      </c>
-      <c r="J3" s="35">
-        <v>1</v>
-      </c>
-      <c r="K3" s="35">
-        <v>1</v>
-      </c>
-      <c r="L3" s="35">
-        <v>0</v>
-      </c>
-      <c r="M3" s="32">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="N3" s="33">
-        <v>2.02</v>
-      </c>
-      <c r="O3" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="P3" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q3" s="32">
-        <v>1.6</v>
-      </c>
-      <c r="R3" s="35">
-        <v>1.9990000000000001</v>
-      </c>
-      <c r="S3" s="35">
-        <v>0.01</v>
-      </c>
-      <c r="T3" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="U3" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="V3" s="35">
-        <v>0</v>
-      </c>
-      <c r="W3" s="35">
-        <v>0.1</v>
-      </c>
-      <c r="X3" s="34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
-        <v>-1</v>
-      </c>
-      <c r="B4" s="35">
-        <v>1</v>
-      </c>
-      <c r="C4" s="32">
-        <v>0</v>
-      </c>
-      <c r="D4" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="35">
-        <v>375</v>
-      </c>
-      <c r="F4" s="32">
-        <v>0</v>
-      </c>
-      <c r="G4" s="34">
-        <v>620</v>
-      </c>
-      <c r="H4" s="35">
-        <v>5</v>
-      </c>
-      <c r="I4" s="35">
-        <v>1</v>
-      </c>
-      <c r="J4" s="35">
-        <v>1</v>
-      </c>
-      <c r="K4" s="35">
-        <v>1</v>
-      </c>
-      <c r="L4" s="35">
-        <v>0</v>
-      </c>
-      <c r="M4" s="32">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="N4" s="33">
-        <v>2.02</v>
-      </c>
-      <c r="O4" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="P4" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q4" s="32">
-        <v>1.6</v>
-      </c>
-      <c r="R4" s="35">
-        <v>1.9990000000000001</v>
-      </c>
-      <c r="S4" s="35">
-        <v>0.01</v>
-      </c>
-      <c r="T4" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="U4" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="V4" s="35">
-        <v>0</v>
-      </c>
-      <c r="W4" s="35">
-        <v>0.1</v>
-      </c>
-      <c r="X4" s="34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
-        <v>-1</v>
-      </c>
-      <c r="B5" s="32">
-        <v>1</v>
-      </c>
-      <c r="C5" s="32">
-        <v>0</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E5" s="32">
-        <v>375</v>
-      </c>
-      <c r="F5" s="32">
-        <v>0</v>
-      </c>
-      <c r="G5" s="31">
-        <v>620</v>
-      </c>
-      <c r="H5" s="32">
-        <v>5</v>
-      </c>
-      <c r="I5" s="32">
-        <v>1</v>
-      </c>
-      <c r="J5" s="32">
-        <v>1</v>
-      </c>
-      <c r="K5" s="32">
-        <v>1</v>
-      </c>
-      <c r="L5" s="32">
-        <v>0</v>
-      </c>
-      <c r="M5" s="32">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="N5" s="33">
-        <v>2.02</v>
-      </c>
-      <c r="O5" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="P5" s="32" t="s">
-        <v>139</v>
-      </c>
-      <c r="Q5" s="32">
-        <v>1.6</v>
-      </c>
-      <c r="R5" s="35">
-        <v>1.9990000000000001</v>
-      </c>
-      <c r="S5" s="35">
-        <v>0.01</v>
-      </c>
-      <c r="T5" s="32" t="s">
-        <v>93</v>
-      </c>
-      <c r="U5" s="32" t="s">
-        <v>91</v>
-      </c>
-      <c r="V5" s="32">
-        <v>0</v>
-      </c>
-      <c r="W5" s="32">
-        <v>0.1</v>
-      </c>
-      <c r="X5" s="31">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
-        <v>-1</v>
-      </c>
-      <c r="B6" s="35">
-        <v>1</v>
-      </c>
-      <c r="C6" s="32">
-        <v>0</v>
-      </c>
-      <c r="D6" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="35">
-        <v>375</v>
-      </c>
-      <c r="F6" s="32">
-        <v>0</v>
-      </c>
-      <c r="G6" s="34">
-        <v>620</v>
-      </c>
-      <c r="H6" s="35">
-        <v>5</v>
-      </c>
-      <c r="I6" s="35">
-        <v>1</v>
-      </c>
-      <c r="J6" s="35">
-        <v>1</v>
-      </c>
-      <c r="K6" s="35">
-        <v>1</v>
-      </c>
-      <c r="L6" s="35">
-        <v>0</v>
-      </c>
-      <c r="M6" s="32">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="N6" s="33">
-        <v>2.02</v>
-      </c>
-      <c r="O6" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="P6" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q6" s="32">
-        <v>1.6</v>
-      </c>
-      <c r="R6" s="35">
-        <v>1.9990000000000001</v>
-      </c>
-      <c r="S6" s="35">
-        <v>0.01</v>
-      </c>
-      <c r="T6" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="U6" s="35" t="s">
-        <v>91</v>
-      </c>
-      <c r="V6" s="35">
-        <v>0</v>
-      </c>
-      <c r="W6" s="35">
-        <v>0.1</v>
-      </c>
-      <c r="X6" s="34">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="32">
-        <v>-1</v>
-      </c>
-      <c r="B7" s="30">
-        <v>1</v>
-      </c>
-      <c r="C7" s="32">
-        <v>0</v>
-      </c>
-      <c r="D7" s="30" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="30">
-        <v>375</v>
-      </c>
-      <c r="F7" s="32">
-        <v>0</v>
-      </c>
-      <c r="G7" s="29">
-        <v>620</v>
-      </c>
-      <c r="H7" s="30">
-        <v>5</v>
-      </c>
-      <c r="I7" s="30">
-        <v>1</v>
-      </c>
-      <c r="J7" s="30">
-        <v>1</v>
-      </c>
-      <c r="K7" s="30">
-        <v>1</v>
-      </c>
-      <c r="L7" s="30">
-        <v>0</v>
-      </c>
-      <c r="M7" s="32">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="N7" s="33">
-        <v>2.02</v>
-      </c>
-      <c r="O7" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="P7" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q7" s="32">
-        <v>1.6</v>
-      </c>
-      <c r="R7" s="35">
-        <v>1.9990000000000001</v>
-      </c>
-      <c r="S7" s="35">
-        <v>0.01</v>
-      </c>
-      <c r="T7" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="U7" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="V7" s="30">
-        <v>0</v>
-      </c>
-      <c r="W7" s="30">
-        <v>0.1</v>
-      </c>
-      <c r="X7" s="29">
-        <v>5</v>
-      </c>
+    </row>
+    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F21"/>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F22"/>
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F23"/>
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F24"/>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F25"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E26" s="2"/>
+      <c r="G26"/>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E27" s="2"/>
+      <c r="G27"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E28" s="2"/>
+      <c r="G28"/>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E29" s="2"/>
+      <c r="G29"/>
+      <c r="H29" s="2"/>
+    </row>
+    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E30" s="2"/>
+      <c r="G30"/>
+      <c r="H30" s="2"/>
+    </row>
+    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E31" s="2"/>
+      <c r="G31"/>
+      <c r="H31" s="2"/>
+    </row>
+    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="E32" s="2"/>
+      <c r="G32"/>
+      <c r="H32" s="2"/>
+    </row>
+    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E33" s="2"/>
+      <c r="G33"/>
+      <c r="H33" s="2"/>
+    </row>
+    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E34" s="2"/>
+      <c r="G34"/>
+      <c r="H34" s="2"/>
+    </row>
+    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="E35" s="2"/>
+      <c r="G35"/>
+      <c r="H35" s="2"/>
+    </row>
+    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39"/>
+    </row>
+    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7661,7 +8445,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7692,7 +8476,7 @@
         <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -7700,19 +8484,19 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>116</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>94</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" s="2">
-        <v>6</v>
+        <v>73</v>
       </c>
       <c r="F2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -7729,16 +8513,19 @@
   <sheetPr codeName="Planilha4">
     <tabColor rgb="FFE7E6E6"/>
   </sheetPr>
-  <dimension ref="A1:T30"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
-    <col min="2" max="2" width="39" customWidth="1"/>
+    <col min="2" max="2" width="63.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.28515625" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.85546875" customWidth="1"/>
@@ -7765,1411 +8552,945 @@
       <c r="B1" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>33</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>37</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="M1" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="O1" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="P1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="Q1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="R1" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="S1" s="14" t="s">
+      <c r="S1" s="13" t="s">
         <v>54</v>
       </c>
       <c r="T1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="38">
+        <v>3</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="36">
+        <v>0</v>
+      </c>
+      <c r="D2" s="36">
+        <v>99</v>
+      </c>
+      <c r="E2" s="36">
+        <v>280</v>
+      </c>
+      <c r="F2" s="36">
+        <v>100</v>
+      </c>
+      <c r="G2" s="36">
+        <v>0</v>
+      </c>
+      <c r="H2" s="36">
+        <v>0</v>
+      </c>
+      <c r="I2" s="36">
+        <v>0</v>
+      </c>
+      <c r="J2" s="36">
+        <v>0</v>
+      </c>
+      <c r="K2" s="36">
+        <v>0</v>
+      </c>
+      <c r="L2" s="36">
+        <v>0</v>
+      </c>
+      <c r="M2" s="36">
+        <v>0</v>
+      </c>
+      <c r="N2" s="36">
+        <v>0</v>
+      </c>
+      <c r="O2" s="36">
+        <v>0</v>
+      </c>
+      <c r="P2" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="36">
+        <v>0</v>
+      </c>
+      <c r="R2" s="36">
+        <v>0</v>
+      </c>
+      <c r="S2" s="36">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="37">
+        <v>24</v>
+      </c>
+      <c r="B3" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="C3" s="36">
+        <v>0</v>
+      </c>
+      <c r="D3" s="36">
+        <v>87.687365400000004</v>
+      </c>
+      <c r="E3" s="36">
+        <v>6.9054801509999999</v>
+      </c>
+      <c r="F3" s="36">
+        <v>41.055999999999997</v>
+      </c>
+      <c r="G3" s="36">
+        <v>5.63</v>
+      </c>
+      <c r="H3" s="36">
+        <v>0</v>
+      </c>
+      <c r="I3" s="36">
+        <v>0</v>
+      </c>
+      <c r="J3" s="36">
+        <v>2.4395544550000001</v>
+      </c>
+      <c r="K3" s="36">
+        <v>7.420880682</v>
+      </c>
+      <c r="L3" s="36">
+        <v>1.004126063</v>
+      </c>
+      <c r="M3" s="36">
+        <v>24.017840379999999</v>
+      </c>
+      <c r="N3" s="36">
+        <v>2.4489999999999998</v>
+      </c>
+      <c r="O3" s="36">
+        <v>69.974000000000004</v>
+      </c>
+      <c r="P3" s="36">
+        <v>1.6326637450000001</v>
+      </c>
+      <c r="Q3" s="36">
+        <v>1.026278931</v>
+      </c>
+      <c r="R3" s="36">
+        <v>40.314</v>
+      </c>
+      <c r="S3" s="36">
+        <v>33</v>
+      </c>
+      <c r="T3" s="40">
+        <v>0.67000499999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="38">
+        <v>25</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="36">
+        <v>65</v>
+      </c>
+      <c r="D4" s="36">
+        <v>31.58</v>
+      </c>
+      <c r="E4" s="36">
+        <v>7.59</v>
+      </c>
+      <c r="F4" s="36">
+        <v>65.650000000000006</v>
+      </c>
+      <c r="G4" s="36">
+        <v>0.68</v>
+      </c>
+      <c r="H4" s="36">
+        <v>0</v>
+      </c>
+      <c r="I4" s="36">
+        <v>0</v>
+      </c>
+      <c r="J4" s="36">
+        <v>2.9</v>
+      </c>
+      <c r="K4" s="36">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="L4" s="36">
+        <v>30.91</v>
+      </c>
+      <c r="M4" s="36">
+        <v>53.59</v>
+      </c>
+      <c r="N4" s="36">
+        <v>4.66</v>
+      </c>
+      <c r="O4" s="36">
+        <v>63.11</v>
+      </c>
+      <c r="P4" s="36">
+        <v>1.42</v>
+      </c>
+      <c r="Q4" s="36">
+        <v>0.83</v>
+      </c>
+      <c r="R4" s="36">
+        <v>34.35</v>
+      </c>
+      <c r="S4" s="36">
+        <v>86.14</v>
+      </c>
+      <c r="T4" s="2">
+        <v>1.9074580000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="38">
+        <v>26</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="C5" s="36">
+        <v>0</v>
+      </c>
+      <c r="D5" s="36">
+        <v>88.65</v>
+      </c>
+      <c r="E5" s="36">
+        <v>9.08</v>
+      </c>
+      <c r="F5" s="36">
+        <v>43.93</v>
+      </c>
+      <c r="G5" s="36">
+        <v>0.54</v>
+      </c>
+      <c r="H5" s="36">
+        <v>0</v>
+      </c>
+      <c r="I5" s="36">
+        <v>0</v>
+      </c>
+      <c r="J5" s="36">
+        <v>4.0599999999999996</v>
+      </c>
+      <c r="K5" s="36">
+        <v>1.43</v>
+      </c>
+      <c r="L5" s="36">
+        <v>73.25</v>
+      </c>
+      <c r="M5" s="36">
+        <v>12.18</v>
+      </c>
+      <c r="N5" s="36">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="O5" s="36">
+        <v>87.24</v>
+      </c>
+      <c r="P5" s="36">
+        <v>2.15</v>
+      </c>
+      <c r="Q5" s="36">
+        <v>1.48</v>
+      </c>
+      <c r="R5" s="36">
+        <v>56.07</v>
+      </c>
+      <c r="S5" s="36">
+        <v>15.88</v>
+      </c>
+      <c r="T5" s="2">
+        <v>0.36575000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="37">
+        <v>27</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C6" s="36">
+        <v>0</v>
+      </c>
+      <c r="D6" s="36">
+        <v>90.11</v>
+      </c>
+      <c r="E6" s="36">
+        <v>42.27</v>
+      </c>
+      <c r="F6" s="36">
+        <v>56.67</v>
+      </c>
+      <c r="G6" s="36">
+        <v>2.09</v>
+      </c>
+      <c r="H6" s="36">
+        <v>0</v>
+      </c>
+      <c r="I6" s="36">
+        <v>0</v>
+      </c>
+      <c r="J6" s="36">
+        <v>2.1</v>
+      </c>
+      <c r="K6" s="36">
+        <v>6.6</v>
+      </c>
+      <c r="L6" s="36">
+        <v>15.76</v>
+      </c>
+      <c r="M6" s="36">
+        <v>33.28</v>
+      </c>
+      <c r="N6" s="36">
+        <v>6.63</v>
+      </c>
+      <c r="O6" s="36">
+        <v>70.92</v>
+      </c>
+      <c r="P6" s="36">
+        <v>1.66</v>
+      </c>
+      <c r="Q6" s="36">
+        <v>1.04</v>
+      </c>
+      <c r="R6" s="36">
+        <v>43.33</v>
+      </c>
+      <c r="S6" s="36">
+        <v>20</v>
+      </c>
+      <c r="T6" s="2">
+        <v>3.0312000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="37">
+        <v>28</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="36">
+        <v>0</v>
+      </c>
+      <c r="D7" s="36">
+        <v>91.19</v>
+      </c>
+      <c r="E7" s="36">
+        <v>22.15</v>
+      </c>
+      <c r="F7" s="36">
+        <v>73.040000000000006</v>
+      </c>
+      <c r="G7" s="36">
+        <v>1.3</v>
+      </c>
+      <c r="H7" s="36">
+        <v>0</v>
+      </c>
+      <c r="I7" s="36">
+        <v>0</v>
+      </c>
+      <c r="J7" s="36">
+        <v>19.07</v>
+      </c>
+      <c r="K7" s="36">
+        <v>4.2300000000000004</v>
+      </c>
+      <c r="L7" s="36">
+        <v>9.0299999999999994</v>
+      </c>
+      <c r="M7" s="36">
+        <v>45.52</v>
+      </c>
+      <c r="N7" s="36">
+        <v>8.2899999999999991</v>
+      </c>
+      <c r="O7" s="36">
+        <v>88.49</v>
+      </c>
+      <c r="P7" s="36">
+        <v>2.19</v>
+      </c>
+      <c r="Q7" s="36">
+        <v>1.51</v>
+      </c>
+      <c r="R7" s="36">
+        <v>26.96</v>
+      </c>
+      <c r="S7" s="36">
+        <v>60</v>
+      </c>
+      <c r="T7" s="2">
+        <v>1.603945</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="34">
+        <v>29</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="36">
+        <v>0</v>
+      </c>
+      <c r="D8" s="36">
+        <v>89.79</v>
+      </c>
+      <c r="E8" s="36">
+        <v>49.81</v>
+      </c>
+      <c r="F8" s="36">
+        <v>71.25</v>
+      </c>
+      <c r="G8" s="36">
+        <v>1.05</v>
+      </c>
+      <c r="H8" s="36">
+        <v>0</v>
+      </c>
+      <c r="I8" s="36">
+        <v>0</v>
+      </c>
+      <c r="J8" s="36">
+        <v>1.87</v>
+      </c>
+      <c r="K8" s="36">
+        <v>6.68</v>
+      </c>
+      <c r="L8" s="36">
+        <v>28.88</v>
+      </c>
+      <c r="M8" s="36">
+        <v>12.75</v>
+      </c>
+      <c r="N8" s="36">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="O8" s="36">
+        <v>77.52</v>
+      </c>
+      <c r="P8" s="36">
+        <v>1.86</v>
+      </c>
+      <c r="Q8" s="36">
+        <v>1.22</v>
+      </c>
+      <c r="R8" s="36">
+        <v>28.76</v>
+      </c>
+      <c r="S8" s="36">
+        <v>20</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0.84419999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="37">
+        <v>30</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="36">
+        <v>0</v>
+      </c>
+      <c r="D9" s="36">
+        <v>89.97</v>
+      </c>
+      <c r="E9" s="36">
+        <v>13.35</v>
+      </c>
+      <c r="F9" s="36">
+        <v>50.82</v>
+      </c>
+      <c r="G9" s="36">
+        <v>2.34</v>
+      </c>
+      <c r="H9" s="36">
+        <v>0</v>
+      </c>
+      <c r="I9" s="36">
+        <v>0</v>
+      </c>
+      <c r="J9" s="36">
+        <v>2.31</v>
+      </c>
+      <c r="K9" s="36">
+        <v>5.12</v>
+      </c>
+      <c r="L9" s="36">
+        <v>14.58</v>
+      </c>
+      <c r="M9" s="36">
+        <v>64.64</v>
+      </c>
+      <c r="N9" s="36">
+        <v>3.16</v>
+      </c>
+      <c r="O9" s="36">
+        <v>69.819999999999993</v>
+      </c>
+      <c r="P9" s="36">
+        <v>1.62</v>
+      </c>
+      <c r="Q9" s="36">
+        <v>1.01</v>
+      </c>
+      <c r="R9" s="36">
+        <v>49.18</v>
+      </c>
+      <c r="S9" s="36">
+        <v>30</v>
+      </c>
+      <c r="T9" s="2">
+        <v>1.8706940000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="38">
+        <v>31</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>3</v>
-      </c>
-      <c r="B2" s="23" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="5">
-        <v>0</v>
-      </c>
-      <c r="D2" s="5">
-        <v>99</v>
-      </c>
-      <c r="E2" s="5">
-        <v>281</v>
-      </c>
-      <c r="F2" s="5">
+      <c r="C10" s="36">
+        <v>0</v>
+      </c>
+      <c r="D10" s="36">
+        <v>94.1</v>
+      </c>
+      <c r="E10" s="36">
+        <v>45</v>
+      </c>
+      <c r="F10" s="36">
+        <v>29.8</v>
+      </c>
+      <c r="G10" s="36">
+        <v>12.5</v>
+      </c>
+      <c r="H10" s="36">
+        <v>0</v>
+      </c>
+      <c r="I10" s="36">
+        <v>0</v>
+      </c>
+      <c r="J10" s="36">
+        <v>7.7</v>
+      </c>
+      <c r="K10" s="36">
+        <v>5.6</v>
+      </c>
+      <c r="L10" s="36">
+        <v>6.9</v>
+      </c>
+      <c r="M10" s="36">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="N10" s="36">
+        <v>3.3</v>
+      </c>
+      <c r="O10" s="36">
+        <v>80.8</v>
+      </c>
+      <c r="P10" s="36">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="36">
+        <v>1.3</v>
+      </c>
+      <c r="R10" s="36">
+        <v>28.2</v>
+      </c>
+      <c r="S10" s="36">
+        <v>36</v>
+      </c>
+      <c r="T10" s="2">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
+        <v>32</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="36">
+        <v>0</v>
+      </c>
+      <c r="D11" s="36">
+        <v>91.8</v>
+      </c>
+      <c r="E11" s="36">
+        <v>14.7</v>
+      </c>
+      <c r="F11" s="36">
+        <v>25.8</v>
+      </c>
+      <c r="G11" s="36">
+        <v>5</v>
+      </c>
+      <c r="H11" s="36">
+        <v>0</v>
+      </c>
+      <c r="I11" s="36">
+        <v>0</v>
+      </c>
+      <c r="J11" s="36">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="K11" s="36">
+        <v>12.2</v>
+      </c>
+      <c r="L11" s="36">
+        <v>20.2</v>
+      </c>
+      <c r="M11" s="36">
+        <v>26.6</v>
+      </c>
+      <c r="N11" s="36">
+        <v>5.3</v>
+      </c>
+      <c r="O11" s="36">
+        <v>83.4</v>
+      </c>
+      <c r="P11" s="36">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="36">
+        <v>1.4</v>
+      </c>
+      <c r="R11" s="36">
+        <v>44.7</v>
+      </c>
+      <c r="S11" s="36">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>1.66208</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="37">
+        <v>33</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="36">
+        <v>0</v>
+      </c>
+      <c r="D12" s="36">
+        <v>89.05</v>
+      </c>
+      <c r="E12" s="36">
+        <v>17.48</v>
+      </c>
+      <c r="F12" s="36">
+        <v>65.34</v>
+      </c>
+      <c r="G12" s="36">
+        <v>0.48</v>
+      </c>
+      <c r="H12" s="36">
+        <v>0</v>
+      </c>
+      <c r="I12" s="36">
+        <v>0</v>
+      </c>
+      <c r="J12" s="36">
+        <v>3.87</v>
+      </c>
+      <c r="K12" s="36">
+        <v>5.39</v>
+      </c>
+      <c r="L12" s="36">
+        <v>30.81</v>
+      </c>
+      <c r="M12" s="36">
+        <v>42.46</v>
+      </c>
+      <c r="N12" s="36">
+        <v>3.59</v>
+      </c>
+      <c r="O12" s="36">
+        <v>71.28</v>
+      </c>
+      <c r="P12" s="36">
+        <v>1.67</v>
+      </c>
+      <c r="Q12" s="36">
+        <v>1.05</v>
+      </c>
+      <c r="R12" s="36">
+        <v>34.659999999999997</v>
+      </c>
+      <c r="S12" s="36">
+        <v>22.5</v>
+      </c>
+      <c r="T12" s="2">
+        <v>2.625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>35</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="2">
         <v>100</v>
       </c>
-      <c r="G2" s="5">
-        <v>0</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0</v>
-      </c>
-      <c r="I2" s="5">
-        <v>0</v>
-      </c>
-      <c r="J2" s="5">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5">
-        <v>0</v>
-      </c>
-      <c r="N2" s="5">
-        <v>0</v>
-      </c>
-      <c r="O2" s="5">
-        <v>0</v>
-      </c>
-      <c r="P2" s="5">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="5">
-        <v>0</v>
-      </c>
-      <c r="R2" s="5">
-        <v>6.00000049644223E-8</v>
-      </c>
-      <c r="S2" s="5">
-        <v>0</v>
-      </c>
-      <c r="T2" s="5">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
-        <v>4</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="5">
-        <v>0</v>
-      </c>
-      <c r="D3" s="5">
-        <v>91</v>
-      </c>
-      <c r="E3" s="5">
-        <v>9.8000001907348633</v>
-      </c>
-      <c r="F3" s="21">
-        <v>27</v>
-      </c>
-      <c r="G3" s="21">
-        <v>11</v>
-      </c>
-      <c r="H3" s="5">
-        <v>7.929999828338623</v>
-      </c>
-      <c r="I3" s="5">
-        <v>0</v>
-      </c>
-      <c r="J3" s="5">
-        <v>1.4299999475479126</v>
-      </c>
-      <c r="K3" s="5">
-        <v>5.3000001907348633</v>
-      </c>
-      <c r="L3" s="5">
-        <v>4.4000000953674316</v>
-      </c>
-      <c r="M3" s="5">
-        <v>44.599998474121094</v>
-      </c>
-      <c r="N3" s="5">
-        <v>3.7000000476837158</v>
-      </c>
-      <c r="O3" s="5">
-        <v>71.800003051757813</v>
-      </c>
-      <c r="P3" s="5">
-        <v>1.690000057220459</v>
-      </c>
-      <c r="Q3" s="5">
-        <v>1.0700000524520874</v>
-      </c>
-      <c r="R3" s="5">
-        <v>52</v>
-      </c>
-      <c r="S3" s="5">
-        <v>60</v>
-      </c>
-      <c r="T3" s="5">
-        <v>0.79379999999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
-        <v>5</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="5">
-        <v>0</v>
-      </c>
-      <c r="D4" s="5">
-        <v>89.599998474121094</v>
-      </c>
-      <c r="E4" s="5">
-        <v>24</v>
-      </c>
-      <c r="F4" s="5">
-        <v>54</v>
-      </c>
-      <c r="G4" s="5">
-        <v>3.7999999523162842</v>
-      </c>
-      <c r="H4" s="5">
-        <v>13.060000419616699</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>4.1999998092651367</v>
-      </c>
-      <c r="K4" s="5">
-        <v>7.9000000953674316</v>
-      </c>
-      <c r="L4" s="5">
-        <v>14.199999809265137</v>
-      </c>
-      <c r="M4" s="5">
-        <v>34.639999389648438</v>
-      </c>
-      <c r="N4" s="5">
-        <v>5.5999999046325684</v>
-      </c>
-      <c r="O4" s="5">
-        <v>74.5</v>
-      </c>
-      <c r="P4" s="5">
-        <v>1.7699999809265137</v>
-      </c>
-      <c r="Q4" s="5">
-        <v>1.1499999761581421</v>
-      </c>
-      <c r="R4" s="5">
-        <v>24</v>
-      </c>
-      <c r="S4" s="5">
-        <v>40</v>
-      </c>
-      <c r="T4" s="5">
-        <v>5.1840000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
-        <v>6</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="5">
-        <v>92.699996948242188</v>
-      </c>
-      <c r="E5" s="5">
-        <v>65.5</v>
-      </c>
-      <c r="F5" s="5">
-        <v>6.4000000953674316</v>
-      </c>
-      <c r="G5" s="5">
-        <v>3.9000000953674316</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1.5800000429153442</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>2.5999999046325684</v>
-      </c>
-      <c r="K5" s="5">
-        <v>3.7000000476837158</v>
-      </c>
-      <c r="L5" s="5">
-        <v>18.120000839233398</v>
-      </c>
-      <c r="M5" s="5">
-        <v>11</v>
-      </c>
-      <c r="N5" s="5">
-        <v>27.350000381469727</v>
-      </c>
-      <c r="O5" s="5">
-        <v>84.199996948242188</v>
-      </c>
-      <c r="P5" s="5">
-        <v>2.059999942779541</v>
-      </c>
-      <c r="Q5" s="5">
-        <v>1.3999999761581421</v>
-      </c>
-      <c r="R5" s="5">
-        <v>47</v>
-      </c>
-      <c r="S5" s="5">
-        <v>40</v>
-      </c>
-      <c r="T5" s="5">
-        <v>0.20960000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
-        <v>7</v>
-      </c>
-      <c r="B6" s="20" t="s">
+      <c r="D13" s="2">
+        <v>15.6</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="F13" s="2">
+        <v>20</v>
+      </c>
+      <c r="G13" s="2">
+        <v>65</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>1.8</v>
+      </c>
+      <c r="K13" s="2">
+        <v>1.9</v>
+      </c>
+      <c r="L13" s="2">
+        <v>20.05</v>
+      </c>
+      <c r="M13" s="2">
+        <v>75.59</v>
+      </c>
+      <c r="N13" s="2">
+        <v>11.3</v>
+      </c>
+      <c r="O13" s="2">
+        <v>54.2</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="R13" s="2">
+        <v>75</v>
+      </c>
+      <c r="S13" s="2">
+        <v>95</v>
+      </c>
+      <c r="T13" s="2">
+        <v>0.33800000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>36</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>88.7</v>
+      </c>
+      <c r="E14">
+        <v>30.34</v>
+      </c>
+      <c r="F14">
+        <v>13.19</v>
+      </c>
+      <c r="G14">
+        <v>17</v>
+      </c>
+      <c r="H14">
+        <v>3.36</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>14.53</v>
+      </c>
+      <c r="K14">
+        <v>5.89</v>
+      </c>
+      <c r="L14">
+        <v>12.16</v>
+      </c>
+      <c r="M14">
+        <v>32.15</v>
+      </c>
+      <c r="N14">
+        <v>14.42</v>
+      </c>
+      <c r="O14">
+        <v>87.7</v>
+      </c>
+      <c r="P14">
+        <v>2.17</v>
+      </c>
+      <c r="Q14">
+        <v>1.49</v>
+      </c>
+      <c r="R14">
+        <v>44</v>
+      </c>
+      <c r="S14">
+        <v>20</v>
+      </c>
+      <c r="T14" s="2">
+        <v>1.4006460000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="38">
+        <v>37</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="36">
         <v>100</v>
       </c>
-      <c r="C6" s="5">
-        <v>0</v>
-      </c>
-      <c r="D6" s="5">
-        <v>89</v>
-      </c>
-      <c r="E6" s="5">
-        <v>3.0999999046325684</v>
-      </c>
-      <c r="F6" s="5">
-        <v>25</v>
-      </c>
-      <c r="G6" s="5">
-        <v>5</v>
-      </c>
-      <c r="H6" s="5">
-        <v>4.3000001907348633</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0.80000001192092896</v>
-      </c>
-      <c r="K6" s="5">
-        <v>3</v>
-      </c>
-      <c r="L6" s="5">
-        <v>77.419998168945313</v>
-      </c>
-      <c r="M6" s="5">
-        <v>8</v>
-      </c>
-      <c r="N6" s="5">
-        <v>1</v>
-      </c>
-      <c r="O6" s="5">
-        <v>85.300003051757813</v>
-      </c>
-      <c r="P6" s="5">
-        <v>2.0999999046325684</v>
-      </c>
-      <c r="Q6" s="5">
-        <v>1.4299999475479126</v>
-      </c>
-      <c r="R6" s="5">
-        <v>35</v>
-      </c>
-      <c r="S6" s="5">
-        <v>25</v>
-      </c>
-      <c r="T6" s="5">
-        <v>0.23250000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
-        <v>8</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>75</v>
-      </c>
-      <c r="E7" s="5">
-        <v>8.5</v>
-      </c>
-      <c r="F7" s="5">
-        <v>100</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0</v>
-      </c>
-      <c r="H7" s="5">
-        <v>70</v>
-      </c>
-      <c r="I7" s="5">
-        <v>4</v>
-      </c>
-      <c r="J7" s="5">
-        <v>1</v>
-      </c>
-      <c r="K7" s="5">
-        <v>11</v>
-      </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5">
-        <v>0</v>
-      </c>
-      <c r="N7" s="5">
-        <v>0</v>
-      </c>
-      <c r="O7" s="5">
-        <v>79.400001525878906</v>
-      </c>
-      <c r="P7" s="5">
-        <v>1.9199999570846558</v>
-      </c>
-      <c r="Q7" s="5">
-        <v>1.2799999713897705</v>
-      </c>
-      <c r="R7" s="5">
-        <v>0</v>
-      </c>
-      <c r="S7" s="5">
-        <v>0</v>
-      </c>
-      <c r="T7" s="5">
-        <v>4.25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
-        <v>9</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
-        <v>90.099998474121094</v>
-      </c>
-      <c r="E8" s="5">
-        <v>41.5</v>
-      </c>
-      <c r="F8" s="5">
-        <v>30</v>
-      </c>
-      <c r="G8" s="5">
-        <v>6.1999998092651367</v>
-      </c>
-      <c r="H8" s="5">
-        <v>10.340000152587891</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-      <c r="J8" s="5">
-        <v>4.7699999809265137</v>
-      </c>
-      <c r="K8" s="5">
-        <v>7.9699997901916504</v>
-      </c>
-      <c r="L8" s="5">
-        <v>11.970000267028809</v>
-      </c>
-      <c r="M8" s="5">
-        <v>27.659999847412109</v>
-      </c>
-      <c r="N8" s="5">
-        <v>26.620000839233398</v>
-      </c>
-      <c r="O8" s="5">
-        <v>73</v>
-      </c>
-      <c r="P8" s="5">
-        <v>1.7300000190734863</v>
-      </c>
-      <c r="Q8" s="5">
-        <v>1.1100000143051147</v>
-      </c>
-      <c r="R8" s="5">
-        <v>31</v>
-      </c>
-      <c r="S8" s="5">
-        <v>40</v>
-      </c>
-      <c r="T8" s="5">
-        <v>4.3574999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
-        <v>10</v>
-      </c>
-      <c r="B9" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>99</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-      <c r="J9" s="5">
-        <v>100</v>
-      </c>
-      <c r="K9" s="5">
-        <v>0</v>
-      </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5">
-        <v>0</v>
-      </c>
-      <c r="N9" s="5">
-        <v>0</v>
-      </c>
-      <c r="O9" s="5">
-        <v>193.5</v>
-      </c>
-      <c r="P9" s="5">
-        <v>5.3000001907348633</v>
-      </c>
-      <c r="Q9" s="5">
-        <v>3.940000057220459</v>
-      </c>
-      <c r="R9" s="5">
-        <v>0</v>
-      </c>
-      <c r="S9" s="5">
-        <v>0</v>
-      </c>
-      <c r="T9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>11</v>
-      </c>
-      <c r="B10" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="5">
-        <v>0</v>
-      </c>
-      <c r="D10" s="5">
-        <v>93.599998474121094</v>
-      </c>
-      <c r="E10" s="5">
-        <v>42.790000915527344</v>
-      </c>
-      <c r="F10" s="5">
-        <v>8</v>
-      </c>
-      <c r="G10" s="5">
-        <v>3</v>
-      </c>
-      <c r="H10" s="5">
-        <v>13.5</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-      <c r="J10" s="5">
-        <v>18.799999237060547</v>
-      </c>
-      <c r="K10" s="5">
-        <v>6</v>
-      </c>
-      <c r="L10" s="5">
-        <v>3.6099998950958252</v>
-      </c>
-      <c r="M10" s="5">
-        <v>13</v>
-      </c>
-      <c r="N10" s="5">
-        <v>1.5399999618530273</v>
-      </c>
-      <c r="O10" s="5">
-        <v>104.80000305175781</v>
-      </c>
-      <c r="P10" s="5">
-        <v>2.6600000858306885</v>
-      </c>
-      <c r="Q10" s="5">
-        <v>1.8899999856948853</v>
-      </c>
-      <c r="R10" s="5">
-        <v>38</v>
-      </c>
-      <c r="S10" s="5">
-        <v>50</v>
-      </c>
-      <c r="T10" s="5">
-        <v>0.41078399999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
-        <v>12</v>
-      </c>
-      <c r="B11" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>93</v>
-      </c>
-      <c r="E11" s="5">
-        <v>26.299999237060547</v>
-      </c>
-      <c r="F11" s="5">
-        <v>33.75</v>
-      </c>
-      <c r="G11" s="5">
-        <v>6.1999998092651367</v>
-      </c>
-      <c r="H11" s="5">
-        <v>10.119999885559082</v>
-      </c>
-      <c r="I11" s="5">
-        <v>0</v>
-      </c>
-      <c r="J11" s="5">
-        <v>2.5999999046325684</v>
-      </c>
-      <c r="K11" s="5">
-        <v>7</v>
-      </c>
-      <c r="L11" s="5">
-        <v>11.380000114440918</v>
-      </c>
-      <c r="M11" s="5">
-        <v>42</v>
-      </c>
-      <c r="N11" s="5">
-        <v>23.299999237060547</v>
-      </c>
-      <c r="O11" s="5">
-        <v>60.5</v>
-      </c>
-      <c r="P11" s="5">
-        <v>1.3200000524520874</v>
-      </c>
-      <c r="Q11" s="5">
-        <v>0.75</v>
-      </c>
-      <c r="R11" s="5">
-        <v>23</v>
-      </c>
-      <c r="S11" s="5">
-        <v>50</v>
-      </c>
-      <c r="T11" s="5">
-        <v>3.1954500000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
-        <v>13</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
-        <v>93.300003051757813</v>
-      </c>
-      <c r="E12" s="5">
-        <v>23.350000381469727</v>
-      </c>
-      <c r="F12" s="5">
-        <v>21.5</v>
-      </c>
-      <c r="G12" s="5">
-        <v>4.0900001525878906</v>
-      </c>
-      <c r="H12" s="5">
-        <v>2.3299999237060547</v>
-      </c>
-      <c r="I12" s="5">
-        <v>0</v>
-      </c>
-      <c r="J12" s="5">
-        <v>12</v>
-      </c>
-      <c r="K12" s="5">
-        <v>2.5399999618530273</v>
-      </c>
-      <c r="L12" s="5">
-        <v>14.729999542236328</v>
-      </c>
-      <c r="M12" s="5">
-        <v>49.349998474121094</v>
-      </c>
-      <c r="N12" s="5">
-        <v>3.9500000476837158</v>
-      </c>
-      <c r="O12" s="5">
-        <v>86.300003051757813</v>
-      </c>
-      <c r="P12" s="5">
-        <v>2.130000114440918</v>
-      </c>
-      <c r="Q12" s="5">
-        <v>1.4500000476837158</v>
-      </c>
-      <c r="R12" s="5">
-        <v>34</v>
-      </c>
-      <c r="S12" s="5">
-        <v>48</v>
-      </c>
-      <c r="T12" s="5">
-        <v>1.7570870000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
-        <v>14</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <v>88</v>
-      </c>
-      <c r="E13" s="5">
-        <v>33</v>
-      </c>
-      <c r="F13" s="5">
-        <v>52.389999389648438</v>
-      </c>
-      <c r="G13" s="5">
-        <v>2.380000114440918</v>
-      </c>
-      <c r="H13" s="5">
-        <v>10.989999771118164</v>
-      </c>
-      <c r="I13" s="5">
-        <v>0</v>
-      </c>
-      <c r="J13" s="5">
-        <v>1.5</v>
-      </c>
-      <c r="K13" s="5">
-        <v>6.5</v>
-      </c>
-      <c r="L13" s="5">
-        <v>12.729999542236328</v>
-      </c>
-      <c r="M13" s="5">
-        <v>31.370000839233398</v>
-      </c>
-      <c r="N13" s="5">
-        <v>24</v>
-      </c>
-      <c r="O13" s="5">
-        <v>65.5</v>
-      </c>
-      <c r="P13" s="5">
-        <v>1.4900000095367432</v>
-      </c>
-      <c r="Q13" s="5">
-        <v>0.89999997615814209</v>
-      </c>
-      <c r="R13" s="5">
-        <v>12</v>
-      </c>
-      <c r="S13" s="5">
-        <v>40</v>
-      </c>
-      <c r="T13" s="5">
-        <v>2.0746440000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
-        <v>15</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
-        <v>90</v>
-      </c>
-      <c r="E14" s="5">
-        <v>15</v>
-      </c>
-      <c r="F14" s="5">
-        <v>30</v>
-      </c>
-      <c r="G14" s="5">
-        <v>10</v>
-      </c>
-      <c r="H14" s="5">
-        <v>5.5799999237060547</v>
-      </c>
-      <c r="I14" s="5">
-        <v>0</v>
-      </c>
-      <c r="J14" s="5">
-        <v>2</v>
-      </c>
-      <c r="K14" s="5">
-        <v>6</v>
-      </c>
-      <c r="L14" s="5">
-        <v>27.930000305175781</v>
-      </c>
-      <c r="M14" s="5">
-        <v>45</v>
-      </c>
-      <c r="N14" s="5">
-        <v>10</v>
-      </c>
-      <c r="O14" s="5">
-        <v>66.900001525878906</v>
-      </c>
-      <c r="P14" s="5">
-        <v>1.5299999713897705</v>
-      </c>
-      <c r="Q14" s="5">
-        <v>0.93000000715255737</v>
-      </c>
-      <c r="R14" s="5">
-        <v>39</v>
-      </c>
-      <c r="S14" s="5">
-        <v>70</v>
-      </c>
-      <c r="T14" s="5">
-        <v>1.35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
-        <v>16</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5">
-        <v>99</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0</v>
-      </c>
-      <c r="I15" s="5">
-        <v>0</v>
-      </c>
-      <c r="J15" s="5">
-        <v>100</v>
-      </c>
-      <c r="K15" s="5">
-        <v>0</v>
-      </c>
-      <c r="L15" s="5">
-        <v>0</v>
-      </c>
-      <c r="M15" s="5">
-        <v>0</v>
-      </c>
-      <c r="N15" s="5">
-        <v>0</v>
-      </c>
-      <c r="O15" s="5">
-        <v>193.5</v>
-      </c>
-      <c r="P15" s="5">
-        <v>5.3000001907348633</v>
-      </c>
-      <c r="Q15" s="5">
-        <v>3.940000057220459</v>
-      </c>
-      <c r="R15" s="5">
-        <v>0</v>
-      </c>
-      <c r="S15" s="5">
-        <v>0</v>
-      </c>
-      <c r="T15" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
-        <v>17</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5">
-        <v>88.699996948242188</v>
-      </c>
-      <c r="E16" s="5">
-        <v>17</v>
-      </c>
-      <c r="F16" s="5">
-        <v>41</v>
-      </c>
-      <c r="G16" s="5">
-        <v>4</v>
-      </c>
-      <c r="H16" s="5">
-        <v>4.7300000190734863</v>
-      </c>
-      <c r="I16" s="5">
-        <v>0</v>
-      </c>
-      <c r="J16" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="K16" s="5">
-        <v>5.8000001907348633</v>
-      </c>
-      <c r="L16" s="5">
-        <v>21.790000915527344</v>
-      </c>
-      <c r="M16" s="5">
-        <v>44</v>
-      </c>
-      <c r="N16" s="5">
-        <v>8</v>
-      </c>
-      <c r="O16" s="5">
-        <v>71.5</v>
-      </c>
-      <c r="P16" s="5">
-        <v>1.6799999475479126</v>
-      </c>
-      <c r="Q16" s="5">
-        <v>1.059999942779541</v>
-      </c>
-      <c r="R16" s="5">
-        <v>23</v>
-      </c>
-      <c r="S16" s="5">
-        <v>45</v>
-      </c>
-      <c r="T16" s="5">
-        <v>2.0910000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
-        <v>18</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
-        <v>92.599998474121094</v>
-      </c>
-      <c r="E17" s="5">
-        <v>29</v>
-      </c>
-      <c r="F17" s="5">
-        <v>4.5</v>
-      </c>
-      <c r="G17" s="5">
-        <v>9.8599996566772461</v>
-      </c>
-      <c r="H17" s="5">
-        <v>2.619999885559082</v>
-      </c>
-      <c r="I17" s="5">
-        <v>0</v>
-      </c>
-      <c r="J17" s="5">
-        <v>8</v>
-      </c>
-      <c r="K17" s="5">
-        <v>3.7799999713897705</v>
-      </c>
-      <c r="L17" s="5">
-        <v>13.119999885559082</v>
-      </c>
-      <c r="M17" s="5">
-        <v>50.099998474121094</v>
-      </c>
-      <c r="N17" s="5">
-        <v>13.470000267028809</v>
-      </c>
-      <c r="O17" s="5">
-        <v>74.400001525878906</v>
-      </c>
-      <c r="P17" s="5">
-        <v>1.7699999809265137</v>
-      </c>
-      <c r="Q17" s="5">
-        <v>1.1399999856948853</v>
-      </c>
-      <c r="R17" s="5">
-        <v>54</v>
-      </c>
-      <c r="S17" s="5">
-        <v>40</v>
-      </c>
-      <c r="T17" s="5">
-        <v>0.45674999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
-        <v>19</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5">
-        <v>95</v>
-      </c>
-      <c r="E18" s="5">
-        <v>10</v>
-      </c>
-      <c r="F18" s="5">
-        <v>25</v>
-      </c>
-      <c r="G18" s="5">
-        <v>0.80000001192092896</v>
-      </c>
-      <c r="H18" s="5">
-        <v>1.6000000238418579</v>
-      </c>
-      <c r="I18" s="5">
-        <v>0</v>
-      </c>
-      <c r="J18" s="5">
-        <v>1.2999999523162842</v>
-      </c>
-      <c r="K18" s="5">
-        <v>3</v>
-      </c>
-      <c r="L18" s="5">
-        <v>76.989997863769531</v>
-      </c>
-      <c r="M18" s="5">
-        <v>6</v>
-      </c>
-      <c r="N18" s="5">
-        <v>1</v>
-      </c>
-      <c r="O18" s="5">
-        <v>86.099998474121094</v>
-      </c>
-      <c r="P18" s="5">
-        <v>2.119999885559082</v>
-      </c>
-      <c r="Q18" s="5">
-        <v>1.4500000476837158</v>
-      </c>
-      <c r="R18" s="5">
-        <v>17</v>
-      </c>
-      <c r="S18" s="5">
-        <v>5</v>
-      </c>
-      <c r="T18" s="5">
-        <v>0.125</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
-        <v>20</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
-        <v>88.5</v>
-      </c>
-      <c r="E19" s="5">
-        <v>20.100000381469727</v>
-      </c>
-      <c r="F19" s="5">
-        <v>44</v>
-      </c>
-      <c r="G19" s="5">
-        <v>1.4900000095367432</v>
-      </c>
-      <c r="H19" s="5">
-        <v>5.5900001525878906</v>
-      </c>
-      <c r="I19" s="5">
-        <v>0</v>
-      </c>
-      <c r="J19" s="5">
-        <v>4.0900001525878906</v>
-      </c>
-      <c r="K19" s="5">
-        <v>3.7000000476837158</v>
-      </c>
-      <c r="L19" s="5">
-        <v>37.279998779296875</v>
-      </c>
-      <c r="M19" s="5">
-        <v>27</v>
-      </c>
-      <c r="N19" s="5">
-        <v>5</v>
-      </c>
-      <c r="O19" s="5">
-        <v>81.199996948242188</v>
-      </c>
-      <c r="P19" s="5">
-        <v>1.9800000190734863</v>
-      </c>
-      <c r="Q19" s="5">
-        <v>1.3200000524520874</v>
-      </c>
-      <c r="R19" s="5">
-        <v>15</v>
-      </c>
-      <c r="S19" s="5">
-        <v>10</v>
-      </c>
-      <c r="T19" s="5">
-        <v>2.6532</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
-        <v>21</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="5">
-        <v>0</v>
-      </c>
-      <c r="D20" s="5">
-        <v>89</v>
-      </c>
-      <c r="E20" s="5">
-        <v>18.389999389648438</v>
-      </c>
-      <c r="F20" s="5">
-        <v>40</v>
-      </c>
-      <c r="G20" s="5">
-        <v>3</v>
-      </c>
-      <c r="H20" s="5">
-        <v>3.940000057220459</v>
-      </c>
-      <c r="I20" s="5">
-        <v>0</v>
-      </c>
-      <c r="J20" s="5">
-        <v>5</v>
-      </c>
-      <c r="K20" s="5">
-        <v>6.5</v>
-      </c>
-      <c r="L20" s="5">
-        <v>19.040000915527344</v>
-      </c>
-      <c r="M20" s="5">
-        <v>38</v>
-      </c>
-      <c r="N20" s="5">
-        <v>5.9499998092651367</v>
-      </c>
-      <c r="O20" s="5">
-        <v>74.699996948242188</v>
-      </c>
-      <c r="P20" s="5">
-        <v>1.7799999713897705</v>
-      </c>
-      <c r="Q20" s="5">
-        <v>1.1499999761581421</v>
-      </c>
-      <c r="R20" s="5">
-        <v>14</v>
-      </c>
-      <c r="S20" s="5">
-        <v>15</v>
-      </c>
-      <c r="T20" s="5">
-        <v>2.2067999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
-        <v>24</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="5">
-        <v>100</v>
-      </c>
-      <c r="D21" s="5">
-        <v>33.76</v>
-      </c>
-      <c r="E21" s="5">
-        <v>13.23</v>
-      </c>
-      <c r="F21" s="5">
-        <v>70</v>
-      </c>
-      <c r="G21" s="5">
-        <v>5</v>
-      </c>
-      <c r="H21" s="5">
-        <v>1.62</v>
-      </c>
-      <c r="I21" s="5">
-        <v>0</v>
-      </c>
-      <c r="J21" s="5">
-        <v>2.44</v>
-      </c>
-      <c r="K21" s="5">
-        <v>4.1999998092651367</v>
-      </c>
-      <c r="L21" s="5">
-        <v>32.549999237060547</v>
-      </c>
-      <c r="M21" s="5">
-        <v>53.38</v>
-      </c>
-      <c r="N21" s="5">
-        <v>7</v>
-      </c>
-      <c r="O21" s="5">
-        <v>72.900001525878906</v>
-      </c>
-      <c r="P21" s="5">
-        <v>1.7200000286102295</v>
-      </c>
-      <c r="Q21" s="5">
-        <v>1.1000000238418579</v>
-      </c>
-      <c r="R21" s="5">
-        <v>17</v>
-      </c>
-      <c r="S21" s="5">
-        <v>85</v>
-      </c>
-      <c r="T21" s="5">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
-        <v>25</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="5">
-        <v>100</v>
-      </c>
-      <c r="D22" s="25">
-        <v>70.83</v>
-      </c>
-      <c r="E22" s="25">
-        <v>10.63</v>
-      </c>
-      <c r="F22" s="22">
-        <v>39</v>
-      </c>
-      <c r="G22" s="22">
-        <v>14.3</v>
-      </c>
-      <c r="H22" s="22">
-        <v>0</v>
-      </c>
-      <c r="I22" s="22">
-        <v>0</v>
-      </c>
-      <c r="J22" s="22">
-        <v>2.8</v>
-      </c>
-      <c r="K22" s="25">
-        <v>8.48</v>
-      </c>
-      <c r="L22" s="22">
-        <v>9.89</v>
-      </c>
-      <c r="M22" s="25">
-        <v>46</v>
-      </c>
-      <c r="N22" s="25">
-        <v>2.57</v>
-      </c>
-      <c r="O22" s="5">
-        <v>49.599998474121094</v>
-      </c>
-      <c r="P22" s="5">
-        <v>0.94999998807907104</v>
-      </c>
-      <c r="Q22" s="5">
-        <v>0.40000000596046448</v>
-      </c>
-      <c r="R22" s="22">
-        <v>29</v>
-      </c>
-      <c r="S22" s="22">
-        <v>95</v>
-      </c>
-      <c r="T22" s="5">
-        <v>2.4700000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K27" s="49"/>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K29" s="49"/>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="K30" s="49"/>
+      <c r="D15" s="36">
+        <v>51.06</v>
+      </c>
+      <c r="E15" s="36">
+        <v>2.04</v>
+      </c>
+      <c r="F15" s="36">
+        <v>40.51</v>
+      </c>
+      <c r="G15" s="36">
+        <v>1.03</v>
+      </c>
+      <c r="H15" s="36">
+        <v>0</v>
+      </c>
+      <c r="I15" s="36">
+        <v>0</v>
+      </c>
+      <c r="J15" s="36">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="K15" s="36">
+        <v>4.63</v>
+      </c>
+      <c r="L15" s="36">
+        <v>12.47</v>
+      </c>
+      <c r="M15" s="36">
+        <v>79.78</v>
+      </c>
+      <c r="N15" s="36">
+        <v>12.75</v>
+      </c>
+      <c r="O15" s="36">
+        <v>41.47</v>
+      </c>
+      <c r="P15" s="36">
+        <v>0.76</v>
+      </c>
+      <c r="Q15" s="36">
+        <v>0.26</v>
+      </c>
+      <c r="R15" s="36">
+        <v>59.49</v>
+      </c>
+      <c r="S15" s="36">
+        <v>97.5</v>
+      </c>
+      <c r="T15" s="2">
+        <v>3.78E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K18" s="31"/>
+    </row>
+    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K20" s="31"/>
+    </row>
+    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
+      <c r="K21" s="31"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B18:S19 B20 A20:A22 A2:S17">
-    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
+  <conditionalFormatting sqref="A2:A15 C2:T15">
+    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
       <formula>ROW(A2)=$C$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
       <formula>COLUMN(A2)=$D$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N20:R20">
-    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
-      <formula>ROW(N20)=$E$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="5" stopIfTrue="1">
-      <formula>COLUMN(N20)=$F$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="S20">
-    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
-      <formula>ROW(S20)=$C$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
-      <formula>COLUMN(S20)=$D$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20:M20">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
-      <formula>COLUMN(C20)=$F$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
-      <formula>ROW(C20)=$E$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T2:T22">
-    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
-      <formula>ROW(T2)=$C$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
-      <formula>COLUMN(T2)=$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -9193,12 +9514,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="37" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="25.42578125" style="37" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="37" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="37" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="37" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="37"/>
+    <col min="1" max="1" width="5" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="25.42578125" style="26" customWidth="1"/>
+    <col min="8" max="8" width="19.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.7109375" style="26" customWidth="1"/>
+    <col min="10" max="10" width="8.85546875" style="26" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -9206,31 +9527,31 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D1" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E1" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="F1" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="G1" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="I1" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="J1" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -9256,10 +9577,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="I2" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -9294,10 +9615,10 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="H3" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="I3" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -9332,10 +9653,10 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="H4" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="I4" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -9364,10 +9685,10 @@
         <v>0.2</v>
       </c>
       <c r="H5" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="I5" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -9396,10 +9717,10 @@
         <v>0.2</v>
       </c>
       <c r="H6" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="I6" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -9417,678 +9738,471 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="38" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" style="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="21.7109375" style="38"/>
-    <col min="10" max="11" width="21.7109375" style="38" customWidth="1"/>
-    <col min="12" max="16384" width="21.7109375" style="38"/>
+    <col min="1" max="1" width="5" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="21.7109375" style="27"/>
+    <col min="9" max="10" width="21.7109375" style="27" customWidth="1"/>
+    <col min="11" max="16384" width="21.7109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:8" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="39" t="s">
+      <c r="B1" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="39" t="s">
-        <v>129</v>
-      </c>
-      <c r="D1" s="39" t="s">
-        <v>130</v>
-      </c>
-      <c r="E1" s="39" t="s">
+      <c r="C1" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="E1" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="G1" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38">
+        <v>3</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C2" s="30">
+        <v>0</v>
+      </c>
+      <c r="D2" s="30">
+        <v>0</v>
+      </c>
+      <c r="E2" s="30">
+        <v>0</v>
+      </c>
+      <c r="F2" s="30">
+        <v>0</v>
+      </c>
+      <c r="G2" s="30">
+        <v>0</v>
+      </c>
+      <c r="H2" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="37">
+        <v>24</v>
+      </c>
+      <c r="B3" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="C3" s="30">
+        <v>0</v>
+      </c>
+      <c r="D3" s="30">
+        <v>0</v>
+      </c>
+      <c r="E3" s="30">
+        <v>0</v>
+      </c>
+      <c r="F3" s="30">
+        <v>0</v>
+      </c>
+      <c r="G3" s="30">
+        <v>0</v>
+      </c>
+      <c r="H3" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38">
+        <v>25</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C4" s="30">
+        <v>0</v>
+      </c>
+      <c r="D4" s="30">
+        <v>0</v>
+      </c>
+      <c r="E4" s="30">
+        <v>0</v>
+      </c>
+      <c r="F4" s="30">
+        <v>0</v>
+      </c>
+      <c r="G4" s="30">
+        <v>0</v>
+      </c>
+      <c r="H4" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38">
+        <v>26</v>
+      </c>
+      <c r="B5" s="38" t="s">
         <v>132</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="C5" s="30">
+        <v>0</v>
+      </c>
+      <c r="D5" s="30">
+        <v>0</v>
+      </c>
+      <c r="E5" s="30">
+        <v>0</v>
+      </c>
+      <c r="F5" s="30">
+        <v>0</v>
+      </c>
+      <c r="G5" s="30">
+        <v>0</v>
+      </c>
+      <c r="H5" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="37">
+        <v>27</v>
+      </c>
+      <c r="B6" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="H1" s="39" t="s">
+      <c r="C6" s="30">
+        <v>0</v>
+      </c>
+      <c r="D6" s="30">
+        <v>0</v>
+      </c>
+      <c r="E6" s="30">
+        <v>0</v>
+      </c>
+      <c r="F6" s="30">
+        <v>0</v>
+      </c>
+      <c r="G6" s="30">
+        <v>0</v>
+      </c>
+      <c r="H6" s="30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="37">
+        <v>28</v>
+      </c>
+      <c r="B7" s="37" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>3</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="48">
-        <v>9.0412228999999997E-4</v>
-      </c>
-      <c r="D2" s="48">
-        <v>0.86349785000000001</v>
-      </c>
-      <c r="E2" s="48">
-        <v>9.7451250000000003E-2</v>
-      </c>
-      <c r="F2" s="48">
-        <v>2.3592281000000001E-3</v>
-      </c>
-      <c r="G2" s="48">
-        <v>8.2270957000000003E-4</v>
-      </c>
-      <c r="H2" s="48">
-        <v>0.29275619000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="19">
-        <v>4</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="2">
-        <v>6.5774577999999997E-4</v>
-      </c>
-      <c r="D3" s="2">
-        <v>5.2727627000000004</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.23187210999999999</v>
-      </c>
-      <c r="F3" s="2">
-        <v>3.2484240000000002E-3</v>
-      </c>
-      <c r="G3" s="2">
-        <v>1.2782201999999999E-3</v>
-      </c>
-      <c r="H3" s="2">
-        <v>0.55197054999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20">
-        <v>5</v>
-      </c>
-      <c r="B4" s="46" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" s="2">
-        <v>9.8875607000000008E-4</v>
-      </c>
-      <c r="D4" s="2">
-        <v>3.4574254999999998</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0.22933355999999999</v>
-      </c>
-      <c r="F4" s="2">
-        <v>4.8724891000000003E-3</v>
-      </c>
-      <c r="G4" s="2">
-        <v>1.5442412000000001E-3</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0.43937693999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20">
-        <v>6</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="2">
-        <v>4.6734098000000002E-3</v>
-      </c>
-      <c r="D5" s="2">
-        <v>16.341711</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1.0839576</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2.3030087000000001E-2</v>
-      </c>
-      <c r="G5" s="2">
-        <v>7.2989407999999997E-3</v>
-      </c>
-      <c r="H5" s="2">
-        <v>2.0767392</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20">
-        <v>7</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="C6" s="2">
-        <v>5.2979589999999997E-3</v>
-      </c>
-      <c r="D6" s="2">
-        <v>2.6504308999999999</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.25521818000000002</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2.7713717000000001E-3</v>
-      </c>
-      <c r="G6" s="2">
-        <v>4.3737089999999999E-3</v>
-      </c>
-      <c r="H6" s="2">
-        <v>2.4169052999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20">
-        <v>8</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3.0914954E-4</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.38809</v>
-      </c>
-      <c r="E7" s="2">
-        <v>9.5984228000000005E-2</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1.4925155E-3</v>
-      </c>
-      <c r="G7" s="2">
-        <v>5.9082242000000002E-4</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.25908868000000002</v>
+      <c r="C7" s="30">
+        <v>0</v>
+      </c>
+      <c r="D7" s="30">
+        <v>0</v>
+      </c>
+      <c r="E7" s="30">
+        <v>0</v>
+      </c>
+      <c r="F7" s="30">
+        <v>0</v>
+      </c>
+      <c r="G7" s="30">
+        <v>0</v>
+      </c>
+      <c r="H7" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="20">
-        <v>9</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2.4268531000000001E-3</v>
-      </c>
-      <c r="D8" s="2">
-        <v>2.7512188000000002</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.37877785000000003</v>
-      </c>
-      <c r="F8" s="2">
-        <v>8.1080295000000007E-3</v>
-      </c>
-      <c r="G8" s="2">
-        <v>3.0197698000000001E-3</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1.2147266999999999</v>
+      <c r="A8" s="37">
+        <v>29</v>
+      </c>
+      <c r="B8" s="48" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="30">
+        <v>0</v>
+      </c>
+      <c r="D8" s="30">
+        <v>0</v>
+      </c>
+      <c r="E8" s="30">
+        <v>0</v>
+      </c>
+      <c r="F8" s="30">
+        <v>0</v>
+      </c>
+      <c r="G8" s="30">
+        <v>0</v>
+      </c>
+      <c r="H8" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="19">
-        <v>10</v>
-      </c>
-      <c r="B9" s="41" t="s">
-        <v>103</v>
-      </c>
-      <c r="C9" s="47">
-        <v>1.1524281000000001E-2</v>
-      </c>
-      <c r="D9" s="47">
-        <v>13.064581</v>
-      </c>
-      <c r="E9" s="47">
-        <v>1.7986842999999999</v>
-      </c>
-      <c r="F9" s="47">
-        <v>3.8502213E-2</v>
-      </c>
-      <c r="G9" s="47">
-        <v>1.4339836999999999E-2</v>
-      </c>
-      <c r="H9" s="47">
-        <v>5.7683147000000004</v>
+      <c r="A9" s="37">
+        <v>30</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="30">
+        <v>0</v>
+      </c>
+      <c r="D9" s="30">
+        <v>0</v>
+      </c>
+      <c r="E9" s="30">
+        <v>0</v>
+      </c>
+      <c r="F9" s="30">
+        <v>0</v>
+      </c>
+      <c r="G9" s="30">
+        <v>0</v>
+      </c>
+      <c r="H9" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="19">
-        <v>11</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="47">
-        <v>3.8977495E-3</v>
-      </c>
-      <c r="D10" s="47">
-        <v>6.6378231000000003</v>
-      </c>
-      <c r="E10" s="47">
-        <v>0.33354636999999998</v>
-      </c>
-      <c r="F10" s="47">
-        <v>3.6638446000000001E-3</v>
-      </c>
-      <c r="G10" s="47">
-        <v>6.3452205000000001E-3</v>
-      </c>
-      <c r="H10" s="47">
-        <v>3.8084742</v>
+      <c r="A10" s="38">
+        <v>31</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="30">
+        <v>0</v>
+      </c>
+      <c r="D10" s="30">
+        <v>0</v>
+      </c>
+      <c r="E10" s="30">
+        <v>0</v>
+      </c>
+      <c r="F10" s="30">
+        <v>0</v>
+      </c>
+      <c r="G10" s="30">
+        <v>0</v>
+      </c>
+      <c r="H10" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="19">
-        <v>12</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2.1675339E-3</v>
-      </c>
-      <c r="D11" s="2">
-        <v>2.3852028000000001</v>
-      </c>
-      <c r="E11" s="2">
-        <v>0.24039757</v>
-      </c>
-      <c r="F11" s="2">
-        <v>4.5559939999999998E-3</v>
-      </c>
-      <c r="G11" s="2">
-        <v>3.8858629999999998E-3</v>
-      </c>
-      <c r="H11" s="2">
-        <v>1.9759963</v>
+      <c r="A11" s="38">
+        <v>32</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="C11" s="30">
+        <v>0</v>
+      </c>
+      <c r="D11" s="30">
+        <v>0</v>
+      </c>
+      <c r="E11" s="30">
+        <v>0</v>
+      </c>
+      <c r="F11" s="30">
+        <v>0</v>
+      </c>
+      <c r="G11" s="30">
+        <v>0</v>
+      </c>
+      <c r="H11" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="19">
-        <v>13</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="47">
-        <v>1.8296865E-3</v>
-      </c>
-      <c r="D12" s="47">
-        <v>2.1376919999999999</v>
-      </c>
-      <c r="E12" s="47">
-        <v>0.21715095000000001</v>
-      </c>
-      <c r="F12" s="47">
-        <v>3.8183357999999998E-3</v>
-      </c>
-      <c r="G12" s="47">
-        <v>3.2683618999999999E-3</v>
-      </c>
-      <c r="H12" s="47">
-        <v>1.6645894999999999</v>
+      <c r="A12" s="37">
+        <v>33</v>
+      </c>
+      <c r="B12" s="37" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="30">
+        <v>0</v>
+      </c>
+      <c r="D12" s="30">
+        <v>0</v>
+      </c>
+      <c r="E12" s="30">
+        <v>0</v>
+      </c>
+      <c r="F12" s="30">
+        <v>0</v>
+      </c>
+      <c r="G12" s="30">
+        <v>0</v>
+      </c>
+      <c r="H12" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="19">
-        <v>14</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>107</v>
-      </c>
-      <c r="C13" s="47">
-        <v>2.1675339E-3</v>
-      </c>
-      <c r="D13" s="47">
-        <v>2.3852028000000001</v>
-      </c>
-      <c r="E13" s="47">
-        <v>0.24039757</v>
-      </c>
-      <c r="F13" s="47">
-        <v>4.5559939999999998E-3</v>
-      </c>
-      <c r="G13" s="47">
-        <v>3.8858629999999998E-3</v>
-      </c>
-      <c r="H13" s="47">
-        <v>1.9759963</v>
+      <c r="A13" s="2">
+        <v>35</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="30">
+        <v>0</v>
+      </c>
+      <c r="D13" s="30">
+        <v>0</v>
+      </c>
+      <c r="E13" s="30">
+        <v>0</v>
+      </c>
+      <c r="F13" s="30">
+        <v>0</v>
+      </c>
+      <c r="G13" s="30">
+        <v>0</v>
+      </c>
+      <c r="H13" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="19">
-        <v>15</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1.8296865E-3</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2.1376919999999999</v>
-      </c>
-      <c r="E14" s="2">
-        <v>0.21715095000000001</v>
-      </c>
-      <c r="F14" s="2">
-        <v>3.8183357999999998E-3</v>
-      </c>
-      <c r="G14" s="2">
-        <v>3.2683618999999999E-3</v>
-      </c>
-      <c r="H14" s="2">
-        <v>1.6645894999999999</v>
+      <c r="A14" s="2">
+        <v>36</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="30">
+        <v>0</v>
+      </c>
+      <c r="D14" s="30">
+        <v>0</v>
+      </c>
+      <c r="E14" s="30">
+        <v>0</v>
+      </c>
+      <c r="F14" s="30">
+        <v>0</v>
+      </c>
+      <c r="G14" s="30">
+        <v>0</v>
+      </c>
+      <c r="H14" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="19">
-        <v>16</v>
-      </c>
-      <c r="B15" s="41" t="s">
-        <v>108</v>
-      </c>
-      <c r="C15" s="47">
-        <v>9.5703047000000006E-3</v>
-      </c>
-      <c r="D15" s="47">
-        <v>11.181349000000001</v>
-      </c>
-      <c r="E15" s="47">
-        <v>1.1358234</v>
-      </c>
-      <c r="F15" s="47">
-        <v>1.9972074999999999E-2</v>
-      </c>
-      <c r="G15" s="47">
-        <v>1.7095398000000001E-2</v>
-      </c>
-      <c r="H15" s="47">
-        <v>8.7067530000000009</v>
+      <c r="A15" s="38">
+        <v>37</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>145</v>
+      </c>
+      <c r="C15" s="30">
+        <v>0</v>
+      </c>
+      <c r="D15" s="30">
+        <v>0</v>
+      </c>
+      <c r="E15" s="30">
+        <v>0</v>
+      </c>
+      <c r="F15" s="30">
+        <v>0</v>
+      </c>
+      <c r="G15" s="30">
+        <v>0</v>
+      </c>
+      <c r="H15" s="30">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="19">
-        <v>17</v>
-      </c>
-      <c r="B16" s="41" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="47">
-        <v>1.2856242E-3</v>
-      </c>
-      <c r="D16" s="47">
-        <v>5.4884582999999996</v>
-      </c>
-      <c r="E16" s="47">
-        <v>0.33457320000000002</v>
-      </c>
-      <c r="F16" s="47">
-        <v>5.0812655999999999E-3</v>
-      </c>
-      <c r="G16" s="47">
-        <v>2.1954254000000001E-3</v>
-      </c>
-      <c r="H16" s="47">
-        <v>0.62333822000000005</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="19">
-        <v>18</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="47">
-        <v>2.0170432000000001E-3</v>
-      </c>
-      <c r="D17" s="47">
-        <v>9.4737010999999995</v>
-      </c>
-      <c r="E17" s="47">
-        <v>0.57584038999999998</v>
-      </c>
-      <c r="F17" s="47">
-        <v>7.9888571999999995E-3</v>
-      </c>
-      <c r="G17" s="47">
-        <v>6.0113188999999997E-3</v>
-      </c>
-      <c r="H17" s="47">
-        <v>0.97791181999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="19">
-        <v>19</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="47">
-        <v>6.8793711999999996E-4</v>
-      </c>
-      <c r="D18" s="47">
-        <v>0.93976550999999997</v>
-      </c>
-      <c r="E18" s="47">
-        <v>0.10546989</v>
-      </c>
-      <c r="F18" s="47">
-        <v>2.5927768E-3</v>
-      </c>
-      <c r="G18" s="47">
-        <v>1.0021024000000001E-3</v>
-      </c>
-      <c r="H18" s="47">
-        <v>0.33293109999999998</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="19">
-        <v>20</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="47">
-        <v>1.7751223E-3</v>
-      </c>
-      <c r="D19" s="47">
-        <v>7.5781744</v>
-      </c>
-      <c r="E19" s="47">
-        <v>0.46196108000000002</v>
-      </c>
-      <c r="F19" s="47">
-        <v>7.0159441999999997E-3</v>
-      </c>
-      <c r="G19" s="47">
-        <v>3.0313279000000002E-3</v>
-      </c>
-      <c r="H19" s="47">
-        <v>0.86067262</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="19">
-        <v>21</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C20" s="47">
-        <v>6.0269407000000002E-4</v>
-      </c>
-      <c r="D20" s="47">
-        <v>0.82331812000000004</v>
-      </c>
-      <c r="E20" s="47">
-        <v>9.2401000999999996E-2</v>
-      </c>
-      <c r="F20" s="47">
-        <v>2.2715029999999998E-3</v>
-      </c>
-      <c r="G20" s="47">
-        <v>8.7793080999999998E-4</v>
-      </c>
-      <c r="H20" s="47">
-        <v>0.29167724</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="28">
-        <v>24</v>
-      </c>
-      <c r="B21" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="50">
-        <v>1.398646E-5</v>
-      </c>
-      <c r="D21" s="2">
-        <v>1.0869945000000001</v>
-      </c>
-      <c r="E21" s="2">
-        <v>0.18026732000000001</v>
-      </c>
-      <c r="F21" s="2">
-        <v>7.1452427000000002E-3</v>
-      </c>
-      <c r="G21" s="2">
-        <v>1.8322938999999999E-3</v>
-      </c>
-      <c r="H21" s="2">
-        <v>1.1594272000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="28">
-        <v>25</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="50">
-        <v>1.4474578E-5</v>
-      </c>
-      <c r="D22" s="2">
-        <v>2.1134135000000001</v>
-      </c>
-      <c r="E22" s="2">
-        <v>0.22375627000000001</v>
-      </c>
-      <c r="F22" s="2">
-        <v>7.2554300000000002E-3</v>
-      </c>
-      <c r="G22" s="2">
-        <v>1.8719005000000001E-3</v>
-      </c>
-      <c r="H22" s="2">
-        <v>1.1395907999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-    </row>
-    <row r="24" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="37"/>
-      <c r="F24" s="37"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="37"/>
-      <c r="I24" s="37"/>
-    </row>
-    <row r="25" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-    </row>
-    <row r="26" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="37"/>
-      <c r="F26" s="37"/>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-    </row>
-    <row r="27" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-    </row>
-    <row r="28" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-      <c r="F28" s="37"/>
-      <c r="G28" s="37"/>
-      <c r="H28" s="37"/>
-      <c r="I28" s="37"/>
-    </row>
-    <row r="29" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="37"/>
-      <c r="H29" s="37"/>
-      <c r="I29" s="37"/>
-    </row>
-    <row r="30" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="37"/>
-      <c r="E30" s="37"/>
-      <c r="F30" s="37"/>
-      <c r="G30" s="37"/>
-      <c r="H30" s="37"/>
-      <c r="I30" s="37"/>
-    </row>
-    <row r="31" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="37"/>
-      <c r="F31" s="37"/>
-      <c r="G31" s="37"/>
-      <c r="H31" s="37"/>
-      <c r="I31" s="37"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+    </row>
+    <row r="17" spans="3:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+    </row>
+    <row r="18" spans="3:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+    </row>
+    <row r="19" spans="3:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+    </row>
+    <row r="20" spans="3:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+    </row>
+    <row r="21" spans="3:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+    </row>
+    <row r="22" spans="3:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="26"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A20:A22 A2:A17">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="A2:A15">
+    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
       <formula>ROW(A2)=$C$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>COLUMN(A2)=$D$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10116,292 +10230,292 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="7" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="8" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="8" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="7" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="8" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="10" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="10" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="6" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="6" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="6" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="6" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="6" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="6" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="6" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="6" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="6" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="6" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="6" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="6" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="6" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="6" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="6" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="11" t="s">
         <v>83</v>
       </c>
     </row>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1896157\OneDrive - University of Edinburgh\Gabriel\Models\EMB_MaxProfitDiet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1896157\OneDrive - University of Edinburgh\Gabriel\Models\GreenFeeding\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,9 +16,10 @@
     <sheet name="Scenario" sheetId="3" r:id="rId2"/>
     <sheet name="Batch" sheetId="4" r:id="rId3"/>
     <sheet name="Feed Library" sheetId="5" r:id="rId4"/>
-    <sheet name="LCA" sheetId="7" r:id="rId5"/>
-    <sheet name="LCA Library" sheetId="8" r:id="rId6"/>
-    <sheet name="Parameters List" sheetId="6" state="hidden" r:id="rId7"/>
+    <sheet name="Names" sheetId="9" r:id="rId5"/>
+    <sheet name="LCA" sheetId="7" r:id="rId6"/>
+    <sheet name="LCA Library" sheetId="8" r:id="rId7"/>
+    <sheet name="Parameters List" sheetId="6" state="hidden" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
@@ -496,7 +497,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="165">
   <si>
     <t>Feed Scenario</t>
   </si>
@@ -774,9 +775,6 @@
     <t>Ingredient Level</t>
   </si>
   <si>
-    <t>Test</t>
-  </si>
-  <si>
     <t>LCA ID</t>
   </si>
   <si>
@@ -852,107 +850,179 @@
     <t>id</t>
   </si>
   <si>
-    <t>Soybean_Hulls</t>
-  </si>
-  <si>
-    <t>Cottonseed_Whole</t>
-  </si>
-  <si>
-    <t>Cottonseed_Meal</t>
-  </si>
-  <si>
-    <t>Peanut_Meal</t>
-  </si>
-  <si>
-    <t>Rice_Bran</t>
-  </si>
-  <si>
-    <t>Wheat_Meal</t>
-  </si>
-  <si>
     <t>Urea</t>
   </si>
   <si>
-    <t>Soybean_Meal</t>
-  </si>
-  <si>
-    <t>Citrus_Pulp</t>
-  </si>
-  <si>
-    <t>F_Corn_Silage</t>
-  </si>
-  <si>
-    <t>F_Sugarcane_Silage</t>
-  </si>
-  <si>
-    <t>Nellore</t>
-  </si>
-  <si>
-    <t>animal_price</t>
-  </si>
-  <si>
-    <t>Citrus pulp, dry</t>
-  </si>
-  <si>
-    <t>Corn grain - BR</t>
-  </si>
-  <si>
-    <t>Cottonseed Meal 38% - BR</t>
-  </si>
-  <si>
-    <t>Cottonseed Whole - BR</t>
-  </si>
-  <si>
-    <t>Soybean Hulls - BR</t>
-  </si>
-  <si>
-    <t>Soybean Meal 49% - BR</t>
-  </si>
-  <si>
-    <t>Wheat Meal - BR</t>
-  </si>
-  <si>
-    <t>Urea - BR</t>
-  </si>
-  <si>
-    <t>Corn Silage - BR</t>
-  </si>
-  <si>
-    <t>Peanut meal</t>
-  </si>
-  <si>
-    <t>Rice bran</t>
-  </si>
-  <si>
-    <t>Corn_Grain</t>
-  </si>
-  <si>
-    <t>Sugarcane (S. officinarum) Bagasse Brazil Medium Chop</t>
-  </si>
-  <si>
-    <t>Corn Dist Ethanol</t>
-  </si>
-  <si>
-    <t>Sugarcane Silage - BR</t>
-  </si>
-  <si>
-    <t>RC_Sugarcane</t>
+    <t xml:space="preserve">Charolais </t>
+  </si>
+  <si>
+    <t>BF</t>
+  </si>
+  <si>
+    <t>GSS-MAX_CCS</t>
+  </si>
+  <si>
+    <t>Sugar beet pulp dehydrated</t>
+  </si>
+  <si>
+    <t>Corn gluten feed</t>
+  </si>
+  <si>
+    <t>Corn gluten meal (gluten 60)</t>
+  </si>
+  <si>
+    <t>Faba bean dehulled</t>
+  </si>
+  <si>
+    <t>Molasses</t>
+  </si>
+  <si>
+    <t>Rapeseed meal</t>
+  </si>
+  <si>
+    <t>Rapeseed oil</t>
+  </si>
+  <si>
+    <t>Soybean extruded</t>
+  </si>
+  <si>
+    <t>Sunflower meal low dehulling</t>
+  </si>
+  <si>
+    <t>Sunflower meal without dehulling</t>
+  </si>
+  <si>
+    <t>Sunflower meal high dehulling</t>
+  </si>
+  <si>
+    <t>Sunflower oil without dehulling</t>
+  </si>
+  <si>
+    <t>Wheat bran</t>
+  </si>
+  <si>
+    <t>DDGS Wheat</t>
+  </si>
+  <si>
+    <t>Wheat feed flour</t>
+  </si>
+  <si>
+    <t>Wheat gluten feed</t>
+  </si>
+  <si>
+    <t>Wheat middlings</t>
+  </si>
+  <si>
+    <t>Grass silage</t>
+  </si>
+  <si>
+    <t>Baled grass</t>
+  </si>
+  <si>
+    <t>Beet Pulp Shreds</t>
+  </si>
+  <si>
+    <t>Corn Gluten Feed dry</t>
+  </si>
+  <si>
+    <t>Corn Gluten Meal 60%</t>
+  </si>
+  <si>
+    <t>Tapioca Casava Meal</t>
+  </si>
+  <si>
+    <t>Molasses Beet</t>
+  </si>
+  <si>
+    <t>Canola Meal Solvent</t>
+  </si>
+  <si>
+    <t>Fat Canola Oil</t>
+  </si>
+  <si>
+    <t>Soybean Whole Extruded</t>
+  </si>
+  <si>
+    <t>Sunflower Meal 26 CP 3 EE</t>
+  </si>
+  <si>
+    <t>Fat Sunflower Oil</t>
+  </si>
+  <si>
+    <t>Wheat Bran</t>
+  </si>
+  <si>
+    <t>Brewers Grain Dry 29 Cp</t>
+  </si>
+  <si>
+    <t>Wheat Flour</t>
+  </si>
+  <si>
+    <t>Wheat Red Dog</t>
+  </si>
+  <si>
+    <t>Wheat Midds</t>
+  </si>
+  <si>
+    <t>Grass Hay 10 CP 67 NDF 8 LNDF</t>
+  </si>
+  <si>
+    <t>Sunflower Meal 40 CP 2 EE</t>
+  </si>
+  <si>
+    <t>Sunflower Meal 49 CP 3 EE</t>
+  </si>
+  <si>
+    <t>Corn Silage Unprocessed 35 DM 41 NDF Medium</t>
+  </si>
+  <si>
+    <t>Rye Grass Silage 15 CP 58 NDF 8 LNDF</t>
+  </si>
+  <si>
+    <t>Maize silage</t>
+  </si>
+  <si>
+    <t>Name INRA</t>
+  </si>
+  <si>
+    <t>Name RNS</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Mono-objective</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0;0.0;0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
+    <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1038,29 +1108,10 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Lucida Console"/>
-      <family val="3"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1070,17 +1121,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF1F497D"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1123,8 +1193,14 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1225,14 +1301,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1240,71 +1327,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="18" fillId="7" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1312,7 +1426,71 @@
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
-  <dxfs count="68">
+  <dxfs count="89">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -1325,6 +1503,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="165" formatCode="0.00000000"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1332,6 +1511,133 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.00000000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.00000000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.00000000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.00000000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.00000000"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1354,8 +1660,132 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
@@ -1368,85 +1798,25 @@
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor auto="1"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color auto="1"/>
-        <name val="Calibri"/>
+        <name val="Lucida Console"/>
         <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
       </font>
       <fill>
         <patternFill patternType="none">
@@ -1454,56 +1824,11 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0;0.0;0;@"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -1859,6 +2184,7 @@
           <bgColor theme="4" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right/>
@@ -2414,9 +2740,9 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="10"/>
         <color theme="1"/>
-        <name val="Calibri"/>
+        <name val="Lucida Console"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -2425,39 +2751,7 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2606,34 +2900,34 @@
   </dxfs>
   <tableStyles count="6" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Feeds-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="67"/>
-      <tableStyleElement type="firstRowStripe" dxfId="66"/>
-      <tableStyleElement type="secondRowStripe" dxfId="65"/>
+      <tableStyleElement type="headerRow" dxfId="88"/>
+      <tableStyleElement type="firstRowStripe" dxfId="87"/>
+      <tableStyleElement type="secondRowStripe" dxfId="86"/>
     </tableStyle>
     <tableStyle name="Scenario-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="64"/>
-      <tableStyleElement type="firstRowStripe" dxfId="63"/>
-      <tableStyleElement type="secondRowStripe" dxfId="62"/>
+      <tableStyleElement type="headerRow" dxfId="85"/>
+      <tableStyleElement type="firstRowStripe" dxfId="84"/>
+      <tableStyleElement type="secondRowStripe" dxfId="83"/>
     </tableStyle>
     <tableStyle name="Batch-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="61"/>
-      <tableStyleElement type="firstRowStripe" dxfId="60"/>
-      <tableStyleElement type="secondRowStripe" dxfId="59"/>
+      <tableStyleElement type="headerRow" dxfId="82"/>
+      <tableStyleElement type="firstRowStripe" dxfId="81"/>
+      <tableStyleElement type="secondRowStripe" dxfId="80"/>
     </tableStyle>
     <tableStyle name="Feed Library-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="58"/>
-      <tableStyleElement type="firstRowStripe" dxfId="57"/>
-      <tableStyleElement type="secondRowStripe" dxfId="56"/>
+      <tableStyleElement type="headerRow" dxfId="79"/>
+      <tableStyleElement type="firstRowStripe" dxfId="78"/>
+      <tableStyleElement type="secondRowStripe" dxfId="77"/>
     </tableStyle>
     <tableStyle name="LCA-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="55"/>
-      <tableStyleElement type="firstRowStripe" dxfId="54"/>
-      <tableStyleElement type="secondRowStripe" dxfId="53"/>
+      <tableStyleElement type="headerRow" dxfId="76"/>
+      <tableStyleElement type="firstRowStripe" dxfId="75"/>
+      <tableStyleElement type="secondRowStripe" dxfId="74"/>
     </tableStyle>
     <tableStyle name="LCA Library-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="52"/>
-      <tableStyleElement type="firstRowStripe" dxfId="51"/>
-      <tableStyleElement type="secondRowStripe" dxfId="50"/>
+      <tableStyleElement type="headerRow" dxfId="73"/>
+      <tableStyleElement type="firstRowStripe" dxfId="72"/>
+      <tableStyleElement type="secondRowStripe" dxfId="71"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2727,7 +3021,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2776,7 +3070,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2825,7 +3119,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2874,7 +3168,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2923,7 +3217,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -2972,7 +3266,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3021,7 +3315,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3070,7 +3364,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3119,7 +3413,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3168,7 +3462,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3217,7 +3511,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3271,7 +3565,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3325,7 +3619,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3379,7 +3673,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3433,7 +3727,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3487,7 +3781,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3541,7 +3835,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3595,7 +3889,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3649,7 +3943,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3703,7 +3997,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3757,7 +4051,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3811,7 +4105,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3865,7 +4159,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3919,7 +4213,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -3973,7 +4267,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4027,7 +4321,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4081,7 +4375,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4135,7 +4429,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4189,7 +4483,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4243,7 +4537,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4297,7 +4591,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4351,7 +4645,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4405,7 +4699,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4459,7 +4753,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4513,7 +4807,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4567,7 +4861,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4621,7 +4915,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4675,7 +4969,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4729,7 +5023,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4783,7 +5077,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4837,7 +5131,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4891,7 +5185,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4945,7 +5239,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4999,7 +5293,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5053,7 +5347,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5107,7 +5401,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5161,7 +5455,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5215,7 +5509,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5269,7 +5563,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5323,7 +5617,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5377,7 +5671,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5431,7 +5725,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5485,7 +5779,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5539,7 +5833,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5593,7 +5887,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5647,7 +5941,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5701,7 +5995,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5755,7 +6049,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5809,7 +6103,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5863,7 +6157,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5917,7 +6211,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5971,7 +6265,7 @@
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6717,21 +7011,345 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9439275" cy="502920"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9439275" cy="502920"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9439275" cy="502920"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9439275" cy="381000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0666D43A-ADED-4D3B-AF69-A2474C82F50E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9439275" cy="381000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="AutoShape 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E7DC4C3-566A-49F6-9A8F-B7812E354531}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="9439275" cy="381000"/>
+        </a:xfrm>
+        <a:custGeom>
+          <a:avLst/>
+          <a:gdLst/>
+          <a:ahLst/>
+          <a:cxnLst/>
+          <a:rect l="0" t="0" r="0" b="0"/>
+          <a:pathLst/>
+        </a:custGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="feeds" displayName="feeds" ref="A1:F29" totalsRowShown="0">
-  <autoFilter ref="A1:F29"/>
-  <sortState ref="A2:F29">
-    <sortCondition ref="A1:A29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="feeds" displayName="feeds" ref="A1:F20" totalsRowShown="0">
+  <autoFilter ref="A1:F20"/>
+  <sortState ref="A2:F20">
+    <sortCondition ref="B1:B20"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" name="Feed Scenario"/>
-    <tableColumn id="2" name="ID" dataDxfId="45" dataCellStyle="Normal 3"/>
-    <tableColumn id="3" name="Min %DM" dataDxfId="44"/>
-    <tableColumn id="4" name="Max %DM" dataDxfId="43"/>
-    <tableColumn id="5" name="Cost [US$/kg AF]" dataDxfId="42"/>
+    <tableColumn id="2" name="ID" dataDxfId="70" dataCellStyle="Normal 3"/>
+    <tableColumn id="3" name="Min %DM" dataDxfId="69"/>
+    <tableColumn id="4" name="Max %DM" dataDxfId="68"/>
+    <tableColumn id="5" name="Cost [US$/kg AF]" dataDxfId="67"/>
     <tableColumn id="6" name="Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6739,33 +7357,33 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="scenario" displayName="scenario" ref="A1:X7" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40" tableBorderDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="scenario" displayName="scenario" ref="A1:X7" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65" tableBorderDxfId="64">
   <autoFilter ref="A1:X7"/>
   <tableColumns count="24">
-    <tableColumn id="1" name="ID" dataDxfId="38"/>
-    <tableColumn id="2" name="Feed Scenario" dataDxfId="37"/>
-    <tableColumn id="3" name="Batch" dataDxfId="36"/>
-    <tableColumn id="4" name="Breed" dataDxfId="35"/>
-    <tableColumn id="5" name="SBW" dataDxfId="34"/>
-    <tableColumn id="6" name="Feeding Time" dataDxfId="33"/>
-    <tableColumn id="7" name="Target Weight" dataDxfId="32"/>
-    <tableColumn id="8" name="BCS" dataDxfId="31"/>
-    <tableColumn id="9" name="BE" dataDxfId="30"/>
-    <tableColumn id="10" name="L" dataDxfId="29"/>
-    <tableColumn id="11" name="SEX" dataDxfId="28"/>
-    <tableColumn id="12" name="a2" dataDxfId="27"/>
-    <tableColumn id="13" name="PH" dataDxfId="26"/>
-    <tableColumn id="14" name="Selling Price [US$]" dataDxfId="25"/>
-    <tableColumn id="15" name="Algorithm" dataDxfId="24"/>
-    <tableColumn id="16" name="Identifier" dataDxfId="23"/>
-    <tableColumn id="17" name="LB" dataDxfId="22"/>
-    <tableColumn id="18" name="UB" dataDxfId="21"/>
-    <tableColumn id="19" name="Tol" dataDxfId="20"/>
-    <tableColumn id="20" name="DMI Equation" dataDxfId="19"/>
-    <tableColumn id="21" name="Obj" dataDxfId="18"/>
-    <tableColumn id="22" name="Find Reduced Cost" dataDxfId="17"/>
-    <tableColumn id="23" name="Ingredient Level" dataDxfId="16"/>
-    <tableColumn id="24" name="LCA ID" dataDxfId="15"/>
+    <tableColumn id="1" name="ID" dataDxfId="63"/>
+    <tableColumn id="2" name="Feed Scenario" dataDxfId="62"/>
+    <tableColumn id="3" name="Batch" dataDxfId="61"/>
+    <tableColumn id="4" name="Breed" dataDxfId="60"/>
+    <tableColumn id="5" name="SBW" dataDxfId="59"/>
+    <tableColumn id="6" name="Feeding Time" dataDxfId="58"/>
+    <tableColumn id="7" name="Target Weight" dataDxfId="57"/>
+    <tableColumn id="8" name="BCS" dataDxfId="56"/>
+    <tableColumn id="9" name="BE" dataDxfId="55"/>
+    <tableColumn id="10" name="L" dataDxfId="54"/>
+    <tableColumn id="11" name="SEX" dataDxfId="53"/>
+    <tableColumn id="12" name="a2" dataDxfId="52"/>
+    <tableColumn id="13" name="PH" dataDxfId="51"/>
+    <tableColumn id="14" name="Selling Price [US$]" dataDxfId="50"/>
+    <tableColumn id="15" name="Algorithm" dataDxfId="49"/>
+    <tableColumn id="16" name="Identifier" dataDxfId="48"/>
+    <tableColumn id="17" name="LB" dataDxfId="47"/>
+    <tableColumn id="18" name="UB" dataDxfId="46"/>
+    <tableColumn id="19" name="Tol" dataDxfId="45"/>
+    <tableColumn id="20" name="DMI Equation" dataDxfId="44"/>
+    <tableColumn id="21" name="Obj" dataDxfId="43"/>
+    <tableColumn id="22" name="Find Reduced Cost" dataDxfId="42"/>
+    <tableColumn id="23" name="Ingredient Level" dataDxfId="41"/>
+    <tableColumn id="24" name="LCA ID" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6787,38 +7405,54 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:T15" totalsRowShown="0">
-  <autoFilter ref="A1:T15"/>
-  <sortState ref="A2:T15">
-    <sortCondition ref="A1:A15"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:T22" totalsRowShown="0" dataDxfId="39">
+  <autoFilter ref="A1:T22"/>
+  <sortState ref="A2:T22">
+    <sortCondition ref="A1:A22"/>
   </sortState>
   <tableColumns count="20">
-    <tableColumn id="1" name="ID"/>
-    <tableColumn id="2" name="Feed"/>
-    <tableColumn id="5" name="Forage, %DM"/>
-    <tableColumn id="6" name="DM, %AF"/>
-    <tableColumn id="7" name="CP, %DM"/>
-    <tableColumn id="8" name="SP, %CP"/>
-    <tableColumn id="9" name="ADICP, %CP"/>
-    <tableColumn id="10" name="Sugars, %DM"/>
-    <tableColumn id="11" name="OA, %DM"/>
-    <tableColumn id="12" name="Fat, %DM"/>
-    <tableColumn id="13" name="Ash, %DM"/>
-    <tableColumn id="14" name="Starch, %DM"/>
-    <tableColumn id="15" name="NDF, %DM"/>
-    <tableColumn id="16" name="Lignin, %DM"/>
-    <tableColumn id="17" name="TDN, %DM"/>
-    <tableColumn id="19" name="NEma, Mcal/kg"/>
-    <tableColumn id="20" name="NEga, Mcal/kg"/>
-    <tableColumn id="21" name="RUP, %CP"/>
-    <tableColumn id="29" name="pef, %NDF"/>
-    <tableColumn id="3" name="NPN, %DM" dataDxfId="12"/>
+    <tableColumn id="1" name="ID" dataDxfId="38"/>
+    <tableColumn id="2" name="Feed" dataDxfId="37"/>
+    <tableColumn id="5" name="Forage, %DM" dataDxfId="36"/>
+    <tableColumn id="6" name="DM, %AF" dataDxfId="35"/>
+    <tableColumn id="7" name="CP, %DM" dataDxfId="34"/>
+    <tableColumn id="8" name="SP, %CP" dataDxfId="33"/>
+    <tableColumn id="9" name="ADICP, %CP" dataDxfId="32"/>
+    <tableColumn id="10" name="Sugars, %DM" dataDxfId="31"/>
+    <tableColumn id="11" name="OA, %DM" dataDxfId="30"/>
+    <tableColumn id="12" name="Fat, %DM" dataDxfId="29"/>
+    <tableColumn id="13" name="Ash, %DM" dataDxfId="28"/>
+    <tableColumn id="14" name="Starch, %DM" dataDxfId="27"/>
+    <tableColumn id="15" name="NDF, %DM" dataDxfId="26"/>
+    <tableColumn id="16" name="Lignin, %DM" dataDxfId="25"/>
+    <tableColumn id="17" name="TDN, %DM" dataDxfId="24"/>
+    <tableColumn id="19" name="NEma, Mcal/kg" dataDxfId="23"/>
+    <tableColumn id="20" name="NEga, Mcal/kg" dataDxfId="22"/>
+    <tableColumn id="21" name="RUP, %CP" dataDxfId="21"/>
+    <tableColumn id="29" name="pef, %NDF" dataDxfId="20"/>
+    <tableColumn id="3" name="NPN, %DM" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A1:D22" totalsRowShown="0">
+  <autoFilter ref="A1:D22"/>
+  <sortState ref="A2:C22">
+    <sortCondition ref="C1:C22"/>
+  </sortState>
+  <tableColumns count="4">
+    <tableColumn id="1" name="Name INRA" dataDxfId="18"/>
+    <tableColumn id="2" name="Name RNS"/>
+    <tableColumn id="3" name="ID"/>
+    <tableColumn id="4" name="Column1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="lca" displayName="lca" ref="A1:J6" totalsRowShown="0">
   <autoFilter ref="A1:J6"/>
   <tableColumns count="10">
@@ -6837,21 +7471,21 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela26" displayName="Tabela26" ref="A1:H15" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H15"/>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela26" displayName="Tabela26" ref="A1:H22" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:H22"/>
   <sortState ref="A2:H22">
     <sortCondition ref="A1:A22"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="ID" dataDxfId="7" dataCellStyle="Normal 3"/>
-    <tableColumn id="5" name="Name" dataDxfId="6" dataCellStyle="Normal 3"/>
-    <tableColumn id="2" name="LCA_Phosphorous consumption (kg P)" dataDxfId="5"/>
-    <tableColumn id="3" name="LCA_CED 1.8 non renewable fossil+nuclear (MJ)" dataDxfId="4"/>
-    <tableColumn id="4" name="LCA_Climate change ILCD (kg CO2 eq)" dataDxfId="3"/>
-    <tableColumn id="7" name="LCA_Acidification ILCD (molc H+ eq)" dataDxfId="2"/>
-    <tableColumn id="8" name="LCA_Eutrophication CML baseline (kg PO4- eq)" dataDxfId="1"/>
-    <tableColumn id="9" name="LCA_Land competition CML non baseline (m2a)" dataDxfId="0"/>
+    <tableColumn id="1" name="ID" dataDxfId="15" dataCellStyle="Normal 3"/>
+    <tableColumn id="5" name="Name" dataDxfId="14" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" name="LCA_Phosphorous consumption (kg P)" dataDxfId="13"/>
+    <tableColumn id="3" name="LCA_CED 1.8 non renewable fossil+nuclear (MJ)" dataDxfId="12"/>
+    <tableColumn id="4" name="LCA_Climate change ILCD (kg CO2 eq)" dataDxfId="11"/>
+    <tableColumn id="7" name="LCA_Acidification ILCD (molc H+ eq)" dataDxfId="10"/>
+    <tableColumn id="8" name="LCA_Eutrophication CML baseline (kg PO4- eq)" dataDxfId="9"/>
+    <tableColumn id="9" name="LCA_Land competition CML non baseline (m2a)" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7123,10 +7757,10 @@
   <sheetPr codeName="Planilha1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7137,7 +7771,7 @@
     <col min="4" max="4" width="13.85546875" customWidth="1"/>
     <col min="5" max="6" width="29.28515625" customWidth="1"/>
     <col min="7" max="7" width="9.140625" customWidth="1"/>
-    <col min="8" max="1021" width="8.7109375" customWidth="1"/>
+    <col min="8" max="1018" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -7161,624 +7795,405 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="16">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="33">
         <v>3</v>
       </c>
-      <c r="C2" s="17">
-        <v>0</v>
-      </c>
-      <c r="D2" s="37">
-        <v>1.5</v>
-      </c>
-      <c r="E2" s="50" t="s">
-        <v>124</v>
+      <c r="C2" s="32">
+        <v>0</v>
+      </c>
+      <c r="D2" s="32">
+        <v>4</v>
+      </c>
+      <c r="E2" s="47">
+        <v>0.39074999999999999</v>
       </c>
       <c r="F2" s="16" t="str">
-        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Urea - BR</v>
+        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[#Data],2,0)</f>
+        <v>Urea</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="16">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="37">
-        <v>24</v>
+      <c r="B3" s="33">
+        <v>4</v>
       </c>
       <c r="C3" s="17">
         <v>0</v>
       </c>
-      <c r="D3" s="38">
-        <v>50</v>
-      </c>
-      <c r="E3" s="51" t="s">
-        <v>126</v>
+      <c r="D3" s="32">
+        <v>40</v>
+      </c>
+      <c r="E3" s="46">
+        <v>0.22500000000000001</v>
       </c>
       <c r="F3" s="16" t="str">
-        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Citrus pulp, dry</v>
+        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[#Data],2,0)</f>
+        <v>Sugar beet pulp dehydrated</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1</v>
       </c>
-      <c r="B4" s="38">
-        <v>25</v>
+      <c r="B4" s="33">
+        <v>5</v>
       </c>
       <c r="C4" s="17">
         <v>0</v>
       </c>
-      <c r="D4" s="38">
-        <v>60</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>127</v>
+      <c r="D4" s="17">
+        <v>30</v>
+      </c>
+      <c r="E4" s="46">
+        <v>0.22575000000000001</v>
       </c>
       <c r="F4" s="16" t="str">
-        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Corn Silage - BR</v>
+        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[#Data],2,0)</f>
+        <v>Corn gluten feed</v>
       </c>
     </row>
     <row r="5" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5" s="16">
         <v>1</v>
       </c>
-      <c r="B5" s="38">
-        <v>26</v>
+      <c r="B5" s="33">
+        <v>6</v>
       </c>
       <c r="C5" s="17">
         <v>0</v>
       </c>
-      <c r="D5" s="38">
-        <v>80</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="F5" s="2" t="str">
-        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Corn grain - BR</v>
+      <c r="D5" s="17">
+        <v>20</v>
+      </c>
+      <c r="E5" s="46">
+        <v>0.78425</v>
+      </c>
+      <c r="F5" s="16" t="str">
+        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[#Data],2,0)</f>
+        <v>Corn gluten meal (gluten 60)</v>
       </c>
     </row>
     <row r="6" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>1</v>
       </c>
-      <c r="B6" s="37">
-        <v>27</v>
+      <c r="B6" s="33">
+        <v>8</v>
       </c>
       <c r="C6" s="17">
         <v>0</v>
       </c>
-      <c r="D6" s="37">
-        <v>30</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>120</v>
+      <c r="D6" s="17">
+        <v>8</v>
+      </c>
+      <c r="E6" s="46">
+        <v>0.23025000000000001</v>
       </c>
       <c r="F6" s="16" t="str">
-        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Cottonseed Meal 38% - BR</v>
+        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[#Data],2,0)</f>
+        <v>Molasses</v>
       </c>
     </row>
     <row r="7" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>1</v>
       </c>
-      <c r="B7" s="37">
-        <v>28</v>
+      <c r="B7" s="33">
+        <v>9</v>
       </c>
       <c r="C7" s="17">
         <v>0</v>
       </c>
-      <c r="D7" s="38">
-        <v>18</v>
-      </c>
-      <c r="E7" s="51" t="s">
-        <v>119</v>
+      <c r="D7" s="17">
+        <v>50</v>
+      </c>
+      <c r="E7" s="46">
+        <v>0.26624999999999999</v>
       </c>
       <c r="F7" s="16" t="str">
-        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Cottonseed Whole - BR</v>
+        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[#Data],2,0)</f>
+        <v>Rapeseed meal</v>
       </c>
     </row>
     <row r="8" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>1</v>
       </c>
-      <c r="B8" s="37">
-        <v>29</v>
+      <c r="B8" s="33">
+        <v>10</v>
       </c>
       <c r="C8" s="17">
         <v>0</v>
       </c>
-      <c r="D8" s="38">
-        <v>30</v>
-      </c>
-      <c r="E8" s="51" t="s">
-        <v>118</v>
+      <c r="D8" s="32">
+        <v>2</v>
+      </c>
+      <c r="E8" s="46">
+        <v>0.91974999999999996</v>
       </c>
       <c r="F8" s="16" t="str">
-        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Soybean Hulls - BR</v>
+        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[#Data],2,0)</f>
+        <v>Rapeseed oil</v>
       </c>
     </row>
     <row r="9" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="33">
+        <v>12</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="32">
         <v>30</v>
       </c>
-      <c r="C9" s="17">
-        <v>0</v>
-      </c>
-      <c r="D9" s="37">
-        <v>30</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>125</v>
+      <c r="E9" s="46">
+        <v>0.182</v>
       </c>
       <c r="F9" s="16" t="str">
-        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Soybean Meal 49% - BR</v>
+        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[#Data],2,0)</f>
+        <v>Sunflower meal without dehulling</v>
       </c>
     </row>
     <row r="10" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10" s="16">
         <v>1</v>
       </c>
-      <c r="B10" s="38">
-        <v>31</v>
+      <c r="B10" s="33">
+        <v>16</v>
       </c>
       <c r="C10" s="17">
         <v>0</v>
       </c>
-      <c r="D10" s="37">
-        <v>100</v>
-      </c>
-      <c r="E10" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="F10" s="2" t="str">
-        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Peanut meal</v>
+      <c r="D10" s="32">
+        <v>2</v>
+      </c>
+      <c r="E10" s="46">
+        <v>0.89075000000000004</v>
+      </c>
+      <c r="F10" s="16" t="str">
+        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[#Data],2,0)</f>
+        <v>Sunflower oil without dehulling</v>
       </c>
     </row>
     <row r="11" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>1</v>
       </c>
-      <c r="B11" s="38">
-        <v>32</v>
+      <c r="B11" s="33">
+        <v>17</v>
       </c>
       <c r="C11" s="17">
         <v>0</v>
       </c>
-      <c r="D11" s="37">
-        <v>50</v>
-      </c>
-      <c r="E11" s="51" t="s">
-        <v>122</v>
+      <c r="D11" s="32">
+        <v>30</v>
+      </c>
+      <c r="E11" s="46">
+        <v>0.1305</v>
       </c>
       <c r="F11" s="16" t="str">
-        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Rice bran</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[#Data],2,0)</f>
+        <v>Wheat bran</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>1</v>
       </c>
-      <c r="B12" s="37">
-        <v>33</v>
+      <c r="B12" s="33">
+        <v>18</v>
       </c>
       <c r="C12" s="17">
         <v>0</v>
       </c>
-      <c r="D12" s="37">
-        <v>50</v>
-      </c>
-      <c r="E12" s="50" t="s">
-        <v>123</v>
+      <c r="D12" s="32">
+        <v>30</v>
+      </c>
+      <c r="E12" s="46">
+        <v>0.3095</v>
       </c>
       <c r="F12" s="16" t="str">
-        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Wheat Meal - BR</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[#Data],2,0)</f>
+        <v>DDGS Wheat</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>1</v>
       </c>
-      <c r="B13" s="2">
-        <v>35</v>
+      <c r="B13" s="33">
+        <v>19</v>
       </c>
       <c r="C13" s="17">
         <v>0</v>
       </c>
-      <c r="D13" s="38">
+      <c r="D13" s="32">
+        <v>30</v>
+      </c>
+      <c r="E13" s="46">
+        <v>0.222</v>
+      </c>
+      <c r="F13" s="16" t="str">
+        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[#Data],2,0)</f>
+        <v>Wheat feed flour</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="16">
+        <v>1</v>
+      </c>
+      <c r="B14" s="33">
+        <v>20</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0</v>
+      </c>
+      <c r="D14" s="32">
+        <v>40</v>
+      </c>
+      <c r="E14" s="46">
+        <v>0.20399999999999999</v>
+      </c>
+      <c r="F14" s="55" t="str">
+        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[#Data],2,0)</f>
+        <v>Wheat gluten feed</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="16">
+        <v>1</v>
+      </c>
+      <c r="B15" s="33">
+        <v>21</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0</v>
+      </c>
+      <c r="D15" s="32">
+        <v>30</v>
+      </c>
+      <c r="E15" s="46">
+        <v>0.16425000000000001</v>
+      </c>
+      <c r="F15" s="16" t="str">
+        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[#Data],2,0)</f>
+        <v>Wheat middlings</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>1</v>
+      </c>
+      <c r="B16" s="33">
+        <v>25</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0</v>
+      </c>
+      <c r="D16" s="32">
         <v>100</v>
       </c>
-      <c r="E13" s="52">
+      <c r="E16" s="46">
+        <v>9.0749999999999997E-2</v>
+      </c>
+      <c r="F16" s="16" t="str">
+        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[#Data],2,0)</f>
+        <v>Baled grass</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="16">
+        <v>1</v>
+      </c>
+      <c r="B17" s="33">
+        <v>28</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="32">
         <v>10</v>
       </c>
-      <c r="F13" s="16" t="str">
-        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Sugarcane (S. officinarum) Bagasse Brazil Medium Chop</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="E17" s="46">
+        <v>0.24766666666666665</v>
+      </c>
+      <c r="F17" s="16" t="str">
+        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[#Data],2,0)</f>
+        <v>Sunflower meal low dehulling</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16">
         <v>1</v>
       </c>
-      <c r="B14" s="2">
-        <v>36</v>
-      </c>
-      <c r="C14" s="17">
-        <v>0</v>
-      </c>
-      <c r="D14" s="39">
-        <v>0</v>
-      </c>
-      <c r="E14" s="52">
+      <c r="B18" s="33">
+        <v>29</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0</v>
+      </c>
+      <c r="D18" s="51">
         <v>10</v>
       </c>
-      <c r="F14" s="16" t="str">
-        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Corn Dist Ethanol</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="E18" s="56">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="F18" s="16" t="str">
+        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[#Data],2,0)</f>
+        <v>Sunflower meal high dehulling</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="16">
         <v>1</v>
       </c>
-      <c r="B15" s="38">
-        <v>37</v>
-      </c>
-      <c r="C15" s="17">
-        <v>0</v>
-      </c>
-      <c r="D15" s="39">
+      <c r="B19" s="33">
+        <v>30</v>
+      </c>
+      <c r="C19" s="17">
+        <v>0</v>
+      </c>
+      <c r="D19" s="17">
         <v>100</v>
       </c>
-      <c r="E15" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="16" t="str">
-        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Sugarcane Silage - BR</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="43">
-        <v>2</v>
-      </c>
-      <c r="B16" s="47">
-        <v>3</v>
-      </c>
-      <c r="C16" s="45">
-        <v>0</v>
-      </c>
-      <c r="D16" s="44">
-        <v>50</v>
-      </c>
-      <c r="E16" s="41">
-        <f t="shared" ref="E16:E29" ca="1" si="0">RAND()*2</f>
-        <v>3.0090777697150406E-2</v>
-      </c>
-      <c r="F16" s="43" t="str">
-        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Urea - BR</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="43">
-        <v>2</v>
-      </c>
-      <c r="B17" s="47">
-        <v>24</v>
-      </c>
-      <c r="C17" s="45">
-        <v>0</v>
-      </c>
-      <c r="D17" s="44">
-        <v>50</v>
-      </c>
-      <c r="E17" s="41">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.98398253298434502</v>
-      </c>
-      <c r="F17" s="43" t="str">
-        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Citrus pulp, dry</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="43">
-        <v>2</v>
-      </c>
-      <c r="B18" s="47">
-        <v>25</v>
-      </c>
-      <c r="C18" s="45">
-        <v>0</v>
-      </c>
-      <c r="D18" s="44">
-        <v>60</v>
-      </c>
-      <c r="E18" s="41">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.0250384740856502</v>
-      </c>
-      <c r="F18" s="43" t="str">
-        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Corn Silage - BR</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="43">
-        <v>2</v>
-      </c>
-      <c r="B19" s="47">
-        <v>26</v>
-      </c>
-      <c r="C19" s="45">
-        <v>0</v>
-      </c>
-      <c r="D19" s="44">
-        <v>80</v>
-      </c>
-      <c r="E19" s="41">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.785552835209298</v>
-      </c>
-      <c r="F19" s="43" t="str">
-        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Corn grain - BR</v>
+      <c r="E19" s="47">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="F19" s="16" t="str">
+        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[#Data],2,0)</f>
+        <v>Maize silage</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="43">
-        <v>2</v>
-      </c>
-      <c r="B20" s="47">
-        <v>27</v>
-      </c>
-      <c r="C20" s="45">
-        <v>0</v>
-      </c>
-      <c r="D20" s="44">
-        <v>30</v>
-      </c>
-      <c r="E20" s="41">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.6302588903304851</v>
-      </c>
-      <c r="F20" s="43" t="str">
-        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Cottonseed Meal 38% - BR</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="43">
-        <v>2</v>
-      </c>
-      <c r="B21" s="47">
-        <v>28</v>
-      </c>
-      <c r="C21" s="45">
-        <v>0</v>
-      </c>
-      <c r="D21" s="44">
-        <v>18</v>
-      </c>
-      <c r="E21" s="41">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.87928823044778448</v>
-      </c>
-      <c r="F21" s="43" t="str">
-        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Cottonseed Whole - BR</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="43">
-        <v>2</v>
-      </c>
-      <c r="B22" s="47">
-        <v>29</v>
-      </c>
-      <c r="C22" s="45">
-        <v>0</v>
-      </c>
-      <c r="D22" s="44">
-        <v>30</v>
-      </c>
-      <c r="E22" s="41">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.7980603442782361</v>
-      </c>
-      <c r="F22" s="43" t="str">
-        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Soybean Hulls - BR</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="43">
-        <v>2</v>
-      </c>
-      <c r="B23" s="47">
-        <v>30</v>
-      </c>
-      <c r="C23" s="45">
-        <v>0</v>
-      </c>
-      <c r="D23" s="44">
-        <v>30</v>
-      </c>
-      <c r="E23" s="41">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.2440121310702519</v>
-      </c>
-      <c r="F23" s="43" t="str">
-        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Soybean Meal 49% - BR</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="43">
-        <v>2</v>
-      </c>
-      <c r="B24" s="47">
+      <c r="A20" s="16">
+        <v>1</v>
+      </c>
+      <c r="B20" s="33">
         <v>31</v>
       </c>
-      <c r="C24" s="45">
-        <v>0</v>
-      </c>
-      <c r="D24" s="44">
+      <c r="C20" s="17">
+        <v>0</v>
+      </c>
+      <c r="D20" s="17">
         <v>100</v>
       </c>
-      <c r="E24" s="41">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.50115360236887185</v>
-      </c>
-      <c r="F24" s="43" t="str">
-        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Peanut meal</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="43">
-        <v>2</v>
-      </c>
-      <c r="B25" s="47">
-        <v>32</v>
-      </c>
-      <c r="C25" s="45">
-        <v>0</v>
-      </c>
-      <c r="D25" s="44">
-        <v>50</v>
-      </c>
-      <c r="E25" s="41">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.19232468952752635</v>
-      </c>
-      <c r="F25" s="43" t="str">
-        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Rice bran</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="43">
-        <v>2</v>
-      </c>
-      <c r="B26" s="47">
-        <v>33</v>
-      </c>
-      <c r="C26" s="45">
-        <v>0</v>
-      </c>
-      <c r="D26" s="44">
-        <v>1.5</v>
-      </c>
-      <c r="E26" s="41">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5006227508412389</v>
-      </c>
-      <c r="F26" s="43" t="str">
-        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Wheat Meal - BR</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="43">
-        <v>2</v>
-      </c>
-      <c r="B27" s="43">
-        <v>35</v>
-      </c>
-      <c r="C27" s="45">
-        <v>0</v>
-      </c>
-      <c r="D27" s="44">
-        <v>100</v>
-      </c>
-      <c r="E27" s="41">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.834642213237524</v>
-      </c>
-      <c r="F27" s="43" t="str">
-        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Sugarcane (S. officinarum) Bagasse Brazil Medium Chop</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="43">
-        <v>2</v>
-      </c>
-      <c r="B28" s="43">
-        <v>36</v>
-      </c>
-      <c r="C28" s="45">
-        <v>0</v>
-      </c>
-      <c r="D28" s="46">
-        <v>100</v>
-      </c>
-      <c r="E28" s="41">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.7225592945713657</v>
-      </c>
-      <c r="F28" s="43" t="str">
-        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Corn Dist Ethanol</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="43">
-        <v>2</v>
-      </c>
-      <c r="B29" s="47">
-        <v>37</v>
-      </c>
-      <c r="C29" s="45">
-        <v>0</v>
-      </c>
-      <c r="D29" s="46">
-        <v>100</v>
-      </c>
-      <c r="E29" s="41">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.28291533422733561</v>
-      </c>
-      <c r="F29" s="43" t="str">
-        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[],2,0)</f>
-        <v>Sugarcane Silage - BR</v>
+      <c r="E20" s="47">
+        <v>7.6749999999999999E-2</v>
+      </c>
+      <c r="F20" s="16" t="str">
+        <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[#Data],2,0)</f>
+        <v>Grass silage</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B15">
-    <cfRule type="expression" dxfId="49" priority="3" stopIfTrue="1">
-      <formula>ROW(B2)=$C$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="48" priority="4" stopIfTrue="1">
-      <formula>COLUMN(B2)=$D$1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B16:B29">
-    <cfRule type="expression" dxfId="47" priority="1" stopIfTrue="1">
-      <formula>ROW(B16)=$C$1</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="46" priority="2" stopIfTrue="1">
-      <formula>COLUMN(B16)=$D$1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -7795,8 +8210,8 @@
   </sheetPr>
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7898,7 +8313,7 @@
         <v>91</v>
       </c>
       <c r="X1" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -7909,22 +8324,22 @@
         <v>1</v>
       </c>
       <c r="C2" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E2" s="21">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="F2" s="21">
         <v>0</v>
       </c>
       <c r="G2" s="20">
-        <v>528</v>
+        <v>595</v>
       </c>
       <c r="H2" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I2" s="21">
         <v>1</v>
@@ -7933,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="K2" s="21">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L2" s="21">
         <v>0</v>
@@ -7941,20 +8356,20 @@
       <c r="M2" s="21">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N2" s="22" t="s">
-        <v>130</v>
+      <c r="N2" s="22">
+        <v>2.41</v>
       </c>
       <c r="O2" s="21" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="P2" s="21" t="s">
-        <v>146</v>
+        <v>164</v>
       </c>
       <c r="Q2" s="21">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="R2" s="21">
-        <v>3</v>
+        <v>2.1</v>
       </c>
       <c r="S2" s="21">
         <v>0.01</v>
@@ -7966,7 +8381,7 @@
         <v>88</v>
       </c>
       <c r="V2" s="21">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="W2" s="21">
         <v>0.1</v>
@@ -7977,76 +8392,76 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="21">
-        <v>-1</v>
-      </c>
-      <c r="B3" s="21">
         <v>2</v>
       </c>
+      <c r="B3" s="24">
+        <v>1</v>
+      </c>
       <c r="C3" s="21">
-        <v>-1</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>129</v>
+        <v>0</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="E3" s="21">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="F3" s="21">
         <v>0</v>
       </c>
       <c r="G3" s="20">
-        <v>528</v>
-      </c>
-      <c r="H3" s="21">
-        <v>4</v>
-      </c>
-      <c r="I3" s="21">
+        <v>595</v>
+      </c>
+      <c r="H3" s="24">
+        <v>5</v>
+      </c>
+      <c r="I3" s="24">
         <v>1</v>
       </c>
-      <c r="J3" s="21">
+      <c r="J3" s="24">
         <v>1</v>
       </c>
-      <c r="K3" s="21">
-        <v>1.2</v>
-      </c>
-      <c r="L3" s="21">
+      <c r="K3" s="24">
+        <v>1</v>
+      </c>
+      <c r="L3" s="24">
         <v>0</v>
       </c>
       <c r="M3" s="21">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N3" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="O3" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="P3" s="21" t="s">
-        <v>92</v>
+      <c r="N3" s="22">
+        <v>2.41</v>
+      </c>
+      <c r="O3" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" s="24" t="s">
+        <v>120</v>
       </c>
       <c r="Q3" s="21">
-        <v>0.8</v>
+        <v>1.3</v>
       </c>
       <c r="R3" s="21">
-        <v>3</v>
-      </c>
-      <c r="S3" s="21">
+        <v>2.1</v>
+      </c>
+      <c r="S3" s="24">
         <v>0.01</v>
       </c>
-      <c r="T3" s="21" t="s">
+      <c r="T3" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="U3" s="21" t="s">
+      <c r="U3" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="V3" s="21">
-        <v>35</v>
-      </c>
-      <c r="W3" s="21">
+      <c r="V3" s="24">
+        <v>0</v>
+      </c>
+      <c r="W3" s="24">
         <v>0.1</v>
       </c>
-      <c r="X3" s="20">
-        <v>-1</v>
+      <c r="X3" s="23">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
@@ -8059,20 +8474,20 @@
       <c r="C4" s="21">
         <v>0</v>
       </c>
-      <c r="D4" s="21" t="s">
-        <v>129</v>
+      <c r="D4" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="E4" s="21">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="F4" s="21">
         <v>0</v>
       </c>
       <c r="G4" s="20">
-        <v>528</v>
-      </c>
-      <c r="H4" s="21">
-        <v>4</v>
+        <v>595</v>
+      </c>
+      <c r="H4" s="24">
+        <v>5</v>
       </c>
       <c r="I4" s="24">
         <v>1</v>
@@ -8080,8 +8495,8 @@
       <c r="J4" s="24">
         <v>1</v>
       </c>
-      <c r="K4" s="21">
-        <v>1.2</v>
+      <c r="K4" s="24">
+        <v>1</v>
       </c>
       <c r="L4" s="24">
         <v>0</v>
@@ -8090,19 +8505,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="N4" s="22">
-        <v>2.02</v>
+        <v>2.41</v>
       </c>
       <c r="O4" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P4" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Q4" s="21">
-        <v>1.6</v>
-      </c>
-      <c r="R4" s="24">
-        <v>1.9990000000000001</v>
+        <v>1.3</v>
+      </c>
+      <c r="R4" s="21">
+        <v>2.1</v>
       </c>
       <c r="S4" s="24">
         <v>0.01</v>
@@ -8134,19 +8549,19 @@
         <v>0</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E5" s="21">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="F5" s="21">
         <v>0</v>
       </c>
       <c r="G5" s="20">
-        <v>528</v>
+        <v>595</v>
       </c>
       <c r="H5" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5" s="21">
         <v>1</v>
@@ -8155,7 +8570,7 @@
         <v>1</v>
       </c>
       <c r="K5" s="21">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="L5" s="21">
         <v>0</v>
@@ -8164,19 +8579,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="N5" s="22">
-        <v>2.02</v>
+        <v>2.41</v>
       </c>
       <c r="O5" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P5" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="Q5" s="21">
-        <v>1.6</v>
-      </c>
-      <c r="R5" s="24">
-        <v>1.9990000000000001</v>
+        <v>1.3</v>
+      </c>
+      <c r="R5" s="21">
+        <v>2.1</v>
       </c>
       <c r="S5" s="24">
         <v>0.01</v>
@@ -8199,7 +8614,7 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="B6" s="24">
         <v>1</v>
@@ -8207,20 +8622,20 @@
       <c r="C6" s="21">
         <v>0</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>129</v>
+      <c r="D6" s="24" t="s">
+        <v>118</v>
       </c>
       <c r="E6" s="21">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="F6" s="21">
         <v>0</v>
       </c>
       <c r="G6" s="20">
-        <v>528</v>
-      </c>
-      <c r="H6" s="21">
-        <v>4</v>
+        <v>595</v>
+      </c>
+      <c r="H6" s="24">
+        <v>5</v>
       </c>
       <c r="I6" s="24">
         <v>1</v>
@@ -8228,8 +8643,8 @@
       <c r="J6" s="24">
         <v>1</v>
       </c>
-      <c r="K6" s="21">
-        <v>1.2</v>
+      <c r="K6" s="24">
+        <v>1</v>
       </c>
       <c r="L6" s="24">
         <v>0</v>
@@ -8238,19 +8653,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="N6" s="22">
-        <v>2.02</v>
+        <v>2.41</v>
       </c>
       <c r="O6" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P6" s="24" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="Q6" s="21">
-        <v>1.6</v>
-      </c>
-      <c r="R6" s="24">
-        <v>1.9990000000000001</v>
+        <v>1.3</v>
+      </c>
+      <c r="R6" s="21">
+        <v>2.1</v>
       </c>
       <c r="S6" s="24">
         <v>0.01</v>
@@ -8281,20 +8696,20 @@
       <c r="C7" s="21">
         <v>0</v>
       </c>
-      <c r="D7" s="21" t="s">
-        <v>129</v>
+      <c r="D7" s="19" t="s">
+        <v>118</v>
       </c>
       <c r="E7" s="21">
-        <v>365</v>
+        <v>336</v>
       </c>
       <c r="F7" s="21">
         <v>0</v>
       </c>
       <c r="G7" s="20">
-        <v>528</v>
-      </c>
-      <c r="H7" s="21">
-        <v>4</v>
+        <v>595</v>
+      </c>
+      <c r="H7" s="19">
+        <v>5</v>
       </c>
       <c r="I7" s="19">
         <v>1</v>
@@ -8302,8 +8717,8 @@
       <c r="J7" s="19">
         <v>1</v>
       </c>
-      <c r="K7" s="21">
-        <v>1.2</v>
+      <c r="K7" s="19">
+        <v>1</v>
       </c>
       <c r="L7" s="19">
         <v>0</v>
@@ -8312,19 +8727,19 @@
         <v>8.1999999999999993</v>
       </c>
       <c r="N7" s="22">
-        <v>2.02</v>
+        <v>2.41</v>
       </c>
       <c r="O7" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P7" s="19" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="Q7" s="21">
-        <v>1.6</v>
-      </c>
-      <c r="R7" s="24">
-        <v>1.9990000000000001</v>
+        <v>1.3</v>
+      </c>
+      <c r="R7" s="21">
+        <v>2.1</v>
       </c>
       <c r="S7" s="24">
         <v>0.01</v>
@@ -8426,7 +8841,7 @@
       <c r="F40"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -8484,10 +8899,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -8513,13 +8928,13 @@
   <sheetPr codeName="Planilha4">
     <tabColor rgb="FFE7E6E6"/>
   </sheetPr>
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="P2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:B15"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8542,7 +8957,8 @@
     <col min="17" max="17" width="15.7109375" customWidth="1"/>
     <col min="18" max="18" width="11.42578125"/>
     <col min="19" max="19" width="11.85546875" customWidth="1"/>
-    <col min="20" max="986" width="8.7109375" customWidth="1"/>
+    <col min="20" max="20" width="13" bestFit="1" customWidth="1"/>
+    <col min="21" max="985" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.25">
@@ -8604,15 +9020,15 @@
         <v>54</v>
       </c>
       <c r="T1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="38">
+      <c r="A2" s="33">
         <v>3</v>
       </c>
-      <c r="B2" s="38" t="s">
-        <v>138</v>
+      <c r="B2" s="35" t="s">
+        <v>117</v>
       </c>
       <c r="C2" s="36">
         <v>0</v>
@@ -8621,7 +9037,7 @@
         <v>99</v>
       </c>
       <c r="E2" s="36">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F2" s="36">
         <v>100</v>
@@ -8635,34 +9051,34 @@
       <c r="I2" s="36">
         <v>0</v>
       </c>
-      <c r="J2" s="36">
-        <v>0</v>
-      </c>
-      <c r="K2" s="36">
-        <v>0</v>
-      </c>
-      <c r="L2" s="36">
-        <v>0</v>
-      </c>
-      <c r="M2" s="36">
-        <v>0</v>
-      </c>
-      <c r="N2" s="36">
-        <v>0</v>
-      </c>
-      <c r="O2" s="36">
-        <v>0</v>
-      </c>
-      <c r="P2" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="36">
-        <v>0</v>
-      </c>
-      <c r="R2" s="36">
-        <v>0</v>
-      </c>
-      <c r="S2" s="36">
+      <c r="J2" s="2">
+        <v>0</v>
+      </c>
+      <c r="K2" s="33">
+        <v>0</v>
+      </c>
+      <c r="L2" s="2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="2">
+        <v>0</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2">
+        <v>96.6</v>
+      </c>
+      <c r="P2" s="2">
+        <v>2.42</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>1.7</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
         <v>0</v>
       </c>
       <c r="T2" s="2">
@@ -8670,838 +9086,1643 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="37">
+      <c r="A3" s="33">
+        <v>4</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="36">
+        <v>0</v>
+      </c>
+      <c r="D3" s="36">
+        <v>91</v>
+      </c>
+      <c r="E3" s="36">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F3" s="37">
+        <v>27</v>
+      </c>
+      <c r="G3" s="37">
+        <v>11</v>
+      </c>
+      <c r="H3" s="36">
+        <v>7.93</v>
+      </c>
+      <c r="I3" s="36">
+        <v>0</v>
+      </c>
+      <c r="J3" s="2">
+        <v>1.43</v>
+      </c>
+      <c r="K3" s="2">
+        <v>3.074E-2</v>
+      </c>
+      <c r="L3" s="2">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M3" s="2">
+        <v>44.6</v>
+      </c>
+      <c r="N3" s="2">
+        <v>1.6501999999999999</v>
+      </c>
+      <c r="O3" s="2">
+        <v>71.8</v>
+      </c>
+      <c r="P3" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>1.07</v>
+      </c>
+      <c r="R3" s="2">
+        <v>52</v>
+      </c>
+      <c r="S3" s="2">
+        <v>60</v>
+      </c>
+      <c r="T3" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="33">
+        <v>5</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="36">
+        <v>0</v>
+      </c>
+      <c r="D4" s="36">
+        <v>89.6</v>
+      </c>
+      <c r="E4" s="36">
         <v>24</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="F4" s="36">
+        <v>54</v>
+      </c>
+      <c r="G4" s="36">
+        <v>3.8</v>
+      </c>
+      <c r="H4" s="36">
+        <v>13.06</v>
+      </c>
+      <c r="I4" s="36">
+        <v>0</v>
+      </c>
+      <c r="J4" s="2">
+        <v>4.2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>3.4759999999999999E-2</v>
+      </c>
+      <c r="L4" s="2">
+        <v>14.2</v>
+      </c>
+      <c r="M4" s="2">
+        <v>34.64</v>
+      </c>
+      <c r="N4" s="2">
+        <v>1.93984</v>
+      </c>
+      <c r="O4" s="2">
+        <v>74.5</v>
+      </c>
+      <c r="P4" s="2">
+        <v>1.77</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="R4" s="2">
+        <v>24</v>
+      </c>
+      <c r="S4" s="2">
+        <v>40</v>
+      </c>
+      <c r="T4" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="33">
+        <v>6</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="36">
+        <v>0</v>
+      </c>
+      <c r="D5" s="36">
+        <v>92.7</v>
+      </c>
+      <c r="E5" s="36">
+        <v>65.5</v>
+      </c>
+      <c r="F5" s="36">
+        <v>6.4</v>
+      </c>
+      <c r="G5" s="36">
+        <v>3.9</v>
+      </c>
+      <c r="H5" s="36">
+        <v>1.58</v>
+      </c>
+      <c r="I5" s="36">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="K5" s="2">
+        <v>1.073E-2</v>
+      </c>
+      <c r="L5" s="2">
+        <v>18.12</v>
+      </c>
+      <c r="M5" s="2">
+        <v>11</v>
+      </c>
+      <c r="N5" s="2">
+        <v>3.0085000000000002</v>
+      </c>
+      <c r="O5" s="2">
+        <v>84.2</v>
+      </c>
+      <c r="P5" s="2">
+        <v>2.06</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>1.4</v>
+      </c>
+      <c r="R5" s="2">
+        <v>47</v>
+      </c>
+      <c r="S5" s="2">
+        <v>40</v>
+      </c>
+      <c r="T5" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="33">
+        <v>7</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="36">
+        <v>0</v>
+      </c>
+      <c r="D6" s="36">
+        <v>89</v>
+      </c>
+      <c r="E6" s="36">
+        <v>3.1</v>
+      </c>
+      <c r="F6" s="36">
+        <v>25</v>
+      </c>
+      <c r="G6" s="36">
+        <v>5</v>
+      </c>
+      <c r="H6" s="36">
+        <v>4.3</v>
+      </c>
+      <c r="I6" s="36">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="K6" s="2">
+        <v>6.6E-3</v>
+      </c>
+      <c r="L6" s="2">
+        <v>77.42</v>
+      </c>
+      <c r="M6" s="2">
+        <v>8</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0.08</v>
+      </c>
+      <c r="O6" s="2">
+        <v>85.3</v>
+      </c>
+      <c r="P6" s="2">
+        <v>2.1</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>1.43</v>
+      </c>
+      <c r="R6" s="2">
+        <v>35</v>
+      </c>
+      <c r="S6" s="2">
+        <v>25</v>
+      </c>
+      <c r="T6" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="33">
+        <v>8</v>
+      </c>
+      <c r="B7" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="36">
+        <v>0</v>
+      </c>
+      <c r="D7" s="36">
+        <v>75</v>
+      </c>
+      <c r="E7" s="36">
+        <v>8.5</v>
+      </c>
+      <c r="F7" s="36">
+        <v>100</v>
+      </c>
+      <c r="G7" s="36">
+        <v>0</v>
+      </c>
+      <c r="H7" s="36">
+        <v>70</v>
+      </c>
+      <c r="I7" s="36">
+        <v>4</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1.32E-2</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1.92</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>1.28</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="33">
+        <v>9</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="36">
+        <v>0</v>
+      </c>
+      <c r="D8" s="36">
+        <v>90.1</v>
+      </c>
+      <c r="E8" s="36">
+        <v>41.5</v>
+      </c>
+      <c r="F8" s="36">
+        <v>30</v>
+      </c>
+      <c r="G8" s="36">
+        <v>6.2</v>
+      </c>
+      <c r="H8" s="36">
+        <v>10.34</v>
+      </c>
+      <c r="I8" s="36">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="K8" s="2">
+        <v>5.7383999999999998E-2</v>
+      </c>
+      <c r="L8" s="2">
+        <v>11.97</v>
+      </c>
+      <c r="M8" s="2">
+        <v>27.66</v>
+      </c>
+      <c r="N8" s="2">
+        <v>7.363092</v>
+      </c>
+      <c r="O8" s="2">
+        <v>73</v>
+      </c>
+      <c r="P8" s="2">
+        <v>1.73</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="R8" s="2">
+        <v>31</v>
+      </c>
+      <c r="S8" s="2">
+        <v>40</v>
+      </c>
+      <c r="T8" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="33">
+        <v>10</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="36">
+        <v>0</v>
+      </c>
+      <c r="D9" s="36">
+        <v>99</v>
+      </c>
+      <c r="E9" s="36">
+        <v>0</v>
+      </c>
+      <c r="F9" s="36">
+        <v>0</v>
+      </c>
+      <c r="G9" s="36">
+        <v>0</v>
+      </c>
+      <c r="H9" s="36">
+        <v>0</v>
+      </c>
+      <c r="I9" s="36">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
+        <v>100</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>193.5</v>
+      </c>
+      <c r="P9" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>3.94</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="33">
+        <v>11</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="36">
+        <v>0</v>
+      </c>
+      <c r="D10" s="36">
+        <v>93.6</v>
+      </c>
+      <c r="E10" s="36">
+        <v>42.79</v>
+      </c>
+      <c r="F10" s="36">
+        <v>8</v>
+      </c>
+      <c r="G10" s="36">
+        <v>3</v>
+      </c>
+      <c r="H10" s="36">
+        <v>13.5</v>
+      </c>
+      <c r="I10" s="36">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
+        <v>18.8</v>
+      </c>
+      <c r="K10" s="2">
+        <v>7.1999999999999998E-3</v>
+      </c>
+      <c r="L10" s="2">
+        <v>3.61</v>
+      </c>
+      <c r="M10" s="2">
+        <v>13</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0.20019999999999999</v>
+      </c>
+      <c r="O10" s="2">
+        <v>104.8</v>
+      </c>
+      <c r="P10" s="2">
+        <v>2.66</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>1.89</v>
+      </c>
+      <c r="R10" s="2">
+        <v>38</v>
+      </c>
+      <c r="S10" s="2">
+        <v>50</v>
+      </c>
+      <c r="T10" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="33">
+        <v>12</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="36">
+        <v>0</v>
+      </c>
+      <c r="D11" s="36">
+        <v>93</v>
+      </c>
+      <c r="E11" s="36">
+        <v>26.3</v>
+      </c>
+      <c r="F11" s="36">
+        <v>33.75</v>
+      </c>
+      <c r="G11" s="36">
+        <v>6.2</v>
+      </c>
+      <c r="H11" s="36">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="I11" s="36">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2.6</v>
+      </c>
+      <c r="K11" s="33">
+        <v>3.0800000000000001E-2</v>
+      </c>
+      <c r="L11" s="2">
+        <v>11.38</v>
+      </c>
+      <c r="M11" s="2">
+        <v>42</v>
+      </c>
+      <c r="N11" s="2">
+        <v>9.7859999999999996</v>
+      </c>
+      <c r="O11" s="2">
+        <v>60.5</v>
+      </c>
+      <c r="P11" s="2">
+        <v>1.32</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="R11" s="2">
+        <v>23</v>
+      </c>
+      <c r="S11" s="2">
+        <v>50</v>
+      </c>
+      <c r="T11" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="33">
+        <v>16</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="36">
+        <v>0</v>
+      </c>
+      <c r="D12" s="36">
+        <v>99</v>
+      </c>
+      <c r="E12" s="36">
+        <v>0</v>
+      </c>
+      <c r="F12" s="36">
+        <v>0</v>
+      </c>
+      <c r="G12" s="36">
+        <v>0</v>
+      </c>
+      <c r="H12" s="36">
+        <v>0</v>
+      </c>
+      <c r="I12" s="36">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
+        <v>100</v>
+      </c>
+      <c r="K12" s="2">
+        <v>0</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>193.5</v>
+      </c>
+      <c r="P12" s="2">
+        <v>5.3</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>3.94</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="33">
+        <v>17</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C13" s="36">
+        <v>0</v>
+      </c>
+      <c r="D13" s="36">
+        <v>88.7</v>
+      </c>
+      <c r="E13" s="36">
+        <v>17</v>
+      </c>
+      <c r="F13" s="36">
+        <v>41</v>
+      </c>
+      <c r="G13" s="36">
+        <v>4</v>
+      </c>
+      <c r="H13" s="36">
+        <v>4.7300000000000004</v>
+      </c>
+      <c r="I13" s="36">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2.5520000000000001E-2</v>
+      </c>
+      <c r="L13" s="2">
+        <v>21.79</v>
+      </c>
+      <c r="M13" s="2">
+        <v>44</v>
+      </c>
+      <c r="N13" s="2">
+        <v>3.52</v>
+      </c>
+      <c r="O13" s="2">
+        <v>71.5</v>
+      </c>
+      <c r="P13" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>1.06</v>
+      </c>
+      <c r="R13" s="2">
+        <v>23</v>
+      </c>
+      <c r="S13" s="2">
+        <v>45</v>
+      </c>
+      <c r="T13" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="33">
+        <v>18</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="36">
+        <v>0</v>
+      </c>
+      <c r="D14" s="36">
+        <v>92.6</v>
+      </c>
+      <c r="E14" s="36">
+        <v>29</v>
+      </c>
+      <c r="F14" s="36">
+        <v>4.5</v>
+      </c>
+      <c r="G14" s="36">
+        <v>9.86</v>
+      </c>
+      <c r="H14" s="36">
+        <v>2.62</v>
+      </c>
+      <c r="I14" s="36">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>8</v>
+      </c>
+      <c r="K14" s="2">
+        <v>1.6632000000000001E-2</v>
+      </c>
+      <c r="L14" s="2">
+        <v>13.12</v>
+      </c>
+      <c r="M14" s="2">
+        <v>50.1</v>
+      </c>
+      <c r="N14" s="2">
+        <v>6.7484700000000002</v>
+      </c>
+      <c r="O14" s="2">
+        <v>74.400000000000006</v>
+      </c>
+      <c r="P14" s="2">
+        <v>1.77</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="R14" s="2">
+        <v>54</v>
+      </c>
+      <c r="S14" s="2">
+        <v>40</v>
+      </c>
+      <c r="T14" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="33">
+        <v>19</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="36">
+        <v>0</v>
+      </c>
+      <c r="D15" s="36">
+        <v>95</v>
+      </c>
+      <c r="E15" s="36">
+        <v>10</v>
+      </c>
+      <c r="F15" s="36">
+        <v>25</v>
+      </c>
+      <c r="G15" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="H15" s="36">
+        <v>1.6</v>
+      </c>
+      <c r="I15" s="36">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
+        <v>1.3</v>
+      </c>
+      <c r="K15" s="2">
+        <v>1.32E-2</v>
+      </c>
+      <c r="L15" s="2">
+        <v>76.989999999999995</v>
+      </c>
+      <c r="M15" s="2">
+        <v>6</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="O15" s="2">
+        <v>86.1</v>
+      </c>
+      <c r="P15" s="2">
+        <v>2.12</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>1.45</v>
+      </c>
+      <c r="R15" s="2">
+        <v>17</v>
+      </c>
+      <c r="S15" s="2">
+        <v>5</v>
+      </c>
+      <c r="T15" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="33">
+        <v>20</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C16" s="36">
+        <v>0</v>
+      </c>
+      <c r="D16" s="36">
+        <v>88.5</v>
+      </c>
+      <c r="E16" s="36">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F16" s="36">
+        <v>44</v>
+      </c>
+      <c r="G16" s="36">
+        <v>1.49</v>
+      </c>
+      <c r="H16" s="36">
+        <v>5.59</v>
+      </c>
+      <c r="I16" s="36">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
+        <v>4.09</v>
+      </c>
+      <c r="K16" s="2">
+        <v>2.1090000000000001E-2</v>
+      </c>
+      <c r="L16" s="2">
+        <v>37.28</v>
+      </c>
+      <c r="M16" s="2">
+        <v>27</v>
+      </c>
+      <c r="N16" s="2">
+        <v>1.35</v>
+      </c>
+      <c r="O16" s="2">
+        <v>81.2</v>
+      </c>
+      <c r="P16" s="2">
+        <v>1.98</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>1.32</v>
+      </c>
+      <c r="R16" s="2">
+        <v>15</v>
+      </c>
+      <c r="S16" s="2">
+        <v>10</v>
+      </c>
+      <c r="T16" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A17" s="33">
+        <v>21</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="C17" s="36">
+        <v>0</v>
+      </c>
+      <c r="D17" s="36">
+        <v>89</v>
+      </c>
+      <c r="E17" s="36">
+        <v>18.39</v>
+      </c>
+      <c r="F17" s="36">
+        <v>40</v>
+      </c>
+      <c r="G17" s="36">
+        <v>3</v>
+      </c>
+      <c r="H17" s="36">
+        <v>3.94</v>
+      </c>
+      <c r="I17" s="36">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
+        <v>5</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2.86E-2</v>
+      </c>
+      <c r="L17" s="2">
+        <v>19.04</v>
+      </c>
+      <c r="M17" s="2">
+        <v>38</v>
+      </c>
+      <c r="N17" s="2">
+        <v>2.2610000000000001</v>
+      </c>
+      <c r="O17" s="2">
+        <v>74.7</v>
+      </c>
+      <c r="P17" s="2">
+        <v>1.78</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="R17" s="2">
+        <v>14</v>
+      </c>
+      <c r="S17" s="2">
+        <v>15</v>
+      </c>
+      <c r="T17" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A18" s="33">
+        <v>25</v>
+      </c>
+      <c r="B18" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="36">
+        <v>100</v>
+      </c>
+      <c r="D18" s="39">
+        <v>89</v>
+      </c>
+      <c r="E18" s="39">
+        <v>10</v>
+      </c>
+      <c r="F18" s="40">
+        <v>38</v>
+      </c>
+      <c r="G18" s="40">
+        <v>6.09</v>
+      </c>
+      <c r="H18" s="40">
+        <v>5.09</v>
+      </c>
+      <c r="I18" s="40">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2">
+        <v>3</v>
+      </c>
+      <c r="K18" s="2">
+        <v>0.1008</v>
+      </c>
+      <c r="L18" s="2">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="M18" s="2">
+        <v>67</v>
+      </c>
+      <c r="N18" s="2">
+        <v>5.0250000000000004</v>
+      </c>
+      <c r="O18" s="2">
+        <v>59.5</v>
+      </c>
+      <c r="P18" s="2">
+        <v>1.29</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0.72</v>
+      </c>
+      <c r="R18" s="2">
+        <v>34</v>
+      </c>
+      <c r="S18" s="2">
+        <v>95</v>
+      </c>
+      <c r="T18" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A19" s="33">
+        <v>28</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>129</v>
+      </c>
+      <c r="C19" s="36">
+        <v>0</v>
+      </c>
+      <c r="D19" s="36">
+        <v>93</v>
+      </c>
+      <c r="E19" s="36">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="F19" s="36">
+        <v>33.79</v>
+      </c>
+      <c r="G19" s="36">
+        <v>6.2</v>
+      </c>
+      <c r="H19" s="36">
+        <v>5.88</v>
+      </c>
+      <c r="I19" s="36">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
+        <v>3</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1.35E-2</v>
+      </c>
+      <c r="L19" s="2">
+        <v>6.61</v>
+      </c>
+      <c r="M19" s="2">
+        <v>38</v>
+      </c>
+      <c r="N19" s="2">
+        <v>8.8539999999999992</v>
+      </c>
+      <c r="O19" s="2">
+        <v>62.3</v>
+      </c>
+      <c r="P19" s="2">
+        <v>1.38</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="R19" s="2">
+        <v>23</v>
+      </c>
+      <c r="S19" s="2">
+        <v>45</v>
+      </c>
+      <c r="T19" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A20" s="33">
+        <v>29</v>
+      </c>
+      <c r="B20" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="36">
-        <v>0</v>
-      </c>
-      <c r="D3" s="36">
-        <v>87.687365400000004</v>
-      </c>
-      <c r="E3" s="36">
-        <v>6.9054801509999999</v>
-      </c>
-      <c r="F3" s="36">
-        <v>41.055999999999997</v>
-      </c>
-      <c r="G3" s="36">
-        <v>5.63</v>
-      </c>
-      <c r="H3" s="36">
-        <v>0</v>
-      </c>
-      <c r="I3" s="36">
-        <v>0</v>
-      </c>
-      <c r="J3" s="36">
-        <v>2.4395544550000001</v>
-      </c>
-      <c r="K3" s="36">
-        <v>7.420880682</v>
-      </c>
-      <c r="L3" s="36">
-        <v>1.004126063</v>
-      </c>
-      <c r="M3" s="36">
-        <v>24.017840379999999</v>
-      </c>
-      <c r="N3" s="36">
-        <v>2.4489999999999998</v>
-      </c>
-      <c r="O3" s="36">
-        <v>69.974000000000004</v>
-      </c>
-      <c r="P3" s="36">
-        <v>1.6326637450000001</v>
-      </c>
-      <c r="Q3" s="36">
-        <v>1.026278931</v>
-      </c>
-      <c r="R3" s="36">
-        <v>40.314</v>
-      </c>
-      <c r="S3" s="36">
-        <v>33</v>
-      </c>
-      <c r="T3" s="40">
-        <v>0.67000499999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="38">
-        <v>25</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>139</v>
-      </c>
-      <c r="C4" s="36">
+      <c r="C20" s="36">
+        <v>0</v>
+      </c>
+      <c r="D20" s="36">
+        <v>93</v>
+      </c>
+      <c r="E20" s="36">
+        <v>48.89</v>
+      </c>
+      <c r="F20" s="36">
+        <v>33.79</v>
+      </c>
+      <c r="G20" s="36">
+        <v>6.2</v>
+      </c>
+      <c r="H20" s="36">
+        <v>4.3</v>
+      </c>
+      <c r="I20" s="36">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
+        <v>3.3</v>
+      </c>
+      <c r="K20" s="2">
+        <v>1.2E-2</v>
+      </c>
+      <c r="L20" s="2">
+        <v>4.84</v>
+      </c>
+      <c r="M20" s="2">
+        <v>35</v>
+      </c>
+      <c r="N20" s="2">
+        <v>8.1549999999999994</v>
+      </c>
+      <c r="O20" s="2">
+        <v>65.900000000000006</v>
+      </c>
+      <c r="P20" s="2">
+        <v>1.5</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0.91</v>
+      </c>
+      <c r="R20" s="2">
+        <v>23</v>
+      </c>
+      <c r="S20" s="2">
+        <v>40</v>
+      </c>
+      <c r="T20" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A21" s="33">
+        <v>30</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C21" s="36">
+        <v>100</v>
+      </c>
+      <c r="D21" s="36">
+        <v>35</v>
+      </c>
+      <c r="E21" s="36">
+        <v>8</v>
+      </c>
+      <c r="F21" s="36">
+        <v>50</v>
+      </c>
+      <c r="G21" s="36">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="H21" s="36">
+        <v>0.89</v>
+      </c>
+      <c r="I21" s="36">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
+        <v>3.18</v>
+      </c>
+      <c r="K21" s="33">
+        <v>6.0479999999999999E-2</v>
+      </c>
+      <c r="L21" s="2">
+        <v>35.49</v>
+      </c>
+      <c r="M21" s="2">
+        <v>41</v>
+      </c>
+      <c r="N21" s="2">
+        <v>2.87</v>
+      </c>
+      <c r="O21" s="2">
+        <v>72.7</v>
+      </c>
+      <c r="P21" s="2">
+        <v>1.71</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R21" s="2">
+        <v>21</v>
+      </c>
+      <c r="S21" s="2">
+        <v>82</v>
+      </c>
+      <c r="T21" s="2">
         <v>65</v>
       </c>
-      <c r="D4" s="36">
-        <v>31.58</v>
-      </c>
-      <c r="E4" s="36">
-        <v>7.59</v>
-      </c>
-      <c r="F4" s="36">
-        <v>65.650000000000006</v>
-      </c>
-      <c r="G4" s="36">
-        <v>0.68</v>
-      </c>
-      <c r="H4" s="36">
-        <v>0</v>
-      </c>
-      <c r="I4" s="36">
-        <v>0</v>
-      </c>
-      <c r="J4" s="36">
-        <v>2.9</v>
-      </c>
-      <c r="K4" s="36">
-        <v>5.0199999999999996</v>
-      </c>
-      <c r="L4" s="36">
-        <v>30.91</v>
-      </c>
-      <c r="M4" s="36">
-        <v>53.59</v>
-      </c>
-      <c r="N4" s="36">
-        <v>4.66</v>
-      </c>
-      <c r="O4" s="36">
-        <v>63.11</v>
-      </c>
-      <c r="P4" s="36">
-        <v>1.42</v>
-      </c>
-      <c r="Q4" s="36">
-        <v>0.83</v>
-      </c>
-      <c r="R4" s="36">
-        <v>34.35</v>
-      </c>
-      <c r="S4" s="36">
-        <v>86.14</v>
-      </c>
-      <c r="T4" s="2">
-        <v>1.9074580000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="38">
-        <v>26</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="36">
-        <v>0</v>
-      </c>
-      <c r="D5" s="36">
-        <v>88.65</v>
-      </c>
-      <c r="E5" s="36">
-        <v>9.08</v>
-      </c>
-      <c r="F5" s="36">
-        <v>43.93</v>
-      </c>
-      <c r="G5" s="36">
-        <v>0.54</v>
-      </c>
-      <c r="H5" s="36">
-        <v>0</v>
-      </c>
-      <c r="I5" s="36">
-        <v>0</v>
-      </c>
-      <c r="J5" s="36">
-        <v>4.0599999999999996</v>
-      </c>
-      <c r="K5" s="36">
-        <v>1.43</v>
-      </c>
-      <c r="L5" s="36">
-        <v>73.25</v>
-      </c>
-      <c r="M5" s="36">
-        <v>12.18</v>
-      </c>
-      <c r="N5" s="36">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="O5" s="36">
-        <v>87.24</v>
-      </c>
-      <c r="P5" s="36">
-        <v>2.15</v>
-      </c>
-      <c r="Q5" s="36">
-        <v>1.48</v>
-      </c>
-      <c r="R5" s="36">
-        <v>56.07</v>
-      </c>
-      <c r="S5" s="36">
-        <v>15.88</v>
-      </c>
-      <c r="T5" s="2">
-        <v>0.36575000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="37">
-        <v>27</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="36">
-        <v>0</v>
-      </c>
-      <c r="D6" s="36">
-        <v>90.11</v>
-      </c>
-      <c r="E6" s="36">
-        <v>42.27</v>
-      </c>
-      <c r="F6" s="36">
-        <v>56.67</v>
-      </c>
-      <c r="G6" s="36">
-        <v>2.09</v>
-      </c>
-      <c r="H6" s="36">
-        <v>0</v>
-      </c>
-      <c r="I6" s="36">
-        <v>0</v>
-      </c>
-      <c r="J6" s="36">
-        <v>2.1</v>
-      </c>
-      <c r="K6" s="36">
-        <v>6.6</v>
-      </c>
-      <c r="L6" s="36">
-        <v>15.76</v>
-      </c>
-      <c r="M6" s="36">
-        <v>33.28</v>
-      </c>
-      <c r="N6" s="36">
-        <v>6.63</v>
-      </c>
-      <c r="O6" s="36">
-        <v>70.92</v>
-      </c>
-      <c r="P6" s="36">
-        <v>1.66</v>
-      </c>
-      <c r="Q6" s="36">
-        <v>1.04</v>
-      </c>
-      <c r="R6" s="36">
-        <v>43.33</v>
-      </c>
-      <c r="S6" s="36">
-        <v>20</v>
-      </c>
-      <c r="T6" s="2">
-        <v>3.0312000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="37">
-        <v>28</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="36">
-        <v>0</v>
-      </c>
-      <c r="D7" s="36">
-        <v>91.19</v>
-      </c>
-      <c r="E7" s="36">
-        <v>22.15</v>
-      </c>
-      <c r="F7" s="36">
-        <v>73.040000000000006</v>
-      </c>
-      <c r="G7" s="36">
-        <v>1.3</v>
-      </c>
-      <c r="H7" s="36">
-        <v>0</v>
-      </c>
-      <c r="I7" s="36">
-        <v>0</v>
-      </c>
-      <c r="J7" s="36">
-        <v>19.07</v>
-      </c>
-      <c r="K7" s="36">
-        <v>4.2300000000000004</v>
-      </c>
-      <c r="L7" s="36">
-        <v>9.0299999999999994</v>
-      </c>
-      <c r="M7" s="36">
-        <v>45.52</v>
-      </c>
-      <c r="N7" s="36">
-        <v>8.2899999999999991</v>
-      </c>
-      <c r="O7" s="36">
-        <v>88.49</v>
-      </c>
-      <c r="P7" s="36">
-        <v>2.19</v>
-      </c>
-      <c r="Q7" s="36">
-        <v>1.51</v>
-      </c>
-      <c r="R7" s="36">
-        <v>26.96</v>
-      </c>
-      <c r="S7" s="36">
-        <v>60</v>
-      </c>
-      <c r="T7" s="2">
-        <v>1.603945</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="34">
-        <v>29</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="36">
-        <v>0</v>
-      </c>
-      <c r="D8" s="36">
-        <v>89.79</v>
-      </c>
-      <c r="E8" s="36">
-        <v>49.81</v>
-      </c>
-      <c r="F8" s="36">
-        <v>71.25</v>
-      </c>
-      <c r="G8" s="36">
-        <v>1.05</v>
-      </c>
-      <c r="H8" s="36">
-        <v>0</v>
-      </c>
-      <c r="I8" s="36">
-        <v>0</v>
-      </c>
-      <c r="J8" s="36">
-        <v>1.87</v>
-      </c>
-      <c r="K8" s="36">
-        <v>6.68</v>
-      </c>
-      <c r="L8" s="36">
-        <v>28.88</v>
-      </c>
-      <c r="M8" s="36">
-        <v>12.75</v>
-      </c>
-      <c r="N8" s="36">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="O8" s="36">
-        <v>77.52</v>
-      </c>
-      <c r="P8" s="36">
-        <v>1.86</v>
-      </c>
-      <c r="Q8" s="36">
-        <v>1.22</v>
-      </c>
-      <c r="R8" s="36">
-        <v>28.76</v>
-      </c>
-      <c r="S8" s="36">
-        <v>20</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0.84419999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="37">
-        <v>30</v>
-      </c>
-      <c r="B9" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="36">
-        <v>0</v>
-      </c>
-      <c r="D9" s="36">
-        <v>89.97</v>
-      </c>
-      <c r="E9" s="36">
-        <v>13.35</v>
-      </c>
-      <c r="F9" s="36">
-        <v>50.82</v>
-      </c>
-      <c r="G9" s="36">
-        <v>2.34</v>
-      </c>
-      <c r="H9" s="36">
-        <v>0</v>
-      </c>
-      <c r="I9" s="36">
-        <v>0</v>
-      </c>
-      <c r="J9" s="36">
-        <v>2.31</v>
-      </c>
-      <c r="K9" s="36">
-        <v>5.12</v>
-      </c>
-      <c r="L9" s="36">
-        <v>14.58</v>
-      </c>
-      <c r="M9" s="36">
-        <v>64.64</v>
-      </c>
-      <c r="N9" s="36">
-        <v>3.16</v>
-      </c>
-      <c r="O9" s="36">
-        <v>69.819999999999993</v>
-      </c>
-      <c r="P9" s="36">
-        <v>1.62</v>
-      </c>
-      <c r="Q9" s="36">
-        <v>1.01</v>
-      </c>
-      <c r="R9" s="36">
-        <v>49.18</v>
-      </c>
-      <c r="S9" s="36">
-        <v>30</v>
-      </c>
-      <c r="T9" s="2">
-        <v>1.8706940000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A22" s="33">
         <v>31</v>
       </c>
-      <c r="B10" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="36">
-        <v>0</v>
-      </c>
-      <c r="D10" s="36">
-        <v>94.1</v>
-      </c>
-      <c r="E10" s="36">
-        <v>45</v>
-      </c>
-      <c r="F10" s="36">
-        <v>29.8</v>
-      </c>
-      <c r="G10" s="36">
-        <v>12.5</v>
-      </c>
-      <c r="H10" s="36">
-        <v>0</v>
-      </c>
-      <c r="I10" s="36">
-        <v>0</v>
-      </c>
-      <c r="J10" s="36">
-        <v>7.7</v>
-      </c>
-      <c r="K10" s="36">
-        <v>5.6</v>
-      </c>
-      <c r="L10" s="36">
-        <v>6.9</v>
-      </c>
-      <c r="M10" s="36">
-        <v>19.899999999999999</v>
-      </c>
-      <c r="N10" s="36">
-        <v>3.3</v>
-      </c>
-      <c r="O10" s="36">
-        <v>80.8</v>
-      </c>
-      <c r="P10" s="36">
-        <v>2</v>
-      </c>
-      <c r="Q10" s="36">
-        <v>1.3</v>
-      </c>
-      <c r="R10" s="36">
-        <v>28.2</v>
-      </c>
-      <c r="S10" s="36">
-        <v>36</v>
-      </c>
-      <c r="T10" s="2">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
-        <v>32</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="36">
-        <v>0</v>
-      </c>
-      <c r="D11" s="36">
-        <v>91.8</v>
-      </c>
-      <c r="E11" s="36">
-        <v>14.7</v>
-      </c>
-      <c r="F11" s="36">
-        <v>25.8</v>
-      </c>
-      <c r="G11" s="36">
-        <v>5</v>
-      </c>
-      <c r="H11" s="36">
-        <v>0</v>
-      </c>
-      <c r="I11" s="36">
-        <v>0</v>
-      </c>
-      <c r="J11" s="36">
-        <v>17.600000000000001</v>
-      </c>
-      <c r="K11" s="36">
-        <v>12.2</v>
-      </c>
-      <c r="L11" s="36">
-        <v>20.2</v>
-      </c>
-      <c r="M11" s="36">
-        <v>26.6</v>
-      </c>
-      <c r="N11" s="36">
-        <v>5.3</v>
-      </c>
-      <c r="O11" s="36">
-        <v>83.4</v>
-      </c>
-      <c r="P11" s="36">
-        <v>2</v>
-      </c>
-      <c r="Q11" s="36">
+      <c r="B22" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C22" s="36">
+        <v>100</v>
+      </c>
+      <c r="D22" s="36">
+        <v>35</v>
+      </c>
+      <c r="E22" s="36">
+        <v>14.69</v>
+      </c>
+      <c r="F22" s="36">
+        <v>55</v>
+      </c>
+      <c r="G22" s="36">
+        <v>6</v>
+      </c>
+      <c r="H22" s="36">
+        <v>3.34</v>
+      </c>
+      <c r="I22" s="36">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
+        <v>5.4</v>
+      </c>
+      <c r="K22" s="2">
+        <v>0.15840000000000001</v>
+      </c>
+      <c r="L22" s="2">
+        <v>2.76</v>
+      </c>
+      <c r="M22" s="2">
+        <v>57</v>
+      </c>
+      <c r="N22" s="2">
+        <v>3.99</v>
+      </c>
+      <c r="O22" s="2">
+        <v>62.8</v>
+      </c>
+      <c r="P22" s="2">
         <v>1.4</v>
       </c>
-      <c r="R11" s="36">
-        <v>44.7</v>
-      </c>
-      <c r="S11" s="36">
-        <v>0</v>
-      </c>
-      <c r="T11" s="2">
-        <v>1.66208</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="37">
-        <v>33</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="36">
-        <v>0</v>
-      </c>
-      <c r="D12" s="36">
-        <v>89.05</v>
-      </c>
-      <c r="E12" s="36">
-        <v>17.48</v>
-      </c>
-      <c r="F12" s="36">
-        <v>65.34</v>
-      </c>
-      <c r="G12" s="36">
-        <v>0.48</v>
-      </c>
-      <c r="H12" s="36">
-        <v>0</v>
-      </c>
-      <c r="I12" s="36">
-        <v>0</v>
-      </c>
-      <c r="J12" s="36">
-        <v>3.87</v>
-      </c>
-      <c r="K12" s="36">
-        <v>5.39</v>
-      </c>
-      <c r="L12" s="36">
-        <v>30.81</v>
-      </c>
-      <c r="M12" s="36">
-        <v>42.46</v>
-      </c>
-      <c r="N12" s="36">
-        <v>3.59</v>
-      </c>
-      <c r="O12" s="36">
-        <v>71.28</v>
-      </c>
-      <c r="P12" s="36">
-        <v>1.67</v>
-      </c>
-      <c r="Q12" s="36">
-        <v>1.05</v>
-      </c>
-      <c r="R12" s="36">
-        <v>34.659999999999997</v>
-      </c>
-      <c r="S12" s="36">
-        <v>22.5</v>
-      </c>
-      <c r="T12" s="2">
-        <v>2.625</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>35</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="2">
-        <v>100</v>
-      </c>
-      <c r="D13" s="2">
-        <v>15.6</v>
-      </c>
-      <c r="E13" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="F13" s="2">
-        <v>20</v>
-      </c>
-      <c r="G13" s="2">
+      <c r="Q22" s="2">
+        <v>0.82</v>
+      </c>
+      <c r="R22" s="2">
+        <v>24</v>
+      </c>
+      <c r="S22" s="2">
+        <v>80</v>
+      </c>
+      <c r="T22" s="2">
         <v>65</v>
       </c>
-      <c r="H13" s="2">
-        <v>0</v>
-      </c>
-      <c r="I13" s="2">
-        <v>0</v>
-      </c>
-      <c r="J13" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="K13" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="L13" s="2">
-        <v>20.05</v>
-      </c>
-      <c r="M13" s="2">
-        <v>75.59</v>
-      </c>
-      <c r="N13" s="2">
-        <v>11.3</v>
-      </c>
-      <c r="O13" s="2">
-        <v>54.2</v>
-      </c>
-      <c r="P13" s="2">
-        <v>1.1100000000000001</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="R13" s="2">
-        <v>75</v>
-      </c>
-      <c r="S13" s="2">
-        <v>95</v>
-      </c>
-      <c r="T13" s="2">
-        <v>0.33800000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>36</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>88.7</v>
-      </c>
-      <c r="E14">
-        <v>30.34</v>
-      </c>
-      <c r="F14">
-        <v>13.19</v>
-      </c>
-      <c r="G14">
-        <v>17</v>
-      </c>
-      <c r="H14">
-        <v>3.36</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>14.53</v>
-      </c>
-      <c r="K14">
-        <v>5.89</v>
-      </c>
-      <c r="L14">
-        <v>12.16</v>
-      </c>
-      <c r="M14">
-        <v>32.15</v>
-      </c>
-      <c r="N14">
-        <v>14.42</v>
-      </c>
-      <c r="O14">
-        <v>87.7</v>
-      </c>
-      <c r="P14">
-        <v>2.17</v>
-      </c>
-      <c r="Q14">
-        <v>1.49</v>
-      </c>
-      <c r="R14">
-        <v>44</v>
-      </c>
-      <c r="S14">
-        <v>20</v>
-      </c>
-      <c r="T14" s="2">
-        <v>1.4006460000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
-        <v>37</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="36">
-        <v>100</v>
-      </c>
-      <c r="D15" s="36">
-        <v>51.06</v>
-      </c>
-      <c r="E15" s="36">
-        <v>2.04</v>
-      </c>
-      <c r="F15" s="36">
-        <v>40.51</v>
-      </c>
-      <c r="G15" s="36">
-        <v>1.03</v>
-      </c>
-      <c r="H15" s="36">
-        <v>0</v>
-      </c>
-      <c r="I15" s="36">
-        <v>0</v>
-      </c>
-      <c r="J15" s="36">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="K15" s="36">
-        <v>4.63</v>
-      </c>
-      <c r="L15" s="36">
-        <v>12.47</v>
-      </c>
-      <c r="M15" s="36">
-        <v>79.78</v>
-      </c>
-      <c r="N15" s="36">
-        <v>12.75</v>
-      </c>
-      <c r="O15" s="36">
-        <v>41.47</v>
-      </c>
-      <c r="P15" s="36">
-        <v>0.76</v>
-      </c>
-      <c r="Q15" s="36">
-        <v>0.26</v>
-      </c>
-      <c r="R15" s="36">
-        <v>59.49</v>
-      </c>
-      <c r="S15" s="36">
-        <v>97.5</v>
-      </c>
-      <c r="T15" s="2">
-        <v>3.78E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K18" s="31"/>
-    </row>
-    <row r="20" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K20" s="31"/>
-    </row>
-    <row r="21" spans="11:11" x14ac:dyDescent="0.25">
-      <c r="K21" s="31"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B41" s="33"/>
+      <c r="Q41" s="33"/>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B42" s="33"/>
+      <c r="Q42" s="33"/>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B43" s="33"/>
+      <c r="Q43" s="33"/>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B44" s="33"/>
+      <c r="Q44" s="33"/>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B45" s="33"/>
+      <c r="Q45" s="52"/>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B46" s="33"/>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B47" s="33"/>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.25">
+      <c r="B48" s="33"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49" s="33"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50" s="33"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="33"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A15 C2:T15">
-    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
-      <formula>ROW(A2)=$C$1</formula>
+  <conditionalFormatting sqref="B19 B2:I18">
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+      <formula>ROW(B2)=$C$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
-      <formula>COLUMN(A2)=$D$1</formula>
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+      <formula>COLUMN(B2)=$D$1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C19:I19">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+      <formula>COLUMN(C19)=$F$1</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
+      <formula>ROW(C19)=$E$1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="44.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="2"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2" s="32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C3" s="2">
+        <v>4</v>
+      </c>
+      <c r="D3" s="32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C4" s="2">
+        <v>5</v>
+      </c>
+      <c r="D4" s="17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
+        <v>123</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="2">
+        <v>6</v>
+      </c>
+      <c r="D5" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="2">
+        <v>7</v>
+      </c>
+      <c r="D6" s="17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="34" t="s">
+        <v>125</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C7" s="2">
+        <v>8</v>
+      </c>
+      <c r="D7" s="17">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="2">
+        <v>9</v>
+      </c>
+      <c r="D8" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="2">
+        <v>11</v>
+      </c>
+      <c r="D10" s="32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="C11" s="2">
+        <v>12</v>
+      </c>
+      <c r="D11" s="32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="2">
+        <v>16</v>
+      </c>
+      <c r="D12" s="32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="2">
+        <v>17</v>
+      </c>
+      <c r="D13" s="32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C14" s="2">
+        <v>18</v>
+      </c>
+      <c r="D14" s="32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="2">
+        <v>19</v>
+      </c>
+      <c r="D15" s="32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C16" s="2">
+        <v>20</v>
+      </c>
+      <c r="D16" s="32">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="2">
+        <v>21</v>
+      </c>
+      <c r="D17" s="32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="54" t="s">
+        <v>139</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="C18" s="2">
+        <v>25</v>
+      </c>
+      <c r="D18" s="51">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="2">
+        <v>28</v>
+      </c>
+      <c r="D19" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="41" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C20" s="2">
+        <v>29</v>
+      </c>
+      <c r="D20" s="17">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C21" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="57" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="2">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:A19">
+    <cfRule type="expression" dxfId="3" priority="12" stopIfTrue="1">
+      <formula>ROW(A2)=$D$2</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="13" stopIfTrue="1">
+      <formula>COLUMN(A2)=#REF!</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFFC000"/>
@@ -9527,31 +10748,31 @@
         <v>1</v>
       </c>
       <c r="B1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C1" t="s">
         <v>95</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>96</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>97</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>98</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>99</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>100</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>101</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>102</v>
-      </c>
-      <c r="J1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -9577,10 +10798,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -9615,10 +10836,10 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="H3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -9653,10 +10874,10 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="H4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -9685,10 +10906,10 @@
         <v>0.2</v>
       </c>
       <c r="H5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -9717,10 +10938,10 @@
         <v>0.2</v>
       </c>
       <c r="H6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J6" t="b">
         <v>0</v>
@@ -9735,13 +10956,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9749,460 +10970,588 @@
     <col min="1" max="1" width="5" style="27" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.140625" style="27" bestFit="1" customWidth="1"/>
     <col min="3" max="8" width="21.7109375" style="27"/>
-    <col min="9" max="10" width="21.7109375" style="27" customWidth="1"/>
-    <col min="11" max="16384" width="21.7109375" style="27"/>
+    <col min="9" max="9" width="21.7109375" style="27" customWidth="1"/>
+    <col min="10" max="16384" width="21.7109375" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="32" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:8" s="30" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="33" t="s">
+      <c r="C1" s="50" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="50" t="s">
         <v>105</v>
       </c>
-      <c r="D1" s="33" t="s">
+      <c r="E1" s="50" t="s">
         <v>106</v>
       </c>
-      <c r="E1" s="33" t="s">
+      <c r="F1" s="50" t="s">
         <v>107</v>
       </c>
-      <c r="F1" s="33" t="s">
+      <c r="G1" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="G1" s="33" t="s">
+      <c r="H1" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="33" t="s">
-        <v>110</v>
-      </c>
     </row>
     <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38">
+      <c r="A2" s="2">
         <v>3</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="60">
+        <v>5.3300000000000001E-5</v>
+      </c>
+      <c r="D2" s="60">
+        <v>67</v>
+      </c>
+      <c r="E2" s="60">
+        <v>3.7</v>
+      </c>
+      <c r="F2" s="60">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="G2" s="60">
+        <v>4.5599999999999998E-3</v>
+      </c>
+      <c r="H2" s="60">
+        <v>8.2600000000000007E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="32">
+        <v>4</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C3" s="61">
+        <v>6.5774577999999997E-4</v>
+      </c>
+      <c r="D3" s="61">
+        <v>5.2727627000000004</v>
+      </c>
+      <c r="E3" s="61">
+        <v>0.23187210999999999</v>
+      </c>
+      <c r="F3" s="61">
+        <v>3.2484240000000002E-3</v>
+      </c>
+      <c r="G3" s="61">
+        <v>1.2782201999999999E-3</v>
+      </c>
+      <c r="H3" s="61">
+        <v>0.55197054999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>5</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C4" s="61">
+        <v>9.8875607000000008E-4</v>
+      </c>
+      <c r="D4" s="61">
+        <v>3.4574254999999998</v>
+      </c>
+      <c r="E4" s="61">
+        <v>0.22933355999999999</v>
+      </c>
+      <c r="F4" s="61">
+        <v>4.8724891000000003E-3</v>
+      </c>
+      <c r="G4" s="61">
+        <v>1.5442412000000001E-3</v>
+      </c>
+      <c r="H4" s="61">
+        <v>0.43937693999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>6</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" s="61">
+        <v>4.6734098000000002E-3</v>
+      </c>
+      <c r="D5" s="61">
+        <v>16.341711</v>
+      </c>
+      <c r="E5" s="61">
+        <v>1.0839576</v>
+      </c>
+      <c r="F5" s="61">
+        <v>2.3030087000000001E-2</v>
+      </c>
+      <c r="G5" s="61">
+        <v>7.2989407999999997E-3</v>
+      </c>
+      <c r="H5" s="61">
+        <v>2.0767392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>7</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="C6" s="61">
+        <v>5.2979589999999997E-3</v>
+      </c>
+      <c r="D6" s="61">
+        <v>2.6504308999999999</v>
+      </c>
+      <c r="E6" s="61">
+        <v>0.25521818000000002</v>
+      </c>
+      <c r="F6" s="61">
+        <v>2.7713717000000001E-3</v>
+      </c>
+      <c r="G6" s="61">
+        <v>4.3737089999999999E-3</v>
+      </c>
+      <c r="H6" s="61">
+        <v>2.4169052999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
+        <v>8</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>125</v>
+      </c>
+      <c r="C7" s="61">
+        <v>3.0914954E-4</v>
+      </c>
+      <c r="D7" s="61">
+        <v>1.38809</v>
+      </c>
+      <c r="E7" s="61">
+        <v>9.5984228000000005E-2</v>
+      </c>
+      <c r="F7" s="61">
+        <v>1.4925155E-3</v>
+      </c>
+      <c r="G7" s="61">
+        <v>5.9082242000000002E-4</v>
+      </c>
+      <c r="H7" s="61">
+        <v>0.25908868000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17">
+        <v>9</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>126</v>
+      </c>
+      <c r="C8" s="61">
+        <v>2.4268531000000001E-3</v>
+      </c>
+      <c r="D8" s="61">
+        <v>2.7512188000000002</v>
+      </c>
+      <c r="E8" s="61">
+        <v>0.37877785000000003</v>
+      </c>
+      <c r="F8" s="61">
+        <v>8.1080295000000007E-3</v>
+      </c>
+      <c r="G8" s="61">
+        <v>3.0197698000000001E-3</v>
+      </c>
+      <c r="H8" s="61">
+        <v>1.2147266999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="32">
+        <v>10</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C9" s="60">
+        <v>1.1524281000000001E-2</v>
+      </c>
+      <c r="D9" s="60">
+        <v>13.064581</v>
+      </c>
+      <c r="E9" s="60">
+        <v>1.7986842999999999</v>
+      </c>
+      <c r="F9" s="60">
+        <v>3.8502213E-2</v>
+      </c>
+      <c r="G9" s="60">
+        <v>1.4339836999999999E-2</v>
+      </c>
+      <c r="H9" s="60">
+        <v>5.7683147000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="32">
+        <v>11</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="60">
+        <v>3.8977495E-3</v>
+      </c>
+      <c r="D10" s="60">
+        <v>6.6378231000000003</v>
+      </c>
+      <c r="E10" s="60">
+        <v>0.33354636999999998</v>
+      </c>
+      <c r="F10" s="60">
+        <v>3.6638446000000001E-3</v>
+      </c>
+      <c r="G10" s="60">
+        <v>6.3452205000000001E-3</v>
+      </c>
+      <c r="H10" s="60">
+        <v>3.8084742</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="32">
+        <v>28</v>
+      </c>
+      <c r="B11" s="44" t="s">
+        <v>129</v>
+      </c>
+      <c r="C11" s="61">
+        <v>2.1675339E-3</v>
+      </c>
+      <c r="D11" s="61">
+        <v>2.3852028000000001</v>
+      </c>
+      <c r="E11" s="61">
+        <v>0.24039757</v>
+      </c>
+      <c r="F11" s="61">
+        <v>4.5559939999999998E-3</v>
+      </c>
+      <c r="G11" s="61">
+        <v>3.8858629999999998E-3</v>
+      </c>
+      <c r="H11" s="61">
+        <v>1.9759963</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="32">
+        <v>12</v>
+      </c>
+      <c r="B12" s="44" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" s="60">
+        <v>1.8296865E-3</v>
+      </c>
+      <c r="D12" s="60">
+        <v>2.1376919999999999</v>
+      </c>
+      <c r="E12" s="60">
+        <v>0.21715095000000001</v>
+      </c>
+      <c r="F12" s="60">
+        <v>3.8183357999999998E-3</v>
+      </c>
+      <c r="G12" s="60">
+        <v>3.2683618999999999E-3</v>
+      </c>
+      <c r="H12" s="60">
+        <v>1.6645894999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="32">
+        <v>29</v>
+      </c>
+      <c r="B13" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="60">
+        <v>2.1675339E-3</v>
+      </c>
+      <c r="D13" s="60">
+        <v>2.3852028000000001</v>
+      </c>
+      <c r="E13" s="60">
+        <v>0.24039757</v>
+      </c>
+      <c r="F13" s="60">
+        <v>4.5559939999999998E-3</v>
+      </c>
+      <c r="G13" s="60">
+        <v>3.8858629999999998E-3</v>
+      </c>
+      <c r="H13" s="60">
+        <v>1.9759963</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="32">
+        <v>16</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="60">
+        <v>9.5703047000000006E-3</v>
+      </c>
+      <c r="D14" s="60">
+        <v>11.181349000000001</v>
+      </c>
+      <c r="E14" s="60">
+        <v>1.1358234</v>
+      </c>
+      <c r="F14" s="60">
+        <v>1.9972074999999999E-2</v>
+      </c>
+      <c r="G14" s="60">
+        <v>1.7095398000000001E-2</v>
+      </c>
+      <c r="H14" s="60">
+        <v>8.7067530000000009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="32">
+        <v>17</v>
+      </c>
+      <c r="B15" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="C15" s="60">
+        <v>1.2856242E-3</v>
+      </c>
+      <c r="D15" s="60">
+        <v>5.4884582999999996</v>
+      </c>
+      <c r="E15" s="60">
+        <v>0.33457320000000002</v>
+      </c>
+      <c r="F15" s="60">
+        <v>5.0812655999999999E-3</v>
+      </c>
+      <c r="G15" s="60">
+        <v>2.1954254000000001E-3</v>
+      </c>
+      <c r="H15" s="60">
+        <v>0.62333822000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32">
+        <v>18</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="60">
+        <v>2.0170432000000001E-3</v>
+      </c>
+      <c r="D16" s="60">
+        <v>9.4737010999999995</v>
+      </c>
+      <c r="E16" s="60">
+        <v>0.57584038999999998</v>
+      </c>
+      <c r="F16" s="60">
+        <v>7.9888571999999995E-3</v>
+      </c>
+      <c r="G16" s="60">
+        <v>6.0113188999999997E-3</v>
+      </c>
+      <c r="H16" s="60">
+        <v>0.97791181999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="32">
+        <v>19</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="60">
+        <v>6.8793711999999996E-4</v>
+      </c>
+      <c r="D17" s="60">
+        <v>0.93976550999999997</v>
+      </c>
+      <c r="E17" s="60">
+        <v>0.10546989</v>
+      </c>
+      <c r="F17" s="60">
+        <v>2.5927768E-3</v>
+      </c>
+      <c r="G17" s="60">
+        <v>1.0021024000000001E-3</v>
+      </c>
+      <c r="H17" s="60">
+        <v>0.33293109999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="32">
+        <v>20</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="60">
+        <v>1.7751223E-3</v>
+      </c>
+      <c r="D18" s="60">
+        <v>7.5781744</v>
+      </c>
+      <c r="E18" s="60">
+        <v>0.46196108000000002</v>
+      </c>
+      <c r="F18" s="60">
+        <v>7.0159441999999997E-3</v>
+      </c>
+      <c r="G18" s="60">
+        <v>3.0313279000000002E-3</v>
+      </c>
+      <c r="H18" s="60">
+        <v>0.86067262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="32">
+        <v>21</v>
+      </c>
+      <c r="B19" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="C19" s="60">
+        <v>6.0269407000000002E-4</v>
+      </c>
+      <c r="D19" s="60">
+        <v>0.82331812000000004</v>
+      </c>
+      <c r="E19" s="60">
+        <v>9.2401000999999996E-2</v>
+      </c>
+      <c r="F19" s="60">
+        <v>2.2715029999999998E-3</v>
+      </c>
+      <c r="G19" s="60">
+        <v>8.7793080999999998E-4</v>
+      </c>
+      <c r="H19" s="60">
+        <v>0.29167724</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="32">
+        <v>31</v>
+      </c>
+      <c r="B20" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="30">
-        <v>0</v>
-      </c>
-      <c r="D2" s="30">
-        <v>0</v>
-      </c>
-      <c r="E2" s="30">
-        <v>0</v>
-      </c>
-      <c r="F2" s="30">
-        <v>0</v>
-      </c>
-      <c r="G2" s="30">
-        <v>0</v>
-      </c>
-      <c r="H2" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="37">
-        <v>24</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>131</v>
-      </c>
-      <c r="C3" s="30">
-        <v>0</v>
-      </c>
-      <c r="D3" s="30">
-        <v>0</v>
-      </c>
-      <c r="E3" s="30">
-        <v>0</v>
-      </c>
-      <c r="F3" s="30">
-        <v>0</v>
-      </c>
-      <c r="G3" s="30">
-        <v>0</v>
-      </c>
-      <c r="H3" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38">
+      <c r="C20" s="61">
+        <v>1.398646E-5</v>
+      </c>
+      <c r="D20" s="61">
+        <v>1.0869945000000001</v>
+      </c>
+      <c r="E20" s="61">
+        <v>0.18026732000000001</v>
+      </c>
+      <c r="F20" s="61">
+        <v>7.1452427000000002E-3</v>
+      </c>
+      <c r="G20" s="61">
+        <v>1.8322938999999999E-3</v>
+      </c>
+      <c r="H20" s="61">
+        <v>1.1594272000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="32">
         <v>25</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B21" s="45" t="s">
         <v>139</v>
       </c>
-      <c r="C4" s="30">
-        <v>0</v>
-      </c>
-      <c r="D4" s="30">
-        <v>0</v>
-      </c>
-      <c r="E4" s="30">
-        <v>0</v>
-      </c>
-      <c r="F4" s="30">
-        <v>0</v>
-      </c>
-      <c r="G4" s="30">
-        <v>0</v>
-      </c>
-      <c r="H4" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="38">
-        <v>26</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" s="30">
-        <v>0</v>
-      </c>
-      <c r="D5" s="30">
-        <v>0</v>
-      </c>
-      <c r="E5" s="30">
-        <v>0</v>
-      </c>
-      <c r="F5" s="30">
-        <v>0</v>
-      </c>
-      <c r="G5" s="30">
-        <v>0</v>
-      </c>
-      <c r="H5" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37">
-        <v>27</v>
-      </c>
-      <c r="B6" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" s="30">
-        <v>0</v>
-      </c>
-      <c r="D6" s="30">
-        <v>0</v>
-      </c>
-      <c r="E6" s="30">
-        <v>0</v>
-      </c>
-      <c r="F6" s="30">
-        <v>0</v>
-      </c>
-      <c r="G6" s="30">
-        <v>0</v>
-      </c>
-      <c r="H6" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37">
-        <v>28</v>
-      </c>
-      <c r="B7" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="C7" s="30">
-        <v>0</v>
-      </c>
-      <c r="D7" s="30">
-        <v>0</v>
-      </c>
-      <c r="E7" s="30">
-        <v>0</v>
-      </c>
-      <c r="F7" s="30">
-        <v>0</v>
-      </c>
-      <c r="G7" s="30">
-        <v>0</v>
-      </c>
-      <c r="H7" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37">
-        <v>29</v>
-      </c>
-      <c r="B8" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="C8" s="30">
-        <v>0</v>
-      </c>
-      <c r="D8" s="30">
-        <v>0</v>
-      </c>
-      <c r="E8" s="30">
-        <v>0</v>
-      </c>
-      <c r="F8" s="30">
-        <v>0</v>
-      </c>
-      <c r="G8" s="30">
-        <v>0</v>
-      </c>
-      <c r="H8" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37">
+      <c r="C21" s="61">
+        <v>1.4474578E-5</v>
+      </c>
+      <c r="D21" s="61">
+        <v>2.1134135000000001</v>
+      </c>
+      <c r="E21" s="61">
+        <v>0.22375627000000001</v>
+      </c>
+      <c r="F21" s="61">
+        <v>7.2554300000000002E-3</v>
+      </c>
+      <c r="G21" s="61">
+        <v>1.8719005000000001E-3</v>
+      </c>
+      <c r="H21" s="61">
+        <v>1.1395907999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="58">
         <v>30</v>
       </c>
-      <c r="B9" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="C9" s="30">
-        <v>0</v>
-      </c>
-      <c r="D9" s="30">
-        <v>0</v>
-      </c>
-      <c r="E9" s="30">
-        <v>0</v>
-      </c>
-      <c r="F9" s="30">
-        <v>0</v>
-      </c>
-      <c r="G9" s="30">
-        <v>0</v>
-      </c>
-      <c r="H9" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="38">
-        <v>31</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>140</v>
-      </c>
-      <c r="C10" s="30">
-        <v>0</v>
-      </c>
-      <c r="D10" s="30">
-        <v>0</v>
-      </c>
-      <c r="E10" s="30">
-        <v>0</v>
-      </c>
-      <c r="F10" s="30">
-        <v>0</v>
-      </c>
-      <c r="G10" s="30">
-        <v>0</v>
-      </c>
-      <c r="H10" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="38">
-        <v>32</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="C11" s="30">
-        <v>0</v>
-      </c>
-      <c r="D11" s="30">
-        <v>0</v>
-      </c>
-      <c r="E11" s="30">
-        <v>0</v>
-      </c>
-      <c r="F11" s="30">
-        <v>0</v>
-      </c>
-      <c r="G11" s="30">
-        <v>0</v>
-      </c>
-      <c r="H11" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37">
-        <v>33</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="30">
-        <v>0</v>
-      </c>
-      <c r="D12" s="30">
-        <v>0</v>
-      </c>
-      <c r="E12" s="30">
-        <v>0</v>
-      </c>
-      <c r="F12" s="30">
-        <v>0</v>
-      </c>
-      <c r="G12" s="30">
-        <v>0</v>
-      </c>
-      <c r="H12" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>35</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="30">
-        <v>0</v>
-      </c>
-      <c r="D13" s="30">
-        <v>0</v>
-      </c>
-      <c r="E13" s="30">
-        <v>0</v>
-      </c>
-      <c r="F13" s="30">
-        <v>0</v>
-      </c>
-      <c r="G13" s="30">
-        <v>0</v>
-      </c>
-      <c r="H13" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>36</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="30">
-        <v>0</v>
-      </c>
-      <c r="D14" s="30">
-        <v>0</v>
-      </c>
-      <c r="E14" s="30">
-        <v>0</v>
-      </c>
-      <c r="F14" s="30">
-        <v>0</v>
-      </c>
-      <c r="G14" s="30">
-        <v>0</v>
-      </c>
-      <c r="H14" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="38">
-        <v>37</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="30">
-        <v>0</v>
-      </c>
-      <c r="D15" s="30">
-        <v>0</v>
-      </c>
-      <c r="E15" s="30">
-        <v>0</v>
-      </c>
-      <c r="F15" s="30">
-        <v>0</v>
-      </c>
-      <c r="G15" s="30">
-        <v>0</v>
-      </c>
-      <c r="H15" s="30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-    </row>
-    <row r="17" spans="3:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-    </row>
-    <row r="18" spans="3:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C18" s="26"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-    </row>
-    <row r="19" spans="3:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-    </row>
-    <row r="20" spans="3:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-    </row>
-    <row r="21" spans="3:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-    </row>
-    <row r="22" spans="3:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
+      <c r="B22" s="59" t="s">
+        <v>160</v>
+      </c>
+      <c r="C22" s="62">
+        <v>1.4238930000000001E-3</v>
+      </c>
+      <c r="D22" s="62">
+        <v>1.2922062999999999</v>
+      </c>
+      <c r="E22" s="62">
+        <v>0.19672819999999999</v>
+      </c>
+      <c r="F22" s="62">
+        <v>8.0315088999999996E-3</v>
+      </c>
+      <c r="G22" s="62">
+        <v>2.7384863000000001E-3</v>
+      </c>
+      <c r="H22" s="62">
+        <v>0.89059001000000004</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A15">
-    <cfRule type="expression" dxfId="11" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="A19:A21 A2:A16">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>ROW(A2)=$C$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>COLUMN(A2)=$D$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10214,7 +11563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Planilha5"/>
   <dimension ref="A1:A58"/>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="14490" windowHeight="11160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="14490" windowHeight="11160" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Feeds" sheetId="2" r:id="rId1"/>
@@ -497,7 +497,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="165">
   <si>
     <t>Feed Scenario</t>
   </si>
@@ -1002,7 +1002,7 @@
     <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1147,6 +1147,32 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF080808"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1319,7 +1345,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1344,8 +1370,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1419,6 +1443,23 @@
     <xf numFmtId="165" fontId="21" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1426,71 +1467,7 @@
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
-  <dxfs count="89">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="90">
     <dxf>
       <font>
         <strike val="0"/>
@@ -1663,6 +1640,25 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -1688,6 +1684,22 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
@@ -1829,6 +1841,38 @@
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -2900,34 +2944,34 @@
   </dxfs>
   <tableStyles count="6" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Feeds-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="88"/>
-      <tableStyleElement type="firstRowStripe" dxfId="87"/>
-      <tableStyleElement type="secondRowStripe" dxfId="86"/>
+      <tableStyleElement type="headerRow" dxfId="89"/>
+      <tableStyleElement type="firstRowStripe" dxfId="88"/>
+      <tableStyleElement type="secondRowStripe" dxfId="87"/>
     </tableStyle>
     <tableStyle name="Scenario-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="85"/>
-      <tableStyleElement type="firstRowStripe" dxfId="84"/>
-      <tableStyleElement type="secondRowStripe" dxfId="83"/>
+      <tableStyleElement type="headerRow" dxfId="86"/>
+      <tableStyleElement type="firstRowStripe" dxfId="85"/>
+      <tableStyleElement type="secondRowStripe" dxfId="84"/>
     </tableStyle>
     <tableStyle name="Batch-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="82"/>
-      <tableStyleElement type="firstRowStripe" dxfId="81"/>
-      <tableStyleElement type="secondRowStripe" dxfId="80"/>
+      <tableStyleElement type="headerRow" dxfId="83"/>
+      <tableStyleElement type="firstRowStripe" dxfId="82"/>
+      <tableStyleElement type="secondRowStripe" dxfId="81"/>
     </tableStyle>
     <tableStyle name="Feed Library-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="79"/>
-      <tableStyleElement type="firstRowStripe" dxfId="78"/>
-      <tableStyleElement type="secondRowStripe" dxfId="77"/>
+      <tableStyleElement type="headerRow" dxfId="80"/>
+      <tableStyleElement type="firstRowStripe" dxfId="79"/>
+      <tableStyleElement type="secondRowStripe" dxfId="78"/>
     </tableStyle>
     <tableStyle name="LCA-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="76"/>
-      <tableStyleElement type="firstRowStripe" dxfId="75"/>
-      <tableStyleElement type="secondRowStripe" dxfId="74"/>
+      <tableStyleElement type="headerRow" dxfId="77"/>
+      <tableStyleElement type="firstRowStripe" dxfId="76"/>
+      <tableStyleElement type="secondRowStripe" dxfId="75"/>
     </tableStyle>
     <tableStyle name="LCA Library-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="73"/>
-      <tableStyleElement type="firstRowStripe" dxfId="72"/>
-      <tableStyleElement type="secondRowStripe" dxfId="71"/>
+      <tableStyleElement type="headerRow" dxfId="74"/>
+      <tableStyleElement type="firstRowStripe" dxfId="73"/>
+      <tableStyleElement type="secondRowStripe" dxfId="72"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -7346,10 +7390,10 @@
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" name="Feed Scenario"/>
-    <tableColumn id="2" name="ID" dataDxfId="70" dataCellStyle="Normal 3"/>
-    <tableColumn id="3" name="Min %DM" dataDxfId="69"/>
-    <tableColumn id="4" name="Max %DM" dataDxfId="68"/>
-    <tableColumn id="5" name="Cost [US$/kg AF]" dataDxfId="67"/>
+    <tableColumn id="2" name="ID" dataDxfId="71" dataCellStyle="Normal 3"/>
+    <tableColumn id="3" name="Min %DM" dataDxfId="70"/>
+    <tableColumn id="4" name="Max %DM" dataDxfId="69"/>
+    <tableColumn id="5" name="Cost [US$/kg AF]" dataDxfId="68"/>
     <tableColumn id="6" name="Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7357,33 +7401,33 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="scenario" displayName="scenario" ref="A1:X7" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65" tableBorderDxfId="64">
-  <autoFilter ref="A1:X7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="scenario" displayName="scenario" ref="A1:X8" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66" tableBorderDxfId="65">
+  <autoFilter ref="A1:X8"/>
   <tableColumns count="24">
-    <tableColumn id="1" name="ID" dataDxfId="63"/>
-    <tableColumn id="2" name="Feed Scenario" dataDxfId="62"/>
-    <tableColumn id="3" name="Batch" dataDxfId="61"/>
-    <tableColumn id="4" name="Breed" dataDxfId="60"/>
-    <tableColumn id="5" name="SBW" dataDxfId="59"/>
-    <tableColumn id="6" name="Feeding Time" dataDxfId="58"/>
-    <tableColumn id="7" name="Target Weight" dataDxfId="57"/>
-    <tableColumn id="8" name="BCS" dataDxfId="56"/>
-    <tableColumn id="9" name="BE" dataDxfId="55"/>
-    <tableColumn id="10" name="L" dataDxfId="54"/>
-    <tableColumn id="11" name="SEX" dataDxfId="53"/>
-    <tableColumn id="12" name="a2" dataDxfId="52"/>
-    <tableColumn id="13" name="PH" dataDxfId="51"/>
-    <tableColumn id="14" name="Selling Price [US$]" dataDxfId="50"/>
-    <tableColumn id="15" name="Algorithm" dataDxfId="49"/>
-    <tableColumn id="16" name="Identifier" dataDxfId="48"/>
-    <tableColumn id="17" name="LB" dataDxfId="47"/>
-    <tableColumn id="18" name="UB" dataDxfId="46"/>
-    <tableColumn id="19" name="Tol" dataDxfId="45"/>
-    <tableColumn id="20" name="DMI Equation" dataDxfId="44"/>
-    <tableColumn id="21" name="Obj" dataDxfId="43"/>
-    <tableColumn id="22" name="Find Reduced Cost" dataDxfId="42"/>
-    <tableColumn id="23" name="Ingredient Level" dataDxfId="41"/>
-    <tableColumn id="24" name="LCA ID" dataDxfId="40"/>
+    <tableColumn id="1" name="ID" dataDxfId="64"/>
+    <tableColumn id="2" name="Feed Scenario" dataDxfId="63"/>
+    <tableColumn id="3" name="Batch" dataDxfId="62"/>
+    <tableColumn id="4" name="Breed" dataDxfId="61"/>
+    <tableColumn id="5" name="SBW" dataDxfId="60"/>
+    <tableColumn id="6" name="Feeding Time" dataDxfId="59"/>
+    <tableColumn id="7" name="Target Weight" dataDxfId="58"/>
+    <tableColumn id="8" name="BCS" dataDxfId="57"/>
+    <tableColumn id="9" name="BE" dataDxfId="56"/>
+    <tableColumn id="10" name="L" dataDxfId="55"/>
+    <tableColumn id="11" name="SEX" dataDxfId="54"/>
+    <tableColumn id="12" name="a2" dataDxfId="53"/>
+    <tableColumn id="13" name="PH" dataDxfId="52"/>
+    <tableColumn id="14" name="Selling Price [US$]" dataDxfId="51"/>
+    <tableColumn id="15" name="Algorithm" dataDxfId="50"/>
+    <tableColumn id="16" name="Identifier" dataDxfId="49"/>
+    <tableColumn id="17" name="LB" dataDxfId="48"/>
+    <tableColumn id="18" name="UB" dataDxfId="47"/>
+    <tableColumn id="19" name="Tol" dataDxfId="46"/>
+    <tableColumn id="20" name="DMI Equation" dataDxfId="45"/>
+    <tableColumn id="21" name="Obj" dataDxfId="44"/>
+    <tableColumn id="22" name="Find Reduced Cost" dataDxfId="43"/>
+    <tableColumn id="23" name="Ingredient Level" dataDxfId="42"/>
+    <tableColumn id="24" name="LCA ID" dataDxfId="41"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7405,32 +7449,32 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:T22" totalsRowShown="0" dataDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:T22" totalsRowShown="0" dataDxfId="36">
   <autoFilter ref="A1:T22"/>
   <sortState ref="A2:T22">
     <sortCondition ref="A1:A22"/>
   </sortState>
   <tableColumns count="20">
-    <tableColumn id="1" name="ID" dataDxfId="38"/>
-    <tableColumn id="2" name="Feed" dataDxfId="37"/>
-    <tableColumn id="5" name="Forage, %DM" dataDxfId="36"/>
-    <tableColumn id="6" name="DM, %AF" dataDxfId="35"/>
-    <tableColumn id="7" name="CP, %DM" dataDxfId="34"/>
-    <tableColumn id="8" name="SP, %CP" dataDxfId="33"/>
-    <tableColumn id="9" name="ADICP, %CP" dataDxfId="32"/>
-    <tableColumn id="10" name="Sugars, %DM" dataDxfId="31"/>
-    <tableColumn id="11" name="OA, %DM" dataDxfId="30"/>
-    <tableColumn id="12" name="Fat, %DM" dataDxfId="29"/>
-    <tableColumn id="13" name="Ash, %DM" dataDxfId="28"/>
-    <tableColumn id="14" name="Starch, %DM" dataDxfId="27"/>
-    <tableColumn id="15" name="NDF, %DM" dataDxfId="26"/>
-    <tableColumn id="16" name="Lignin, %DM" dataDxfId="25"/>
-    <tableColumn id="17" name="TDN, %DM" dataDxfId="24"/>
-    <tableColumn id="19" name="NEma, Mcal/kg" dataDxfId="23"/>
-    <tableColumn id="20" name="NEga, Mcal/kg" dataDxfId="22"/>
-    <tableColumn id="21" name="RUP, %CP" dataDxfId="21"/>
-    <tableColumn id="29" name="pef, %NDF" dataDxfId="20"/>
-    <tableColumn id="3" name="NPN, %DM" dataDxfId="19"/>
+    <tableColumn id="1" name="ID" dataDxfId="35"/>
+    <tableColumn id="2" name="Feed" dataDxfId="34"/>
+    <tableColumn id="5" name="Forage, %DM" dataDxfId="33"/>
+    <tableColumn id="6" name="DM, %AF" dataDxfId="32"/>
+    <tableColumn id="7" name="CP, %DM" dataDxfId="31"/>
+    <tableColumn id="8" name="SP, %CP" dataDxfId="30"/>
+    <tableColumn id="9" name="ADICP, %CP" dataDxfId="29"/>
+    <tableColumn id="10" name="Sugars, %DM" dataDxfId="28"/>
+    <tableColumn id="11" name="OA, %DM" dataDxfId="27"/>
+    <tableColumn id="12" name="Fat, %DM" dataDxfId="26"/>
+    <tableColumn id="13" name="Ash, %DM" dataDxfId="25"/>
+    <tableColumn id="14" name="Starch, %DM" dataDxfId="24"/>
+    <tableColumn id="15" name="NDF, %DM" dataDxfId="23"/>
+    <tableColumn id="16" name="Lignin, %DM" dataDxfId="22"/>
+    <tableColumn id="17" name="TDN, %DM" dataDxfId="21"/>
+    <tableColumn id="19" name="NEma, Mcal/kg" dataDxfId="20"/>
+    <tableColumn id="20" name="NEga, Mcal/kg" dataDxfId="19"/>
+    <tableColumn id="21" name="RUP, %CP" dataDxfId="18"/>
+    <tableColumn id="29" name="pef, %NDF" dataDxfId="17"/>
+    <tableColumn id="3" name="NPN, %DM" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7443,7 +7487,7 @@
     <sortCondition ref="C1:C22"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Name INRA" dataDxfId="18"/>
+    <tableColumn id="1" name="Name INRA" dataDxfId="13"/>
     <tableColumn id="2" name="Name RNS"/>
     <tableColumn id="3" name="ID"/>
     <tableColumn id="4" name="Column1"/>
@@ -7453,7 +7497,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="lca" displayName="lca" ref="A1:J6" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="lca" displayName="lca" ref="A1:J6" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A1:J6"/>
   <tableColumns count="10">
     <tableColumn id="1" name="ID"/>
@@ -7472,20 +7516,20 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela26" displayName="Tabela26" ref="A1:H22" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela26" displayName="Tabela26" ref="A1:H22" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H22"/>
   <sortState ref="A2:H22">
     <sortCondition ref="A1:A22"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="ID" dataDxfId="15" dataCellStyle="Normal 3"/>
-    <tableColumn id="5" name="Name" dataDxfId="14" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" name="LCA_Phosphorous consumption (kg P)" dataDxfId="13"/>
-    <tableColumn id="3" name="LCA_CED 1.8 non renewable fossil+nuclear (MJ)" dataDxfId="12"/>
-    <tableColumn id="4" name="LCA_Climate change ILCD (kg CO2 eq)" dataDxfId="11"/>
-    <tableColumn id="7" name="LCA_Acidification ILCD (molc H+ eq)" dataDxfId="10"/>
-    <tableColumn id="8" name="LCA_Eutrophication CML baseline (kg PO4- eq)" dataDxfId="9"/>
-    <tableColumn id="9" name="LCA_Land competition CML non baseline (m2a)" dataDxfId="8"/>
+    <tableColumn id="1" name="ID" dataDxfId="7" dataCellStyle="Normal 3"/>
+    <tableColumn id="5" name="Name" dataDxfId="6" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" name="LCA_Phosphorous consumption (kg P)" dataDxfId="5"/>
+    <tableColumn id="3" name="LCA_CED 1.8 non renewable fossil+nuclear (MJ)" dataDxfId="4"/>
+    <tableColumn id="4" name="LCA_Climate change ILCD (kg CO2 eq)" dataDxfId="3"/>
+    <tableColumn id="7" name="LCA_Acidification ILCD (molc H+ eq)" dataDxfId="2"/>
+    <tableColumn id="8" name="LCA_Eutrophication CML baseline (kg PO4- eq)" dataDxfId="1"/>
+    <tableColumn id="9" name="LCA_Land competition CML non baseline (m2a)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7798,16 +7842,16 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="33">
+      <c r="B2" s="31">
         <v>3</v>
       </c>
-      <c r="C2" s="32">
-        <v>0</v>
-      </c>
-      <c r="D2" s="32">
+      <c r="C2" s="30">
+        <v>0</v>
+      </c>
+      <c r="D2" s="30">
         <v>4</v>
       </c>
-      <c r="E2" s="47">
+      <c r="E2" s="45">
         <v>0.39074999999999999</v>
       </c>
       <c r="F2" s="16" t="str">
@@ -7819,16 +7863,16 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="33">
+      <c r="B3" s="31">
         <v>4</v>
       </c>
       <c r="C3" s="17">
         <v>0</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="30">
         <v>40</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="44">
         <v>0.22500000000000001</v>
       </c>
       <c r="F3" s="16" t="str">
@@ -7840,7 +7884,7 @@
       <c r="A4" s="16">
         <v>1</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="31">
         <v>5</v>
       </c>
       <c r="C4" s="17">
@@ -7849,7 +7893,7 @@
       <c r="D4" s="17">
         <v>30</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="44">
         <v>0.22575000000000001</v>
       </c>
       <c r="F4" s="16" t="str">
@@ -7861,7 +7905,7 @@
       <c r="A5" s="16">
         <v>1</v>
       </c>
-      <c r="B5" s="33">
+      <c r="B5" s="31">
         <v>6</v>
       </c>
       <c r="C5" s="17">
@@ -7870,7 +7914,7 @@
       <c r="D5" s="17">
         <v>20</v>
       </c>
-      <c r="E5" s="46">
+      <c r="E5" s="44">
         <v>0.78425</v>
       </c>
       <c r="F5" s="16" t="str">
@@ -7882,7 +7926,7 @@
       <c r="A6" s="16">
         <v>1</v>
       </c>
-      <c r="B6" s="33">
+      <c r="B6" s="31">
         <v>8</v>
       </c>
       <c r="C6" s="17">
@@ -7891,7 +7935,7 @@
       <c r="D6" s="17">
         <v>8</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="44">
         <v>0.23025000000000001</v>
       </c>
       <c r="F6" s="16" t="str">
@@ -7903,7 +7947,7 @@
       <c r="A7" s="16">
         <v>1</v>
       </c>
-      <c r="B7" s="33">
+      <c r="B7" s="31">
         <v>9</v>
       </c>
       <c r="C7" s="17">
@@ -7912,7 +7956,7 @@
       <c r="D7" s="17">
         <v>50</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="44">
         <v>0.26624999999999999</v>
       </c>
       <c r="F7" s="16" t="str">
@@ -7924,16 +7968,16 @@
       <c r="A8" s="16">
         <v>1</v>
       </c>
-      <c r="B8" s="33">
+      <c r="B8" s="31">
         <v>10</v>
       </c>
       <c r="C8" s="17">
         <v>0</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="30">
         <v>2</v>
       </c>
-      <c r="E8" s="46">
+      <c r="E8" s="44">
         <v>0.91974999999999996</v>
       </c>
       <c r="F8" s="16" t="str">
@@ -7945,16 +7989,16 @@
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="33">
+      <c r="B9" s="31">
         <v>12</v>
       </c>
       <c r="C9" s="17">
         <v>0</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="30">
         <v>30</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="44">
         <v>0.182</v>
       </c>
       <c r="F9" s="16" t="str">
@@ -7966,16 +8010,16 @@
       <c r="A10" s="16">
         <v>1</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="31">
         <v>16</v>
       </c>
       <c r="C10" s="17">
         <v>0</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="30">
         <v>2</v>
       </c>
-      <c r="E10" s="46">
+      <c r="E10" s="44">
         <v>0.89075000000000004</v>
       </c>
       <c r="F10" s="16" t="str">
@@ -7987,16 +8031,16 @@
       <c r="A11" s="16">
         <v>1</v>
       </c>
-      <c r="B11" s="33">
+      <c r="B11" s="31">
         <v>17</v>
       </c>
       <c r="C11" s="17">
         <v>0</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="30">
         <v>30</v>
       </c>
-      <c r="E11" s="46">
+      <c r="E11" s="44">
         <v>0.1305</v>
       </c>
       <c r="F11" s="16" t="str">
@@ -8008,16 +8052,16 @@
       <c r="A12" s="16">
         <v>1</v>
       </c>
-      <c r="B12" s="33">
+      <c r="B12" s="31">
         <v>18</v>
       </c>
       <c r="C12" s="17">
         <v>0</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="30">
         <v>30</v>
       </c>
-      <c r="E12" s="46">
+      <c r="E12" s="44">
         <v>0.3095</v>
       </c>
       <c r="F12" s="16" t="str">
@@ -8029,16 +8073,16 @@
       <c r="A13" s="16">
         <v>1</v>
       </c>
-      <c r="B13" s="33">
+      <c r="B13" s="31">
         <v>19</v>
       </c>
       <c r="C13" s="17">
         <v>0</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="30">
         <v>30</v>
       </c>
-      <c r="E13" s="46">
+      <c r="E13" s="44">
         <v>0.222</v>
       </c>
       <c r="F13" s="16" t="str">
@@ -8050,19 +8094,19 @@
       <c r="A14" s="16">
         <v>1</v>
       </c>
-      <c r="B14" s="33">
+      <c r="B14" s="31">
         <v>20</v>
       </c>
       <c r="C14" s="17">
         <v>0</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="30">
         <v>40</v>
       </c>
-      <c r="E14" s="46">
+      <c r="E14" s="44">
         <v>0.20399999999999999</v>
       </c>
-      <c r="F14" s="55" t="str">
+      <c r="F14" s="53" t="str">
         <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[#Data],2,0)</f>
         <v>Wheat gluten feed</v>
       </c>
@@ -8071,16 +8115,16 @@
       <c r="A15" s="16">
         <v>1</v>
       </c>
-      <c r="B15" s="33">
+      <c r="B15" s="31">
         <v>21</v>
       </c>
       <c r="C15" s="17">
         <v>0</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="30">
         <v>30</v>
       </c>
-      <c r="E15" s="46">
+      <c r="E15" s="44">
         <v>0.16425000000000001</v>
       </c>
       <c r="F15" s="16" t="str">
@@ -8092,16 +8136,16 @@
       <c r="A16" s="16">
         <v>1</v>
       </c>
-      <c r="B16" s="33">
+      <c r="B16" s="31">
         <v>25</v>
       </c>
       <c r="C16" s="17">
         <v>0</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="30">
         <v>100</v>
       </c>
-      <c r="E16" s="46">
+      <c r="E16" s="44">
         <v>9.0749999999999997E-2</v>
       </c>
       <c r="F16" s="16" t="str">
@@ -8113,16 +8157,16 @@
       <c r="A17" s="16">
         <v>1</v>
       </c>
-      <c r="B17" s="33">
+      <c r="B17" s="31">
         <v>28</v>
       </c>
       <c r="C17" s="17">
         <v>0</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="30">
         <v>10</v>
       </c>
-      <c r="E17" s="46">
+      <c r="E17" s="44">
         <v>0.24766666666666665</v>
       </c>
       <c r="F17" s="16" t="str">
@@ -8134,16 +8178,16 @@
       <c r="A18" s="16">
         <v>1</v>
       </c>
-      <c r="B18" s="33">
+      <c r="B18" s="31">
         <v>29</v>
       </c>
       <c r="C18" s="17">
         <v>0</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="49">
         <v>10</v>
       </c>
-      <c r="E18" s="56">
+      <c r="E18" s="54">
         <v>0.29599999999999999</v>
       </c>
       <c r="F18" s="16" t="str">
@@ -8155,7 +8199,7 @@
       <c r="A19" s="16">
         <v>1</v>
       </c>
-      <c r="B19" s="33">
+      <c r="B19" s="31">
         <v>30</v>
       </c>
       <c r="C19" s="17">
@@ -8164,7 +8208,7 @@
       <c r="D19" s="17">
         <v>100</v>
       </c>
-      <c r="E19" s="47">
+      <c r="E19" s="45">
         <v>5.2600000000000001E-2</v>
       </c>
       <c r="F19" s="16" t="str">
@@ -8176,7 +8220,7 @@
       <c r="A20" s="16">
         <v>1</v>
       </c>
-      <c r="B20" s="33">
+      <c r="B20" s="31">
         <v>31</v>
       </c>
       <c r="C20" s="17">
@@ -8185,7 +8229,7 @@
       <c r="D20" s="17">
         <v>100</v>
       </c>
-      <c r="E20" s="47">
+      <c r="E20" s="45">
         <v>7.6749999999999999E-2</v>
       </c>
       <c r="F20" s="16" t="str">
@@ -8210,8 +8254,8 @@
   </sheetPr>
   <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X6" sqref="X6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8243,521 +8287,595 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="25" t="s">
+      <c r="B1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="26" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="25" t="s">
+      <c r="M1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="25" t="s">
+      <c r="N1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="25" t="s">
+      <c r="O1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="25" t="s">
+      <c r="P1" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="25" t="s">
+      <c r="Q1" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="25" t="s">
+      <c r="R1" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="25" t="s">
+      <c r="S1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="25" t="s">
+      <c r="T1" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="25" t="s">
+      <c r="U1" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="25" t="s">
+      <c r="V1" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="W1" s="25" t="s">
+      <c r="W1" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="X1" s="29" t="s">
+      <c r="X1" s="27" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="21">
+      <c r="A2" s="19">
+        <v>-1</v>
+      </c>
+      <c r="B2" s="19">
         <v>1</v>
       </c>
-      <c r="B2" s="21">
+      <c r="C2" s="19">
+        <v>0</v>
+      </c>
+      <c r="D2" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="E2" s="19">
+        <v>336</v>
+      </c>
+      <c r="F2" s="19">
+        <v>0</v>
+      </c>
+      <c r="G2" s="18">
+        <v>595</v>
+      </c>
+      <c r="H2" s="19">
+        <v>5</v>
+      </c>
+      <c r="I2" s="19">
         <v>1</v>
       </c>
-      <c r="C2" s="21">
-        <v>0</v>
-      </c>
-      <c r="D2" s="21" t="s">
+      <c r="J2" s="19">
+        <v>1</v>
+      </c>
+      <c r="K2" s="19">
+        <v>1</v>
+      </c>
+      <c r="L2" s="19">
+        <v>0</v>
+      </c>
+      <c r="M2" s="19">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N2" s="20">
+        <v>2.41</v>
+      </c>
+      <c r="O2" s="19" t="s">
+        <v>119</v>
+      </c>
+      <c r="P2" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q2" s="19">
+        <v>1.3</v>
+      </c>
+      <c r="R2" s="19">
+        <v>2.1</v>
+      </c>
+      <c r="S2" s="19">
+        <v>0.01</v>
+      </c>
+      <c r="T2" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="U2" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="V2" s="19">
+        <v>0</v>
+      </c>
+      <c r="W2" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="X2" s="18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3" s="19">
+        <v>-1</v>
+      </c>
+      <c r="B3" s="22">
+        <v>1</v>
+      </c>
+      <c r="C3" s="19">
+        <v>0</v>
+      </c>
+      <c r="D3" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E3" s="19">
         <v>336</v>
       </c>
-      <c r="F2" s="21">
-        <v>0</v>
-      </c>
-      <c r="G2" s="20">
+      <c r="F3" s="19">
+        <v>0</v>
+      </c>
+      <c r="G3" s="18">
         <v>595</v>
       </c>
-      <c r="H2" s="21">
+      <c r="H3" s="22">
         <v>5</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I3" s="22">
         <v>1</v>
       </c>
-      <c r="J2" s="21">
+      <c r="J3" s="22">
         <v>1</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K3" s="22">
         <v>1</v>
       </c>
-      <c r="L2" s="21">
-        <v>0</v>
-      </c>
-      <c r="M2" s="21">
+      <c r="L3" s="22">
+        <v>0</v>
+      </c>
+      <c r="M3" s="19">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N3" s="20">
         <v>2.41</v>
       </c>
-      <c r="O2" s="21" t="s">
-        <v>119</v>
-      </c>
-      <c r="P2" s="21" t="s">
-        <v>164</v>
-      </c>
-      <c r="Q2" s="21">
+      <c r="O3" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="P3" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q3" s="19">
+        <v>1.78</v>
+      </c>
+      <c r="R3" s="19">
+        <v>1.92</v>
+      </c>
+      <c r="S3" s="22">
+        <v>1E-3</v>
+      </c>
+      <c r="T3" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="U3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="V3" s="22">
+        <v>0</v>
+      </c>
+      <c r="W3" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="X3" s="21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="65">
+        <v>-1</v>
+      </c>
+      <c r="B4" s="66">
+        <v>1</v>
+      </c>
+      <c r="C4" s="65">
+        <v>0</v>
+      </c>
+      <c r="D4" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="65">
+        <v>336</v>
+      </c>
+      <c r="F4" s="65">
+        <v>0</v>
+      </c>
+      <c r="G4" s="67">
+        <v>595</v>
+      </c>
+      <c r="H4" s="66">
+        <v>5</v>
+      </c>
+      <c r="I4" s="66">
+        <v>1</v>
+      </c>
+      <c r="J4" s="66">
+        <v>1</v>
+      </c>
+      <c r="K4" s="66">
+        <v>1</v>
+      </c>
+      <c r="L4" s="66">
+        <v>0</v>
+      </c>
+      <c r="M4" s="65">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N4" s="68">
+        <v>2.41</v>
+      </c>
+      <c r="O4" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="66" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q4" s="65">
         <v>1.3</v>
       </c>
-      <c r="R2" s="21">
+      <c r="R4" s="65">
         <v>2.1</v>
       </c>
-      <c r="S2" s="21">
+      <c r="S4" s="66">
         <v>0.01</v>
       </c>
-      <c r="T2" s="21" t="s">
+      <c r="T4" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="U2" s="21" t="s">
+      <c r="U4" s="66" t="s">
         <v>88</v>
       </c>
-      <c r="V2" s="21">
-        <v>0</v>
-      </c>
-      <c r="W2" s="21">
+      <c r="V4" s="66">
+        <v>0</v>
+      </c>
+      <c r="W4" s="66">
         <v>0.1</v>
       </c>
-      <c r="X2" s="20">
+      <c r="X4" s="69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5" s="65">
         <v>-1</v>
       </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3" s="21">
-        <v>2</v>
-      </c>
-      <c r="B3" s="24">
+      <c r="B5" s="65">
         <v>1</v>
       </c>
-      <c r="C3" s="21">
-        <v>0</v>
-      </c>
-      <c r="D3" s="24" t="s">
+      <c r="C5" s="65">
+        <v>0</v>
+      </c>
+      <c r="D5" s="65" t="s">
         <v>118</v>
       </c>
-      <c r="E3" s="21">
+      <c r="E5" s="65">
         <v>336</v>
       </c>
-      <c r="F3" s="21">
-        <v>0</v>
-      </c>
-      <c r="G3" s="20">
+      <c r="F5" s="65">
+        <v>0</v>
+      </c>
+      <c r="G5" s="67">
         <v>595</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H5" s="65">
         <v>5</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I5" s="65">
         <v>1</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J5" s="65">
         <v>1</v>
       </c>
-      <c r="K3" s="24">
+      <c r="K5" s="65">
         <v>1</v>
       </c>
-      <c r="L3" s="24">
-        <v>0</v>
-      </c>
-      <c r="M3" s="21">
+      <c r="L5" s="65">
+        <v>0</v>
+      </c>
+      <c r="M5" s="65">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N3" s="22">
+      <c r="N5" s="68">
         <v>2.41</v>
       </c>
-      <c r="O3" s="24" t="s">
+      <c r="O5" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="P3" s="24" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q3" s="21">
+      <c r="P5" s="65" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q5" s="65">
         <v>1.3</v>
       </c>
-      <c r="R3" s="21">
+      <c r="R5" s="65">
         <v>2.1</v>
       </c>
-      <c r="S3" s="24">
+      <c r="S5" s="66">
         <v>0.01</v>
       </c>
-      <c r="T3" s="24" t="s">
+      <c r="T5" s="65" t="s">
         <v>90</v>
       </c>
-      <c r="U3" s="24" t="s">
+      <c r="U5" s="65" t="s">
         <v>88</v>
       </c>
-      <c r="V3" s="24">
-        <v>0</v>
-      </c>
-      <c r="W3" s="24">
+      <c r="V5" s="65">
+        <v>0</v>
+      </c>
+      <c r="W5" s="65">
         <v>0.1</v>
       </c>
-      <c r="X3" s="23">
+      <c r="X5" s="67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="19">
+        <v>5</v>
+      </c>
+      <c r="B6" s="22">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="21">
+      <c r="C6" s="19">
+        <v>0</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="19">
+        <v>336</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="18">
+        <v>595</v>
+      </c>
+      <c r="H6" s="22">
+        <v>5</v>
+      </c>
+      <c r="I6" s="22">
+        <v>1</v>
+      </c>
+      <c r="J6" s="22">
+        <v>1</v>
+      </c>
+      <c r="K6" s="22">
+        <v>1</v>
+      </c>
+      <c r="L6" s="22">
+        <v>0</v>
+      </c>
+      <c r="M6" s="19">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N6" s="20">
+        <v>2.41</v>
+      </c>
+      <c r="O6" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="P6" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q6" s="19">
+        <v>1.78</v>
+      </c>
+      <c r="R6" s="19">
+        <v>1.92</v>
+      </c>
+      <c r="S6" s="22">
+        <v>1E-3</v>
+      </c>
+      <c r="T6" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="U6" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="V6" s="22">
+        <v>0</v>
+      </c>
+      <c r="W6" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="X6" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="65">
         <v>-1</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B7" s="71">
         <v>1</v>
       </c>
-      <c r="C4" s="21">
-        <v>0</v>
-      </c>
-      <c r="D4" s="24" t="s">
+      <c r="C7" s="65">
+        <v>0</v>
+      </c>
+      <c r="D7" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="21">
+      <c r="E7" s="65">
         <v>336</v>
       </c>
-      <c r="F4" s="21">
-        <v>0</v>
-      </c>
-      <c r="G4" s="20">
+      <c r="F7" s="65">
+        <v>0</v>
+      </c>
+      <c r="G7" s="67">
         <v>595</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H7" s="71">
         <v>5</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I7" s="71">
         <v>1</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J7" s="71">
         <v>1</v>
       </c>
-      <c r="K4" s="24">
+      <c r="K7" s="71">
         <v>1</v>
       </c>
-      <c r="L4" s="24">
-        <v>0</v>
-      </c>
-      <c r="M4" s="21">
+      <c r="L7" s="71">
+        <v>0</v>
+      </c>
+      <c r="M7" s="65">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N4" s="22">
+      <c r="N7" s="68">
         <v>2.41</v>
       </c>
-      <c r="O4" s="24" t="s">
+      <c r="O7" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="P4" s="24" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q4" s="21">
+      <c r="P7" s="71" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="65">
         <v>1.3</v>
       </c>
-      <c r="R4" s="21">
+      <c r="R7" s="65">
         <v>2.1</v>
       </c>
-      <c r="S4" s="24">
+      <c r="S7" s="66">
         <v>0.01</v>
       </c>
-      <c r="T4" s="24" t="s">
+      <c r="T7" s="71" t="s">
         <v>90</v>
       </c>
-      <c r="U4" s="24" t="s">
+      <c r="U7" s="71" t="s">
         <v>88</v>
       </c>
-      <c r="V4" s="24">
-        <v>0</v>
-      </c>
-      <c r="W4" s="24">
+      <c r="V7" s="71">
+        <v>0</v>
+      </c>
+      <c r="W7" s="71">
         <v>0.1</v>
       </c>
-      <c r="X4" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
+      <c r="X7" s="70">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="62">
         <v>-1</v>
       </c>
-      <c r="B5" s="21">
+      <c r="B8" s="62">
         <v>1</v>
       </c>
-      <c r="C5" s="21">
-        <v>0</v>
-      </c>
-      <c r="D5" s="21" t="s">
+      <c r="C8" s="62">
+        <v>0</v>
+      </c>
+      <c r="D8" s="62" t="s">
         <v>118</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E8" s="62">
         <v>336</v>
       </c>
-      <c r="F5" s="21">
-        <v>0</v>
-      </c>
-      <c r="G5" s="20">
+      <c r="F8" s="62">
+        <v>0</v>
+      </c>
+      <c r="G8" s="63">
         <v>595</v>
       </c>
-      <c r="H5" s="21">
+      <c r="H8" s="62">
         <v>5</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I8" s="62">
         <v>1</v>
       </c>
-      <c r="J5" s="21">
+      <c r="J8" s="62">
         <v>1</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K8" s="62">
         <v>1</v>
       </c>
-      <c r="L5" s="21">
-        <v>0</v>
-      </c>
-      <c r="M5" s="21">
+      <c r="L8" s="62">
+        <v>0</v>
+      </c>
+      <c r="M8" s="62">
         <v>8.1999999999999993</v>
       </c>
-      <c r="N5" s="22">
+      <c r="N8" s="64">
         <v>2.41</v>
       </c>
-      <c r="O5" s="21" t="s">
+      <c r="O8" s="62" t="s">
         <v>93</v>
       </c>
-      <c r="P5" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q5" s="21">
-        <v>1.3</v>
-      </c>
-      <c r="R5" s="21">
-        <v>2.1</v>
-      </c>
-      <c r="S5" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="T5" s="21" t="s">
+      <c r="P8" s="62" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q8" s="62">
+        <v>1.6</v>
+      </c>
+      <c r="R8" s="62">
+        <v>1.61</v>
+      </c>
+      <c r="S8" s="22">
+        <v>1E-3</v>
+      </c>
+      <c r="T8" s="62" t="s">
         <v>90</v>
       </c>
-      <c r="U5" s="21" t="s">
+      <c r="U8" s="62" t="s">
         <v>88</v>
       </c>
-      <c r="V5" s="21">
-        <v>0</v>
-      </c>
-      <c r="W5" s="21">
+      <c r="V8" s="62">
+        <v>0</v>
+      </c>
+      <c r="W8" s="62">
         <v>0.1</v>
       </c>
-      <c r="X5" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="21">
-        <v>5</v>
-      </c>
-      <c r="B6" s="24">
-        <v>1</v>
-      </c>
-      <c r="C6" s="21">
-        <v>0</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="21">
-        <v>336</v>
-      </c>
-      <c r="F6" s="21">
-        <v>0</v>
-      </c>
-      <c r="G6" s="20">
-        <v>595</v>
-      </c>
-      <c r="H6" s="24">
-        <v>5</v>
-      </c>
-      <c r="I6" s="24">
-        <v>1</v>
-      </c>
-      <c r="J6" s="24">
-        <v>1</v>
-      </c>
-      <c r="K6" s="24">
-        <v>1</v>
-      </c>
-      <c r="L6" s="24">
-        <v>0</v>
-      </c>
-      <c r="M6" s="21">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="N6" s="22">
-        <v>2.41</v>
-      </c>
-      <c r="O6" s="24" t="s">
-        <v>93</v>
-      </c>
-      <c r="P6" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q6" s="21">
-        <v>1.3</v>
-      </c>
-      <c r="R6" s="21">
-        <v>2.1</v>
-      </c>
-      <c r="S6" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="T6" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="U6" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="V6" s="24">
-        <v>0</v>
-      </c>
-      <c r="W6" s="24">
-        <v>0.1</v>
-      </c>
-      <c r="X6" s="23">
+      <c r="X8" s="63">
         <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="21">
-        <v>-1</v>
-      </c>
-      <c r="B7" s="19">
-        <v>1</v>
-      </c>
-      <c r="C7" s="21">
-        <v>0</v>
-      </c>
-      <c r="D7" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="21">
-        <v>336</v>
-      </c>
-      <c r="F7" s="21">
-        <v>0</v>
-      </c>
-      <c r="G7" s="20">
-        <v>595</v>
-      </c>
-      <c r="H7" s="19">
-        <v>5</v>
-      </c>
-      <c r="I7" s="19">
-        <v>1</v>
-      </c>
-      <c r="J7" s="19">
-        <v>1</v>
-      </c>
-      <c r="K7" s="19">
-        <v>1</v>
-      </c>
-      <c r="L7" s="19">
-        <v>0</v>
-      </c>
-      <c r="M7" s="21">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="N7" s="22">
-        <v>2.41</v>
-      </c>
-      <c r="O7" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="P7" s="19" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q7" s="21">
-        <v>1.3</v>
-      </c>
-      <c r="R7" s="21">
-        <v>2.1</v>
-      </c>
-      <c r="S7" s="24">
-        <v>0.01</v>
-      </c>
-      <c r="T7" s="19" t="s">
-        <v>90</v>
-      </c>
-      <c r="U7" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="V7" s="19">
-        <v>0</v>
-      </c>
-      <c r="W7" s="19">
-        <v>0.1</v>
-      </c>
-      <c r="X7" s="18">
-        <v>5</v>
       </c>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.25">
@@ -9024,37 +9142,37 @@
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="33">
+      <c r="A2" s="31">
         <v>3</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="33" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="36">
-        <v>0</v>
-      </c>
-      <c r="D2" s="36">
+      <c r="C2" s="34">
+        <v>0</v>
+      </c>
+      <c r="D2" s="34">
         <v>99</v>
       </c>
-      <c r="E2" s="36">
+      <c r="E2" s="34">
         <v>281</v>
       </c>
-      <c r="F2" s="36">
+      <c r="F2" s="34">
         <v>100</v>
       </c>
-      <c r="G2" s="36">
-        <v>0</v>
-      </c>
-      <c r="H2" s="36">
-        <v>0</v>
-      </c>
-      <c r="I2" s="36">
+      <c r="G2" s="34">
+        <v>0</v>
+      </c>
+      <c r="H2" s="34">
+        <v>0</v>
+      </c>
+      <c r="I2" s="34">
         <v>0</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
       </c>
-      <c r="K2" s="33">
+      <c r="K2" s="31">
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -9086,31 +9204,31 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="33">
+      <c r="A3" s="31">
         <v>4</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="30" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="36">
-        <v>0</v>
-      </c>
-      <c r="D3" s="36">
+      <c r="C3" s="34">
+        <v>0</v>
+      </c>
+      <c r="D3" s="34">
         <v>91</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="34">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F3" s="37">
+      <c r="F3" s="35">
         <v>27</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="35">
         <v>11</v>
       </c>
-      <c r="H3" s="36">
+      <c r="H3" s="34">
         <v>7.93</v>
       </c>
-      <c r="I3" s="36">
+      <c r="I3" s="34">
         <v>0</v>
       </c>
       <c r="J3" s="2">
@@ -9148,31 +9266,31 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="33">
+      <c r="A4" s="31">
         <v>5</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="36">
-        <v>0</v>
-      </c>
-      <c r="D4" s="36">
+      <c r="C4" s="34">
+        <v>0</v>
+      </c>
+      <c r="D4" s="34">
         <v>89.6</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="34">
         <v>24</v>
       </c>
-      <c r="F4" s="36">
+      <c r="F4" s="34">
         <v>54</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="34">
         <v>3.8</v>
       </c>
-      <c r="H4" s="36">
+      <c r="H4" s="34">
         <v>13.06</v>
       </c>
-      <c r="I4" s="36">
+      <c r="I4" s="34">
         <v>0</v>
       </c>
       <c r="J4" s="2">
@@ -9210,31 +9328,31 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="33">
+      <c r="A5" s="31">
         <v>6</v>
       </c>
       <c r="B5" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="36">
-        <v>0</v>
-      </c>
-      <c r="D5" s="36">
+      <c r="C5" s="34">
+        <v>0</v>
+      </c>
+      <c r="D5" s="34">
         <v>92.7</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="34">
         <v>65.5</v>
       </c>
-      <c r="F5" s="36">
+      <c r="F5" s="34">
         <v>6.4</v>
       </c>
-      <c r="G5" s="36">
+      <c r="G5" s="34">
         <v>3.9</v>
       </c>
-      <c r="H5" s="36">
+      <c r="H5" s="34">
         <v>1.58</v>
       </c>
-      <c r="I5" s="36">
+      <c r="I5" s="34">
         <v>0</v>
       </c>
       <c r="J5" s="2">
@@ -9272,31 +9390,31 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="33">
+      <c r="A6" s="31">
         <v>7</v>
       </c>
       <c r="B6" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="36">
-        <v>0</v>
-      </c>
-      <c r="D6" s="36">
+      <c r="C6" s="34">
+        <v>0</v>
+      </c>
+      <c r="D6" s="34">
         <v>89</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="34">
         <v>3.1</v>
       </c>
-      <c r="F6" s="36">
+      <c r="F6" s="34">
         <v>25</v>
       </c>
-      <c r="G6" s="36">
+      <c r="G6" s="34">
         <v>5</v>
       </c>
-      <c r="H6" s="36">
+      <c r="H6" s="34">
         <v>4.3</v>
       </c>
-      <c r="I6" s="36">
+      <c r="I6" s="34">
         <v>0</v>
       </c>
       <c r="J6" s="2">
@@ -9334,31 +9452,31 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
+      <c r="A7" s="31">
         <v>8</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="36">
-        <v>0</v>
-      </c>
-      <c r="D7" s="36">
+      <c r="C7" s="34">
+        <v>0</v>
+      </c>
+      <c r="D7" s="34">
         <v>75</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="34">
         <v>8.5</v>
       </c>
-      <c r="F7" s="36">
+      <c r="F7" s="34">
         <v>100</v>
       </c>
-      <c r="G7" s="36">
-        <v>0</v>
-      </c>
-      <c r="H7" s="36">
+      <c r="G7" s="34">
+        <v>0</v>
+      </c>
+      <c r="H7" s="34">
         <v>70</v>
       </c>
-      <c r="I7" s="36">
+      <c r="I7" s="34">
         <v>4</v>
       </c>
       <c r="J7" s="2">
@@ -9396,31 +9514,31 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="33">
+      <c r="A8" s="31">
         <v>9</v>
       </c>
       <c r="B8" s="17" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="36">
-        <v>0</v>
-      </c>
-      <c r="D8" s="36">
+      <c r="C8" s="34">
+        <v>0</v>
+      </c>
+      <c r="D8" s="34">
         <v>90.1</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="34">
         <v>41.5</v>
       </c>
-      <c r="F8" s="36">
+      <c r="F8" s="34">
         <v>30</v>
       </c>
-      <c r="G8" s="36">
+      <c r="G8" s="34">
         <v>6.2</v>
       </c>
-      <c r="H8" s="36">
+      <c r="H8" s="34">
         <v>10.34</v>
       </c>
-      <c r="I8" s="36">
+      <c r="I8" s="34">
         <v>0</v>
       </c>
       <c r="J8" s="2">
@@ -9458,31 +9576,31 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="33">
+      <c r="A9" s="31">
         <v>10</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="36">
-        <v>0</v>
-      </c>
-      <c r="D9" s="36">
+      <c r="C9" s="34">
+        <v>0</v>
+      </c>
+      <c r="D9" s="34">
         <v>99</v>
       </c>
-      <c r="E9" s="36">
-        <v>0</v>
-      </c>
-      <c r="F9" s="36">
-        <v>0</v>
-      </c>
-      <c r="G9" s="36">
-        <v>0</v>
-      </c>
-      <c r="H9" s="36">
-        <v>0</v>
-      </c>
-      <c r="I9" s="36">
+      <c r="E9" s="34">
+        <v>0</v>
+      </c>
+      <c r="F9" s="34">
+        <v>0</v>
+      </c>
+      <c r="G9" s="34">
+        <v>0</v>
+      </c>
+      <c r="H9" s="34">
+        <v>0</v>
+      </c>
+      <c r="I9" s="34">
         <v>0</v>
       </c>
       <c r="J9" s="2">
@@ -9520,31 +9638,31 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="33">
+      <c r="A10" s="31">
         <v>11</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="36">
-        <v>0</v>
-      </c>
-      <c r="D10" s="36">
+      <c r="C10" s="34">
+        <v>0</v>
+      </c>
+      <c r="D10" s="34">
         <v>93.6</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="34">
         <v>42.79</v>
       </c>
-      <c r="F10" s="36">
+      <c r="F10" s="34">
         <v>8</v>
       </c>
-      <c r="G10" s="36">
+      <c r="G10" s="34">
         <v>3</v>
       </c>
-      <c r="H10" s="36">
+      <c r="H10" s="34">
         <v>13.5</v>
       </c>
-      <c r="I10" s="36">
+      <c r="I10" s="34">
         <v>0</v>
       </c>
       <c r="J10" s="2">
@@ -9582,37 +9700,37 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="33">
+      <c r="A11" s="31">
         <v>12</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="C11" s="36">
-        <v>0</v>
-      </c>
-      <c r="D11" s="36">
+      <c r="C11" s="34">
+        <v>0</v>
+      </c>
+      <c r="D11" s="34">
         <v>93</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="34">
         <v>26.3</v>
       </c>
-      <c r="F11" s="36">
+      <c r="F11" s="34">
         <v>33.75</v>
       </c>
-      <c r="G11" s="36">
+      <c r="G11" s="34">
         <v>6.2</v>
       </c>
-      <c r="H11" s="36">
+      <c r="H11" s="34">
         <v>10.119999999999999</v>
       </c>
-      <c r="I11" s="36">
+      <c r="I11" s="34">
         <v>0</v>
       </c>
       <c r="J11" s="2">
         <v>2.6</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="31">
         <v>3.0800000000000001E-2</v>
       </c>
       <c r="L11" s="2">
@@ -9644,31 +9762,31 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="33">
+      <c r="A12" s="31">
         <v>16</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="30" t="s">
         <v>132</v>
       </c>
-      <c r="C12" s="36">
-        <v>0</v>
-      </c>
-      <c r="D12" s="36">
+      <c r="C12" s="34">
+        <v>0</v>
+      </c>
+      <c r="D12" s="34">
         <v>99</v>
       </c>
-      <c r="E12" s="36">
-        <v>0</v>
-      </c>
-      <c r="F12" s="36">
-        <v>0</v>
-      </c>
-      <c r="G12" s="36">
-        <v>0</v>
-      </c>
-      <c r="H12" s="36">
-        <v>0</v>
-      </c>
-      <c r="I12" s="36">
+      <c r="E12" s="34">
+        <v>0</v>
+      </c>
+      <c r="F12" s="34">
+        <v>0</v>
+      </c>
+      <c r="G12" s="34">
+        <v>0</v>
+      </c>
+      <c r="H12" s="34">
+        <v>0</v>
+      </c>
+      <c r="I12" s="34">
         <v>0</v>
       </c>
       <c r="J12" s="2">
@@ -9706,31 +9824,31 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="33">
+      <c r="A13" s="31">
         <v>17</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="30" t="s">
         <v>133</v>
       </c>
-      <c r="C13" s="36">
-        <v>0</v>
-      </c>
-      <c r="D13" s="36">
+      <c r="C13" s="34">
+        <v>0</v>
+      </c>
+      <c r="D13" s="34">
         <v>88.7</v>
       </c>
-      <c r="E13" s="36">
+      <c r="E13" s="34">
         <v>17</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="34">
         <v>41</v>
       </c>
-      <c r="G13" s="36">
+      <c r="G13" s="34">
         <v>4</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="34">
         <v>4.7300000000000004</v>
       </c>
-      <c r="I13" s="36">
+      <c r="I13" s="34">
         <v>0</v>
       </c>
       <c r="J13" s="2">
@@ -9768,31 +9886,31 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="33">
+      <c r="A14" s="31">
         <v>18</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="30" t="s">
         <v>134</v>
       </c>
-      <c r="C14" s="36">
-        <v>0</v>
-      </c>
-      <c r="D14" s="36">
+      <c r="C14" s="34">
+        <v>0</v>
+      </c>
+      <c r="D14" s="34">
         <v>92.6</v>
       </c>
-      <c r="E14" s="36">
+      <c r="E14" s="34">
         <v>29</v>
       </c>
-      <c r="F14" s="36">
+      <c r="F14" s="34">
         <v>4.5</v>
       </c>
-      <c r="G14" s="36">
+      <c r="G14" s="34">
         <v>9.86</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="34">
         <v>2.62</v>
       </c>
-      <c r="I14" s="36">
+      <c r="I14" s="34">
         <v>0</v>
       </c>
       <c r="J14" s="2">
@@ -9830,31 +9948,31 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="33">
+      <c r="A15" s="31">
         <v>19</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="30" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="36">
-        <v>0</v>
-      </c>
-      <c r="D15" s="36">
+      <c r="C15" s="34">
+        <v>0</v>
+      </c>
+      <c r="D15" s="34">
         <v>95</v>
       </c>
-      <c r="E15" s="36">
+      <c r="E15" s="34">
         <v>10</v>
       </c>
-      <c r="F15" s="36">
+      <c r="F15" s="34">
         <v>25</v>
       </c>
-      <c r="G15" s="36">
+      <c r="G15" s="34">
         <v>0.8</v>
       </c>
-      <c r="H15" s="36">
+      <c r="H15" s="34">
         <v>1.6</v>
       </c>
-      <c r="I15" s="36">
+      <c r="I15" s="34">
         <v>0</v>
       </c>
       <c r="J15" s="2">
@@ -9892,31 +10010,31 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="33">
+      <c r="A16" s="31">
         <v>20</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="30" t="s">
         <v>136</v>
       </c>
-      <c r="C16" s="36">
-        <v>0</v>
-      </c>
-      <c r="D16" s="36">
+      <c r="C16" s="34">
+        <v>0</v>
+      </c>
+      <c r="D16" s="34">
         <v>88.5</v>
       </c>
-      <c r="E16" s="36">
+      <c r="E16" s="34">
         <v>20.100000000000001</v>
       </c>
-      <c r="F16" s="36">
+      <c r="F16" s="34">
         <v>44</v>
       </c>
-      <c r="G16" s="36">
+      <c r="G16" s="34">
         <v>1.49</v>
       </c>
-      <c r="H16" s="36">
+      <c r="H16" s="34">
         <v>5.59</v>
       </c>
-      <c r="I16" s="36">
+      <c r="I16" s="34">
         <v>0</v>
       </c>
       <c r="J16" s="2">
@@ -9954,31 +10072,31 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="33">
+      <c r="A17" s="31">
         <v>21</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="30" t="s">
         <v>137</v>
       </c>
-      <c r="C17" s="36">
-        <v>0</v>
-      </c>
-      <c r="D17" s="36">
+      <c r="C17" s="34">
+        <v>0</v>
+      </c>
+      <c r="D17" s="34">
         <v>89</v>
       </c>
-      <c r="E17" s="36">
+      <c r="E17" s="34">
         <v>18.39</v>
       </c>
-      <c r="F17" s="36">
+      <c r="F17" s="34">
         <v>40</v>
       </c>
-      <c r="G17" s="36">
+      <c r="G17" s="34">
         <v>3</v>
       </c>
-      <c r="H17" s="36">
+      <c r="H17" s="34">
         <v>3.94</v>
       </c>
-      <c r="I17" s="36">
+      <c r="I17" s="34">
         <v>0</v>
       </c>
       <c r="J17" s="2">
@@ -10016,31 +10134,31 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="33">
+      <c r="A18" s="31">
         <v>25</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="34">
         <v>100</v>
       </c>
-      <c r="D18" s="39">
+      <c r="D18" s="37">
         <v>89</v>
       </c>
-      <c r="E18" s="39">
+      <c r="E18" s="37">
         <v>10</v>
       </c>
-      <c r="F18" s="40">
+      <c r="F18" s="38">
         <v>38</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18" s="38">
         <v>6.09</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="38">
         <v>5.09</v>
       </c>
-      <c r="I18" s="40">
+      <c r="I18" s="38">
         <v>1</v>
       </c>
       <c r="J18" s="2">
@@ -10078,31 +10196,31 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="33">
+      <c r="A19" s="31">
         <v>28</v>
       </c>
-      <c r="B19" s="32" t="s">
+      <c r="B19" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="36">
-        <v>0</v>
-      </c>
-      <c r="D19" s="36">
+      <c r="C19" s="34">
+        <v>0</v>
+      </c>
+      <c r="D19" s="34">
         <v>93</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="34">
         <v>40.200000000000003</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="34">
         <v>33.79</v>
       </c>
-      <c r="G19" s="36">
+      <c r="G19" s="34">
         <v>6.2</v>
       </c>
-      <c r="H19" s="36">
+      <c r="H19" s="34">
         <v>5.88</v>
       </c>
-      <c r="I19" s="36">
+      <c r="I19" s="34">
         <v>0</v>
       </c>
       <c r="J19" s="2">
@@ -10140,31 +10258,31 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="33">
+      <c r="A20" s="31">
         <v>29</v>
       </c>
-      <c r="B20" s="32" t="s">
+      <c r="B20" s="30" t="s">
         <v>131</v>
       </c>
-      <c r="C20" s="36">
-        <v>0</v>
-      </c>
-      <c r="D20" s="36">
+      <c r="C20" s="34">
+        <v>0</v>
+      </c>
+      <c r="D20" s="34">
         <v>93</v>
       </c>
-      <c r="E20" s="36">
+      <c r="E20" s="34">
         <v>48.89</v>
       </c>
-      <c r="F20" s="36">
+      <c r="F20" s="34">
         <v>33.79</v>
       </c>
-      <c r="G20" s="36">
+      <c r="G20" s="34">
         <v>6.2</v>
       </c>
-      <c r="H20" s="36">
+      <c r="H20" s="34">
         <v>4.3</v>
       </c>
-      <c r="I20" s="36">
+      <c r="I20" s="34">
         <v>0</v>
       </c>
       <c r="J20" s="2">
@@ -10202,37 +10320,37 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="33">
+      <c r="A21" s="31">
         <v>30</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="30" t="s">
         <v>160</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="34">
         <v>100</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="34">
         <v>35</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="34">
         <v>8</v>
       </c>
-      <c r="F21" s="36">
+      <c r="F21" s="34">
         <v>50</v>
       </c>
-      <c r="G21" s="36">
+      <c r="G21" s="34">
         <v>4.8499999999999996</v>
       </c>
-      <c r="H21" s="36">
+      <c r="H21" s="34">
         <v>0.89</v>
       </c>
-      <c r="I21" s="36">
+      <c r="I21" s="34">
         <v>0</v>
       </c>
       <c r="J21" s="2">
         <v>3.18</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="31">
         <v>6.0479999999999999E-2</v>
       </c>
       <c r="L21" s="2">
@@ -10264,31 +10382,31 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="33">
+      <c r="A22" s="31">
         <v>31</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="34">
         <v>100</v>
       </c>
-      <c r="D22" s="36">
+      <c r="D22" s="34">
         <v>35</v>
       </c>
-      <c r="E22" s="36">
+      <c r="E22" s="34">
         <v>14.69</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="34">
         <v>55</v>
       </c>
-      <c r="G22" s="36">
+      <c r="G22" s="34">
         <v>6</v>
       </c>
-      <c r="H22" s="36">
+      <c r="H22" s="34">
         <v>3.34</v>
       </c>
-      <c r="I22" s="36">
+      <c r="I22" s="34">
         <v>0</v>
       </c>
       <c r="J22" s="2">
@@ -10326,57 +10444,57 @@
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B41" s="33"/>
-      <c r="Q41" s="33"/>
+      <c r="B41" s="31"/>
+      <c r="Q41" s="31"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B42" s="33"/>
-      <c r="Q42" s="33"/>
+      <c r="B42" s="31"/>
+      <c r="Q42" s="31"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B43" s="33"/>
-      <c r="Q43" s="33"/>
+      <c r="B43" s="31"/>
+      <c r="Q43" s="31"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B44" s="33"/>
-      <c r="Q44" s="33"/>
+      <c r="B44" s="31"/>
+      <c r="Q44" s="31"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B45" s="33"/>
-      <c r="Q45" s="52"/>
+      <c r="B45" s="31"/>
+      <c r="Q45" s="50"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B46" s="33"/>
+      <c r="B46" s="31"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B47" s="33"/>
+      <c r="B47" s="31"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="33"/>
+      <c r="B48" s="31"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="33"/>
+      <c r="B49" s="31"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="33"/>
+      <c r="B50" s="31"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="33"/>
+      <c r="B51" s="31"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B19 B2:I18">
-    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="3" stopIfTrue="1">
       <formula>ROW(B2)=$C$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="4" stopIfTrue="1">
       <formula>COLUMN(B2)=$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:I19">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="6" stopIfTrue="1">
       <formula>COLUMN(C19)=$F$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="9" stopIfTrue="1">
       <formula>ROW(C19)=$E$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10419,7 +10537,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="51" t="s">
         <v>117</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -10428,12 +10546,12 @@
       <c r="C2" s="2">
         <v>3</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2" s="30">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="39" t="s">
         <v>121</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -10442,12 +10560,12 @@
       <c r="C3" s="2">
         <v>4</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3" s="30">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="32" t="s">
         <v>122</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -10461,7 +10579,7 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+      <c r="A5" s="32" t="s">
         <v>123</v>
       </c>
       <c r="B5" s="2" t="s">
@@ -10475,7 +10593,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="32" t="s">
         <v>124</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -10489,7 +10607,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="32" t="s">
         <v>125</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -10503,7 +10621,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="A8" s="32" t="s">
         <v>126</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -10512,12 +10630,12 @@
       <c r="C8" s="2">
         <v>9</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="39" t="s">
         <v>127</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -10526,12 +10644,12 @@
       <c r="C9" s="2">
         <v>10</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9" s="30">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="39" t="s">
         <v>128</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -10540,12 +10658,12 @@
       <c r="C10" s="2">
         <v>11</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10" s="30">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="39" t="s">
         <v>130</v>
       </c>
       <c r="B11" s="2" t="s">
@@ -10554,12 +10672,12 @@
       <c r="C11" s="2">
         <v>12</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11" s="30">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="41" t="s">
+      <c r="A12" s="39" t="s">
         <v>132</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -10568,12 +10686,12 @@
       <c r="C12" s="2">
         <v>16</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="30">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>133</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -10582,12 +10700,12 @@
       <c r="C13" s="2">
         <v>17</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13" s="30">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="39" t="s">
         <v>134</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -10596,12 +10714,12 @@
       <c r="C14" s="2">
         <v>18</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14" s="30">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="39" t="s">
         <v>135</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -10610,12 +10728,12 @@
       <c r="C15" s="2">
         <v>19</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="30">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="39" t="s">
         <v>136</v>
       </c>
       <c r="B16" s="2" t="s">
@@ -10624,12 +10742,12 @@
       <c r="C16" s="2">
         <v>20</v>
       </c>
-      <c r="D16" s="32">
+      <c r="D16" s="30">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="39" t="s">
         <v>137</v>
       </c>
       <c r="B17" s="2" t="s">
@@ -10638,12 +10756,12 @@
       <c r="C17" s="2">
         <v>21</v>
       </c>
-      <c r="D17" s="32">
+      <c r="D17" s="30">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="54" t="s">
+      <c r="A18" s="52" t="s">
         <v>139</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -10652,12 +10770,12 @@
       <c r="C18" s="2">
         <v>25</v>
       </c>
-      <c r="D18" s="51">
+      <c r="D18" s="49">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="39" t="s">
         <v>129</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -10671,7 +10789,7 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="41" t="s">
+      <c r="A20" s="39" t="s">
         <v>131</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -10685,7 +10803,7 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="39" t="s">
         <v>160</v>
       </c>
       <c r="B21" s="2" t="s">
@@ -10696,7 +10814,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
+      <c r="A22" s="55" t="s">
         <v>138</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -10708,10 +10826,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A19">
-    <cfRule type="expression" dxfId="3" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="12" stopIfTrue="1">
       <formula>ROW(A2)=$D$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
       <formula>COLUMN(A2)=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10729,49 +10847,44 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="26" bestFit="1" customWidth="1"/>
-    <col min="2" max="7" width="25.42578125" style="26" customWidth="1"/>
-    <col min="8" max="8" width="19.7109375" style="26" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.7109375" style="26" customWidth="1"/>
-    <col min="10" max="10" width="8.85546875" style="26" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="26"/>
+    <col min="1" max="16384" width="24.42578125" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="61" t="s">
         <v>94</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="61" t="s">
         <v>95</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="61" t="s">
         <v>96</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="61" t="s">
         <v>97</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="61" t="s">
         <v>101</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="61" t="s">
         <v>102</v>
       </c>
     </row>
@@ -10967,36 +11080,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" style="27" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="21.7109375" style="27"/>
-    <col min="9" max="9" width="21.7109375" style="27" customWidth="1"/>
-    <col min="10" max="16384" width="21.7109375" style="27"/>
+    <col min="1" max="1" width="5" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.140625" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="21.7109375" style="25"/>
+    <col min="9" max="9" width="21.7109375" style="25" customWidth="1"/>
+    <col min="10" max="16384" width="21.7109375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="30" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:8" s="28" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C1" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="D1" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="50" t="s">
+      <c r="E1" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="50" t="s">
+      <c r="F1" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="50" t="s">
+      <c r="G1" s="48" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="50" t="s">
+      <c r="H1" s="48" t="s">
         <v>109</v>
       </c>
     </row>
@@ -11004,51 +11117,51 @@
       <c r="A2" s="2">
         <v>3</v>
       </c>
-      <c r="B2" s="48" t="s">
+      <c r="B2" s="46" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="60">
+      <c r="C2" s="58">
         <v>5.3300000000000001E-5</v>
       </c>
-      <c r="D2" s="60">
+      <c r="D2" s="58">
         <v>67</v>
       </c>
-      <c r="E2" s="60">
+      <c r="E2" s="58">
         <v>3.7</v>
       </c>
-      <c r="F2" s="60">
+      <c r="F2" s="58">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G2" s="60">
+      <c r="G2" s="58">
         <v>4.5599999999999998E-3</v>
       </c>
-      <c r="H2" s="60">
+      <c r="H2" s="58">
         <v>8.2600000000000007E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
+      <c r="A3" s="30">
         <v>4</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="61">
+      <c r="C3" s="59">
         <v>6.5774577999999997E-4</v>
       </c>
-      <c r="D3" s="61">
+      <c r="D3" s="59">
         <v>5.2727627000000004</v>
       </c>
-      <c r="E3" s="61">
+      <c r="E3" s="59">
         <v>0.23187210999999999</v>
       </c>
-      <c r="F3" s="61">
+      <c r="F3" s="59">
         <v>3.2484240000000002E-3</v>
       </c>
-      <c r="G3" s="61">
+      <c r="G3" s="59">
         <v>1.2782201999999999E-3</v>
       </c>
-      <c r="H3" s="61">
+      <c r="H3" s="59">
         <v>0.55197054999999995</v>
       </c>
     </row>
@@ -11056,25 +11169,25 @@
       <c r="A4" s="17">
         <v>5</v>
       </c>
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="61">
+      <c r="C4" s="59">
         <v>9.8875607000000008E-4</v>
       </c>
-      <c r="D4" s="61">
+      <c r="D4" s="59">
         <v>3.4574254999999998</v>
       </c>
-      <c r="E4" s="61">
+      <c r="E4" s="59">
         <v>0.22933355999999999</v>
       </c>
-      <c r="F4" s="61">
+      <c r="F4" s="59">
         <v>4.8724891000000003E-3</v>
       </c>
-      <c r="G4" s="61">
+      <c r="G4" s="59">
         <v>1.5442412000000001E-3</v>
       </c>
-      <c r="H4" s="61">
+      <c r="H4" s="59">
         <v>0.43937693999999999</v>
       </c>
     </row>
@@ -11082,25 +11195,25 @@
       <c r="A5" s="17">
         <v>6</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="41" t="s">
         <v>123</v>
       </c>
-      <c r="C5" s="61">
+      <c r="C5" s="59">
         <v>4.6734098000000002E-3</v>
       </c>
-      <c r="D5" s="61">
+      <c r="D5" s="59">
         <v>16.341711</v>
       </c>
-      <c r="E5" s="61">
+      <c r="E5" s="59">
         <v>1.0839576</v>
       </c>
-      <c r="F5" s="61">
+      <c r="F5" s="59">
         <v>2.3030087000000001E-2</v>
       </c>
-      <c r="G5" s="61">
+      <c r="G5" s="59">
         <v>7.2989407999999997E-3</v>
       </c>
-      <c r="H5" s="61">
+      <c r="H5" s="59">
         <v>2.0767392</v>
       </c>
     </row>
@@ -11108,25 +11221,25 @@
       <c r="A6" s="17">
         <v>7</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="61">
+      <c r="C6" s="59">
         <v>5.2979589999999997E-3</v>
       </c>
-      <c r="D6" s="61">
+      <c r="D6" s="59">
         <v>2.6504308999999999</v>
       </c>
-      <c r="E6" s="61">
+      <c r="E6" s="59">
         <v>0.25521818000000002</v>
       </c>
-      <c r="F6" s="61">
+      <c r="F6" s="59">
         <v>2.7713717000000001E-3</v>
       </c>
-      <c r="G6" s="61">
+      <c r="G6" s="59">
         <v>4.3737089999999999E-3</v>
       </c>
-      <c r="H6" s="61">
+      <c r="H6" s="59">
         <v>2.4169052999999998</v>
       </c>
     </row>
@@ -11134,25 +11247,25 @@
       <c r="A7" s="17">
         <v>8</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="61">
+      <c r="C7" s="59">
         <v>3.0914954E-4</v>
       </c>
-      <c r="D7" s="61">
+      <c r="D7" s="59">
         <v>1.38809</v>
       </c>
-      <c r="E7" s="61">
+      <c r="E7" s="59">
         <v>9.5984228000000005E-2</v>
       </c>
-      <c r="F7" s="61">
+      <c r="F7" s="59">
         <v>1.4925155E-3</v>
       </c>
-      <c r="G7" s="61">
+      <c r="G7" s="59">
         <v>5.9082242000000002E-4</v>
       </c>
-      <c r="H7" s="61">
+      <c r="H7" s="59">
         <v>0.25908868000000002</v>
       </c>
     </row>
@@ -11160,398 +11273,398 @@
       <c r="A8" s="17">
         <v>9</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="42" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="61">
+      <c r="C8" s="59">
         <v>2.4268531000000001E-3</v>
       </c>
-      <c r="D8" s="61">
+      <c r="D8" s="59">
         <v>2.7512188000000002</v>
       </c>
-      <c r="E8" s="61">
+      <c r="E8" s="59">
         <v>0.37877785000000003</v>
       </c>
-      <c r="F8" s="61">
+      <c r="F8" s="59">
         <v>8.1080295000000007E-3</v>
       </c>
-      <c r="G8" s="61">
+      <c r="G8" s="59">
         <v>3.0197698000000001E-3</v>
       </c>
-      <c r="H8" s="61">
+      <c r="H8" s="59">
         <v>1.2147266999999999</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="32">
+      <c r="A9" s="30">
         <v>10</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="C9" s="60">
+      <c r="C9" s="58">
         <v>1.1524281000000001E-2</v>
       </c>
-      <c r="D9" s="60">
+      <c r="D9" s="58">
         <v>13.064581</v>
       </c>
-      <c r="E9" s="60">
+      <c r="E9" s="58">
         <v>1.7986842999999999</v>
       </c>
-      <c r="F9" s="60">
+      <c r="F9" s="58">
         <v>3.8502213E-2</v>
       </c>
-      <c r="G9" s="60">
+      <c r="G9" s="58">
         <v>1.4339836999999999E-2</v>
       </c>
-      <c r="H9" s="60">
+      <c r="H9" s="58">
         <v>5.7683147000000004</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32">
+      <c r="A10" s="30">
         <v>11</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="40" t="s">
         <v>128</v>
       </c>
-      <c r="C10" s="60">
+      <c r="C10" s="58">
         <v>3.8977495E-3</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="58">
         <v>6.6378231000000003</v>
       </c>
-      <c r="E10" s="60">
+      <c r="E10" s="58">
         <v>0.33354636999999998</v>
       </c>
-      <c r="F10" s="60">
+      <c r="F10" s="58">
         <v>3.6638446000000001E-3</v>
       </c>
-      <c r="G10" s="60">
+      <c r="G10" s="58">
         <v>6.3452205000000001E-3</v>
       </c>
-      <c r="H10" s="60">
+      <c r="H10" s="58">
         <v>3.8084742</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32">
+      <c r="A11" s="30">
         <v>28</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="42" t="s">
         <v>129</v>
       </c>
-      <c r="C11" s="61">
+      <c r="C11" s="59">
         <v>2.1675339E-3</v>
       </c>
-      <c r="D11" s="61">
+      <c r="D11" s="59">
         <v>2.3852028000000001</v>
       </c>
-      <c r="E11" s="61">
+      <c r="E11" s="59">
         <v>0.24039757</v>
       </c>
-      <c r="F11" s="61">
+      <c r="F11" s="59">
         <v>4.5559939999999998E-3</v>
       </c>
-      <c r="G11" s="61">
+      <c r="G11" s="59">
         <v>3.8858629999999998E-3</v>
       </c>
-      <c r="H11" s="61">
+      <c r="H11" s="59">
         <v>1.9759963</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="32">
+      <c r="A12" s="30">
         <v>12</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="42" t="s">
         <v>130</v>
       </c>
-      <c r="C12" s="60">
+      <c r="C12" s="58">
         <v>1.8296865E-3</v>
       </c>
-      <c r="D12" s="60">
+      <c r="D12" s="58">
         <v>2.1376919999999999</v>
       </c>
-      <c r="E12" s="60">
+      <c r="E12" s="58">
         <v>0.21715095000000001</v>
       </c>
-      <c r="F12" s="60">
+      <c r="F12" s="58">
         <v>3.8183357999999998E-3</v>
       </c>
-      <c r="G12" s="60">
+      <c r="G12" s="58">
         <v>3.2683618999999999E-3</v>
       </c>
-      <c r="H12" s="60">
+      <c r="H12" s="58">
         <v>1.6645894999999999</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32">
+      <c r="A13" s="30">
         <v>29</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="42" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="60">
+      <c r="C13" s="58">
         <v>2.1675339E-3</v>
       </c>
-      <c r="D13" s="60">
+      <c r="D13" s="58">
         <v>2.3852028000000001</v>
       </c>
-      <c r="E13" s="60">
+      <c r="E13" s="58">
         <v>0.24039757</v>
       </c>
-      <c r="F13" s="60">
+      <c r="F13" s="58">
         <v>4.5559939999999998E-3</v>
       </c>
-      <c r="G13" s="60">
+      <c r="G13" s="58">
         <v>3.8858629999999998E-3</v>
       </c>
-      <c r="H13" s="60">
+      <c r="H13" s="58">
         <v>1.9759963</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32">
+      <c r="A14" s="30">
         <v>16</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="42" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="60">
+      <c r="C14" s="58">
         <v>9.5703047000000006E-3</v>
       </c>
-      <c r="D14" s="60">
+      <c r="D14" s="58">
         <v>11.181349000000001</v>
       </c>
-      <c r="E14" s="60">
+      <c r="E14" s="58">
         <v>1.1358234</v>
       </c>
-      <c r="F14" s="60">
+      <c r="F14" s="58">
         <v>1.9972074999999999E-2</v>
       </c>
-      <c r="G14" s="60">
+      <c r="G14" s="58">
         <v>1.7095398000000001E-2</v>
       </c>
-      <c r="H14" s="60">
+      <c r="H14" s="58">
         <v>8.7067530000000009</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="32">
+      <c r="A15" s="30">
         <v>17</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="42" t="s">
         <v>133</v>
       </c>
-      <c r="C15" s="60">
+      <c r="C15" s="58">
         <v>1.2856242E-3</v>
       </c>
-      <c r="D15" s="60">
+      <c r="D15" s="58">
         <v>5.4884582999999996</v>
       </c>
-      <c r="E15" s="60">
+      <c r="E15" s="58">
         <v>0.33457320000000002</v>
       </c>
-      <c r="F15" s="60">
+      <c r="F15" s="58">
         <v>5.0812655999999999E-3</v>
       </c>
-      <c r="G15" s="60">
+      <c r="G15" s="58">
         <v>2.1954254000000001E-3</v>
       </c>
-      <c r="H15" s="60">
+      <c r="H15" s="58">
         <v>0.62333822000000005</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="32">
+      <c r="A16" s="30">
         <v>18</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="40" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="60">
+      <c r="C16" s="58">
         <v>2.0170432000000001E-3</v>
       </c>
-      <c r="D16" s="60">
+      <c r="D16" s="58">
         <v>9.4737010999999995</v>
       </c>
-      <c r="E16" s="60">
+      <c r="E16" s="58">
         <v>0.57584038999999998</v>
       </c>
-      <c r="F16" s="60">
+      <c r="F16" s="58">
         <v>7.9888571999999995E-3</v>
       </c>
-      <c r="G16" s="60">
+      <c r="G16" s="58">
         <v>6.0113188999999997E-3</v>
       </c>
-      <c r="H16" s="60">
+      <c r="H16" s="58">
         <v>0.97791181999999999</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="32">
+      <c r="A17" s="30">
         <v>19</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="40" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="60">
+      <c r="C17" s="58">
         <v>6.8793711999999996E-4</v>
       </c>
-      <c r="D17" s="60">
+      <c r="D17" s="58">
         <v>0.93976550999999997</v>
       </c>
-      <c r="E17" s="60">
+      <c r="E17" s="58">
         <v>0.10546989</v>
       </c>
-      <c r="F17" s="60">
+      <c r="F17" s="58">
         <v>2.5927768E-3</v>
       </c>
-      <c r="G17" s="60">
+      <c r="G17" s="58">
         <v>1.0021024000000001E-3</v>
       </c>
-      <c r="H17" s="60">
+      <c r="H17" s="58">
         <v>0.33293109999999998</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="32">
+      <c r="A18" s="30">
         <v>20</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="40" t="s">
         <v>136</v>
       </c>
-      <c r="C18" s="60">
+      <c r="C18" s="58">
         <v>1.7751223E-3</v>
       </c>
-      <c r="D18" s="60">
+      <c r="D18" s="58">
         <v>7.5781744</v>
       </c>
-      <c r="E18" s="60">
+      <c r="E18" s="58">
         <v>0.46196108000000002</v>
       </c>
-      <c r="F18" s="60">
+      <c r="F18" s="58">
         <v>7.0159441999999997E-3</v>
       </c>
-      <c r="G18" s="60">
+      <c r="G18" s="58">
         <v>3.0313279000000002E-3</v>
       </c>
-      <c r="H18" s="60">
+      <c r="H18" s="58">
         <v>0.86067262</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="32">
+      <c r="A19" s="30">
         <v>21</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="40" t="s">
         <v>137</v>
       </c>
-      <c r="C19" s="60">
+      <c r="C19" s="58">
         <v>6.0269407000000002E-4</v>
       </c>
-      <c r="D19" s="60">
+      <c r="D19" s="58">
         <v>0.82331812000000004</v>
       </c>
-      <c r="E19" s="60">
+      <c r="E19" s="58">
         <v>9.2401000999999996E-2</v>
       </c>
-      <c r="F19" s="60">
+      <c r="F19" s="58">
         <v>2.2715029999999998E-3</v>
       </c>
-      <c r="G19" s="60">
+      <c r="G19" s="58">
         <v>8.7793080999999998E-4</v>
       </c>
-      <c r="H19" s="60">
+      <c r="H19" s="58">
         <v>0.29167724</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="32">
+      <c r="A20" s="30">
         <v>31</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="47" t="s">
         <v>138</v>
       </c>
-      <c r="C20" s="61">
+      <c r="C20" s="59">
         <v>1.398646E-5</v>
       </c>
-      <c r="D20" s="61">
+      <c r="D20" s="59">
         <v>1.0869945000000001</v>
       </c>
-      <c r="E20" s="61">
+      <c r="E20" s="59">
         <v>0.18026732000000001</v>
       </c>
-      <c r="F20" s="61">
+      <c r="F20" s="59">
         <v>7.1452427000000002E-3</v>
       </c>
-      <c r="G20" s="61">
+      <c r="G20" s="59">
         <v>1.8322938999999999E-3</v>
       </c>
-      <c r="H20" s="61">
+      <c r="H20" s="59">
         <v>1.1594272000000001</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="32">
+      <c r="A21" s="30">
         <v>25</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="43" t="s">
         <v>139</v>
       </c>
-      <c r="C21" s="61">
+      <c r="C21" s="59">
         <v>1.4474578E-5</v>
       </c>
-      <c r="D21" s="61">
+      <c r="D21" s="59">
         <v>2.1134135000000001</v>
       </c>
-      <c r="E21" s="61">
+      <c r="E21" s="59">
         <v>0.22375627000000001</v>
       </c>
-      <c r="F21" s="61">
+      <c r="F21" s="59">
         <v>7.2554300000000002E-3</v>
       </c>
-      <c r="G21" s="61">
+      <c r="G21" s="59">
         <v>1.8719005000000001E-3</v>
       </c>
-      <c r="H21" s="61">
+      <c r="H21" s="59">
         <v>1.1395907999999999</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="58">
+      <c r="A22" s="56">
         <v>30</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="C22" s="62">
+      <c r="C22" s="60">
         <v>1.4238930000000001E-3</v>
       </c>
-      <c r="D22" s="62">
+      <c r="D22" s="60">
         <v>1.2922062999999999</v>
       </c>
-      <c r="E22" s="62">
+      <c r="E22" s="60">
         <v>0.19672819999999999</v>
       </c>
-      <c r="F22" s="62">
+      <c r="F22" s="60">
         <v>8.0315088999999996E-3</v>
       </c>
-      <c r="G22" s="62">
+      <c r="G22" s="60">
         <v>2.7384863000000001E-3</v>
       </c>
-      <c r="H22" s="62">
+      <c r="H22" s="60">
         <v>0.89059001000000004</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A19:A21 A2:A16">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
       <formula>ROW(A2)=$C$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
       <formula>COLUMN(A2)=$D$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -497,7 +497,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="162">
   <si>
     <t>Feed Scenario</t>
   </si>
@@ -829,16 +829,7 @@
     <t>LCA_Land competition CML non baseline (m2a)</t>
   </si>
   <si>
-    <t>GSS-MAX_BIS_N</t>
-  </si>
-  <si>
     <t>GSS-MAX_BIS_F_N</t>
-  </si>
-  <si>
-    <t>GSS-MAX_BIS_F</t>
-  </si>
-  <si>
-    <t>GSS-MAX_BIS</t>
   </si>
   <si>
     <t>NPN, %DM</t>
@@ -1002,7 +993,7 @@
     <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1151,17 +1142,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF080808"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1226,7 +1206,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1263,30 +1243,6 @@
         <color rgb="FF5B9BD5"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.39997558519241921"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1345,7 +1301,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1370,20 +1326,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1394,14 +1347,14 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1429,11 +1382,11 @@
     <xf numFmtId="0" fontId="16" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1446,20 +1399,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2729,6 +2685,7 @@
           <bgColor theme="4"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -6742,7 +6699,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6796,7 +6753,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6850,7 +6807,7 @@
       <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7401,8 +7358,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="scenario" displayName="scenario" ref="A1:X8" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66" tableBorderDxfId="65">
-  <autoFilter ref="A1:X8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="scenario" displayName="scenario" ref="A1:X5" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66" tableBorderDxfId="65">
+  <autoFilter ref="A1:X5"/>
   <tableColumns count="24">
     <tableColumn id="1" name="ID" dataDxfId="64"/>
     <tableColumn id="2" name="Feed Scenario" dataDxfId="63"/>
@@ -7519,7 +7476,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela26" displayName="Tabela26" ref="A1:H22" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H22"/>
   <sortState ref="A2:H22">
-    <sortCondition ref="A1:A22"/>
+    <sortCondition ref="E1:E22"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" name="ID" dataDxfId="7" dataCellStyle="Normal 3"/>
@@ -7804,7 +7761,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7842,16 +7799,16 @@
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="28">
         <v>3</v>
       </c>
-      <c r="C2" s="30">
-        <v>0</v>
-      </c>
-      <c r="D2" s="30">
+      <c r="C2" s="27">
+        <v>0</v>
+      </c>
+      <c r="D2" s="27">
         <v>4</v>
       </c>
-      <c r="E2" s="45">
+      <c r="E2" s="42">
         <v>0.39074999999999999</v>
       </c>
       <c r="F2" s="16" t="str">
@@ -7863,16 +7820,16 @@
       <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="28">
         <v>4</v>
       </c>
       <c r="C3" s="17">
         <v>0</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="27">
         <v>40</v>
       </c>
-      <c r="E3" s="44">
+      <c r="E3" s="41">
         <v>0.22500000000000001</v>
       </c>
       <c r="F3" s="16" t="str">
@@ -7884,7 +7841,7 @@
       <c r="A4" s="16">
         <v>1</v>
       </c>
-      <c r="B4" s="31">
+      <c r="B4" s="28">
         <v>5</v>
       </c>
       <c r="C4" s="17">
@@ -7893,7 +7850,7 @@
       <c r="D4" s="17">
         <v>30</v>
       </c>
-      <c r="E4" s="44">
+      <c r="E4" s="41">
         <v>0.22575000000000001</v>
       </c>
       <c r="F4" s="16" t="str">
@@ -7905,7 +7862,7 @@
       <c r="A5" s="16">
         <v>1</v>
       </c>
-      <c r="B5" s="31">
+      <c r="B5" s="28">
         <v>6</v>
       </c>
       <c r="C5" s="17">
@@ -7914,7 +7871,7 @@
       <c r="D5" s="17">
         <v>20</v>
       </c>
-      <c r="E5" s="44">
+      <c r="E5" s="41">
         <v>0.78425</v>
       </c>
       <c r="F5" s="16" t="str">
@@ -7926,7 +7883,7 @@
       <c r="A6" s="16">
         <v>1</v>
       </c>
-      <c r="B6" s="31">
+      <c r="B6" s="28">
         <v>8</v>
       </c>
       <c r="C6" s="17">
@@ -7935,7 +7892,7 @@
       <c r="D6" s="17">
         <v>8</v>
       </c>
-      <c r="E6" s="44">
+      <c r="E6" s="41">
         <v>0.23025000000000001</v>
       </c>
       <c r="F6" s="16" t="str">
@@ -7947,7 +7904,7 @@
       <c r="A7" s="16">
         <v>1</v>
       </c>
-      <c r="B7" s="31">
+      <c r="B7" s="28">
         <v>9</v>
       </c>
       <c r="C7" s="17">
@@ -7956,7 +7913,7 @@
       <c r="D7" s="17">
         <v>50</v>
       </c>
-      <c r="E7" s="44">
+      <c r="E7" s="41">
         <v>0.26624999999999999</v>
       </c>
       <c r="F7" s="16" t="str">
@@ -7968,16 +7925,16 @@
       <c r="A8" s="16">
         <v>1</v>
       </c>
-      <c r="B8" s="31">
+      <c r="B8" s="28">
         <v>10</v>
       </c>
       <c r="C8" s="17">
         <v>0</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="27">
         <v>2</v>
       </c>
-      <c r="E8" s="44">
+      <c r="E8" s="41">
         <v>0.91974999999999996</v>
       </c>
       <c r="F8" s="16" t="str">
@@ -7989,16 +7946,16 @@
       <c r="A9" s="16">
         <v>1</v>
       </c>
-      <c r="B9" s="31">
+      <c r="B9" s="28">
         <v>12</v>
       </c>
       <c r="C9" s="17">
         <v>0</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="27">
         <v>30</v>
       </c>
-      <c r="E9" s="44">
+      <c r="E9" s="41">
         <v>0.182</v>
       </c>
       <c r="F9" s="16" t="str">
@@ -8010,16 +7967,16 @@
       <c r="A10" s="16">
         <v>1</v>
       </c>
-      <c r="B10" s="31">
+      <c r="B10" s="28">
         <v>16</v>
       </c>
       <c r="C10" s="17">
         <v>0</v>
       </c>
-      <c r="D10" s="30">
-        <v>2</v>
-      </c>
-      <c r="E10" s="44">
+      <c r="D10" s="27">
+        <v>0</v>
+      </c>
+      <c r="E10" s="41">
         <v>0.89075000000000004</v>
       </c>
       <c r="F10" s="16" t="str">
@@ -8031,16 +7988,16 @@
       <c r="A11" s="16">
         <v>1</v>
       </c>
-      <c r="B11" s="31">
+      <c r="B11" s="28">
         <v>17</v>
       </c>
       <c r="C11" s="17">
         <v>0</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="27">
         <v>30</v>
       </c>
-      <c r="E11" s="44">
+      <c r="E11" s="41">
         <v>0.1305</v>
       </c>
       <c r="F11" s="16" t="str">
@@ -8052,16 +8009,16 @@
       <c r="A12" s="16">
         <v>1</v>
       </c>
-      <c r="B12" s="31">
+      <c r="B12" s="28">
         <v>18</v>
       </c>
       <c r="C12" s="17">
         <v>0</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="27">
         <v>30</v>
       </c>
-      <c r="E12" s="44">
+      <c r="E12" s="41">
         <v>0.3095</v>
       </c>
       <c r="F12" s="16" t="str">
@@ -8073,16 +8030,16 @@
       <c r="A13" s="16">
         <v>1</v>
       </c>
-      <c r="B13" s="31">
+      <c r="B13" s="28">
         <v>19</v>
       </c>
       <c r="C13" s="17">
         <v>0</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="27">
         <v>30</v>
       </c>
-      <c r="E13" s="44">
+      <c r="E13" s="41">
         <v>0.222</v>
       </c>
       <c r="F13" s="16" t="str">
@@ -8094,19 +8051,19 @@
       <c r="A14" s="16">
         <v>1</v>
       </c>
-      <c r="B14" s="31">
+      <c r="B14" s="28">
         <v>20</v>
       </c>
       <c r="C14" s="17">
         <v>0</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="27">
         <v>40</v>
       </c>
-      <c r="E14" s="44">
+      <c r="E14" s="41">
         <v>0.20399999999999999</v>
       </c>
-      <c r="F14" s="53" t="str">
+      <c r="F14" s="50" t="str">
         <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[#Data],2,0)</f>
         <v>Wheat gluten feed</v>
       </c>
@@ -8115,16 +8072,16 @@
       <c r="A15" s="16">
         <v>1</v>
       </c>
-      <c r="B15" s="31">
+      <c r="B15" s="28">
         <v>21</v>
       </c>
       <c r="C15" s="17">
         <v>0</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="27">
         <v>30</v>
       </c>
-      <c r="E15" s="44">
+      <c r="E15" s="41">
         <v>0.16425000000000001</v>
       </c>
       <c r="F15" s="16" t="str">
@@ -8136,16 +8093,16 @@
       <c r="A16" s="16">
         <v>1</v>
       </c>
-      <c r="B16" s="31">
+      <c r="B16" s="28">
         <v>25</v>
       </c>
       <c r="C16" s="17">
         <v>0</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="27">
         <v>100</v>
       </c>
-      <c r="E16" s="44">
+      <c r="E16" s="41">
         <v>9.0749999999999997E-2</v>
       </c>
       <c r="F16" s="16" t="str">
@@ -8157,16 +8114,16 @@
       <c r="A17" s="16">
         <v>1</v>
       </c>
-      <c r="B17" s="31">
+      <c r="B17" s="28">
         <v>28</v>
       </c>
       <c r="C17" s="17">
         <v>0</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="27">
         <v>10</v>
       </c>
-      <c r="E17" s="44">
+      <c r="E17" s="41">
         <v>0.24766666666666665</v>
       </c>
       <c r="F17" s="16" t="str">
@@ -8178,16 +8135,16 @@
       <c r="A18" s="16">
         <v>1</v>
       </c>
-      <c r="B18" s="31">
+      <c r="B18" s="28">
         <v>29</v>
       </c>
       <c r="C18" s="17">
         <v>0</v>
       </c>
-      <c r="D18" s="49">
+      <c r="D18" s="46">
         <v>10</v>
       </c>
-      <c r="E18" s="54">
+      <c r="E18" s="51">
         <v>0.29599999999999999</v>
       </c>
       <c r="F18" s="16" t="str">
@@ -8199,7 +8156,7 @@
       <c r="A19" s="16">
         <v>1</v>
       </c>
-      <c r="B19" s="31">
+      <c r="B19" s="28">
         <v>30</v>
       </c>
       <c r="C19" s="17">
@@ -8208,7 +8165,7 @@
       <c r="D19" s="17">
         <v>100</v>
       </c>
-      <c r="E19" s="45">
+      <c r="E19" s="42">
         <v>5.2600000000000001E-2</v>
       </c>
       <c r="F19" s="16" t="str">
@@ -8220,7 +8177,7 @@
       <c r="A20" s="16">
         <v>1</v>
       </c>
-      <c r="B20" s="31">
+      <c r="B20" s="28">
         <v>31</v>
       </c>
       <c r="C20" s="17">
@@ -8229,7 +8186,7 @@
       <c r="D20" s="17">
         <v>100</v>
       </c>
-      <c r="E20" s="45">
+      <c r="E20" s="42">
         <v>7.6749999999999999E-2</v>
       </c>
       <c r="F20" s="16" t="str">
@@ -8252,111 +8209,103 @@
   <sheetPr codeName="Planilha2">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:X40"/>
+  <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="X6" sqref="X6"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="4.140625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="42.28515625" customWidth="1"/>
-    <col min="17" max="17" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="1025" width="8.7109375" customWidth="1"/>
+    <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A1" s="23" t="s">
+    <row r="1" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="B1" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="64" t="s">
         <v>86</v>
       </c>
-      <c r="G1" s="26" t="s">
+      <c r="G1" s="65" t="s">
         <v>87</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="23" t="s">
+      <c r="L1" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="23" t="s">
+      <c r="R1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="64" t="s">
         <v>89</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="V1" s="64" t="s">
         <v>84</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="W1" s="64" t="s">
         <v>91</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="66" t="s">
         <v>92</v>
       </c>
     </row>
@@ -8371,7 +8320,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E2" s="19">
         <v>336</v>
@@ -8383,7 +8332,7 @@
         <v>595</v>
       </c>
       <c r="H2" s="19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I2" s="19">
         <v>1</v>
@@ -8404,16 +8353,16 @@
         <v>2.41</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q2" s="19">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="R2" s="19">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="S2" s="19">
         <v>0.01</v>
@@ -8445,7 +8394,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E3" s="19">
         <v>336</v>
@@ -8457,7 +8406,7 @@
         <v>595</v>
       </c>
       <c r="H3" s="22">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="I3" s="22">
         <v>1</v>
@@ -8481,13 +8430,13 @@
         <v>93</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Q3" s="19">
-        <v>1.78</v>
+        <v>1.43</v>
       </c>
       <c r="R3" s="19">
-        <v>1.92</v>
+        <v>2.09</v>
       </c>
       <c r="S3" s="22">
         <v>1E-3</v>
@@ -8509,374 +8458,164 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="65">
+      <c r="A4" s="19">
+        <v>3</v>
+      </c>
+      <c r="B4" s="22">
+        <v>1</v>
+      </c>
+      <c r="C4" s="19">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4" s="19">
+        <v>336</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0</v>
+      </c>
+      <c r="G4" s="18">
+        <v>595</v>
+      </c>
+      <c r="H4" s="22">
+        <v>6</v>
+      </c>
+      <c r="I4" s="22">
+        <v>1</v>
+      </c>
+      <c r="J4" s="22">
+        <v>1</v>
+      </c>
+      <c r="K4" s="22">
+        <v>1</v>
+      </c>
+      <c r="L4" s="22">
+        <v>0</v>
+      </c>
+      <c r="M4" s="19">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N4" s="20">
+        <v>2.41</v>
+      </c>
+      <c r="O4" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q4" s="19">
+        <v>1.75</v>
+      </c>
+      <c r="R4" s="19">
+        <v>1.9</v>
+      </c>
+      <c r="S4" s="22">
+        <v>1E-3</v>
+      </c>
+      <c r="T4" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="U4" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="V4" s="22">
+        <v>0</v>
+      </c>
+      <c r="W4" s="22">
+        <v>0.1</v>
+      </c>
+      <c r="X4" s="21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" s="67" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="59">
         <v>-1</v>
       </c>
-      <c r="B4" s="66">
+      <c r="B5" s="60">
         <v>1</v>
       </c>
-      <c r="C4" s="65">
-        <v>0</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="65">
+      <c r="C5" s="59">
+        <v>0</v>
+      </c>
+      <c r="D5" s="60" t="s">
+        <v>115</v>
+      </c>
+      <c r="E5" s="59">
         <v>336</v>
       </c>
-      <c r="F4" s="65">
-        <v>0</v>
-      </c>
-      <c r="G4" s="67">
+      <c r="F5" s="59">
+        <v>0</v>
+      </c>
+      <c r="G5" s="61">
         <v>595</v>
       </c>
-      <c r="H4" s="66">
+      <c r="H5" s="60">
+        <v>6</v>
+      </c>
+      <c r="I5" s="60">
+        <v>1</v>
+      </c>
+      <c r="J5" s="60">
+        <v>1</v>
+      </c>
+      <c r="K5" s="60">
+        <v>1</v>
+      </c>
+      <c r="L5" s="60">
+        <v>0</v>
+      </c>
+      <c r="M5" s="59">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="N5" s="62">
+        <v>2.41</v>
+      </c>
+      <c r="O5" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="P5" s="60" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q5" s="19">
+        <v>1.75</v>
+      </c>
+      <c r="R5" s="19">
+        <v>1.9</v>
+      </c>
+      <c r="S5" s="60">
+        <v>1E-3</v>
+      </c>
+      <c r="T5" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="U5" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="V5" s="60">
+        <v>0</v>
+      </c>
+      <c r="W5" s="60">
+        <v>0.1</v>
+      </c>
+      <c r="X5" s="63">
         <v>5</v>
       </c>
-      <c r="I4" s="66">
-        <v>1</v>
-      </c>
-      <c r="J4" s="66">
-        <v>1</v>
-      </c>
-      <c r="K4" s="66">
-        <v>1</v>
-      </c>
-      <c r="L4" s="66">
-        <v>0</v>
-      </c>
-      <c r="M4" s="65">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="N4" s="68">
-        <v>2.41</v>
-      </c>
-      <c r="O4" s="66" t="s">
-        <v>93</v>
-      </c>
-      <c r="P4" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q4" s="65">
-        <v>1.3</v>
-      </c>
-      <c r="R4" s="65">
-        <v>2.1</v>
-      </c>
-      <c r="S4" s="66">
-        <v>0.01</v>
-      </c>
-      <c r="T4" s="66" t="s">
-        <v>90</v>
-      </c>
-      <c r="U4" s="66" t="s">
-        <v>88</v>
-      </c>
-      <c r="V4" s="66">
-        <v>0</v>
-      </c>
-      <c r="W4" s="66">
-        <v>0.1</v>
-      </c>
-      <c r="X4" s="69">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5" s="65">
-        <v>-1</v>
-      </c>
-      <c r="B5" s="65">
-        <v>1</v>
-      </c>
-      <c r="C5" s="65">
-        <v>0</v>
-      </c>
-      <c r="D5" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="E5" s="65">
-        <v>336</v>
-      </c>
-      <c r="F5" s="65">
-        <v>0</v>
-      </c>
-      <c r="G5" s="67">
-        <v>595</v>
-      </c>
-      <c r="H5" s="65">
-        <v>5</v>
-      </c>
-      <c r="I5" s="65">
-        <v>1</v>
-      </c>
-      <c r="J5" s="65">
-        <v>1</v>
-      </c>
-      <c r="K5" s="65">
-        <v>1</v>
-      </c>
-      <c r="L5" s="65">
-        <v>0</v>
-      </c>
-      <c r="M5" s="65">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="N5" s="68">
-        <v>2.41</v>
-      </c>
-      <c r="O5" s="65" t="s">
-        <v>93</v>
-      </c>
-      <c r="P5" s="65" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q5" s="65">
-        <v>1.3</v>
-      </c>
-      <c r="R5" s="65">
-        <v>2.1</v>
-      </c>
-      <c r="S5" s="66">
-        <v>0.01</v>
-      </c>
-      <c r="T5" s="65" t="s">
-        <v>90</v>
-      </c>
-      <c r="U5" s="65" t="s">
-        <v>88</v>
-      </c>
-      <c r="V5" s="65">
-        <v>0</v>
-      </c>
-      <c r="W5" s="65">
-        <v>0.1</v>
-      </c>
-      <c r="X5" s="67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
-        <v>5</v>
-      </c>
-      <c r="B6" s="22">
-        <v>1</v>
-      </c>
-      <c r="C6" s="19">
-        <v>0</v>
-      </c>
-      <c r="D6" s="22" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="19">
-        <v>336</v>
-      </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="18">
-        <v>595</v>
-      </c>
-      <c r="H6" s="22">
-        <v>5</v>
-      </c>
-      <c r="I6" s="22">
-        <v>1</v>
-      </c>
-      <c r="J6" s="22">
-        <v>1</v>
-      </c>
-      <c r="K6" s="22">
-        <v>1</v>
-      </c>
-      <c r="L6" s="22">
-        <v>0</v>
-      </c>
-      <c r="M6" s="19">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="N6" s="20">
-        <v>2.41</v>
-      </c>
-      <c r="O6" s="22" t="s">
-        <v>93</v>
-      </c>
-      <c r="P6" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q6" s="19">
-        <v>1.78</v>
-      </c>
-      <c r="R6" s="19">
-        <v>1.92</v>
-      </c>
-      <c r="S6" s="22">
-        <v>1E-3</v>
-      </c>
-      <c r="T6" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="U6" s="22" t="s">
-        <v>88</v>
-      </c>
-      <c r="V6" s="22">
-        <v>0</v>
-      </c>
-      <c r="W6" s="22">
-        <v>0.1</v>
-      </c>
-      <c r="X6" s="21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7" s="65">
-        <v>-1</v>
-      </c>
-      <c r="B7" s="71">
-        <v>1</v>
-      </c>
-      <c r="C7" s="65">
-        <v>0</v>
-      </c>
-      <c r="D7" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" s="65">
-        <v>336</v>
-      </c>
-      <c r="F7" s="65">
-        <v>0</v>
-      </c>
-      <c r="G7" s="67">
-        <v>595</v>
-      </c>
-      <c r="H7" s="71">
-        <v>5</v>
-      </c>
-      <c r="I7" s="71">
-        <v>1</v>
-      </c>
-      <c r="J7" s="71">
-        <v>1</v>
-      </c>
-      <c r="K7" s="71">
-        <v>1</v>
-      </c>
-      <c r="L7" s="71">
-        <v>0</v>
-      </c>
-      <c r="M7" s="65">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="N7" s="68">
-        <v>2.41</v>
-      </c>
-      <c r="O7" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="P7" s="71" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q7" s="65">
-        <v>1.3</v>
-      </c>
-      <c r="R7" s="65">
-        <v>2.1</v>
-      </c>
-      <c r="S7" s="66">
-        <v>0.01</v>
-      </c>
-      <c r="T7" s="71" t="s">
-        <v>90</v>
-      </c>
-      <c r="U7" s="71" t="s">
-        <v>88</v>
-      </c>
-      <c r="V7" s="71">
-        <v>0</v>
-      </c>
-      <c r="W7" s="71">
-        <v>0.1</v>
-      </c>
-      <c r="X7" s="70">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8" s="62">
-        <v>-1</v>
-      </c>
-      <c r="B8" s="62">
-        <v>1</v>
-      </c>
-      <c r="C8" s="62">
-        <v>0</v>
-      </c>
-      <c r="D8" s="62" t="s">
-        <v>118</v>
-      </c>
-      <c r="E8" s="62">
-        <v>336</v>
-      </c>
-      <c r="F8" s="62">
-        <v>0</v>
-      </c>
-      <c r="G8" s="63">
-        <v>595</v>
-      </c>
-      <c r="H8" s="62">
-        <v>5</v>
-      </c>
-      <c r="I8" s="62">
-        <v>1</v>
-      </c>
-      <c r="J8" s="62">
-        <v>1</v>
-      </c>
-      <c r="K8" s="62">
-        <v>1</v>
-      </c>
-      <c r="L8" s="62">
-        <v>0</v>
-      </c>
-      <c r="M8" s="62">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="N8" s="64">
-        <v>2.41</v>
-      </c>
-      <c r="O8" s="62" t="s">
-        <v>93</v>
-      </c>
-      <c r="P8" s="62" t="s">
-        <v>111</v>
-      </c>
-      <c r="Q8" s="62">
-        <v>1.6</v>
-      </c>
-      <c r="R8" s="62">
-        <v>1.61</v>
-      </c>
-      <c r="S8" s="22">
-        <v>1E-3</v>
-      </c>
-      <c r="T8" s="62" t="s">
-        <v>90</v>
-      </c>
-      <c r="U8" s="62" t="s">
-        <v>88</v>
-      </c>
-      <c r="V8" s="62">
-        <v>0</v>
-      </c>
-      <c r="W8" s="62">
-        <v>0.1</v>
-      </c>
-      <c r="X8" s="63">
-        <v>4</v>
-      </c>
+    </row>
+    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F18"/>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F19"/>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
+      <c r="F20"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F21"/>
@@ -8887,15 +8626,18 @@
       <c r="H22" s="2"/>
     </row>
     <row r="23" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="F23"/>
+      <c r="E23" s="2"/>
+      <c r="G23"/>
       <c r="H23" s="2"/>
     </row>
     <row r="24" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="F24"/>
+      <c r="E24" s="2"/>
+      <c r="G24"/>
       <c r="H24" s="2"/>
     </row>
     <row r="25" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="F25"/>
+      <c r="E25" s="2"/>
+      <c r="G25"/>
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="5:8" x14ac:dyDescent="0.25">
@@ -8933,30 +8675,69 @@
       <c r="G32"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E33" s="2"/>
-      <c r="G33"/>
-      <c r="H33" s="2"/>
-    </row>
-    <row r="34" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E34" s="2"/>
-      <c r="G34"/>
-      <c r="H34" s="2"/>
-    </row>
-    <row r="35" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="E35" s="2"/>
-      <c r="G35"/>
-      <c r="H35" s="2"/>
-    </row>
-    <row r="39" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39"/>
-    </row>
-    <row r="40" spans="4:8" x14ac:dyDescent="0.25">
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40"/>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36"/>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37"/>
+    </row>
+    <row r="51" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H55" s="2"/>
+    </row>
+    <row r="56" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H56" s="2"/>
+    </row>
+    <row r="57" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H57" s="2"/>
+    </row>
+    <row r="58" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H58" s="2"/>
+    </row>
+    <row r="59" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H60" s="2"/>
+    </row>
+    <row r="61" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H61" s="2"/>
+    </row>
+    <row r="62" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="66" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+    </row>
+    <row r="67" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+    </row>
+    <row r="68" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H68" s="2"/>
+      <c r="I68" s="2"/>
+    </row>
+    <row r="69" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H69" s="2"/>
+      <c r="I69" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
@@ -9017,10 +8798,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -9049,10 +8830,10 @@
   <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2:B22"/>
+      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9138,41 +8919,41 @@
         <v>54</v>
       </c>
       <c r="T1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="28">
+        <v>3</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" s="31">
-        <v>3</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="34">
-        <v>0</v>
-      </c>
-      <c r="D2" s="34">
+      <c r="C2" s="31">
+        <v>0</v>
+      </c>
+      <c r="D2" s="31">
         <v>99</v>
       </c>
-      <c r="E2" s="34">
+      <c r="E2" s="31">
         <v>281</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="31">
         <v>100</v>
       </c>
-      <c r="G2" s="34">
-        <v>0</v>
-      </c>
-      <c r="H2" s="34">
-        <v>0</v>
-      </c>
-      <c r="I2" s="34">
+      <c r="G2" s="31">
+        <v>0</v>
+      </c>
+      <c r="H2" s="31">
+        <v>0</v>
+      </c>
+      <c r="I2" s="31">
         <v>0</v>
       </c>
       <c r="J2" s="2">
         <v>0</v>
       </c>
-      <c r="K2" s="31">
+      <c r="K2" s="28">
         <v>0</v>
       </c>
       <c r="L2" s="2">
@@ -9204,31 +8985,31 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="31">
+      <c r="A3" s="28">
         <v>4</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="34">
-        <v>0</v>
-      </c>
-      <c r="D3" s="34">
+      <c r="B3" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="31">
+        <v>0</v>
+      </c>
+      <c r="D3" s="31">
         <v>91</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="31">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="32">
         <v>27</v>
       </c>
-      <c r="G3" s="35">
+      <c r="G3" s="32">
         <v>11</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="31">
         <v>7.93</v>
       </c>
-      <c r="I3" s="34">
+      <c r="I3" s="31">
         <v>0</v>
       </c>
       <c r="J3" s="2">
@@ -9266,31 +9047,31 @@
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="31">
+      <c r="A4" s="28">
         <v>5</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="34">
-        <v>0</v>
-      </c>
-      <c r="D4" s="34">
+        <v>119</v>
+      </c>
+      <c r="C4" s="31">
+        <v>0</v>
+      </c>
+      <c r="D4" s="31">
         <v>89.6</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="31">
         <v>24</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="31">
         <v>54</v>
       </c>
-      <c r="G4" s="34">
+      <c r="G4" s="31">
         <v>3.8</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="31">
         <v>13.06</v>
       </c>
-      <c r="I4" s="34">
+      <c r="I4" s="31">
         <v>0</v>
       </c>
       <c r="J4" s="2">
@@ -9328,31 +9109,31 @@
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="31">
+      <c r="A5" s="28">
         <v>6</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="34">
-        <v>0</v>
-      </c>
-      <c r="D5" s="34">
+        <v>120</v>
+      </c>
+      <c r="C5" s="31">
+        <v>0</v>
+      </c>
+      <c r="D5" s="31">
         <v>92.7</v>
       </c>
-      <c r="E5" s="34">
+      <c r="E5" s="31">
         <v>65.5</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="31">
         <v>6.4</v>
       </c>
-      <c r="G5" s="34">
+      <c r="G5" s="31">
         <v>3.9</v>
       </c>
-      <c r="H5" s="34">
+      <c r="H5" s="31">
         <v>1.58</v>
       </c>
-      <c r="I5" s="34">
+      <c r="I5" s="31">
         <v>0</v>
       </c>
       <c r="J5" s="2">
@@ -9390,31 +9171,31 @@
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="31">
+      <c r="A6" s="28">
         <v>7</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="34">
-        <v>0</v>
-      </c>
-      <c r="D6" s="34">
+        <v>121</v>
+      </c>
+      <c r="C6" s="31">
+        <v>0</v>
+      </c>
+      <c r="D6" s="31">
         <v>89</v>
       </c>
-      <c r="E6" s="34">
+      <c r="E6" s="31">
         <v>3.1</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="31">
         <v>25</v>
       </c>
-      <c r="G6" s="34">
+      <c r="G6" s="31">
         <v>5</v>
       </c>
-      <c r="H6" s="34">
+      <c r="H6" s="31">
         <v>4.3</v>
       </c>
-      <c r="I6" s="34">
+      <c r="I6" s="31">
         <v>0</v>
       </c>
       <c r="J6" s="2">
@@ -9452,31 +9233,31 @@
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="31">
+      <c r="A7" s="28">
         <v>8</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="34">
-        <v>0</v>
-      </c>
-      <c r="D7" s="34">
+        <v>122</v>
+      </c>
+      <c r="C7" s="31">
+        <v>0</v>
+      </c>
+      <c r="D7" s="31">
         <v>75</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="31">
         <v>8.5</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="31">
         <v>100</v>
       </c>
-      <c r="G7" s="34">
-        <v>0</v>
-      </c>
-      <c r="H7" s="34">
+      <c r="G7" s="31">
+        <v>0</v>
+      </c>
+      <c r="H7" s="31">
         <v>70</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="31">
         <v>4</v>
       </c>
       <c r="J7" s="2">
@@ -9514,31 +9295,31 @@
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="31">
+      <c r="A8" s="28">
         <v>9</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="34">
-        <v>0</v>
-      </c>
-      <c r="D8" s="34">
+        <v>123</v>
+      </c>
+      <c r="C8" s="31">
+        <v>0</v>
+      </c>
+      <c r="D8" s="31">
         <v>90.1</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="31">
         <v>41.5</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="31">
         <v>30</v>
       </c>
-      <c r="G8" s="34">
+      <c r="G8" s="31">
         <v>6.2</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="31">
         <v>10.34</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="31">
         <v>0</v>
       </c>
       <c r="J8" s="2">
@@ -9576,31 +9357,31 @@
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="31">
+      <c r="A9" s="28">
         <v>10</v>
       </c>
-      <c r="B9" s="30" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="34">
-        <v>0</v>
-      </c>
-      <c r="D9" s="34">
+      <c r="B9" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="31">
+        <v>0</v>
+      </c>
+      <c r="D9" s="31">
         <v>99</v>
       </c>
-      <c r="E9" s="34">
-        <v>0</v>
-      </c>
-      <c r="F9" s="34">
-        <v>0</v>
-      </c>
-      <c r="G9" s="34">
-        <v>0</v>
-      </c>
-      <c r="H9" s="34">
-        <v>0</v>
-      </c>
-      <c r="I9" s="34">
+      <c r="E9" s="31">
+        <v>0</v>
+      </c>
+      <c r="F9" s="31">
+        <v>0</v>
+      </c>
+      <c r="G9" s="31">
+        <v>0</v>
+      </c>
+      <c r="H9" s="31">
+        <v>0</v>
+      </c>
+      <c r="I9" s="31">
         <v>0</v>
       </c>
       <c r="J9" s="2">
@@ -9638,31 +9419,31 @@
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="31">
+      <c r="A10" s="28">
         <v>11</v>
       </c>
-      <c r="B10" s="30" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="34">
-        <v>0</v>
-      </c>
-      <c r="D10" s="34">
+      <c r="B10" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C10" s="31">
+        <v>0</v>
+      </c>
+      <c r="D10" s="31">
         <v>93.6</v>
       </c>
-      <c r="E10" s="34">
+      <c r="E10" s="31">
         <v>42.79</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="31">
         <v>8</v>
       </c>
-      <c r="G10" s="34">
+      <c r="G10" s="31">
         <v>3</v>
       </c>
-      <c r="H10" s="34">
+      <c r="H10" s="31">
         <v>13.5</v>
       </c>
-      <c r="I10" s="34">
+      <c r="I10" s="31">
         <v>0</v>
       </c>
       <c r="J10" s="2">
@@ -9700,37 +9481,37 @@
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="31">
+      <c r="A11" s="28">
         <v>12</v>
       </c>
-      <c r="B11" s="30" t="s">
-        <v>130</v>
-      </c>
-      <c r="C11" s="34">
-        <v>0</v>
-      </c>
-      <c r="D11" s="34">
+      <c r="B11" s="27" t="s">
+        <v>127</v>
+      </c>
+      <c r="C11" s="31">
+        <v>0</v>
+      </c>
+      <c r="D11" s="31">
         <v>93</v>
       </c>
-      <c r="E11" s="34">
+      <c r="E11" s="31">
         <v>26.3</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="31">
         <v>33.75</v>
       </c>
-      <c r="G11" s="34">
+      <c r="G11" s="31">
         <v>6.2</v>
       </c>
-      <c r="H11" s="34">
+      <c r="H11" s="31">
         <v>10.119999999999999</v>
       </c>
-      <c r="I11" s="34">
+      <c r="I11" s="31">
         <v>0</v>
       </c>
       <c r="J11" s="2">
         <v>2.6</v>
       </c>
-      <c r="K11" s="31">
+      <c r="K11" s="28">
         <v>3.0800000000000001E-2</v>
       </c>
       <c r="L11" s="2">
@@ -9762,31 +9543,31 @@
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
+      <c r="A12" s="28">
         <v>16</v>
       </c>
-      <c r="B12" s="30" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="34">
-        <v>0</v>
-      </c>
-      <c r="D12" s="34">
+      <c r="B12" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="31">
+        <v>0</v>
+      </c>
+      <c r="D12" s="31">
         <v>99</v>
       </c>
-      <c r="E12" s="34">
-        <v>0</v>
-      </c>
-      <c r="F12" s="34">
-        <v>0</v>
-      </c>
-      <c r="G12" s="34">
-        <v>0</v>
-      </c>
-      <c r="H12" s="34">
-        <v>0</v>
-      </c>
-      <c r="I12" s="34">
+      <c r="E12" s="31">
+        <v>0</v>
+      </c>
+      <c r="F12" s="31">
+        <v>0</v>
+      </c>
+      <c r="G12" s="31">
+        <v>0</v>
+      </c>
+      <c r="H12" s="31">
+        <v>0</v>
+      </c>
+      <c r="I12" s="31">
         <v>0</v>
       </c>
       <c r="J12" s="2">
@@ -9824,31 +9605,31 @@
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="31">
+      <c r="A13" s="28">
         <v>17</v>
       </c>
-      <c r="B13" s="30" t="s">
-        <v>133</v>
-      </c>
-      <c r="C13" s="34">
-        <v>0</v>
-      </c>
-      <c r="D13" s="34">
+      <c r="B13" s="27" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="31">
+        <v>0</v>
+      </c>
+      <c r="D13" s="31">
         <v>88.7</v>
       </c>
-      <c r="E13" s="34">
+      <c r="E13" s="31">
         <v>17</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="31">
         <v>41</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="31">
         <v>4</v>
       </c>
-      <c r="H13" s="34">
+      <c r="H13" s="31">
         <v>4.7300000000000004</v>
       </c>
-      <c r="I13" s="34">
+      <c r="I13" s="31">
         <v>0</v>
       </c>
       <c r="J13" s="2">
@@ -9886,31 +9667,31 @@
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="31">
+      <c r="A14" s="28">
         <v>18</v>
       </c>
-      <c r="B14" s="30" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="34">
-        <v>0</v>
-      </c>
-      <c r="D14" s="34">
+      <c r="B14" s="27" t="s">
+        <v>131</v>
+      </c>
+      <c r="C14" s="31">
+        <v>0</v>
+      </c>
+      <c r="D14" s="31">
         <v>92.6</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="31">
         <v>29</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="31">
         <v>4.5</v>
       </c>
-      <c r="G14" s="34">
+      <c r="G14" s="31">
         <v>9.86</v>
       </c>
-      <c r="H14" s="34">
+      <c r="H14" s="31">
         <v>2.62</v>
       </c>
-      <c r="I14" s="34">
+      <c r="I14" s="31">
         <v>0</v>
       </c>
       <c r="J14" s="2">
@@ -9948,31 +9729,31 @@
       </c>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="31">
+      <c r="A15" s="28">
         <v>19</v>
       </c>
-      <c r="B15" s="30" t="s">
-        <v>135</v>
-      </c>
-      <c r="C15" s="34">
-        <v>0</v>
-      </c>
-      <c r="D15" s="34">
+      <c r="B15" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="C15" s="31">
+        <v>0</v>
+      </c>
+      <c r="D15" s="31">
         <v>95</v>
       </c>
-      <c r="E15" s="34">
+      <c r="E15" s="31">
         <v>10</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="31">
         <v>25</v>
       </c>
-      <c r="G15" s="34">
+      <c r="G15" s="31">
         <v>0.8</v>
       </c>
-      <c r="H15" s="34">
+      <c r="H15" s="31">
         <v>1.6</v>
       </c>
-      <c r="I15" s="34">
+      <c r="I15" s="31">
         <v>0</v>
       </c>
       <c r="J15" s="2">
@@ -10010,31 +9791,31 @@
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="31">
+      <c r="A16" s="28">
         <v>20</v>
       </c>
-      <c r="B16" s="30" t="s">
-        <v>136</v>
-      </c>
-      <c r="C16" s="34">
-        <v>0</v>
-      </c>
-      <c r="D16" s="34">
+      <c r="B16" s="27" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="31">
+        <v>0</v>
+      </c>
+      <c r="D16" s="31">
         <v>88.5</v>
       </c>
-      <c r="E16" s="34">
+      <c r="E16" s="31">
         <v>20.100000000000001</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="31">
         <v>44</v>
       </c>
-      <c r="G16" s="34">
+      <c r="G16" s="31">
         <v>1.49</v>
       </c>
-      <c r="H16" s="34">
+      <c r="H16" s="31">
         <v>5.59</v>
       </c>
-      <c r="I16" s="34">
+      <c r="I16" s="31">
         <v>0</v>
       </c>
       <c r="J16" s="2">
@@ -10072,31 +9853,31 @@
       </c>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A17" s="31">
+      <c r="A17" s="28">
         <v>21</v>
       </c>
-      <c r="B17" s="30" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="34">
-        <v>0</v>
-      </c>
-      <c r="D17" s="34">
+      <c r="B17" s="27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" s="31">
+        <v>0</v>
+      </c>
+      <c r="D17" s="31">
         <v>89</v>
       </c>
-      <c r="E17" s="34">
+      <c r="E17" s="31">
         <v>18.39</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="31">
         <v>40</v>
       </c>
-      <c r="G17" s="34">
+      <c r="G17" s="31">
         <v>3</v>
       </c>
-      <c r="H17" s="34">
+      <c r="H17" s="31">
         <v>3.94</v>
       </c>
-      <c r="I17" s="34">
+      <c r="I17" s="31">
         <v>0</v>
       </c>
       <c r="J17" s="2">
@@ -10134,31 +9915,31 @@
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A18" s="31">
+      <c r="A18" s="28">
         <v>25</v>
       </c>
-      <c r="B18" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="34">
+      <c r="B18" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="31">
         <v>100</v>
       </c>
-      <c r="D18" s="37">
+      <c r="D18" s="34">
         <v>89</v>
       </c>
-      <c r="E18" s="37">
+      <c r="E18" s="34">
         <v>10</v>
       </c>
-      <c r="F18" s="38">
+      <c r="F18" s="35">
         <v>38</v>
       </c>
-      <c r="G18" s="38">
+      <c r="G18" s="35">
         <v>6.09</v>
       </c>
-      <c r="H18" s="38">
+      <c r="H18" s="35">
         <v>5.09</v>
       </c>
-      <c r="I18" s="38">
+      <c r="I18" s="35">
         <v>1</v>
       </c>
       <c r="J18" s="2">
@@ -10196,31 +9977,31 @@
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A19" s="31">
+      <c r="A19" s="28">
         <v>28</v>
       </c>
-      <c r="B19" s="30" t="s">
-        <v>129</v>
-      </c>
-      <c r="C19" s="34">
-        <v>0</v>
-      </c>
-      <c r="D19" s="34">
+      <c r="B19" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="C19" s="31">
+        <v>0</v>
+      </c>
+      <c r="D19" s="31">
         <v>93</v>
       </c>
-      <c r="E19" s="34">
+      <c r="E19" s="31">
         <v>40.200000000000003</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="31">
         <v>33.79</v>
       </c>
-      <c r="G19" s="34">
+      <c r="G19" s="31">
         <v>6.2</v>
       </c>
-      <c r="H19" s="34">
+      <c r="H19" s="31">
         <v>5.88</v>
       </c>
-      <c r="I19" s="34">
+      <c r="I19" s="31">
         <v>0</v>
       </c>
       <c r="J19" s="2">
@@ -10258,31 +10039,31 @@
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A20" s="31">
+      <c r="A20" s="28">
         <v>29</v>
       </c>
-      <c r="B20" s="30" t="s">
-        <v>131</v>
-      </c>
-      <c r="C20" s="34">
-        <v>0</v>
-      </c>
-      <c r="D20" s="34">
+      <c r="B20" s="27" t="s">
+        <v>128</v>
+      </c>
+      <c r="C20" s="31">
+        <v>0</v>
+      </c>
+      <c r="D20" s="31">
         <v>93</v>
       </c>
-      <c r="E20" s="34">
+      <c r="E20" s="31">
         <v>48.89</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="31">
         <v>33.79</v>
       </c>
-      <c r="G20" s="34">
+      <c r="G20" s="31">
         <v>6.2</v>
       </c>
-      <c r="H20" s="34">
+      <c r="H20" s="31">
         <v>4.3</v>
       </c>
-      <c r="I20" s="34">
+      <c r="I20" s="31">
         <v>0</v>
       </c>
       <c r="J20" s="2">
@@ -10320,37 +10101,37 @@
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A21" s="31">
+      <c r="A21" s="28">
         <v>30</v>
       </c>
-      <c r="B21" s="30" t="s">
-        <v>160</v>
-      </c>
-      <c r="C21" s="34">
+      <c r="B21" s="27" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="31">
         <v>100</v>
       </c>
-      <c r="D21" s="34">
+      <c r="D21" s="31">
         <v>35</v>
       </c>
-      <c r="E21" s="34">
+      <c r="E21" s="31">
         <v>8</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="31">
         <v>50</v>
       </c>
-      <c r="G21" s="34">
+      <c r="G21" s="31">
         <v>4.8499999999999996</v>
       </c>
-      <c r="H21" s="34">
+      <c r="H21" s="31">
         <v>0.89</v>
       </c>
-      <c r="I21" s="34">
+      <c r="I21" s="31">
         <v>0</v>
       </c>
       <c r="J21" s="2">
         <v>3.18</v>
       </c>
-      <c r="K21" s="31">
+      <c r="K21" s="28">
         <v>6.0479999999999999E-2</v>
       </c>
       <c r="L21" s="2">
@@ -10382,31 +10163,31 @@
       </c>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A22" s="31">
+      <c r="A22" s="28">
         <v>31</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="C22" s="34">
+      <c r="B22" s="33" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="31">
         <v>100</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="31">
         <v>35</v>
       </c>
-      <c r="E22" s="34">
+      <c r="E22" s="31">
         <v>14.69</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="31">
         <v>55</v>
       </c>
-      <c r="G22" s="34">
+      <c r="G22" s="31">
         <v>6</v>
       </c>
-      <c r="H22" s="34">
+      <c r="H22" s="31">
         <v>3.34</v>
       </c>
-      <c r="I22" s="34">
+      <c r="I22" s="31">
         <v>0</v>
       </c>
       <c r="J22" s="2">
@@ -10444,42 +10225,42 @@
       </c>
     </row>
     <row r="41" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B41" s="31"/>
-      <c r="Q41" s="31"/>
+      <c r="B41" s="28"/>
+      <c r="Q41" s="28"/>
     </row>
     <row r="42" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B42" s="31"/>
-      <c r="Q42" s="31"/>
+      <c r="B42" s="28"/>
+      <c r="Q42" s="28"/>
     </row>
     <row r="43" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B43" s="31"/>
-      <c r="Q43" s="31"/>
+      <c r="B43" s="28"/>
+      <c r="Q43" s="28"/>
     </row>
     <row r="44" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B44" s="31"/>
-      <c r="Q44" s="31"/>
+      <c r="B44" s="28"/>
+      <c r="Q44" s="28"/>
     </row>
     <row r="45" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B45" s="31"/>
-      <c r="Q45" s="50"/>
+      <c r="B45" s="28"/>
+      <c r="Q45" s="47"/>
     </row>
     <row r="46" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B46" s="31"/>
+      <c r="B46" s="28"/>
     </row>
     <row r="47" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B47" s="31"/>
+      <c r="B47" s="28"/>
     </row>
     <row r="48" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B48" s="31"/>
+      <c r="B48" s="28"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="31"/>
+      <c r="B49" s="28"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="31"/>
+      <c r="B50" s="28"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="31"/>
+      <c r="B51" s="28"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B19 B2:I18">
@@ -10511,7 +10292,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D20"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10524,52 +10305,52 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
-        <v>117</v>
+      <c r="A2" s="48" t="s">
+        <v>114</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D2" s="27">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="39" t="s">
-        <v>121</v>
+      <c r="A3" s="36" t="s">
+        <v>118</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C3" s="2">
         <v>4</v>
       </c>
-      <c r="D3" s="30">
+      <c r="D3" s="27">
         <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="32" t="s">
-        <v>122</v>
+      <c r="A4" s="29" t="s">
+        <v>119</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
@@ -10579,11 +10360,11 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="32" t="s">
-        <v>123</v>
+      <c r="A5" s="29" t="s">
+        <v>120</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C5" s="2">
         <v>6</v>
@@ -10593,11 +10374,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
-        <v>124</v>
+      <c r="A6" s="29" t="s">
+        <v>121</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C6" s="2">
         <v>7</v>
@@ -10607,11 +10388,11 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>125</v>
+      <c r="A7" s="29" t="s">
+        <v>122</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C7" s="2">
         <v>8</v>
@@ -10621,165 +10402,165 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="32" t="s">
-        <v>126</v>
+      <c r="A8" s="29" t="s">
+        <v>123</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C8" s="2">
         <v>9</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D8" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="39" t="s">
-        <v>127</v>
+      <c r="A9" s="36" t="s">
+        <v>124</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D9" s="27">
         <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
-        <v>128</v>
+      <c r="A10" s="36" t="s">
+        <v>125</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C10" s="2">
         <v>11</v>
       </c>
-      <c r="D10" s="30">
+      <c r="D10" s="27">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="39" t="s">
-        <v>130</v>
+      <c r="A11" s="36" t="s">
+        <v>127</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C11" s="2">
         <v>12</v>
       </c>
-      <c r="D11" s="30">
+      <c r="D11" s="27">
         <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="39" t="s">
-        <v>132</v>
+      <c r="A12" s="36" t="s">
+        <v>129</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C12" s="2">
         <v>16</v>
       </c>
-      <c r="D12" s="30">
+      <c r="D12" s="27">
         <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="39" t="s">
-        <v>133</v>
+      <c r="A13" s="36" t="s">
+        <v>130</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C13" s="2">
         <v>17</v>
       </c>
-      <c r="D13" s="30">
+      <c r="D13" s="27">
         <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="39" t="s">
-        <v>134</v>
+      <c r="A14" s="36" t="s">
+        <v>131</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C14" s="2">
         <v>18</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D14" s="27">
         <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>135</v>
+      <c r="A15" s="36" t="s">
+        <v>132</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C15" s="2">
         <v>19</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D15" s="27">
         <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="39" t="s">
-        <v>136</v>
+      <c r="A16" s="36" t="s">
+        <v>133</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C16" s="2">
         <v>20</v>
       </c>
-      <c r="D16" s="30">
+      <c r="D16" s="27">
         <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="39" t="s">
-        <v>137</v>
+      <c r="A17" s="36" t="s">
+        <v>134</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C17" s="2">
         <v>21</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D17" s="27">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="52" t="s">
-        <v>139</v>
+      <c r="A18" s="49" t="s">
+        <v>136</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C18" s="2">
         <v>25</v>
       </c>
-      <c r="D18" s="49">
+      <c r="D18" s="46">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
-        <v>129</v>
+      <c r="A19" s="36" t="s">
+        <v>126</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C19" s="2">
         <v>28</v>
@@ -10789,11 +10570,11 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
-        <v>131</v>
+      <c r="A20" s="36" t="s">
+        <v>128</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C20" s="2">
         <v>29</v>
@@ -10803,22 +10584,22 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="39" t="s">
-        <v>160</v>
+      <c r="A21" s="36" t="s">
+        <v>157</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C21" s="2">
         <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
-        <v>138</v>
+      <c r="A22" s="52" t="s">
+        <v>135</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C22" s="2">
         <v>31</v>
@@ -10848,43 +10629,43 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:J5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="24.42578125" style="24"/>
+    <col min="1" max="16384" width="24.42578125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="25" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:10" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="61" t="s">
+      <c r="C1" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="61" t="s">
+      <c r="D1" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="61" t="s">
+      <c r="E1" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="61" t="s">
+      <c r="F1" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="61" t="s">
+      <c r="G1" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="61" t="s">
+      <c r="H1" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="61" t="s">
+      <c r="I1" s="58" t="s">
         <v>101</v>
       </c>
-      <c r="J1" s="61" t="s">
+      <c r="J1" s="58" t="s">
         <v>102</v>
       </c>
     </row>
@@ -11033,13 +10814,13 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="C6">
-        <v>0.2</v>
-      </c>
-      <c r="D6">
-        <v>0.4</v>
+        <v>0.15</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.55000000000000004</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -11047,8 +10828,8 @@
       <c r="F6">
         <v>0</v>
       </c>
-      <c r="G6">
-        <v>0.2</v>
+      <c r="G6" s="2">
+        <v>0.15</v>
       </c>
       <c r="H6" t="s">
         <v>103</v>
@@ -11056,8 +10837,8 @@
       <c r="I6" t="s">
         <v>103</v>
       </c>
-      <c r="J6" t="b">
-        <v>0</v>
+      <c r="J6" s="2" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -11075,588 +10856,593 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E5" sqref="E5:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.140625" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="8" width="21.7109375" style="25"/>
-    <col min="9" max="9" width="21.7109375" style="25" customWidth="1"/>
-    <col min="10" max="16384" width="21.7109375" style="25"/>
+    <col min="1" max="1" width="5" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.42578125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="24" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="24" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="21.7109375" style="24" customWidth="1"/>
+    <col min="10" max="16384" width="21.7109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="28" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:8" s="25" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="48" t="s">
+      <c r="C1" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="48" t="s">
+      <c r="D1" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="48" t="s">
+      <c r="E1" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="48" t="s">
+      <c r="F1" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="48" t="s">
+      <c r="G1" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="H1" s="48" t="s">
+      <c r="H1" s="45" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="A2" s="27">
+        <v>21</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2" s="55">
+        <v>6.0269407000000002E-4</v>
+      </c>
+      <c r="D2" s="55">
+        <v>0.82331812000000004</v>
+      </c>
+      <c r="E2" s="55">
+        <v>9.2401000999999996E-2</v>
+      </c>
+      <c r="F2" s="55">
+        <v>2.2715029999999998E-3</v>
+      </c>
+      <c r="G2" s="55">
+        <v>8.7793080999999998E-4</v>
+      </c>
+      <c r="H2" s="55">
+        <v>0.29167724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17">
+        <v>8</v>
+      </c>
+      <c r="B3" s="39" t="s">
+        <v>122</v>
+      </c>
+      <c r="C3" s="56">
+        <v>3.0914954E-4</v>
+      </c>
+      <c r="D3" s="56">
+        <v>1.38809</v>
+      </c>
+      <c r="E3" s="56">
+        <v>9.5984228000000005E-2</v>
+      </c>
+      <c r="F3" s="56">
+        <v>1.4925155E-3</v>
+      </c>
+      <c r="G3" s="56">
+        <v>5.9082242000000002E-4</v>
+      </c>
+      <c r="H3" s="56">
+        <v>0.25908868000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="27">
+        <v>19</v>
+      </c>
+      <c r="B4" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="55">
+        <v>6.8793711999999996E-4</v>
+      </c>
+      <c r="D4" s="55">
+        <v>0.93976550999999997</v>
+      </c>
+      <c r="E4" s="55">
+        <v>0.10546989</v>
+      </c>
+      <c r="F4" s="55">
+        <v>2.5927768E-3</v>
+      </c>
+      <c r="G4" s="55">
+        <v>1.0021024000000001E-3</v>
+      </c>
+      <c r="H4" s="55">
+        <v>0.33293109999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="27">
+        <v>31</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="56">
+        <v>1.398646E-5</v>
+      </c>
+      <c r="D5" s="56">
+        <v>1.0869945000000001</v>
+      </c>
+      <c r="E5" s="56">
+        <v>0.18026732000000001</v>
+      </c>
+      <c r="F5" s="56">
+        <v>7.1452427000000002E-3</v>
+      </c>
+      <c r="G5" s="56">
+        <v>1.8322938999999999E-3</v>
+      </c>
+      <c r="H5" s="56">
+        <v>1.1594272000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53">
+        <v>30</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="57">
+        <v>1.4238930000000001E-3</v>
+      </c>
+      <c r="D6" s="57">
+        <v>1.2922062999999999</v>
+      </c>
+      <c r="E6" s="57">
+        <v>0.19672819999999999</v>
+      </c>
+      <c r="F6" s="57">
+        <v>8.0315088999999996E-3</v>
+      </c>
+      <c r="G6" s="57">
+        <v>2.7384863000000001E-3</v>
+      </c>
+      <c r="H6" s="57">
+        <v>0.89059001000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="27">
+        <v>12</v>
+      </c>
+      <c r="B7" s="39" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="55">
+        <v>1.8296865E-3</v>
+      </c>
+      <c r="D7" s="55">
+        <v>2.1376919999999999</v>
+      </c>
+      <c r="E7" s="55">
+        <v>0.21715095000000001</v>
+      </c>
+      <c r="F7" s="55">
+        <v>3.8183357999999998E-3</v>
+      </c>
+      <c r="G7" s="55">
+        <v>3.2683618999999999E-3</v>
+      </c>
+      <c r="H7" s="55">
+        <v>1.6645894999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
+        <v>25</v>
+      </c>
+      <c r="B8" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C8" s="56">
+        <v>1.4474578E-5</v>
+      </c>
+      <c r="D8" s="56">
+        <v>2.1134135000000001</v>
+      </c>
+      <c r="E8" s="56">
+        <v>0.22375627000000001</v>
+      </c>
+      <c r="F8" s="56">
+        <v>7.2554300000000002E-3</v>
+      </c>
+      <c r="G8" s="56">
+        <v>1.8719005000000001E-3</v>
+      </c>
+      <c r="H8" s="56">
+        <v>1.1395907999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="17">
+        <v>5</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="56">
+        <v>9.8875607000000008E-4</v>
+      </c>
+      <c r="D9" s="56">
+        <v>3.4574254999999998</v>
+      </c>
+      <c r="E9" s="56">
+        <v>0.22933355999999999</v>
+      </c>
+      <c r="F9" s="56">
+        <v>4.8724891000000003E-3</v>
+      </c>
+      <c r="G9" s="56">
+        <v>1.5442412000000001E-3</v>
+      </c>
+      <c r="H9" s="56">
+        <v>0.43937693999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="27">
+        <v>4</v>
+      </c>
+      <c r="B10" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10" s="56">
+        <v>6.5774577999999997E-4</v>
+      </c>
+      <c r="D10" s="56">
+        <v>5.2727627000000004</v>
+      </c>
+      <c r="E10" s="56">
+        <v>0.23187210999999999</v>
+      </c>
+      <c r="F10" s="56">
+        <v>3.2484240000000002E-3</v>
+      </c>
+      <c r="G10" s="56">
+        <v>1.2782201999999999E-3</v>
+      </c>
+      <c r="H10" s="56">
+        <v>0.55197054999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="27">
+        <v>28</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>126</v>
+      </c>
+      <c r="C11" s="56">
+        <v>2.1675339E-3</v>
+      </c>
+      <c r="D11" s="56">
+        <v>2.3852028000000001</v>
+      </c>
+      <c r="E11" s="56">
+        <v>0.24039757</v>
+      </c>
+      <c r="F11" s="56">
+        <v>4.5559939999999998E-3</v>
+      </c>
+      <c r="G11" s="56">
+        <v>3.8858629999999998E-3</v>
+      </c>
+      <c r="H11" s="56">
+        <v>1.9759963</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="27">
+        <v>29</v>
+      </c>
+      <c r="B12" s="39" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="55">
+        <v>2.1675339E-3</v>
+      </c>
+      <c r="D12" s="55">
+        <v>2.3852028000000001</v>
+      </c>
+      <c r="E12" s="55">
+        <v>0.24039757</v>
+      </c>
+      <c r="F12" s="55">
+        <v>4.5559939999999998E-3</v>
+      </c>
+      <c r="G12" s="55">
+        <v>3.8858629999999998E-3</v>
+      </c>
+      <c r="H12" s="55">
+        <v>1.9759963</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>7</v>
+      </c>
+      <c r="B13" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="56">
+        <v>5.2979589999999997E-3</v>
+      </c>
+      <c r="D13" s="56">
+        <v>2.6504308999999999</v>
+      </c>
+      <c r="E13" s="56">
+        <v>0.25521818000000002</v>
+      </c>
+      <c r="F13" s="56">
+        <v>2.7713717000000001E-3</v>
+      </c>
+      <c r="G13" s="56">
+        <v>4.3737089999999999E-3</v>
+      </c>
+      <c r="H13" s="56">
+        <v>2.4169052999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
+        <v>11</v>
+      </c>
+      <c r="B14" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="55">
+        <v>3.8977495E-3</v>
+      </c>
+      <c r="D14" s="55">
+        <v>6.6378231000000003</v>
+      </c>
+      <c r="E14" s="55">
+        <v>0.33354636999999998</v>
+      </c>
+      <c r="F14" s="55">
+        <v>3.6638446000000001E-3</v>
+      </c>
+      <c r="G14" s="55">
+        <v>6.3452205000000001E-3</v>
+      </c>
+      <c r="H14" s="55">
+        <v>3.8084742</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="27">
+        <v>17</v>
+      </c>
+      <c r="B15" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="55">
+        <v>1.2856242E-3</v>
+      </c>
+      <c r="D15" s="55">
+        <v>5.4884582999999996</v>
+      </c>
+      <c r="E15" s="55">
+        <v>0.33457320000000002</v>
+      </c>
+      <c r="F15" s="55">
+        <v>5.0812655999999999E-3</v>
+      </c>
+      <c r="G15" s="55">
+        <v>2.1954254000000001E-3</v>
+      </c>
+      <c r="H15" s="55">
+        <v>0.62333822000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="17">
+        <v>9</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16" s="56">
+        <v>2.4268531000000001E-3</v>
+      </c>
+      <c r="D16" s="56">
+        <v>2.7512188000000002</v>
+      </c>
+      <c r="E16" s="56">
+        <v>0.37877785000000003</v>
+      </c>
+      <c r="F16" s="56">
+        <v>8.1080295000000007E-3</v>
+      </c>
+      <c r="G16" s="56">
+        <v>3.0197698000000001E-3</v>
+      </c>
+      <c r="H16" s="56">
+        <v>1.2147266999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="27">
+        <v>20</v>
+      </c>
+      <c r="B17" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C17" s="55">
+        <v>1.7751223E-3</v>
+      </c>
+      <c r="D17" s="55">
+        <v>7.5781744</v>
+      </c>
+      <c r="E17" s="55">
+        <v>0.46196108000000002</v>
+      </c>
+      <c r="F17" s="55">
+        <v>7.0159441999999997E-3</v>
+      </c>
+      <c r="G17" s="55">
+        <v>3.0313279000000002E-3</v>
+      </c>
+      <c r="H17" s="55">
+        <v>0.86067262</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="27">
+        <v>18</v>
+      </c>
+      <c r="B18" s="37" t="s">
+        <v>131</v>
+      </c>
+      <c r="C18" s="55">
+        <v>2.0170432000000001E-3</v>
+      </c>
+      <c r="D18" s="55">
+        <v>9.4737010999999995</v>
+      </c>
+      <c r="E18" s="55">
+        <v>0.57584038999999998</v>
+      </c>
+      <c r="F18" s="55">
+        <v>7.9888571999999995E-3</v>
+      </c>
+      <c r="G18" s="55">
+        <v>6.0113188999999997E-3</v>
+      </c>
+      <c r="H18" s="55">
+        <v>0.97791181999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="17">
+        <v>6</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="56">
+        <v>4.6734098000000002E-3</v>
+      </c>
+      <c r="D19" s="56">
+        <v>16.341711</v>
+      </c>
+      <c r="E19" s="56">
+        <v>1.0839576</v>
+      </c>
+      <c r="F19" s="56">
+        <v>2.3030087000000001E-2</v>
+      </c>
+      <c r="G19" s="56">
+        <v>7.2989407999999997E-3</v>
+      </c>
+      <c r="H19" s="56">
+        <v>2.0767392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27">
+        <v>16</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="55">
+        <v>9.5703047000000006E-3</v>
+      </c>
+      <c r="D20" s="55">
+        <v>11.181349000000001</v>
+      </c>
+      <c r="E20" s="55">
+        <v>1.1358234</v>
+      </c>
+      <c r="F20" s="55">
+        <v>1.9972074999999999E-2</v>
+      </c>
+      <c r="G20" s="55">
+        <v>1.7095398000000001E-2</v>
+      </c>
+      <c r="H20" s="55">
+        <v>8.7067530000000009</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27">
+        <v>10</v>
+      </c>
+      <c r="B21" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C21" s="55">
+        <v>1.1524281000000001E-2</v>
+      </c>
+      <c r="D21" s="55">
+        <v>13.064581</v>
+      </c>
+      <c r="E21" s="55">
+        <v>1.7986842999999999</v>
+      </c>
+      <c r="F21" s="55">
+        <v>3.8502213E-2</v>
+      </c>
+      <c r="G21" s="55">
+        <v>1.4339836999999999E-2</v>
+      </c>
+      <c r="H21" s="55">
+        <v>5.7683147000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>3</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="C2" s="58">
+      <c r="B22" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="55">
         <v>5.3300000000000001E-5</v>
       </c>
-      <c r="D2" s="58">
+      <c r="D22" s="55">
         <v>67</v>
       </c>
-      <c r="E2" s="58">
+      <c r="E22" s="55">
         <v>3.7</v>
       </c>
-      <c r="F2" s="58">
+      <c r="F22" s="55">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="G2" s="58">
+      <c r="G22" s="55">
         <v>4.5599999999999998E-3</v>
       </c>
-      <c r="H2" s="58">
+      <c r="H22" s="55">
         <v>8.2600000000000007E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="30">
-        <v>4</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="59">
-        <v>6.5774577999999997E-4</v>
-      </c>
-      <c r="D3" s="59">
-        <v>5.2727627000000004</v>
-      </c>
-      <c r="E3" s="59">
-        <v>0.23187210999999999</v>
-      </c>
-      <c r="F3" s="59">
-        <v>3.2484240000000002E-3</v>
-      </c>
-      <c r="G3" s="59">
-        <v>1.2782201999999999E-3</v>
-      </c>
-      <c r="H3" s="59">
-        <v>0.55197054999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
-        <v>5</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>122</v>
-      </c>
-      <c r="C4" s="59">
-        <v>9.8875607000000008E-4</v>
-      </c>
-      <c r="D4" s="59">
-        <v>3.4574254999999998</v>
-      </c>
-      <c r="E4" s="59">
-        <v>0.22933355999999999</v>
-      </c>
-      <c r="F4" s="59">
-        <v>4.8724891000000003E-3</v>
-      </c>
-      <c r="G4" s="59">
-        <v>1.5442412000000001E-3</v>
-      </c>
-      <c r="H4" s="59">
-        <v>0.43937693999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17">
-        <v>6</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="C5" s="59">
-        <v>4.6734098000000002E-3</v>
-      </c>
-      <c r="D5" s="59">
-        <v>16.341711</v>
-      </c>
-      <c r="E5" s="59">
-        <v>1.0839576</v>
-      </c>
-      <c r="F5" s="59">
-        <v>2.3030087000000001E-2</v>
-      </c>
-      <c r="G5" s="59">
-        <v>7.2989407999999997E-3</v>
-      </c>
-      <c r="H5" s="59">
-        <v>2.0767392</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17">
-        <v>7</v>
-      </c>
-      <c r="B6" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="C6" s="59">
-        <v>5.2979589999999997E-3</v>
-      </c>
-      <c r="D6" s="59">
-        <v>2.6504308999999999</v>
-      </c>
-      <c r="E6" s="59">
-        <v>0.25521818000000002</v>
-      </c>
-      <c r="F6" s="59">
-        <v>2.7713717000000001E-3</v>
-      </c>
-      <c r="G6" s="59">
-        <v>4.3737089999999999E-3</v>
-      </c>
-      <c r="H6" s="59">
-        <v>2.4169052999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17">
-        <v>8</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>125</v>
-      </c>
-      <c r="C7" s="59">
-        <v>3.0914954E-4</v>
-      </c>
-      <c r="D7" s="59">
-        <v>1.38809</v>
-      </c>
-      <c r="E7" s="59">
-        <v>9.5984228000000005E-2</v>
-      </c>
-      <c r="F7" s="59">
-        <v>1.4925155E-3</v>
-      </c>
-      <c r="G7" s="59">
-        <v>5.9082242000000002E-4</v>
-      </c>
-      <c r="H7" s="59">
-        <v>0.25908868000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17">
-        <v>9</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="C8" s="59">
-        <v>2.4268531000000001E-3</v>
-      </c>
-      <c r="D8" s="59">
-        <v>2.7512188000000002</v>
-      </c>
-      <c r="E8" s="59">
-        <v>0.37877785000000003</v>
-      </c>
-      <c r="F8" s="59">
-        <v>8.1080295000000007E-3</v>
-      </c>
-      <c r="G8" s="59">
-        <v>3.0197698000000001E-3</v>
-      </c>
-      <c r="H8" s="59">
-        <v>1.2147266999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="30">
-        <v>10</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="C9" s="58">
-        <v>1.1524281000000001E-2</v>
-      </c>
-      <c r="D9" s="58">
-        <v>13.064581</v>
-      </c>
-      <c r="E9" s="58">
-        <v>1.7986842999999999</v>
-      </c>
-      <c r="F9" s="58">
-        <v>3.8502213E-2</v>
-      </c>
-      <c r="G9" s="58">
-        <v>1.4339836999999999E-2</v>
-      </c>
-      <c r="H9" s="58">
-        <v>5.7683147000000004</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="30">
-        <v>11</v>
-      </c>
-      <c r="B10" s="40" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="58">
-        <v>3.8977495E-3</v>
-      </c>
-      <c r="D10" s="58">
-        <v>6.6378231000000003</v>
-      </c>
-      <c r="E10" s="58">
-        <v>0.33354636999999998</v>
-      </c>
-      <c r="F10" s="58">
-        <v>3.6638446000000001E-3</v>
-      </c>
-      <c r="G10" s="58">
-        <v>6.3452205000000001E-3</v>
-      </c>
-      <c r="H10" s="58">
-        <v>3.8084742</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="30">
-        <v>28</v>
-      </c>
-      <c r="B11" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="C11" s="59">
-        <v>2.1675339E-3</v>
-      </c>
-      <c r="D11" s="59">
-        <v>2.3852028000000001</v>
-      </c>
-      <c r="E11" s="59">
-        <v>0.24039757</v>
-      </c>
-      <c r="F11" s="59">
-        <v>4.5559939999999998E-3</v>
-      </c>
-      <c r="G11" s="59">
-        <v>3.8858629999999998E-3</v>
-      </c>
-      <c r="H11" s="59">
-        <v>1.9759963</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="30">
-        <v>12</v>
-      </c>
-      <c r="B12" s="42" t="s">
-        <v>130</v>
-      </c>
-      <c r="C12" s="58">
-        <v>1.8296865E-3</v>
-      </c>
-      <c r="D12" s="58">
-        <v>2.1376919999999999</v>
-      </c>
-      <c r="E12" s="58">
-        <v>0.21715095000000001</v>
-      </c>
-      <c r="F12" s="58">
-        <v>3.8183357999999998E-3</v>
-      </c>
-      <c r="G12" s="58">
-        <v>3.2683618999999999E-3</v>
-      </c>
-      <c r="H12" s="58">
-        <v>1.6645894999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="30">
-        <v>29</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C13" s="58">
-        <v>2.1675339E-3</v>
-      </c>
-      <c r="D13" s="58">
-        <v>2.3852028000000001</v>
-      </c>
-      <c r="E13" s="58">
-        <v>0.24039757</v>
-      </c>
-      <c r="F13" s="58">
-        <v>4.5559939999999998E-3</v>
-      </c>
-      <c r="G13" s="58">
-        <v>3.8858629999999998E-3</v>
-      </c>
-      <c r="H13" s="58">
-        <v>1.9759963</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
-        <v>16</v>
-      </c>
-      <c r="B14" s="42" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="58">
-        <v>9.5703047000000006E-3</v>
-      </c>
-      <c r="D14" s="58">
-        <v>11.181349000000001</v>
-      </c>
-      <c r="E14" s="58">
-        <v>1.1358234</v>
-      </c>
-      <c r="F14" s="58">
-        <v>1.9972074999999999E-2</v>
-      </c>
-      <c r="G14" s="58">
-        <v>1.7095398000000001E-2</v>
-      </c>
-      <c r="H14" s="58">
-        <v>8.7067530000000009</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="30">
-        <v>17</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="C15" s="58">
-        <v>1.2856242E-3</v>
-      </c>
-      <c r="D15" s="58">
-        <v>5.4884582999999996</v>
-      </c>
-      <c r="E15" s="58">
-        <v>0.33457320000000002</v>
-      </c>
-      <c r="F15" s="58">
-        <v>5.0812655999999999E-3</v>
-      </c>
-      <c r="G15" s="58">
-        <v>2.1954254000000001E-3</v>
-      </c>
-      <c r="H15" s="58">
-        <v>0.62333822000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="30">
-        <v>18</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>134</v>
-      </c>
-      <c r="C16" s="58">
-        <v>2.0170432000000001E-3</v>
-      </c>
-      <c r="D16" s="58">
-        <v>9.4737010999999995</v>
-      </c>
-      <c r="E16" s="58">
-        <v>0.57584038999999998</v>
-      </c>
-      <c r="F16" s="58">
-        <v>7.9888571999999995E-3</v>
-      </c>
-      <c r="G16" s="58">
-        <v>6.0113188999999997E-3</v>
-      </c>
-      <c r="H16" s="58">
-        <v>0.97791181999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="30">
-        <v>19</v>
-      </c>
-      <c r="B17" s="40" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" s="58">
-        <v>6.8793711999999996E-4</v>
-      </c>
-      <c r="D17" s="58">
-        <v>0.93976550999999997</v>
-      </c>
-      <c r="E17" s="58">
-        <v>0.10546989</v>
-      </c>
-      <c r="F17" s="58">
-        <v>2.5927768E-3</v>
-      </c>
-      <c r="G17" s="58">
-        <v>1.0021024000000001E-3</v>
-      </c>
-      <c r="H17" s="58">
-        <v>0.33293109999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="30">
-        <v>20</v>
-      </c>
-      <c r="B18" s="40" t="s">
-        <v>136</v>
-      </c>
-      <c r="C18" s="58">
-        <v>1.7751223E-3</v>
-      </c>
-      <c r="D18" s="58">
-        <v>7.5781744</v>
-      </c>
-      <c r="E18" s="58">
-        <v>0.46196108000000002</v>
-      </c>
-      <c r="F18" s="58">
-        <v>7.0159441999999997E-3</v>
-      </c>
-      <c r="G18" s="58">
-        <v>3.0313279000000002E-3</v>
-      </c>
-      <c r="H18" s="58">
-        <v>0.86067262</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="30">
-        <v>21</v>
-      </c>
-      <c r="B19" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="C19" s="58">
-        <v>6.0269407000000002E-4</v>
-      </c>
-      <c r="D19" s="58">
-        <v>0.82331812000000004</v>
-      </c>
-      <c r="E19" s="58">
-        <v>9.2401000999999996E-2</v>
-      </c>
-      <c r="F19" s="58">
-        <v>2.2715029999999998E-3</v>
-      </c>
-      <c r="G19" s="58">
-        <v>8.7793080999999998E-4</v>
-      </c>
-      <c r="H19" s="58">
-        <v>0.29167724</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="30">
-        <v>31</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="C20" s="59">
-        <v>1.398646E-5</v>
-      </c>
-      <c r="D20" s="59">
-        <v>1.0869945000000001</v>
-      </c>
-      <c r="E20" s="59">
-        <v>0.18026732000000001</v>
-      </c>
-      <c r="F20" s="59">
-        <v>7.1452427000000002E-3</v>
-      </c>
-      <c r="G20" s="59">
-        <v>1.8322938999999999E-3</v>
-      </c>
-      <c r="H20" s="59">
-        <v>1.1594272000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="30">
-        <v>25</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>139</v>
-      </c>
-      <c r="C21" s="59">
-        <v>1.4474578E-5</v>
-      </c>
-      <c r="D21" s="59">
-        <v>2.1134135000000001</v>
-      </c>
-      <c r="E21" s="59">
-        <v>0.22375627000000001</v>
-      </c>
-      <c r="F21" s="59">
-        <v>7.2554300000000002E-3</v>
-      </c>
-      <c r="G21" s="59">
-        <v>1.8719005000000001E-3</v>
-      </c>
-      <c r="H21" s="59">
-        <v>1.1395907999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="56">
-        <v>30</v>
-      </c>
-      <c r="B22" s="57" t="s">
-        <v>160</v>
-      </c>
-      <c r="C22" s="60">
-        <v>1.4238930000000001E-3</v>
-      </c>
-      <c r="D22" s="60">
-        <v>1.2922062999999999</v>
-      </c>
-      <c r="E22" s="60">
-        <v>0.19672819999999999</v>
-      </c>
-      <c r="F22" s="60">
-        <v>8.0315088999999996E-3</v>
-      </c>
-      <c r="G22" s="60">
-        <v>2.7384863000000001E-3</v>
-      </c>
-      <c r="H22" s="60">
-        <v>0.89059001000000004</v>
       </c>
     </row>
   </sheetData>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="14490" windowHeight="11160" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="14490" windowHeight="11160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feeds" sheetId="2" r:id="rId1"/>
@@ -8211,8 +8211,8 @@
   </sheetPr>
   <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8311,7 +8311,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B2" s="19">
         <v>1</v>
@@ -8347,7 +8347,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="19">
-        <v>8.1999999999999993</v>
+        <v>6.5</v>
       </c>
       <c r="N2" s="20">
         <v>2.41</v>
@@ -8359,10 +8359,10 @@
         <v>161</v>
       </c>
       <c r="Q2" s="19">
-        <v>0.7</v>
+        <v>1.3</v>
       </c>
       <c r="R2" s="19">
-        <v>3</v>
+        <v>1.86</v>
       </c>
       <c r="S2" s="19">
         <v>0.01</v>
@@ -8385,7 +8385,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="22">
         <v>1</v>
@@ -8421,7 +8421,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="19">
-        <v>8.1999999999999993</v>
+        <v>6.5</v>
       </c>
       <c r="N3" s="20">
         <v>2.41</v>
@@ -8433,10 +8433,10 @@
         <v>117</v>
       </c>
       <c r="Q3" s="19">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="R3" s="19">
-        <v>2.09</v>
+        <v>1.86</v>
       </c>
       <c r="S3" s="22">
         <v>1E-3</v>
@@ -8495,7 +8495,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="19">
-        <v>8.1999999999999993</v>
+        <v>6.5</v>
       </c>
       <c r="N4" s="20">
         <v>2.41</v>
@@ -8507,10 +8507,10 @@
         <v>110</v>
       </c>
       <c r="Q4" s="19">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="R4" s="19">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="S4" s="22">
         <v>1E-3</v>
@@ -8568,8 +8568,8 @@
       <c r="L5" s="60">
         <v>0</v>
       </c>
-      <c r="M5" s="59">
-        <v>8.1999999999999993</v>
+      <c r="M5" s="19">
+        <v>6.5</v>
       </c>
       <c r="N5" s="62">
         <v>2.41</v>
@@ -8581,10 +8581,10 @@
         <v>110</v>
       </c>
       <c r="Q5" s="19">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="R5" s="19">
-        <v>1.9</v>
+        <v>1.86</v>
       </c>
       <c r="S5" s="60">
         <v>1E-3</v>
@@ -10628,7 +10628,7 @@
   </sheetPr>
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8211,9 +8211,7 @@
   </sheetPr>
   <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8385,7 +8383,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B3" s="22">
         <v>1</v>
@@ -8438,8 +8436,8 @@
       <c r="R3" s="19">
         <v>1.86</v>
       </c>
-      <c r="S3" s="22">
-        <v>1E-3</v>
+      <c r="S3" s="19">
+        <v>0.01</v>
       </c>
       <c r="T3" s="22" t="s">
         <v>90</v>
@@ -8459,7 +8457,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="B4" s="22">
         <v>1</v>
@@ -8512,8 +8510,8 @@
       <c r="R4" s="19">
         <v>1.86</v>
       </c>
-      <c r="S4" s="22">
-        <v>1E-3</v>
+      <c r="S4" s="19">
+        <v>0.01</v>
       </c>
       <c r="T4" s="22" t="s">
         <v>90</v>
@@ -8586,8 +8584,8 @@
       <c r="R5" s="19">
         <v>1.86</v>
       </c>
-      <c r="S5" s="60">
-        <v>1E-3</v>
+      <c r="S5" s="19">
+        <v>0.01</v>
       </c>
       <c r="T5" s="60" t="s">
         <v>90</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8211,7 +8211,9 @@
   </sheetPr>
   <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -8383,7 +8385,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="22">
         <v>1</v>
@@ -8457,7 +8459,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="B4" s="22">
         <v>1</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -993,7 +993,7 @@
     <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1155,6 +1155,13 @@
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1301,7 +1308,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1416,6 +1423,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7761,7 +7769,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8212,7 +8220,7 @@
   <dimension ref="A1:X69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8347,7 +8355,7 @@
         <v>0</v>
       </c>
       <c r="M2" s="19">
-        <v>6.5</v>
+        <v>5.84</v>
       </c>
       <c r="N2" s="20">
         <v>2.41</v>
@@ -8359,10 +8367,10 @@
         <v>161</v>
       </c>
       <c r="Q2" s="19">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R2" s="19">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="S2" s="19">
         <v>0.01</v>
@@ -8385,7 +8393,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="B3" s="22">
         <v>1</v>
@@ -8421,7 +8429,7 @@
         <v>0</v>
       </c>
       <c r="M3" s="19">
-        <v>6.5</v>
+        <v>5.84</v>
       </c>
       <c r="N3" s="20">
         <v>2.41</v>
@@ -8433,10 +8441,10 @@
         <v>117</v>
       </c>
       <c r="Q3" s="19">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R3" s="19">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="S3" s="19">
         <v>0.01</v>
@@ -8495,7 +8503,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="19">
-        <v>6.5</v>
+        <v>5.84</v>
       </c>
       <c r="N4" s="20">
         <v>2.41</v>
@@ -8507,10 +8515,10 @@
         <v>110</v>
       </c>
       <c r="Q4" s="19">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R4" s="19">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="S4" s="19">
         <v>0.01</v>
@@ -8569,7 +8577,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="19">
-        <v>6.5</v>
+        <v>5.84</v>
       </c>
       <c r="N5" s="62">
         <v>2.41</v>
@@ -8581,10 +8589,10 @@
         <v>110</v>
       </c>
       <c r="Q5" s="19">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="R5" s="19">
-        <v>1.86</v>
+        <v>2.02</v>
       </c>
       <c r="S5" s="19">
         <v>0.01</v>
@@ -8604,6 +8612,9 @@
       <c r="X5" s="63">
         <v>5</v>
       </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6" s="68"/>
     </row>
     <row r="18" spans="5:8" x14ac:dyDescent="0.25">
       <c r="F18"/>
@@ -10629,7 +10640,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -497,7 +497,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="163">
   <si>
     <t>Feed Scenario</t>
   </si>
@@ -983,6 +983,9 @@
   </si>
   <si>
     <t>Mono-objective</t>
+  </si>
+  <si>
+    <t>GSS-MAX_BIS_F_N_2</t>
   </si>
 </sst>
 </file>
@@ -8239,7 +8242,7 @@
     <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4.85546875" style="2"/>
   </cols>
   <sheetData>
@@ -8319,7 +8322,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B2" s="19">
         <v>1</v>
@@ -8467,7 +8470,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="B4" s="22">
         <v>1</v>
@@ -8541,7 +8544,7 @@
     </row>
     <row r="5" spans="1:24" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="B5" s="60">
         <v>1</v>
@@ -8586,7 +8589,7 @@
         <v>93</v>
       </c>
       <c r="P5" s="60" t="s">
-        <v>110</v>
+        <v>162</v>
       </c>
       <c r="Q5" s="19">
         <v>1.33</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -1436,6 +1436,70 @@
   </cellStyles>
   <dxfs count="90">
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1607,22 +1671,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1651,22 +1699,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
@@ -1808,38 +1840,6 @@
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -7417,32 +7417,32 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:T22" totalsRowShown="0" dataDxfId="36">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:T22" totalsRowShown="0" dataDxfId="40">
   <autoFilter ref="A1:T22"/>
   <sortState ref="A2:T22">
     <sortCondition ref="A1:A22"/>
   </sortState>
   <tableColumns count="20">
-    <tableColumn id="1" name="ID" dataDxfId="35"/>
-    <tableColumn id="2" name="Feed" dataDxfId="34"/>
-    <tableColumn id="5" name="Forage, %DM" dataDxfId="33"/>
-    <tableColumn id="6" name="DM, %AF" dataDxfId="32"/>
-    <tableColumn id="7" name="CP, %DM" dataDxfId="31"/>
-    <tableColumn id="8" name="SP, %CP" dataDxfId="30"/>
-    <tableColumn id="9" name="ADICP, %CP" dataDxfId="29"/>
-    <tableColumn id="10" name="Sugars, %DM" dataDxfId="28"/>
-    <tableColumn id="11" name="OA, %DM" dataDxfId="27"/>
-    <tableColumn id="12" name="Fat, %DM" dataDxfId="26"/>
-    <tableColumn id="13" name="Ash, %DM" dataDxfId="25"/>
-    <tableColumn id="14" name="Starch, %DM" dataDxfId="24"/>
-    <tableColumn id="15" name="NDF, %DM" dataDxfId="23"/>
-    <tableColumn id="16" name="Lignin, %DM" dataDxfId="22"/>
-    <tableColumn id="17" name="TDN, %DM" dataDxfId="21"/>
-    <tableColumn id="19" name="NEma, Mcal/kg" dataDxfId="20"/>
-    <tableColumn id="20" name="NEga, Mcal/kg" dataDxfId="19"/>
-    <tableColumn id="21" name="RUP, %CP" dataDxfId="18"/>
-    <tableColumn id="29" name="pef, %NDF" dataDxfId="17"/>
-    <tableColumn id="3" name="NPN, %DM" dataDxfId="16"/>
+    <tableColumn id="1" name="ID" dataDxfId="39"/>
+    <tableColumn id="2" name="Feed" dataDxfId="38"/>
+    <tableColumn id="5" name="Forage, %DM" dataDxfId="37"/>
+    <tableColumn id="6" name="DM, %AF" dataDxfId="36"/>
+    <tableColumn id="7" name="CP, %DM" dataDxfId="35"/>
+    <tableColumn id="8" name="SP, %CP" dataDxfId="34"/>
+    <tableColumn id="9" name="ADICP, %CP" dataDxfId="33"/>
+    <tableColumn id="10" name="Sugars, %DM" dataDxfId="32"/>
+    <tableColumn id="11" name="OA, %DM" dataDxfId="31"/>
+    <tableColumn id="12" name="Fat, %DM" dataDxfId="30"/>
+    <tableColumn id="13" name="Ash, %DM" dataDxfId="29"/>
+    <tableColumn id="14" name="Starch, %DM" dataDxfId="28"/>
+    <tableColumn id="15" name="NDF, %DM" dataDxfId="27"/>
+    <tableColumn id="16" name="Lignin, %DM" dataDxfId="26"/>
+    <tableColumn id="17" name="TDN, %DM" dataDxfId="25"/>
+    <tableColumn id="19" name="NEma, Mcal/kg" dataDxfId="24"/>
+    <tableColumn id="20" name="NEga, Mcal/kg" dataDxfId="23"/>
+    <tableColumn id="21" name="RUP, %CP" dataDxfId="22"/>
+    <tableColumn id="29" name="pef, %NDF" dataDxfId="21"/>
+    <tableColumn id="3" name="NPN, %DM" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7455,7 +7455,7 @@
     <sortCondition ref="C1:C22"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Name INRA" dataDxfId="13"/>
+    <tableColumn id="1" name="Name INRA" dataDxfId="19"/>
     <tableColumn id="2" name="Name RNS"/>
     <tableColumn id="3" name="ID"/>
     <tableColumn id="4" name="Column1"/>
@@ -7465,7 +7465,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="lca" displayName="lca" ref="A1:J6" totalsRowShown="0" headerRowDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="lca" displayName="lca" ref="A1:J6" totalsRowShown="0" headerRowDxfId="18">
   <autoFilter ref="A1:J6"/>
   <tableColumns count="10">
     <tableColumn id="1" name="ID"/>
@@ -7484,20 +7484,20 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela26" displayName="Tabela26" ref="A1:H22" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela26" displayName="Tabela26" ref="A1:H22" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:H22"/>
   <sortState ref="A2:H22">
     <sortCondition ref="E1:E22"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="ID" dataDxfId="7" dataCellStyle="Normal 3"/>
-    <tableColumn id="5" name="Name" dataDxfId="6" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" name="LCA_Phosphorous consumption (kg P)" dataDxfId="5"/>
-    <tableColumn id="3" name="LCA_CED 1.8 non renewable fossil+nuclear (MJ)" dataDxfId="4"/>
-    <tableColumn id="4" name="LCA_Climate change ILCD (kg CO2 eq)" dataDxfId="3"/>
-    <tableColumn id="7" name="LCA_Acidification ILCD (molc H+ eq)" dataDxfId="2"/>
-    <tableColumn id="8" name="LCA_Eutrophication CML baseline (kg PO4- eq)" dataDxfId="1"/>
-    <tableColumn id="9" name="LCA_Land competition CML non baseline (m2a)" dataDxfId="0"/>
+    <tableColumn id="1" name="ID" dataDxfId="15" dataCellStyle="Normal 3"/>
+    <tableColumn id="5" name="Name" dataDxfId="14" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" name="LCA_Phosphorous consumption (kg P)" dataDxfId="13"/>
+    <tableColumn id="3" name="LCA_CED 1.8 non renewable fossil+nuclear (MJ)" dataDxfId="12"/>
+    <tableColumn id="4" name="LCA_Climate change ILCD (kg CO2 eq)" dataDxfId="11"/>
+    <tableColumn id="7" name="LCA_Acidification ILCD (molc H+ eq)" dataDxfId="10"/>
+    <tableColumn id="8" name="LCA_Eutrophication CML baseline (kg PO4- eq)" dataDxfId="9"/>
+    <tableColumn id="9" name="LCA_Land competition CML non baseline (m2a)" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8470,7 +8470,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B4" s="22">
         <v>1</v>
@@ -8544,7 +8544,7 @@
     </row>
     <row r="5" spans="1:24" s="67" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="B5" s="60">
         <v>1</v>
@@ -8844,10 +8844,10 @@
   <dimension ref="A1:T51"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="M2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="M4" sqref="M4"/>
+      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10278,18 +10278,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B19 B2:I18">
-    <cfRule type="expression" dxfId="40" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
       <formula>ROW(B2)=$C$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
       <formula>COLUMN(B2)=$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:I19">
-    <cfRule type="expression" dxfId="38" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>COLUMN(C19)=$F$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="37" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
       <formula>ROW(C19)=$E$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10621,10 +10621,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A19">
-    <cfRule type="expression" dxfId="15" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="12" stopIfTrue="1">
       <formula>ROW(A2)=$D$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="13" stopIfTrue="1">
       <formula>COLUMN(A2)=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11461,10 +11461,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A19:A21 A2:A16">
-    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
       <formula>ROW(A2)=$C$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
       <formula>COLUMN(A2)=$D$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -1436,70 +1436,6 @@
   </cellStyles>
   <dxfs count="90">
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -1671,6 +1607,22 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1699,6 +1651,22 @@
         <vertical/>
         <horizontal/>
       </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
@@ -1840,6 +1808,38 @@
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -7417,32 +7417,32 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:T22" totalsRowShown="0" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:T22" totalsRowShown="0" dataDxfId="36">
   <autoFilter ref="A1:T22"/>
   <sortState ref="A2:T22">
     <sortCondition ref="A1:A22"/>
   </sortState>
   <tableColumns count="20">
-    <tableColumn id="1" name="ID" dataDxfId="39"/>
-    <tableColumn id="2" name="Feed" dataDxfId="38"/>
-    <tableColumn id="5" name="Forage, %DM" dataDxfId="37"/>
-    <tableColumn id="6" name="DM, %AF" dataDxfId="36"/>
-    <tableColumn id="7" name="CP, %DM" dataDxfId="35"/>
-    <tableColumn id="8" name="SP, %CP" dataDxfId="34"/>
-    <tableColumn id="9" name="ADICP, %CP" dataDxfId="33"/>
-    <tableColumn id="10" name="Sugars, %DM" dataDxfId="32"/>
-    <tableColumn id="11" name="OA, %DM" dataDxfId="31"/>
-    <tableColumn id="12" name="Fat, %DM" dataDxfId="30"/>
-    <tableColumn id="13" name="Ash, %DM" dataDxfId="29"/>
-    <tableColumn id="14" name="Starch, %DM" dataDxfId="28"/>
-    <tableColumn id="15" name="NDF, %DM" dataDxfId="27"/>
-    <tableColumn id="16" name="Lignin, %DM" dataDxfId="26"/>
-    <tableColumn id="17" name="TDN, %DM" dataDxfId="25"/>
-    <tableColumn id="19" name="NEma, Mcal/kg" dataDxfId="24"/>
-    <tableColumn id="20" name="NEga, Mcal/kg" dataDxfId="23"/>
-    <tableColumn id="21" name="RUP, %CP" dataDxfId="22"/>
-    <tableColumn id="29" name="pef, %NDF" dataDxfId="21"/>
-    <tableColumn id="3" name="NPN, %DM" dataDxfId="20"/>
+    <tableColumn id="1" name="ID" dataDxfId="35"/>
+    <tableColumn id="2" name="Feed" dataDxfId="34"/>
+    <tableColumn id="5" name="Forage, %DM" dataDxfId="33"/>
+    <tableColumn id="6" name="DM, %AF" dataDxfId="32"/>
+    <tableColumn id="7" name="CP, %DM" dataDxfId="31"/>
+    <tableColumn id="8" name="SP, %CP" dataDxfId="30"/>
+    <tableColumn id="9" name="ADICP, %CP" dataDxfId="29"/>
+    <tableColumn id="10" name="Sugars, %DM" dataDxfId="28"/>
+    <tableColumn id="11" name="OA, %DM" dataDxfId="27"/>
+    <tableColumn id="12" name="Fat, %DM" dataDxfId="26"/>
+    <tableColumn id="13" name="Ash, %DM" dataDxfId="25"/>
+    <tableColumn id="14" name="Starch, %DM" dataDxfId="24"/>
+    <tableColumn id="15" name="NDF, %DM" dataDxfId="23"/>
+    <tableColumn id="16" name="Lignin, %DM" dataDxfId="22"/>
+    <tableColumn id="17" name="TDN, %DM" dataDxfId="21"/>
+    <tableColumn id="19" name="NEma, Mcal/kg" dataDxfId="20"/>
+    <tableColumn id="20" name="NEga, Mcal/kg" dataDxfId="19"/>
+    <tableColumn id="21" name="RUP, %CP" dataDxfId="18"/>
+    <tableColumn id="29" name="pef, %NDF" dataDxfId="17"/>
+    <tableColumn id="3" name="NPN, %DM" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -7455,7 +7455,7 @@
     <sortCondition ref="C1:C22"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Name INRA" dataDxfId="19"/>
+    <tableColumn id="1" name="Name INRA" dataDxfId="13"/>
     <tableColumn id="2" name="Name RNS"/>
     <tableColumn id="3" name="ID"/>
     <tableColumn id="4" name="Column1"/>
@@ -7465,7 +7465,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="lca" displayName="lca" ref="A1:J6" totalsRowShown="0" headerRowDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="lca" displayName="lca" ref="A1:J6" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A1:J6"/>
   <tableColumns count="10">
     <tableColumn id="1" name="ID"/>
@@ -7484,20 +7484,20 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela26" displayName="Tabela26" ref="A1:H22" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela26" displayName="Tabela26" ref="A1:H22" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H22"/>
   <sortState ref="A2:H22">
-    <sortCondition ref="E1:E22"/>
+    <sortCondition ref="A1:A22"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="1" name="ID" dataDxfId="15" dataCellStyle="Normal 3"/>
-    <tableColumn id="5" name="Name" dataDxfId="14" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" name="LCA_Phosphorous consumption (kg P)" dataDxfId="13"/>
-    <tableColumn id="3" name="LCA_CED 1.8 non renewable fossil+nuclear (MJ)" dataDxfId="12"/>
-    <tableColumn id="4" name="LCA_Climate change ILCD (kg CO2 eq)" dataDxfId="11"/>
-    <tableColumn id="7" name="LCA_Acidification ILCD (molc H+ eq)" dataDxfId="10"/>
-    <tableColumn id="8" name="LCA_Eutrophication CML baseline (kg PO4- eq)" dataDxfId="9"/>
-    <tableColumn id="9" name="LCA_Land competition CML non baseline (m2a)" dataDxfId="8"/>
+    <tableColumn id="1" name="ID" dataDxfId="7" dataCellStyle="Normal 3"/>
+    <tableColumn id="5" name="Name" dataDxfId="6" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" name="LCA_Phosphorous consumption (kg P)" dataDxfId="5"/>
+    <tableColumn id="3" name="LCA_CED 1.8 non renewable fossil+nuclear (MJ)" dataDxfId="4"/>
+    <tableColumn id="4" name="LCA_Climate change ILCD (kg CO2 eq)" dataDxfId="3"/>
+    <tableColumn id="7" name="LCA_Acidification ILCD (molc H+ eq)" dataDxfId="2"/>
+    <tableColumn id="8" name="LCA_Eutrophication CML baseline (kg PO4- eq)" dataDxfId="1"/>
+    <tableColumn id="9" name="LCA_Land competition CML non baseline (m2a)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8223,7 +8223,7 @@
   <dimension ref="A1:X69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8396,7 +8396,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B3" s="22">
         <v>1</v>
@@ -8470,7 +8470,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B4" s="22">
         <v>1</v>
@@ -10278,18 +10278,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B19 B2:I18">
-    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="3" stopIfTrue="1">
       <formula>ROW(B2)=$C$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="4" stopIfTrue="1">
       <formula>COLUMN(B2)=$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:I19">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="38" priority="6" stopIfTrue="1">
       <formula>COLUMN(C19)=$F$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="37" priority="9" stopIfTrue="1">
       <formula>ROW(C19)=$E$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10621,10 +10621,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A19">
-    <cfRule type="expression" dxfId="3" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="12" stopIfTrue="1">
       <formula>ROW(A2)=$D$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="2" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="13" stopIfTrue="1">
       <formula>COLUMN(A2)=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10870,7 +10870,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5:E6"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10914,557 +10914,557 @@
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
-        <v>21</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>134</v>
+      <c r="A2" s="2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>114</v>
       </c>
       <c r="C2" s="55">
-        <v>6.0269407000000002E-4</v>
+        <v>5.3300000000000001E-5</v>
       </c>
       <c r="D2" s="55">
-        <v>0.82331812000000004</v>
+        <v>67</v>
       </c>
       <c r="E2" s="55">
-        <v>9.2401000999999996E-2</v>
+        <v>3.7</v>
       </c>
       <c r="F2" s="55">
-        <v>2.2715029999999998E-3</v>
+        <v>3.5999999999999997E-2</v>
       </c>
       <c r="G2" s="55">
-        <v>8.7793080999999998E-4</v>
+        <v>4.5599999999999998E-3</v>
       </c>
       <c r="H2" s="55">
-        <v>0.29167724</v>
+        <v>8.2600000000000007E-2</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+      <c r="A3" s="27">
+        <v>4</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3" s="56">
+        <v>6.5774577999999997E-4</v>
+      </c>
+      <c r="D3" s="56">
+        <v>5.2727627000000004</v>
+      </c>
+      <c r="E3" s="56">
+        <v>0.23187210999999999</v>
+      </c>
+      <c r="F3" s="56">
+        <v>3.2484240000000002E-3</v>
+      </c>
+      <c r="G3" s="56">
+        <v>1.2782201999999999E-3</v>
+      </c>
+      <c r="H3" s="56">
+        <v>0.55197054999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17">
+        <v>5</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="56">
+        <v>9.8875607000000008E-4</v>
+      </c>
+      <c r="D4" s="56">
+        <v>3.4574254999999998</v>
+      </c>
+      <c r="E4" s="56">
+        <v>0.22933355999999999</v>
+      </c>
+      <c r="F4" s="56">
+        <v>4.8724891000000003E-3</v>
+      </c>
+      <c r="G4" s="56">
+        <v>1.5442412000000001E-3</v>
+      </c>
+      <c r="H4" s="56">
+        <v>0.43937693999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17">
+        <v>6</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="56">
+        <v>4.6734098000000002E-3</v>
+      </c>
+      <c r="D5" s="56">
+        <v>16.341711</v>
+      </c>
+      <c r="E5" s="56">
+        <v>1.0839576</v>
+      </c>
+      <c r="F5" s="56">
+        <v>2.3030087000000001E-2</v>
+      </c>
+      <c r="G5" s="56">
+        <v>7.2989407999999997E-3</v>
+      </c>
+      <c r="H5" s="56">
+        <v>2.0767392</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17">
+        <v>7</v>
+      </c>
+      <c r="B6" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="56">
+        <v>5.2979589999999997E-3</v>
+      </c>
+      <c r="D6" s="56">
+        <v>2.6504308999999999</v>
+      </c>
+      <c r="E6" s="56">
+        <v>0.25521818000000002</v>
+      </c>
+      <c r="F6" s="56">
+        <v>2.7713717000000001E-3</v>
+      </c>
+      <c r="G6" s="56">
+        <v>4.3737089999999999E-3</v>
+      </c>
+      <c r="H6" s="56">
+        <v>2.4169052999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17">
         <v>8</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B7" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="C3" s="56">
+      <c r="C7" s="56">
         <v>3.0914954E-4</v>
       </c>
-      <c r="D3" s="56">
+      <c r="D7" s="56">
         <v>1.38809</v>
       </c>
-      <c r="E3" s="56">
+      <c r="E7" s="56">
         <v>9.5984228000000005E-2</v>
       </c>
-      <c r="F3" s="56">
+      <c r="F7" s="56">
         <v>1.4925155E-3</v>
       </c>
-      <c r="G3" s="56">
+      <c r="G7" s="56">
         <v>5.9082242000000002E-4</v>
       </c>
-      <c r="H3" s="56">
+      <c r="H7" s="56">
         <v>0.25908868000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="27">
-        <v>19</v>
-      </c>
-      <c r="B4" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="55">
-        <v>6.8793711999999996E-4</v>
-      </c>
-      <c r="D4" s="55">
-        <v>0.93976550999999997</v>
-      </c>
-      <c r="E4" s="55">
-        <v>0.10546989</v>
-      </c>
-      <c r="F4" s="55">
-        <v>2.5927768E-3</v>
-      </c>
-      <c r="G4" s="55">
-        <v>1.0021024000000001E-3</v>
-      </c>
-      <c r="H4" s="55">
-        <v>0.33293109999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27">
-        <v>31</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="56">
-        <v>1.398646E-5</v>
-      </c>
-      <c r="D5" s="56">
-        <v>1.0869945000000001</v>
-      </c>
-      <c r="E5" s="56">
-        <v>0.18026732000000001</v>
-      </c>
-      <c r="F5" s="56">
-        <v>7.1452427000000002E-3</v>
-      </c>
-      <c r="G5" s="56">
-        <v>1.8322938999999999E-3</v>
-      </c>
-      <c r="H5" s="56">
-        <v>1.1594272000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53">
-        <v>30</v>
-      </c>
-      <c r="B6" s="54" t="s">
-        <v>157</v>
-      </c>
-      <c r="C6" s="57">
-        <v>1.4238930000000001E-3</v>
-      </c>
-      <c r="D6" s="57">
-        <v>1.2922062999999999</v>
-      </c>
-      <c r="E6" s="57">
-        <v>0.19672819999999999</v>
-      </c>
-      <c r="F6" s="57">
-        <v>8.0315088999999996E-3</v>
-      </c>
-      <c r="G6" s="57">
-        <v>2.7384863000000001E-3</v>
-      </c>
-      <c r="H6" s="57">
-        <v>0.89059001000000004</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="27">
-        <v>12</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>127</v>
-      </c>
-      <c r="C7" s="55">
-        <v>1.8296865E-3</v>
-      </c>
-      <c r="D7" s="55">
-        <v>2.1376919999999999</v>
-      </c>
-      <c r="E7" s="55">
-        <v>0.21715095000000001</v>
-      </c>
-      <c r="F7" s="55">
-        <v>3.8183357999999998E-3</v>
-      </c>
-      <c r="G7" s="55">
-        <v>3.2683618999999999E-3</v>
-      </c>
-      <c r="H7" s="55">
-        <v>1.6645894999999999</v>
-      </c>
-    </row>
     <row r="8" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="27">
-        <v>25</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>136</v>
+      <c r="A8" s="17">
+        <v>9</v>
+      </c>
+      <c r="B8" s="39" t="s">
+        <v>123</v>
       </c>
       <c r="C8" s="56">
-        <v>1.4474578E-5</v>
+        <v>2.4268531000000001E-3</v>
       </c>
       <c r="D8" s="56">
-        <v>2.1134135000000001</v>
+        <v>2.7512188000000002</v>
       </c>
       <c r="E8" s="56">
-        <v>0.22375627000000001</v>
+        <v>0.37877785000000003</v>
       </c>
       <c r="F8" s="56">
-        <v>7.2554300000000002E-3</v>
+        <v>8.1080295000000007E-3</v>
       </c>
       <c r="G8" s="56">
-        <v>1.8719005000000001E-3</v>
+        <v>3.0197698000000001E-3</v>
       </c>
       <c r="H8" s="56">
-        <v>1.1395907999999999</v>
+        <v>1.2147266999999999</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17">
-        <v>5</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="56">
-        <v>9.8875607000000008E-4</v>
-      </c>
-      <c r="D9" s="56">
-        <v>3.4574254999999998</v>
-      </c>
-      <c r="E9" s="56">
-        <v>0.22933355999999999</v>
-      </c>
-      <c r="F9" s="56">
-        <v>4.8724891000000003E-3</v>
-      </c>
-      <c r="G9" s="56">
-        <v>1.5442412000000001E-3</v>
-      </c>
-      <c r="H9" s="56">
-        <v>0.43937693999999999</v>
+      <c r="A9" s="27">
+        <v>10</v>
+      </c>
+      <c r="B9" s="39" t="s">
+        <v>124</v>
+      </c>
+      <c r="C9" s="55">
+        <v>1.1524281000000001E-2</v>
+      </c>
+      <c r="D9" s="55">
+        <v>13.064581</v>
+      </c>
+      <c r="E9" s="55">
+        <v>1.7986842999999999</v>
+      </c>
+      <c r="F9" s="55">
+        <v>3.8502213E-2</v>
+      </c>
+      <c r="G9" s="55">
+        <v>1.4339836999999999E-2</v>
+      </c>
+      <c r="H9" s="55">
+        <v>5.7683147000000004</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="56">
-        <v>6.5774577999999997E-4</v>
-      </c>
-      <c r="D10" s="56">
-        <v>5.2727627000000004</v>
-      </c>
-      <c r="E10" s="56">
-        <v>0.23187210999999999</v>
-      </c>
-      <c r="F10" s="56">
-        <v>3.2484240000000002E-3</v>
-      </c>
-      <c r="G10" s="56">
-        <v>1.2782201999999999E-3</v>
-      </c>
-      <c r="H10" s="56">
-        <v>0.55197054999999995</v>
+        <v>125</v>
+      </c>
+      <c r="C10" s="55">
+        <v>3.8977495E-3</v>
+      </c>
+      <c r="D10" s="55">
+        <v>6.6378231000000003</v>
+      </c>
+      <c r="E10" s="55">
+        <v>0.33354636999999998</v>
+      </c>
+      <c r="F10" s="55">
+        <v>3.6638446000000001E-3</v>
+      </c>
+      <c r="G10" s="55">
+        <v>6.3452205000000001E-3</v>
+      </c>
+      <c r="H10" s="55">
+        <v>3.8084742</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="56">
-        <v>2.1675339E-3</v>
-      </c>
-      <c r="D11" s="56">
-        <v>2.3852028000000001</v>
-      </c>
-      <c r="E11" s="56">
-        <v>0.24039757</v>
-      </c>
-      <c r="F11" s="56">
-        <v>4.5559939999999998E-3</v>
-      </c>
-      <c r="G11" s="56">
-        <v>3.8858629999999998E-3</v>
-      </c>
-      <c r="H11" s="56">
-        <v>1.9759963</v>
+        <v>127</v>
+      </c>
+      <c r="C11" s="55">
+        <v>1.8296865E-3</v>
+      </c>
+      <c r="D11" s="55">
+        <v>2.1376919999999999</v>
+      </c>
+      <c r="E11" s="55">
+        <v>0.21715095000000001</v>
+      </c>
+      <c r="F11" s="55">
+        <v>3.8183357999999998E-3</v>
+      </c>
+      <c r="G11" s="55">
+        <v>3.2683618999999999E-3</v>
+      </c>
+      <c r="H11" s="55">
+        <v>1.6645894999999999</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="27">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C12" s="55">
-        <v>2.1675339E-3</v>
+        <v>9.5703047000000006E-3</v>
       </c>
       <c r="D12" s="55">
-        <v>2.3852028000000001</v>
+        <v>11.181349000000001</v>
       </c>
       <c r="E12" s="55">
-        <v>0.24039757</v>
+        <v>1.1358234</v>
       </c>
       <c r="F12" s="55">
-        <v>4.5559939999999998E-3</v>
+        <v>1.9972074999999999E-2</v>
       </c>
       <c r="G12" s="55">
-        <v>3.8858629999999998E-3</v>
+        <v>1.7095398000000001E-2</v>
       </c>
       <c r="H12" s="55">
-        <v>1.9759963</v>
+        <v>8.7067530000000009</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="17">
-        <v>7</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>121</v>
-      </c>
-      <c r="C13" s="56">
-        <v>5.2979589999999997E-3</v>
-      </c>
-      <c r="D13" s="56">
-        <v>2.6504308999999999</v>
-      </c>
-      <c r="E13" s="56">
-        <v>0.25521818000000002</v>
-      </c>
-      <c r="F13" s="56">
-        <v>2.7713717000000001E-3</v>
-      </c>
-      <c r="G13" s="56">
-        <v>4.3737089999999999E-3</v>
-      </c>
-      <c r="H13" s="56">
-        <v>2.4169052999999998</v>
+      <c r="A13" s="27">
+        <v>17</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="55">
+        <v>1.2856242E-3</v>
+      </c>
+      <c r="D13" s="55">
+        <v>5.4884582999999996</v>
+      </c>
+      <c r="E13" s="55">
+        <v>0.33457320000000002</v>
+      </c>
+      <c r="F13" s="55">
+        <v>5.0812655999999999E-3</v>
+      </c>
+      <c r="G13" s="55">
+        <v>2.1954254000000001E-3</v>
+      </c>
+      <c r="H13" s="55">
+        <v>0.62333822000000005</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="27">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C14" s="55">
-        <v>3.8977495E-3</v>
+        <v>2.0170432000000001E-3</v>
       </c>
       <c r="D14" s="55">
-        <v>6.6378231000000003</v>
+        <v>9.4737010999999995</v>
       </c>
       <c r="E14" s="55">
-        <v>0.33354636999999998</v>
+        <v>0.57584038999999998</v>
       </c>
       <c r="F14" s="55">
-        <v>3.6638446000000001E-3</v>
+        <v>7.9888571999999995E-3</v>
       </c>
       <c r="G14" s="55">
-        <v>6.3452205000000001E-3</v>
+        <v>6.0113188999999997E-3</v>
       </c>
       <c r="H14" s="55">
-        <v>3.8084742</v>
+        <v>0.97791181999999999</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="27">
-        <v>17</v>
-      </c>
-      <c r="B15" s="39" t="s">
-        <v>130</v>
+        <v>19</v>
+      </c>
+      <c r="B15" s="37" t="s">
+        <v>132</v>
       </c>
       <c r="C15" s="55">
-        <v>1.2856242E-3</v>
+        <v>6.8793711999999996E-4</v>
       </c>
       <c r="D15" s="55">
-        <v>5.4884582999999996</v>
+        <v>0.93976550999999997</v>
       </c>
       <c r="E15" s="55">
-        <v>0.33457320000000002</v>
+        <v>0.10546989</v>
       </c>
       <c r="F15" s="55">
-        <v>5.0812655999999999E-3</v>
+        <v>2.5927768E-3</v>
       </c>
       <c r="G15" s="55">
-        <v>2.1954254000000001E-3</v>
+        <v>1.0021024000000001E-3</v>
       </c>
       <c r="H15" s="55">
-        <v>0.62333822000000005</v>
+        <v>0.33293109999999998</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="17">
-        <v>9</v>
-      </c>
-      <c r="B16" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="C16" s="56">
-        <v>2.4268531000000001E-3</v>
-      </c>
-      <c r="D16" s="56">
-        <v>2.7512188000000002</v>
-      </c>
-      <c r="E16" s="56">
-        <v>0.37877785000000003</v>
-      </c>
-      <c r="F16" s="56">
-        <v>8.1080295000000007E-3</v>
-      </c>
-      <c r="G16" s="56">
-        <v>3.0197698000000001E-3</v>
-      </c>
-      <c r="H16" s="56">
-        <v>1.2147266999999999</v>
+      <c r="A16" s="27">
+        <v>20</v>
+      </c>
+      <c r="B16" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="C16" s="55">
+        <v>1.7751223E-3</v>
+      </c>
+      <c r="D16" s="55">
+        <v>7.5781744</v>
+      </c>
+      <c r="E16" s="55">
+        <v>0.46196108000000002</v>
+      </c>
+      <c r="F16" s="55">
+        <v>7.0159441999999997E-3</v>
+      </c>
+      <c r="G16" s="55">
+        <v>3.0313279000000002E-3</v>
+      </c>
+      <c r="H16" s="55">
+        <v>0.86067262</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="27">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C17" s="55">
-        <v>1.7751223E-3</v>
+        <v>6.0269407000000002E-4</v>
       </c>
       <c r="D17" s="55">
-        <v>7.5781744</v>
+        <v>0.82331812000000004</v>
       </c>
       <c r="E17" s="55">
-        <v>0.46196108000000002</v>
+        <v>9.2401000999999996E-2</v>
       </c>
       <c r="F17" s="55">
-        <v>7.0159441999999997E-3</v>
+        <v>2.2715029999999998E-3</v>
       </c>
       <c r="G17" s="55">
-        <v>3.0313279000000002E-3</v>
+        <v>8.7793080999999998E-4</v>
       </c>
       <c r="H17" s="55">
-        <v>0.86067262</v>
+        <v>0.29167724</v>
       </c>
     </row>
     <row r="18" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="27">
-        <v>18</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>131</v>
-      </c>
-      <c r="C18" s="55">
-        <v>2.0170432000000001E-3</v>
-      </c>
-      <c r="D18" s="55">
-        <v>9.4737010999999995</v>
-      </c>
-      <c r="E18" s="55">
-        <v>0.57584038999999998</v>
-      </c>
-      <c r="F18" s="55">
-        <v>7.9888571999999995E-3</v>
-      </c>
-      <c r="G18" s="55">
-        <v>6.0113188999999997E-3</v>
-      </c>
-      <c r="H18" s="55">
-        <v>0.97791181999999999</v>
+        <v>25</v>
+      </c>
+      <c r="B18" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="C18" s="56">
+        <v>1.4474578E-5</v>
+      </c>
+      <c r="D18" s="56">
+        <v>2.1134135000000001</v>
+      </c>
+      <c r="E18" s="56">
+        <v>0.22375627000000001</v>
+      </c>
+      <c r="F18" s="56">
+        <v>7.2554300000000002E-3</v>
+      </c>
+      <c r="G18" s="56">
+        <v>1.8719005000000001E-3</v>
+      </c>
+      <c r="H18" s="56">
+        <v>1.1395907999999999</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="17">
-        <v>6</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>120</v>
+      <c r="A19" s="27">
+        <v>28</v>
+      </c>
+      <c r="B19" s="39" t="s">
+        <v>126</v>
       </c>
       <c r="C19" s="56">
-        <v>4.6734098000000002E-3</v>
+        <v>2.1675339E-3</v>
       </c>
       <c r="D19" s="56">
-        <v>16.341711</v>
+        <v>2.3852028000000001</v>
       </c>
       <c r="E19" s="56">
-        <v>1.0839576</v>
+        <v>0.24039757</v>
       </c>
       <c r="F19" s="56">
-        <v>2.3030087000000001E-2</v>
+        <v>4.5559939999999998E-3</v>
       </c>
       <c r="G19" s="56">
-        <v>7.2989407999999997E-3</v>
+        <v>3.8858629999999998E-3</v>
       </c>
       <c r="H19" s="56">
-        <v>2.0767392</v>
+        <v>1.9759963</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="27">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C20" s="55">
-        <v>9.5703047000000006E-3</v>
+        <v>2.1675339E-3</v>
       </c>
       <c r="D20" s="55">
-        <v>11.181349000000001</v>
+        <v>2.3852028000000001</v>
       </c>
       <c r="E20" s="55">
-        <v>1.1358234</v>
+        <v>0.24039757</v>
       </c>
       <c r="F20" s="55">
-        <v>1.9972074999999999E-2</v>
+        <v>4.5559939999999998E-3</v>
       </c>
       <c r="G20" s="55">
-        <v>1.7095398000000001E-2</v>
+        <v>3.8858629999999998E-3</v>
       </c>
       <c r="H20" s="55">
-        <v>8.7067530000000009</v>
+        <v>1.9759963</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27">
-        <v>10</v>
-      </c>
-      <c r="B21" s="39" t="s">
-        <v>124</v>
-      </c>
-      <c r="C21" s="55">
-        <v>1.1524281000000001E-2</v>
-      </c>
-      <c r="D21" s="55">
-        <v>13.064581</v>
-      </c>
-      <c r="E21" s="55">
-        <v>1.7986842999999999</v>
-      </c>
-      <c r="F21" s="55">
-        <v>3.8502213E-2</v>
-      </c>
-      <c r="G21" s="55">
-        <v>1.4339836999999999E-2</v>
-      </c>
-      <c r="H21" s="55">
-        <v>5.7683147000000004</v>
+      <c r="A21" s="53">
+        <v>30</v>
+      </c>
+      <c r="B21" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="57">
+        <v>1.4238930000000001E-3</v>
+      </c>
+      <c r="D21" s="57">
+        <v>1.2922062999999999</v>
+      </c>
+      <c r="E21" s="57">
+        <v>0.19672819999999999</v>
+      </c>
+      <c r="F21" s="57">
+        <v>8.0315088999999996E-3</v>
+      </c>
+      <c r="G21" s="57">
+        <v>2.7384863000000001E-3</v>
+      </c>
+      <c r="H21" s="57">
+        <v>0.89059001000000004</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
-        <v>3</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C22" s="55">
-        <v>5.3300000000000001E-5</v>
-      </c>
-      <c r="D22" s="55">
-        <v>67</v>
-      </c>
-      <c r="E22" s="55">
-        <v>3.7</v>
-      </c>
-      <c r="F22" s="55">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="G22" s="55">
-        <v>4.5599999999999998E-3</v>
-      </c>
-      <c r="H22" s="55">
-        <v>8.2600000000000007E-2</v>
+      <c r="A22" s="27">
+        <v>31</v>
+      </c>
+      <c r="B22" s="44" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" s="56">
+        <v>1.398646E-5</v>
+      </c>
+      <c r="D22" s="56">
+        <v>1.0869945000000001</v>
+      </c>
+      <c r="E22" s="56">
+        <v>0.18026732000000001</v>
+      </c>
+      <c r="F22" s="56">
+        <v>7.1452427000000002E-3</v>
+      </c>
+      <c r="G22" s="56">
+        <v>1.8322938999999999E-3</v>
+      </c>
+      <c r="H22" s="56">
+        <v>1.1594272000000001</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A19:A21 A2:A16">
-    <cfRule type="expression" dxfId="1" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
       <formula>ROW(A2)=$C$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="4" stopIfTrue="1">
       <formula>COLUMN(A2)=$D$1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="14490" windowHeight="11160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="14490" windowHeight="11160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Feeds" sheetId="2" r:id="rId1"/>
@@ -511,9 +511,6 @@
     <t>Max %DM</t>
   </si>
   <si>
-    <t>Cost [US$/kg AF]</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -986,6 +983,9 @@
   </si>
   <si>
     <t>GSS-MAX_BIS_F_N_2</t>
+  </si>
+  <si>
+    <t>Cost [EUR/kg DM]</t>
   </si>
 </sst>
 </file>
@@ -7361,7 +7361,7 @@
     <tableColumn id="2" name="ID" dataDxfId="71" dataCellStyle="Normal 3"/>
     <tableColumn id="3" name="Min %DM" dataDxfId="70"/>
     <tableColumn id="4" name="Max %DM" dataDxfId="69"/>
-    <tableColumn id="5" name="Cost [US$/kg AF]" dataDxfId="68"/>
+    <tableColumn id="5" name="Cost [EUR/kg DM]" dataDxfId="68"/>
     <tableColumn id="6" name="Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7771,8 +7771,8 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7800,10 +7800,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -8177,7 +8177,7 @@
         <v>100</v>
       </c>
       <c r="E19" s="42">
-        <v>5.2600000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="F19" s="16" t="str">
         <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[#Data],2,0)</f>
@@ -8198,7 +8198,7 @@
         <v>100</v>
       </c>
       <c r="E20" s="42">
-        <v>7.6749999999999999E-2</v>
+        <v>0.107</v>
       </c>
       <c r="F20" s="16" t="str">
         <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[#Data],2,0)</f>
@@ -8222,8 +8222,8 @@
   </sheetPr>
   <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S4" sqref="S4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8243,6 +8243,7 @@
     <col min="14" max="14" width="13" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.42578125" customWidth="1"/>
     <col min="20" max="20" width="4.85546875" style="2"/>
   </cols>
   <sheetData>
@@ -8254,70 +8255,70 @@
         <v>0</v>
       </c>
       <c r="C1" s="64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="64" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="E1" s="64" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="F1" s="64" t="s">
+        <v>85</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>86</v>
+      </c>
+      <c r="H1" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="64" t="s">
-        <v>86</v>
-      </c>
-      <c r="G1" s="65" t="s">
-        <v>87</v>
-      </c>
-      <c r="H1" s="64" t="s">
+      <c r="I1" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="J1" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="K1" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="64" t="s">
+      <c r="L1" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="64" t="s">
+      <c r="M1" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="N1" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="64" t="s">
+      <c r="O1" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="64" t="s">
+      <c r="P1" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="64" t="s">
+      <c r="Q1" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="64" t="s">
+      <c r="R1" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="64" t="s">
+      <c r="S1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="64" t="s">
+      <c r="T1" s="64" t="s">
+        <v>88</v>
+      </c>
+      <c r="U1" s="64" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="64" t="s">
-        <v>89</v>
-      </c>
-      <c r="U1" s="64" t="s">
-        <v>21</v>
-      </c>
       <c r="V1" s="64" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="W1" s="64" t="s">
+        <v>90</v>
+      </c>
+      <c r="X1" s="66" t="s">
         <v>91</v>
-      </c>
-      <c r="X1" s="66" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -8331,7 +8332,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E2" s="19">
         <v>336</v>
@@ -8364,10 +8365,10 @@
         <v>2.41</v>
       </c>
       <c r="O2" s="19" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="P2" s="19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="Q2" s="19">
         <v>1.33</v>
@@ -8379,10 +8380,10 @@
         <v>0.01</v>
       </c>
       <c r="T2" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U2" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V2" s="19">
         <v>0</v>
@@ -8405,7 +8406,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E3" s="19">
         <v>336</v>
@@ -8438,10 +8439,10 @@
         <v>2.41</v>
       </c>
       <c r="O3" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P3" s="22" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q3" s="19">
         <v>1.33</v>
@@ -8450,13 +8451,13 @@
         <v>2.02</v>
       </c>
       <c r="S3" s="19">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="T3" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U3" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V3" s="22">
         <v>0</v>
@@ -8479,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4" s="19">
         <v>336</v>
@@ -8512,10 +8513,10 @@
         <v>2.41</v>
       </c>
       <c r="O4" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P4" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="Q4" s="19">
         <v>1.33</v>
@@ -8524,13 +8525,13 @@
         <v>2.02</v>
       </c>
       <c r="S4" s="19">
-        <v>0.01</v>
+        <v>1E-3</v>
       </c>
       <c r="T4" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U4" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V4" s="22">
         <v>0</v>
@@ -8553,7 +8554,7 @@
         <v>0</v>
       </c>
       <c r="D5" s="60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5" s="59">
         <v>336</v>
@@ -8586,10 +8587,10 @@
         <v>2.41</v>
       </c>
       <c r="O5" s="60" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="P5" s="60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="Q5" s="19">
         <v>1.33</v>
@@ -8601,10 +8602,10 @@
         <v>0.01</v>
       </c>
       <c r="T5" s="60" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="U5" s="60" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V5" s="60">
         <v>0</v>
@@ -8789,22 +8790,22 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="F1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -8812,10 +8813,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>113</v>
       </c>
       <c r="D2" s="2">
         <v>1</v>
@@ -8879,61 +8880,61 @@
         <v>1</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C1" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="E1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="F1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="G1" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="I1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="J1" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="K1" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="M1" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="O1" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="O1" s="12" t="s">
-        <v>42</v>
-      </c>
       <c r="P1" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="12" t="s">
-        <v>46</v>
-      </c>
       <c r="S1" s="13" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -8941,7 +8942,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="31">
         <v>0</v>
@@ -9003,7 +9004,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="31">
         <v>0</v>
@@ -9065,7 +9066,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="31">
         <v>0</v>
@@ -9127,7 +9128,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="31">
         <v>0</v>
@@ -9189,7 +9190,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="31">
         <v>0</v>
@@ -9251,7 +9252,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="31">
         <v>0</v>
@@ -9313,7 +9314,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="31">
         <v>0</v>
@@ -9375,7 +9376,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="31">
         <v>0</v>
@@ -9437,7 +9438,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="31">
         <v>0</v>
@@ -9499,7 +9500,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="31">
         <v>0</v>
@@ -9561,7 +9562,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="31">
         <v>0</v>
@@ -9623,7 +9624,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" s="31">
         <v>0</v>
@@ -9685,7 +9686,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="31">
         <v>0</v>
@@ -9747,7 +9748,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="31">
         <v>0</v>
@@ -9809,7 +9810,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" s="31">
         <v>0</v>
@@ -9871,7 +9872,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="31">
         <v>0</v>
@@ -9933,7 +9934,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="31">
         <v>100</v>
@@ -9995,7 +9996,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19" s="31">
         <v>0</v>
@@ -10057,7 +10058,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="31">
         <v>0</v>
@@ -10119,7 +10120,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21" s="31">
         <v>100</v>
@@ -10181,7 +10182,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="33" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="31">
         <v>100</v>
@@ -10319,24 +10320,24 @@
   <sheetData>
     <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>158</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2">
         <v>3</v>
@@ -10347,10 +10348,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="36" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C3" s="2">
         <v>4</v>
@@ -10361,10 +10362,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C4" s="2">
         <v>5</v>
@@ -10375,10 +10376,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C5" s="2">
         <v>6</v>
@@ -10389,10 +10390,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C6" s="2">
         <v>7</v>
@@ -10403,10 +10404,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C7" s="2">
         <v>8</v>
@@ -10417,10 +10418,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C8" s="2">
         <v>9</v>
@@ -10431,10 +10432,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="36" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C9" s="2">
         <v>10</v>
@@ -10445,10 +10446,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C10" s="2">
         <v>11</v>
@@ -10459,10 +10460,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2">
         <v>12</v>
@@ -10473,10 +10474,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C12" s="2">
         <v>16</v>
@@ -10487,10 +10488,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C13" s="2">
         <v>17</v>
@@ -10501,10 +10502,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C14" s="2">
         <v>18</v>
@@ -10515,10 +10516,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="2">
         <v>19</v>
@@ -10529,10 +10530,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="36" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="2">
         <v>20</v>
@@ -10543,10 +10544,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C17" s="2">
         <v>21</v>
@@ -10557,10 +10558,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="49" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C18" s="2">
         <v>25</v>
@@ -10571,10 +10572,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="36" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C19" s="2">
         <v>28</v>
@@ -10585,10 +10586,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="36" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C20" s="2">
         <v>29</v>
@@ -10599,10 +10600,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C21" s="2">
         <v>30</v>
@@ -10610,10 +10611,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="52" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C22" s="2">
         <v>31</v>
@@ -10656,31 +10657,31 @@
         <v>1</v>
       </c>
       <c r="B1" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="C1" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="D1" s="58" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="E1" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="F1" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="G1" s="58" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="H1" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="I1" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="J1" s="58" t="s">
         <v>101</v>
-      </c>
-      <c r="J1" s="58" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -10706,10 +10707,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J2" t="b">
         <v>0</v>
@@ -10744,10 +10745,10 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="H3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J3" t="b">
         <v>1</v>
@@ -10782,10 +10783,10 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="H4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J4" t="b">
         <v>0</v>
@@ -10814,10 +10815,10 @@
         <v>0.2</v>
       </c>
       <c r="H5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J5" t="b">
         <v>1</v>
@@ -10846,10 +10847,10 @@
         <v>0.15</v>
       </c>
       <c r="H6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J6" s="2" t="b">
         <v>1</v>
@@ -10892,25 +10893,25 @@
         <v>1</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C1" s="45" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="45" t="s">
         <v>104</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="E1" s="45" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="45" t="s">
+      <c r="F1" s="45" t="s">
         <v>106</v>
       </c>
-      <c r="F1" s="45" t="s">
+      <c r="G1" s="45" t="s">
         <v>107</v>
       </c>
-      <c r="G1" s="45" t="s">
+      <c r="H1" s="45" t="s">
         <v>108</v>
-      </c>
-      <c r="H1" s="45" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -10918,7 +10919,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" s="55">
         <v>5.3300000000000001E-5</v>
@@ -10944,7 +10945,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C3" s="56">
         <v>6.5774577999999997E-4</v>
@@ -10970,7 +10971,7 @@
         <v>5</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C4" s="56">
         <v>9.8875607000000008E-4</v>
@@ -10996,7 +10997,7 @@
         <v>6</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C5" s="56">
         <v>4.6734098000000002E-3</v>
@@ -11022,7 +11023,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="56">
         <v>5.2979589999999997E-3</v>
@@ -11048,7 +11049,7 @@
         <v>8</v>
       </c>
       <c r="B7" s="39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C7" s="56">
         <v>3.0914954E-4</v>
@@ -11074,7 +11075,7 @@
         <v>9</v>
       </c>
       <c r="B8" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C8" s="56">
         <v>2.4268531000000001E-3</v>
@@ -11100,7 +11101,7 @@
         <v>10</v>
       </c>
       <c r="B9" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C9" s="55">
         <v>1.1524281000000001E-2</v>
@@ -11126,7 +11127,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C10" s="55">
         <v>3.8977495E-3</v>
@@ -11152,7 +11153,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C11" s="55">
         <v>1.8296865E-3</v>
@@ -11178,7 +11179,7 @@
         <v>16</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="55">
         <v>9.5703047000000006E-3</v>
@@ -11204,7 +11205,7 @@
         <v>17</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C13" s="55">
         <v>1.2856242E-3</v>
@@ -11230,7 +11231,7 @@
         <v>18</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C14" s="55">
         <v>2.0170432000000001E-3</v>
@@ -11256,7 +11257,7 @@
         <v>19</v>
       </c>
       <c r="B15" s="37" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C15" s="55">
         <v>6.8793711999999996E-4</v>
@@ -11282,7 +11283,7 @@
         <v>20</v>
       </c>
       <c r="B16" s="37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C16" s="55">
         <v>1.7751223E-3</v>
@@ -11308,7 +11309,7 @@
         <v>21</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" s="55">
         <v>6.0269407000000002E-4</v>
@@ -11334,7 +11335,7 @@
         <v>25</v>
       </c>
       <c r="B18" s="40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="56">
         <v>1.4474578E-5</v>
@@ -11360,7 +11361,7 @@
         <v>28</v>
       </c>
       <c r="B19" s="39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C19" s="56">
         <v>2.1675339E-3</v>
@@ -11386,7 +11387,7 @@
         <v>29</v>
       </c>
       <c r="B20" s="39" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C20" s="55">
         <v>2.1675339E-3</v>
@@ -11412,7 +11413,7 @@
         <v>30</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C21" s="57">
         <v>1.4238930000000001E-3</v>
@@ -11438,7 +11439,7 @@
         <v>31</v>
       </c>
       <c r="B22" s="44" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="56">
         <v>1.398646E-5</v>
@@ -11498,287 +11499,287 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" s="11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="14490" windowHeight="11160" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="14490" windowHeight="11160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feeds" sheetId="2" r:id="rId1"/>
@@ -7771,7 +7771,7 @@
   </sheetPr>
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -8222,8 +8222,8 @@
   </sheetPr>
   <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S4" sqref="S4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8323,7 +8323,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B2" s="19">
         <v>1</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -8223,7 +8223,7 @@
   <dimension ref="A1:X69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8323,7 +8323,7 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B2" s="19">
         <v>1</v>
@@ -8397,7 +8397,7 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B3" s="22">
         <v>1</v>
@@ -8471,7 +8471,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="B4" s="22">
         <v>1</v>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="14490" windowHeight="11160" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="14490" windowHeight="11160" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Feeds" sheetId="2" r:id="rId1"/>
@@ -497,7 +497,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="546" uniqueCount="212">
   <si>
     <t>Feed Scenario</t>
   </si>
@@ -986,6 +986,153 @@
   </si>
   <si>
     <t>Cost [EUR/kg DM]</t>
+  </si>
+  <si>
+    <t>NRC2017</t>
+  </si>
+  <si>
+    <t>NRC2018</t>
+  </si>
+  <si>
+    <t>NRC2019</t>
+  </si>
+  <si>
+    <t>NRC2020</t>
+  </si>
+  <si>
+    <t>NRC2021</t>
+  </si>
+  <si>
+    <t>NRC2022</t>
+  </si>
+  <si>
+    <t>NRC2023</t>
+  </si>
+  <si>
+    <t>NRC2024</t>
+  </si>
+  <si>
+    <t>NRC2025</t>
+  </si>
+  <si>
+    <t>NRC2026</t>
+  </si>
+  <si>
+    <t>NRC2027</t>
+  </si>
+  <si>
+    <t>NRC2028</t>
+  </si>
+  <si>
+    <t>NRC2029</t>
+  </si>
+  <si>
+    <t>NRC2030</t>
+  </si>
+  <si>
+    <t>NRC2031</t>
+  </si>
+  <si>
+    <t>NRC2032</t>
+  </si>
+  <si>
+    <t>NRC2033</t>
+  </si>
+  <si>
+    <t>NRC2034</t>
+  </si>
+  <si>
+    <t>NRC2035</t>
+  </si>
+  <si>
+    <t>NRC2036</t>
+  </si>
+  <si>
+    <t>NRC2037</t>
+  </si>
+  <si>
+    <t>NRC2038</t>
+  </si>
+  <si>
+    <t>NRC2039</t>
+  </si>
+  <si>
+    <t>NRC2040</t>
+  </si>
+  <si>
+    <t>NRC2041</t>
+  </si>
+  <si>
+    <t>NRC2042</t>
+  </si>
+  <si>
+    <t>NRC2043</t>
+  </si>
+  <si>
+    <t>NRC2044</t>
+  </si>
+  <si>
+    <t>NRC2045</t>
+  </si>
+  <si>
+    <t>NRC2046</t>
+  </si>
+  <si>
+    <t>NRC2047</t>
+  </si>
+  <si>
+    <t>NRC2048</t>
+  </si>
+  <si>
+    <t>NRC2049</t>
+  </si>
+  <si>
+    <t>NRC2050</t>
+  </si>
+  <si>
+    <t>NRC2051</t>
+  </si>
+  <si>
+    <t>NRC2052</t>
+  </si>
+  <si>
+    <t>NRC2053</t>
+  </si>
+  <si>
+    <t>NRC2054</t>
+  </si>
+  <si>
+    <t>NRC2055</t>
+  </si>
+  <si>
+    <t>NRC2056</t>
+  </si>
+  <si>
+    <t>NRC2057</t>
+  </si>
+  <si>
+    <t>NRC2058</t>
+  </si>
+  <si>
+    <t>NRC2059</t>
+  </si>
+  <si>
+    <t>NRC2060</t>
+  </si>
+  <si>
+    <t>NRC2061</t>
+  </si>
+  <si>
+    <t>NRC2062</t>
+  </si>
+  <si>
+    <t>NRC2063</t>
+  </si>
+  <si>
+    <t>NRC2064</t>
+  </si>
+  <si>
+    <t>NRC2065</t>
   </si>
 </sst>
 </file>
@@ -996,7 +1143,7 @@
     <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1152,18 +1299,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="9">
@@ -1311,7 +1465,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="77">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1410,12 +1564,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1426,7 +1574,23 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7369,8 +7533,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="scenario" displayName="scenario" ref="A1:X5" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66" tableBorderDxfId="65">
-  <autoFilter ref="A1:X5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="scenario" displayName="scenario" ref="A1:X54" totalsRowShown="0" headerRowDxfId="67" dataDxfId="66" tableBorderDxfId="65">
+  <autoFilter ref="A1:X54"/>
   <tableColumns count="24">
     <tableColumn id="1" name="ID" dataDxfId="64"/>
     <tableColumn id="2" name="Feed Scenario" dataDxfId="63"/>
@@ -7465,8 +7629,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="lca" displayName="lca" ref="A1:J6" totalsRowShown="0" headerRowDxfId="12">
-  <autoFilter ref="A1:J6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="lca" displayName="lca" ref="A1:J55" totalsRowShown="0" headerRowDxfId="12">
+  <autoFilter ref="A1:J55"/>
   <tableColumns count="10">
     <tableColumn id="1" name="ID"/>
     <tableColumn id="3" name="weight_LCA_Phosphorous consumption (kg P)"/>
@@ -7769,10 +7933,10 @@
   <sheetPr codeName="Planilha1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F2" sqref="B2:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7786,7 +7950,7 @@
     <col min="8" max="1018" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7806,7 +7970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -7826,8 +7990,9 @@
         <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[#Data],2,0)</f>
         <v>Urea</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="64"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -7848,7 +8013,7 @@
         <v>Sugar beet pulp dehydrated</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>1</v>
       </c>
@@ -7869,7 +8034,7 @@
         <v>Corn gluten feed</v>
       </c>
     </row>
-    <row r="5" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>1</v>
       </c>
@@ -7890,7 +8055,7 @@
         <v>Corn gluten meal (gluten 60)</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
         <v>1</v>
       </c>
@@ -7911,7 +8076,7 @@
         <v>Molasses</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>1</v>
       </c>
@@ -7932,7 +8097,7 @@
         <v>Rapeseed meal</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>1</v>
       </c>
@@ -7953,7 +8118,7 @@
         <v>Rapeseed oil</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>1</v>
       </c>
@@ -7974,7 +8139,7 @@
         <v>Sunflower meal without dehulling</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>1</v>
       </c>
@@ -7994,8 +8159,9 @@
         <f>VLOOKUP(feeds[[#This Row],[ID]],FeedLib[#Data],2,0)</f>
         <v>Sunflower oil without dehulling</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H10" s="65"/>
+    </row>
+    <row r="11" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
         <v>1</v>
       </c>
@@ -8016,7 +8182,7 @@
         <v>Wheat bran</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
         <v>1</v>
       </c>
@@ -8037,7 +8203,7 @@
         <v>DDGS Wheat</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>1</v>
       </c>
@@ -8058,7 +8224,7 @@
         <v>Wheat feed flour</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>1</v>
       </c>
@@ -8079,7 +8245,7 @@
         <v>Wheat gluten feed</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>1</v>
       </c>
@@ -8100,7 +8266,7 @@
         <v>Wheat middlings</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
         <v>1</v>
       </c>
@@ -8222,8 +8388,8 @@
   </sheetPr>
   <dimension ref="A1:X69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8248,76 +8414,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
-        <v>1</v>
-      </c>
-      <c r="B1" s="64" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="64" t="s">
+      <c r="A1" s="60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="D1" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="64" t="s">
+      <c r="E1" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="64" t="s">
+      <c r="F1" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="61" t="s">
         <v>86</v>
       </c>
-      <c r="H1" s="64" t="s">
+      <c r="H1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="64" t="s">
+      <c r="I1" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="J1" s="64" t="s">
+      <c r="J1" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="K1" s="64" t="s">
+      <c r="K1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="L1" s="64" t="s">
+      <c r="L1" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="64" t="s">
+      <c r="N1" s="60" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="64" t="s">
+      <c r="O1" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="64" t="s">
+      <c r="P1" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="64" t="s">
+      <c r="Q1" s="60" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="64" t="s">
+      <c r="R1" s="60" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="64" t="s">
+      <c r="S1" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="64" t="s">
+      <c r="T1" s="60" t="s">
         <v>88</v>
       </c>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="60" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="64" t="s">
+      <c r="V1" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="W1" s="64" t="s">
+      <c r="W1" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="X1" s="66" t="s">
+      <c r="X1" s="62" t="s">
         <v>91</v>
       </c>
     </row>
@@ -8471,7 +8637,7 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="19">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="B4" s="22">
         <v>1</v>
@@ -8543,197 +8709,3826 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" s="63" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="59">
         <v>-1</v>
       </c>
-      <c r="B5" s="60">
-        <v>1</v>
-      </c>
-      <c r="C5" s="59">
-        <v>0</v>
-      </c>
-      <c r="D5" s="60" t="s">
+      <c r="B5" s="72">
+        <v>1</v>
+      </c>
+      <c r="C5" s="73">
+        <v>0</v>
+      </c>
+      <c r="D5" s="72" t="s">
         <v>114</v>
       </c>
-      <c r="E5" s="59">
+      <c r="E5" s="73">
         <v>336</v>
       </c>
-      <c r="F5" s="59">
-        <v>0</v>
-      </c>
-      <c r="G5" s="61">
+      <c r="F5" s="73">
+        <v>0</v>
+      </c>
+      <c r="G5" s="74">
         <v>595</v>
       </c>
-      <c r="H5" s="60">
+      <c r="H5" s="72">
         <v>6</v>
       </c>
-      <c r="I5" s="60">
-        <v>1</v>
-      </c>
-      <c r="J5" s="60">
-        <v>1</v>
-      </c>
-      <c r="K5" s="60">
-        <v>1</v>
-      </c>
-      <c r="L5" s="60">
-        <v>0</v>
-      </c>
-      <c r="M5" s="19">
+      <c r="I5" s="72">
+        <v>1</v>
+      </c>
+      <c r="J5" s="72">
+        <v>1</v>
+      </c>
+      <c r="K5" s="72">
+        <v>1</v>
+      </c>
+      <c r="L5" s="72">
+        <v>0</v>
+      </c>
+      <c r="M5" s="73">
         <v>5.84</v>
       </c>
-      <c r="N5" s="62">
+      <c r="N5" s="75">
         <v>2.41</v>
       </c>
-      <c r="O5" s="60" t="s">
+      <c r="O5" s="72" t="s">
         <v>92</v>
       </c>
-      <c r="P5" s="60" t="s">
+      <c r="P5" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="Q5" s="19">
+      <c r="Q5" s="73">
         <v>1.33</v>
       </c>
-      <c r="R5" s="19">
+      <c r="R5" s="73">
         <v>2.02</v>
       </c>
-      <c r="S5" s="19">
+      <c r="S5" s="73">
         <v>0.01</v>
       </c>
-      <c r="T5" s="60" t="s">
+      <c r="T5" s="72" t="s">
         <v>89</v>
       </c>
-      <c r="U5" s="60" t="s">
+      <c r="U5" s="72" t="s">
         <v>87</v>
       </c>
-      <c r="V5" s="60">
-        <v>0</v>
-      </c>
-      <c r="W5" s="60">
+      <c r="V5" s="72">
+        <v>0</v>
+      </c>
+      <c r="W5" s="72">
         <v>0.1</v>
       </c>
-      <c r="X5" s="63">
+      <c r="X5" s="76">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6" s="68"/>
-    </row>
-    <row r="18" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="F18"/>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="F19"/>
-      <c r="H19" s="2"/>
-    </row>
-    <row r="20" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="F20"/>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="F21"/>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="F22"/>
-      <c r="H22" s="2"/>
-    </row>
-    <row r="23" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E23" s="2"/>
-      <c r="G23"/>
-      <c r="H23" s="2"/>
-    </row>
-    <row r="24" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E24" s="2"/>
-      <c r="G24"/>
-      <c r="H24" s="2"/>
-    </row>
-    <row r="25" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E25" s="2"/>
-      <c r="G25"/>
-      <c r="H25" s="2"/>
-    </row>
-    <row r="26" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E26" s="2"/>
-      <c r="G26"/>
-      <c r="H26" s="2"/>
-    </row>
-    <row r="27" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E27" s="2"/>
-      <c r="G27"/>
-      <c r="H27" s="2"/>
-    </row>
-    <row r="28" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E28" s="2"/>
-      <c r="G28"/>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E29" s="2"/>
-      <c r="G29"/>
-      <c r="H29" s="2"/>
-    </row>
-    <row r="30" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E30" s="2"/>
-      <c r="G30"/>
-      <c r="H30" s="2"/>
-    </row>
-    <row r="31" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E31" s="2"/>
-      <c r="G31"/>
-      <c r="H31" s="2"/>
-    </row>
-    <row r="32" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E32" s="2"/>
-      <c r="G32"/>
-      <c r="H32" s="2"/>
-    </row>
-    <row r="36" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36"/>
-    </row>
-    <row r="37" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37"/>
-    </row>
-    <row r="51" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H51" s="2"/>
-    </row>
-    <row r="52" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H53" s="2"/>
-    </row>
-    <row r="54" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H54" s="2"/>
-    </row>
-    <row r="55" spans="8:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="67">
+        <v>1</v>
+      </c>
+      <c r="C6" s="68">
+        <v>0</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E6" s="68">
+        <v>336</v>
+      </c>
+      <c r="F6" s="68">
+        <v>0</v>
+      </c>
+      <c r="G6" s="69">
+        <v>595</v>
+      </c>
+      <c r="H6" s="67">
+        <v>6</v>
+      </c>
+      <c r="I6" s="67">
+        <v>1</v>
+      </c>
+      <c r="J6" s="67">
+        <v>1</v>
+      </c>
+      <c r="K6" s="67">
+        <v>1</v>
+      </c>
+      <c r="L6" s="67">
+        <v>0</v>
+      </c>
+      <c r="M6" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N6" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O6" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P6" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_6</v>
+      </c>
+      <c r="Q6" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R6" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S6" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T6" s="67" t="s">
+        <v>163</v>
+      </c>
+      <c r="U6" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V6" s="67">
+        <v>0</v>
+      </c>
+      <c r="W6" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X6" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" s="67">
+        <v>1</v>
+      </c>
+      <c r="C7" s="68">
+        <v>0</v>
+      </c>
+      <c r="D7" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="68">
+        <v>336</v>
+      </c>
+      <c r="F7" s="68">
+        <v>0</v>
+      </c>
+      <c r="G7" s="69">
+        <v>595</v>
+      </c>
+      <c r="H7" s="67">
+        <v>6</v>
+      </c>
+      <c r="I7" s="67">
+        <v>1</v>
+      </c>
+      <c r="J7" s="67">
+        <v>1</v>
+      </c>
+      <c r="K7" s="67">
+        <v>1</v>
+      </c>
+      <c r="L7" s="67">
+        <v>0</v>
+      </c>
+      <c r="M7" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N7" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O7" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P7" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_7</v>
+      </c>
+      <c r="Q7" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R7" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S7" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T7" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="U7" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V7" s="67">
+        <v>0</v>
+      </c>
+      <c r="W7" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X7" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="67">
+        <v>1</v>
+      </c>
+      <c r="C8" s="68">
+        <v>0</v>
+      </c>
+      <c r="D8" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E8" s="68">
+        <v>336</v>
+      </c>
+      <c r="F8" s="68">
+        <v>0</v>
+      </c>
+      <c r="G8" s="69">
+        <v>595</v>
+      </c>
+      <c r="H8" s="67">
+        <v>6</v>
+      </c>
+      <c r="I8" s="67">
+        <v>1</v>
+      </c>
+      <c r="J8" s="67">
+        <v>1</v>
+      </c>
+      <c r="K8" s="67">
+        <v>1</v>
+      </c>
+      <c r="L8" s="67">
+        <v>0</v>
+      </c>
+      <c r="M8" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N8" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O8" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P8" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_8</v>
+      </c>
+      <c r="Q8" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R8" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S8" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T8" s="67" t="s">
+        <v>165</v>
+      </c>
+      <c r="U8" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V8" s="67">
+        <v>0</v>
+      </c>
+      <c r="W8" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X8" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="67">
+        <v>1</v>
+      </c>
+      <c r="C9" s="68">
+        <v>0</v>
+      </c>
+      <c r="D9" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E9" s="68">
+        <v>336</v>
+      </c>
+      <c r="F9" s="68">
+        <v>0</v>
+      </c>
+      <c r="G9" s="69">
+        <v>595</v>
+      </c>
+      <c r="H9" s="67">
+        <v>6</v>
+      </c>
+      <c r="I9" s="67">
+        <v>1</v>
+      </c>
+      <c r="J9" s="67">
+        <v>1</v>
+      </c>
+      <c r="K9" s="67">
+        <v>1</v>
+      </c>
+      <c r="L9" s="67">
+        <v>0</v>
+      </c>
+      <c r="M9" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N9" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O9" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P9" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_9</v>
+      </c>
+      <c r="Q9" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R9" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S9" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T9" s="67" t="s">
+        <v>166</v>
+      </c>
+      <c r="U9" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V9" s="67">
+        <v>0</v>
+      </c>
+      <c r="W9" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X9" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="67">
+        <v>1</v>
+      </c>
+      <c r="C10" s="68">
+        <v>0</v>
+      </c>
+      <c r="D10" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E10" s="68">
+        <v>336</v>
+      </c>
+      <c r="F10" s="68">
+        <v>0</v>
+      </c>
+      <c r="G10" s="69">
+        <v>595</v>
+      </c>
+      <c r="H10" s="67">
+        <v>6</v>
+      </c>
+      <c r="I10" s="67">
+        <v>1</v>
+      </c>
+      <c r="J10" s="67">
+        <v>1</v>
+      </c>
+      <c r="K10" s="67">
+        <v>1</v>
+      </c>
+      <c r="L10" s="67">
+        <v>0</v>
+      </c>
+      <c r="M10" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N10" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O10" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_10</v>
+      </c>
+      <c r="Q10" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R10" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S10" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T10" s="67" t="s">
+        <v>167</v>
+      </c>
+      <c r="U10" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V10" s="67">
+        <v>0</v>
+      </c>
+      <c r="W10" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X10" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>11</v>
+      </c>
+      <c r="B11" s="67">
+        <v>1</v>
+      </c>
+      <c r="C11" s="68">
+        <v>0</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E11" s="68">
+        <v>336</v>
+      </c>
+      <c r="F11" s="68">
+        <v>0</v>
+      </c>
+      <c r="G11" s="69">
+        <v>595</v>
+      </c>
+      <c r="H11" s="67">
+        <v>6</v>
+      </c>
+      <c r="I11" s="67">
+        <v>1</v>
+      </c>
+      <c r="J11" s="67">
+        <v>1</v>
+      </c>
+      <c r="K11" s="67">
+        <v>1</v>
+      </c>
+      <c r="L11" s="67">
+        <v>0</v>
+      </c>
+      <c r="M11" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N11" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O11" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P11" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_11</v>
+      </c>
+      <c r="Q11" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R11" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S11" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T11" s="67" t="s">
+        <v>168</v>
+      </c>
+      <c r="U11" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V11" s="67">
+        <v>0</v>
+      </c>
+      <c r="W11" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X11" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>12</v>
+      </c>
+      <c r="B12" s="67">
+        <v>1</v>
+      </c>
+      <c r="C12" s="68">
+        <v>0</v>
+      </c>
+      <c r="D12" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="68">
+        <v>336</v>
+      </c>
+      <c r="F12" s="68">
+        <v>0</v>
+      </c>
+      <c r="G12" s="69">
+        <v>595</v>
+      </c>
+      <c r="H12" s="67">
+        <v>6</v>
+      </c>
+      <c r="I12" s="67">
+        <v>1</v>
+      </c>
+      <c r="J12" s="67">
+        <v>1</v>
+      </c>
+      <c r="K12" s="67">
+        <v>1</v>
+      </c>
+      <c r="L12" s="67">
+        <v>0</v>
+      </c>
+      <c r="M12" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N12" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O12" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_12</v>
+      </c>
+      <c r="Q12" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R12" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S12" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T12" s="67" t="s">
+        <v>169</v>
+      </c>
+      <c r="U12" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V12" s="67">
+        <v>0</v>
+      </c>
+      <c r="W12" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X12" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>13</v>
+      </c>
+      <c r="B13" s="67">
+        <v>1</v>
+      </c>
+      <c r="C13" s="68">
+        <v>0</v>
+      </c>
+      <c r="D13" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E13" s="68">
+        <v>336</v>
+      </c>
+      <c r="F13" s="68">
+        <v>0</v>
+      </c>
+      <c r="G13" s="69">
+        <v>595</v>
+      </c>
+      <c r="H13" s="67">
+        <v>6</v>
+      </c>
+      <c r="I13" s="67">
+        <v>1</v>
+      </c>
+      <c r="J13" s="67">
+        <v>1</v>
+      </c>
+      <c r="K13" s="67">
+        <v>1</v>
+      </c>
+      <c r="L13" s="67">
+        <v>0</v>
+      </c>
+      <c r="M13" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N13" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O13" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P13" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_13</v>
+      </c>
+      <c r="Q13" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R13" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S13" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T13" s="67" t="s">
+        <v>170</v>
+      </c>
+      <c r="U13" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V13" s="67">
+        <v>0</v>
+      </c>
+      <c r="W13" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X13" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>14</v>
+      </c>
+      <c r="B14" s="67">
+        <v>1</v>
+      </c>
+      <c r="C14" s="68">
+        <v>0</v>
+      </c>
+      <c r="D14" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E14" s="68">
+        <v>336</v>
+      </c>
+      <c r="F14" s="68">
+        <v>0</v>
+      </c>
+      <c r="G14" s="69">
+        <v>595</v>
+      </c>
+      <c r="H14" s="67">
+        <v>6</v>
+      </c>
+      <c r="I14" s="67">
+        <v>1</v>
+      </c>
+      <c r="J14" s="67">
+        <v>1</v>
+      </c>
+      <c r="K14" s="67">
+        <v>1</v>
+      </c>
+      <c r="L14" s="67">
+        <v>0</v>
+      </c>
+      <c r="M14" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N14" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O14" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P14" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_14</v>
+      </c>
+      <c r="Q14" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R14" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S14" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T14" s="67" t="s">
+        <v>171</v>
+      </c>
+      <c r="U14" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V14" s="67">
+        <v>0</v>
+      </c>
+      <c r="W14" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X14" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>15</v>
+      </c>
+      <c r="B15" s="67">
+        <v>1</v>
+      </c>
+      <c r="C15" s="68">
+        <v>0</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="68">
+        <v>336</v>
+      </c>
+      <c r="F15" s="68">
+        <v>0</v>
+      </c>
+      <c r="G15" s="69">
+        <v>595</v>
+      </c>
+      <c r="H15" s="67">
+        <v>6</v>
+      </c>
+      <c r="I15" s="67">
+        <v>1</v>
+      </c>
+      <c r="J15" s="67">
+        <v>1</v>
+      </c>
+      <c r="K15" s="67">
+        <v>1</v>
+      </c>
+      <c r="L15" s="67">
+        <v>0</v>
+      </c>
+      <c r="M15" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N15" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O15" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P15" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_15</v>
+      </c>
+      <c r="Q15" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R15" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S15" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T15" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="U15" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V15" s="67">
+        <v>0</v>
+      </c>
+      <c r="W15" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X15" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>16</v>
+      </c>
+      <c r="B16" s="67">
+        <v>1</v>
+      </c>
+      <c r="C16" s="68">
+        <v>0</v>
+      </c>
+      <c r="D16" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E16" s="68">
+        <v>336</v>
+      </c>
+      <c r="F16" s="68">
+        <v>0</v>
+      </c>
+      <c r="G16" s="69">
+        <v>595</v>
+      </c>
+      <c r="H16" s="67">
+        <v>6</v>
+      </c>
+      <c r="I16" s="67">
+        <v>1</v>
+      </c>
+      <c r="J16" s="67">
+        <v>1</v>
+      </c>
+      <c r="K16" s="67">
+        <v>1</v>
+      </c>
+      <c r="L16" s="67">
+        <v>0</v>
+      </c>
+      <c r="M16" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N16" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O16" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_16</v>
+      </c>
+      <c r="Q16" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R16" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S16" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T16" s="67" t="s">
+        <v>173</v>
+      </c>
+      <c r="U16" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V16" s="67">
+        <v>0</v>
+      </c>
+      <c r="W16" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X16" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>17</v>
+      </c>
+      <c r="B17" s="67">
+        <v>1</v>
+      </c>
+      <c r="C17" s="68">
+        <v>0</v>
+      </c>
+      <c r="D17" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E17" s="68">
+        <v>336</v>
+      </c>
+      <c r="F17" s="68">
+        <v>0</v>
+      </c>
+      <c r="G17" s="69">
+        <v>595</v>
+      </c>
+      <c r="H17" s="67">
+        <v>6</v>
+      </c>
+      <c r="I17" s="67">
+        <v>1</v>
+      </c>
+      <c r="J17" s="67">
+        <v>1</v>
+      </c>
+      <c r="K17" s="67">
+        <v>1</v>
+      </c>
+      <c r="L17" s="67">
+        <v>0</v>
+      </c>
+      <c r="M17" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N17" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O17" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P17" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_17</v>
+      </c>
+      <c r="Q17" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R17" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S17" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T17" s="67" t="s">
+        <v>174</v>
+      </c>
+      <c r="U17" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V17" s="67">
+        <v>0</v>
+      </c>
+      <c r="W17" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X17" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>18</v>
+      </c>
+      <c r="B18" s="67">
+        <v>1</v>
+      </c>
+      <c r="C18" s="68">
+        <v>0</v>
+      </c>
+      <c r="D18" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E18" s="68">
+        <v>336</v>
+      </c>
+      <c r="F18" s="68">
+        <v>0</v>
+      </c>
+      <c r="G18" s="69">
+        <v>595</v>
+      </c>
+      <c r="H18" s="67">
+        <v>6</v>
+      </c>
+      <c r="I18" s="67">
+        <v>1</v>
+      </c>
+      <c r="J18" s="67">
+        <v>1</v>
+      </c>
+      <c r="K18" s="67">
+        <v>1</v>
+      </c>
+      <c r="L18" s="67">
+        <v>0</v>
+      </c>
+      <c r="M18" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N18" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O18" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P18" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_18</v>
+      </c>
+      <c r="Q18" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R18" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S18" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T18" s="67" t="s">
+        <v>175</v>
+      </c>
+      <c r="U18" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V18" s="67">
+        <v>0</v>
+      </c>
+      <c r="W18" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X18" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>19</v>
+      </c>
+      <c r="B19" s="67">
+        <v>1</v>
+      </c>
+      <c r="C19" s="68">
+        <v>0</v>
+      </c>
+      <c r="D19" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E19" s="68">
+        <v>336</v>
+      </c>
+      <c r="F19" s="68">
+        <v>0</v>
+      </c>
+      <c r="G19" s="69">
+        <v>595</v>
+      </c>
+      <c r="H19" s="67">
+        <v>6</v>
+      </c>
+      <c r="I19" s="67">
+        <v>1</v>
+      </c>
+      <c r="J19" s="67">
+        <v>1</v>
+      </c>
+      <c r="K19" s="67">
+        <v>1</v>
+      </c>
+      <c r="L19" s="67">
+        <v>0</v>
+      </c>
+      <c r="M19" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N19" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O19" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P19" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_19</v>
+      </c>
+      <c r="Q19" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R19" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S19" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T19" s="67" t="s">
+        <v>176</v>
+      </c>
+      <c r="U19" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V19" s="67">
+        <v>0</v>
+      </c>
+      <c r="W19" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X19" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>20</v>
+      </c>
+      <c r="B20" s="67">
+        <v>1</v>
+      </c>
+      <c r="C20" s="68">
+        <v>0</v>
+      </c>
+      <c r="D20" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E20" s="68">
+        <v>336</v>
+      </c>
+      <c r="F20" s="68">
+        <v>0</v>
+      </c>
+      <c r="G20" s="69">
+        <v>595</v>
+      </c>
+      <c r="H20" s="67">
+        <v>6</v>
+      </c>
+      <c r="I20" s="67">
+        <v>1</v>
+      </c>
+      <c r="J20" s="67">
+        <v>1</v>
+      </c>
+      <c r="K20" s="67">
+        <v>1</v>
+      </c>
+      <c r="L20" s="67">
+        <v>0</v>
+      </c>
+      <c r="M20" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N20" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O20" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P20" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_20</v>
+      </c>
+      <c r="Q20" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R20" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S20" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T20" s="67" t="s">
+        <v>177</v>
+      </c>
+      <c r="U20" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V20" s="67">
+        <v>0</v>
+      </c>
+      <c r="W20" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X20" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>21</v>
+      </c>
+      <c r="B21" s="67">
+        <v>1</v>
+      </c>
+      <c r="C21" s="68">
+        <v>0</v>
+      </c>
+      <c r="D21" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E21" s="68">
+        <v>336</v>
+      </c>
+      <c r="F21" s="68">
+        <v>0</v>
+      </c>
+      <c r="G21" s="69">
+        <v>595</v>
+      </c>
+      <c r="H21" s="67">
+        <v>6</v>
+      </c>
+      <c r="I21" s="67">
+        <v>1</v>
+      </c>
+      <c r="J21" s="67">
+        <v>1</v>
+      </c>
+      <c r="K21" s="67">
+        <v>1</v>
+      </c>
+      <c r="L21" s="67">
+        <v>0</v>
+      </c>
+      <c r="M21" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N21" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O21" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P21" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_21</v>
+      </c>
+      <c r="Q21" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R21" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S21" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T21" s="67" t="s">
+        <v>178</v>
+      </c>
+      <c r="U21" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V21" s="67">
+        <v>0</v>
+      </c>
+      <c r="W21" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X21" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>22</v>
+      </c>
+      <c r="B22" s="67">
+        <v>1</v>
+      </c>
+      <c r="C22" s="68">
+        <v>0</v>
+      </c>
+      <c r="D22" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E22" s="68">
+        <v>336</v>
+      </c>
+      <c r="F22" s="68">
+        <v>0</v>
+      </c>
+      <c r="G22" s="69">
+        <v>595</v>
+      </c>
+      <c r="H22" s="67">
+        <v>6</v>
+      </c>
+      <c r="I22" s="67">
+        <v>1</v>
+      </c>
+      <c r="J22" s="67">
+        <v>1</v>
+      </c>
+      <c r="K22" s="67">
+        <v>1</v>
+      </c>
+      <c r="L22" s="67">
+        <v>0</v>
+      </c>
+      <c r="M22" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N22" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O22" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P22" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_22</v>
+      </c>
+      <c r="Q22" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R22" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S22" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T22" s="67" t="s">
+        <v>179</v>
+      </c>
+      <c r="U22" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V22" s="67">
+        <v>0</v>
+      </c>
+      <c r="W22" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X22" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>23</v>
+      </c>
+      <c r="B23" s="67">
+        <v>1</v>
+      </c>
+      <c r="C23" s="68">
+        <v>0</v>
+      </c>
+      <c r="D23" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E23" s="68">
+        <v>336</v>
+      </c>
+      <c r="F23" s="68">
+        <v>0</v>
+      </c>
+      <c r="G23" s="69">
+        <v>595</v>
+      </c>
+      <c r="H23" s="67">
+        <v>6</v>
+      </c>
+      <c r="I23" s="67">
+        <v>1</v>
+      </c>
+      <c r="J23" s="67">
+        <v>1</v>
+      </c>
+      <c r="K23" s="67">
+        <v>1</v>
+      </c>
+      <c r="L23" s="67">
+        <v>0</v>
+      </c>
+      <c r="M23" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N23" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O23" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P23" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_23</v>
+      </c>
+      <c r="Q23" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R23" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S23" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T23" s="67" t="s">
+        <v>180</v>
+      </c>
+      <c r="U23" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V23" s="67">
+        <v>0</v>
+      </c>
+      <c r="W23" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X23" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>24</v>
+      </c>
+      <c r="B24" s="67">
+        <v>1</v>
+      </c>
+      <c r="C24" s="68">
+        <v>0</v>
+      </c>
+      <c r="D24" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E24" s="68">
+        <v>336</v>
+      </c>
+      <c r="F24" s="68">
+        <v>0</v>
+      </c>
+      <c r="G24" s="69">
+        <v>595</v>
+      </c>
+      <c r="H24" s="67">
+        <v>6</v>
+      </c>
+      <c r="I24" s="67">
+        <v>1</v>
+      </c>
+      <c r="J24" s="67">
+        <v>1</v>
+      </c>
+      <c r="K24" s="67">
+        <v>1</v>
+      </c>
+      <c r="L24" s="67">
+        <v>0</v>
+      </c>
+      <c r="M24" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N24" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O24" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P24" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_24</v>
+      </c>
+      <c r="Q24" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R24" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S24" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T24" s="67" t="s">
+        <v>181</v>
+      </c>
+      <c r="U24" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V24" s="67">
+        <v>0</v>
+      </c>
+      <c r="W24" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X24" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>25</v>
+      </c>
+      <c r="B25" s="67">
+        <v>1</v>
+      </c>
+      <c r="C25" s="68">
+        <v>0</v>
+      </c>
+      <c r="D25" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E25" s="68">
+        <v>336</v>
+      </c>
+      <c r="F25" s="68">
+        <v>0</v>
+      </c>
+      <c r="G25" s="69">
+        <v>595</v>
+      </c>
+      <c r="H25" s="67">
+        <v>6</v>
+      </c>
+      <c r="I25" s="67">
+        <v>1</v>
+      </c>
+      <c r="J25" s="67">
+        <v>1</v>
+      </c>
+      <c r="K25" s="67">
+        <v>1</v>
+      </c>
+      <c r="L25" s="67">
+        <v>0</v>
+      </c>
+      <c r="M25" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N25" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O25" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P25" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_25</v>
+      </c>
+      <c r="Q25" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R25" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S25" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T25" s="67" t="s">
+        <v>182</v>
+      </c>
+      <c r="U25" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V25" s="67">
+        <v>0</v>
+      </c>
+      <c r="W25" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X25" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>26</v>
+      </c>
+      <c r="B26" s="67">
+        <v>1</v>
+      </c>
+      <c r="C26" s="68">
+        <v>0</v>
+      </c>
+      <c r="D26" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E26" s="68">
+        <v>336</v>
+      </c>
+      <c r="F26" s="68">
+        <v>0</v>
+      </c>
+      <c r="G26" s="69">
+        <v>595</v>
+      </c>
+      <c r="H26" s="67">
+        <v>6</v>
+      </c>
+      <c r="I26" s="67">
+        <v>1</v>
+      </c>
+      <c r="J26" s="67">
+        <v>1</v>
+      </c>
+      <c r="K26" s="67">
+        <v>1</v>
+      </c>
+      <c r="L26" s="67">
+        <v>0</v>
+      </c>
+      <c r="M26" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N26" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O26" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P26" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_26</v>
+      </c>
+      <c r="Q26" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R26" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S26" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T26" s="67" t="s">
+        <v>183</v>
+      </c>
+      <c r="U26" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V26" s="67">
+        <v>0</v>
+      </c>
+      <c r="W26" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X26" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>27</v>
+      </c>
+      <c r="B27" s="67">
+        <v>1</v>
+      </c>
+      <c r="C27" s="68">
+        <v>0</v>
+      </c>
+      <c r="D27" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E27" s="68">
+        <v>336</v>
+      </c>
+      <c r="F27" s="68">
+        <v>0</v>
+      </c>
+      <c r="G27" s="69">
+        <v>595</v>
+      </c>
+      <c r="H27" s="67">
+        <v>6</v>
+      </c>
+      <c r="I27" s="67">
+        <v>1</v>
+      </c>
+      <c r="J27" s="67">
+        <v>1</v>
+      </c>
+      <c r="K27" s="67">
+        <v>1</v>
+      </c>
+      <c r="L27" s="67">
+        <v>0</v>
+      </c>
+      <c r="M27" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N27" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O27" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P27" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_27</v>
+      </c>
+      <c r="Q27" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R27" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S27" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T27" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="U27" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V27" s="67">
+        <v>0</v>
+      </c>
+      <c r="W27" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X27" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>28</v>
+      </c>
+      <c r="B28" s="67">
+        <v>1</v>
+      </c>
+      <c r="C28" s="68">
+        <v>0</v>
+      </c>
+      <c r="D28" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E28" s="68">
+        <v>336</v>
+      </c>
+      <c r="F28" s="68">
+        <v>0</v>
+      </c>
+      <c r="G28" s="69">
+        <v>595</v>
+      </c>
+      <c r="H28" s="67">
+        <v>6</v>
+      </c>
+      <c r="I28" s="67">
+        <v>1</v>
+      </c>
+      <c r="J28" s="67">
+        <v>1</v>
+      </c>
+      <c r="K28" s="67">
+        <v>1</v>
+      </c>
+      <c r="L28" s="67">
+        <v>0</v>
+      </c>
+      <c r="M28" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N28" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O28" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P28" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_28</v>
+      </c>
+      <c r="Q28" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R28" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S28" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T28" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="U28" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V28" s="67">
+        <v>0</v>
+      </c>
+      <c r="W28" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X28" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>29</v>
+      </c>
+      <c r="B29" s="67">
+        <v>1</v>
+      </c>
+      <c r="C29" s="68">
+        <v>0</v>
+      </c>
+      <c r="D29" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E29" s="68">
+        <v>336</v>
+      </c>
+      <c r="F29" s="68">
+        <v>0</v>
+      </c>
+      <c r="G29" s="69">
+        <v>595</v>
+      </c>
+      <c r="H29" s="67">
+        <v>6</v>
+      </c>
+      <c r="I29" s="67">
+        <v>1</v>
+      </c>
+      <c r="J29" s="67">
+        <v>1</v>
+      </c>
+      <c r="K29" s="67">
+        <v>1</v>
+      </c>
+      <c r="L29" s="67">
+        <v>0</v>
+      </c>
+      <c r="M29" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N29" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O29" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P29" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_29</v>
+      </c>
+      <c r="Q29" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R29" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S29" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T29" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="U29" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V29" s="67">
+        <v>0</v>
+      </c>
+      <c r="W29" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X29" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>30</v>
+      </c>
+      <c r="B30" s="67">
+        <v>1</v>
+      </c>
+      <c r="C30" s="68">
+        <v>0</v>
+      </c>
+      <c r="D30" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E30" s="68">
+        <v>336</v>
+      </c>
+      <c r="F30" s="68">
+        <v>0</v>
+      </c>
+      <c r="G30" s="69">
+        <v>595</v>
+      </c>
+      <c r="H30" s="67">
+        <v>6</v>
+      </c>
+      <c r="I30" s="67">
+        <v>1</v>
+      </c>
+      <c r="J30" s="67">
+        <v>1</v>
+      </c>
+      <c r="K30" s="67">
+        <v>1</v>
+      </c>
+      <c r="L30" s="67">
+        <v>0</v>
+      </c>
+      <c r="M30" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N30" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O30" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P30" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_30</v>
+      </c>
+      <c r="Q30" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R30" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S30" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T30" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="U30" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V30" s="67">
+        <v>0</v>
+      </c>
+      <c r="W30" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X30" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B31" s="67">
+        <v>1</v>
+      </c>
+      <c r="C31" s="68">
+        <v>0</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E31" s="68">
+        <v>336</v>
+      </c>
+      <c r="F31" s="68">
+        <v>0</v>
+      </c>
+      <c r="G31" s="69">
+        <v>595</v>
+      </c>
+      <c r="H31" s="67">
+        <v>6</v>
+      </c>
+      <c r="I31" s="67">
+        <v>1</v>
+      </c>
+      <c r="J31" s="67">
+        <v>1</v>
+      </c>
+      <c r="K31" s="67">
+        <v>1</v>
+      </c>
+      <c r="L31" s="67">
+        <v>0</v>
+      </c>
+      <c r="M31" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N31" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O31" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P31" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_-1</v>
+      </c>
+      <c r="Q31" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R31" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S31" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T31" s="67" t="s">
+        <v>188</v>
+      </c>
+      <c r="U31" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V31" s="67">
+        <v>0</v>
+      </c>
+      <c r="W31" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X31" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B32" s="67">
+        <v>1</v>
+      </c>
+      <c r="C32" s="68">
+        <v>0</v>
+      </c>
+      <c r="D32" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E32" s="68">
+        <v>336</v>
+      </c>
+      <c r="F32" s="68">
+        <v>0</v>
+      </c>
+      <c r="G32" s="69">
+        <v>595</v>
+      </c>
+      <c r="H32" s="67">
+        <v>6</v>
+      </c>
+      <c r="I32" s="67">
+        <v>1</v>
+      </c>
+      <c r="J32" s="67">
+        <v>1</v>
+      </c>
+      <c r="K32" s="67">
+        <v>1</v>
+      </c>
+      <c r="L32" s="67">
+        <v>0</v>
+      </c>
+      <c r="M32" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N32" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O32" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P32" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_-1</v>
+      </c>
+      <c r="Q32" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R32" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S32" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T32" s="67" t="s">
+        <v>189</v>
+      </c>
+      <c r="U32" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V32" s="67">
+        <v>0</v>
+      </c>
+      <c r="W32" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X32" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B33" s="67">
+        <v>1</v>
+      </c>
+      <c r="C33" s="68">
+        <v>0</v>
+      </c>
+      <c r="D33" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="68">
+        <v>336</v>
+      </c>
+      <c r="F33" s="68">
+        <v>0</v>
+      </c>
+      <c r="G33" s="69">
+        <v>595</v>
+      </c>
+      <c r="H33" s="67">
+        <v>6</v>
+      </c>
+      <c r="I33" s="67">
+        <v>1</v>
+      </c>
+      <c r="J33" s="67">
+        <v>1</v>
+      </c>
+      <c r="K33" s="67">
+        <v>1</v>
+      </c>
+      <c r="L33" s="67">
+        <v>0</v>
+      </c>
+      <c r="M33" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N33" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O33" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P33" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_-1</v>
+      </c>
+      <c r="Q33" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R33" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S33" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T33" s="67" t="s">
+        <v>190</v>
+      </c>
+      <c r="U33" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V33" s="67">
+        <v>0</v>
+      </c>
+      <c r="W33" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X33" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B34" s="67">
+        <v>1</v>
+      </c>
+      <c r="C34" s="68">
+        <v>0</v>
+      </c>
+      <c r="D34" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" s="68">
+        <v>336</v>
+      </c>
+      <c r="F34" s="68">
+        <v>0</v>
+      </c>
+      <c r="G34" s="69">
+        <v>595</v>
+      </c>
+      <c r="H34" s="67">
+        <v>6</v>
+      </c>
+      <c r="I34" s="67">
+        <v>1</v>
+      </c>
+      <c r="J34" s="67">
+        <v>1</v>
+      </c>
+      <c r="K34" s="67">
+        <v>1</v>
+      </c>
+      <c r="L34" s="67">
+        <v>0</v>
+      </c>
+      <c r="M34" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N34" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O34" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P34" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_-1</v>
+      </c>
+      <c r="Q34" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R34" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S34" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T34" s="67" t="s">
+        <v>191</v>
+      </c>
+      <c r="U34" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V34" s="67">
+        <v>0</v>
+      </c>
+      <c r="W34" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X34" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B35" s="67">
+        <v>1</v>
+      </c>
+      <c r="C35" s="68">
+        <v>0</v>
+      </c>
+      <c r="D35" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" s="68">
+        <v>336</v>
+      </c>
+      <c r="F35" s="68">
+        <v>0</v>
+      </c>
+      <c r="G35" s="69">
+        <v>595</v>
+      </c>
+      <c r="H35" s="67">
+        <v>6</v>
+      </c>
+      <c r="I35" s="67">
+        <v>1</v>
+      </c>
+      <c r="J35" s="67">
+        <v>1</v>
+      </c>
+      <c r="K35" s="67">
+        <v>1</v>
+      </c>
+      <c r="L35" s="67">
+        <v>0</v>
+      </c>
+      <c r="M35" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N35" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O35" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P35" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_-1</v>
+      </c>
+      <c r="Q35" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R35" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S35" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T35" s="67" t="s">
+        <v>192</v>
+      </c>
+      <c r="U35" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V35" s="67">
+        <v>0</v>
+      </c>
+      <c r="W35" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X35" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B36" s="67">
+        <v>1</v>
+      </c>
+      <c r="C36" s="68">
+        <v>0</v>
+      </c>
+      <c r="D36" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E36" s="68">
+        <v>336</v>
+      </c>
+      <c r="F36" s="68">
+        <v>0</v>
+      </c>
+      <c r="G36" s="69">
+        <v>595</v>
+      </c>
+      <c r="H36" s="67">
+        <v>6</v>
+      </c>
+      <c r="I36" s="67">
+        <v>1</v>
+      </c>
+      <c r="J36" s="67">
+        <v>1</v>
+      </c>
+      <c r="K36" s="67">
+        <v>1</v>
+      </c>
+      <c r="L36" s="67">
+        <v>0</v>
+      </c>
+      <c r="M36" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N36" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O36" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P36" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_-1</v>
+      </c>
+      <c r="Q36" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R36" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S36" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T36" s="67" t="s">
+        <v>193</v>
+      </c>
+      <c r="U36" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V36" s="67">
+        <v>0</v>
+      </c>
+      <c r="W36" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X36" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B37" s="67">
+        <v>1</v>
+      </c>
+      <c r="C37" s="68">
+        <v>0</v>
+      </c>
+      <c r="D37" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E37" s="68">
+        <v>336</v>
+      </c>
+      <c r="F37" s="68">
+        <v>0</v>
+      </c>
+      <c r="G37" s="69">
+        <v>595</v>
+      </c>
+      <c r="H37" s="67">
+        <v>6</v>
+      </c>
+      <c r="I37" s="67">
+        <v>1</v>
+      </c>
+      <c r="J37" s="67">
+        <v>1</v>
+      </c>
+      <c r="K37" s="67">
+        <v>1</v>
+      </c>
+      <c r="L37" s="67">
+        <v>0</v>
+      </c>
+      <c r="M37" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N37" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O37" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P37" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_-1</v>
+      </c>
+      <c r="Q37" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R37" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S37" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T37" s="67" t="s">
+        <v>194</v>
+      </c>
+      <c r="U37" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V37" s="67">
+        <v>0</v>
+      </c>
+      <c r="W37" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X37" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B38" s="67">
+        <v>1</v>
+      </c>
+      <c r="C38" s="68">
+        <v>0</v>
+      </c>
+      <c r="D38" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E38" s="68">
+        <v>336</v>
+      </c>
+      <c r="F38" s="68">
+        <v>0</v>
+      </c>
+      <c r="G38" s="69">
+        <v>595</v>
+      </c>
+      <c r="H38" s="67">
+        <v>6</v>
+      </c>
+      <c r="I38" s="67">
+        <v>1</v>
+      </c>
+      <c r="J38" s="67">
+        <v>1</v>
+      </c>
+      <c r="K38" s="67">
+        <v>1</v>
+      </c>
+      <c r="L38" s="67">
+        <v>0</v>
+      </c>
+      <c r="M38" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N38" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O38" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P38" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_-1</v>
+      </c>
+      <c r="Q38" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R38" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S38" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T38" s="67" t="s">
+        <v>195</v>
+      </c>
+      <c r="U38" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V38" s="67">
+        <v>0</v>
+      </c>
+      <c r="W38" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X38" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B39" s="67">
+        <v>1</v>
+      </c>
+      <c r="C39" s="68">
+        <v>0</v>
+      </c>
+      <c r="D39" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E39" s="68">
+        <v>336</v>
+      </c>
+      <c r="F39" s="68">
+        <v>0</v>
+      </c>
+      <c r="G39" s="69">
+        <v>595</v>
+      </c>
+      <c r="H39" s="67">
+        <v>6</v>
+      </c>
+      <c r="I39" s="67">
+        <v>1</v>
+      </c>
+      <c r="J39" s="67">
+        <v>1</v>
+      </c>
+      <c r="K39" s="67">
+        <v>1</v>
+      </c>
+      <c r="L39" s="67">
+        <v>0</v>
+      </c>
+      <c r="M39" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N39" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O39" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P39" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_-1</v>
+      </c>
+      <c r="Q39" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R39" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S39" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T39" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="U39" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V39" s="67">
+        <v>0</v>
+      </c>
+      <c r="W39" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X39" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B40" s="67">
+        <v>1</v>
+      </c>
+      <c r="C40" s="68">
+        <v>0</v>
+      </c>
+      <c r="D40" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E40" s="68">
+        <v>336</v>
+      </c>
+      <c r="F40" s="68">
+        <v>0</v>
+      </c>
+      <c r="G40" s="69">
+        <v>595</v>
+      </c>
+      <c r="H40" s="67">
+        <v>6</v>
+      </c>
+      <c r="I40" s="67">
+        <v>1</v>
+      </c>
+      <c r="J40" s="67">
+        <v>1</v>
+      </c>
+      <c r="K40" s="67">
+        <v>1</v>
+      </c>
+      <c r="L40" s="67">
+        <v>0</v>
+      </c>
+      <c r="M40" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N40" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O40" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P40" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_-1</v>
+      </c>
+      <c r="Q40" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R40" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S40" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T40" s="67" t="s">
+        <v>197</v>
+      </c>
+      <c r="U40" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V40" s="67">
+        <v>0</v>
+      </c>
+      <c r="W40" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X40" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B41" s="67">
+        <v>1</v>
+      </c>
+      <c r="C41" s="68">
+        <v>0</v>
+      </c>
+      <c r="D41" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E41" s="68">
+        <v>336</v>
+      </c>
+      <c r="F41" s="68">
+        <v>0</v>
+      </c>
+      <c r="G41" s="69">
+        <v>595</v>
+      </c>
+      <c r="H41" s="67">
+        <v>6</v>
+      </c>
+      <c r="I41" s="67">
+        <v>1</v>
+      </c>
+      <c r="J41" s="67">
+        <v>1</v>
+      </c>
+      <c r="K41" s="67">
+        <v>1</v>
+      </c>
+      <c r="L41" s="67">
+        <v>0</v>
+      </c>
+      <c r="M41" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N41" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O41" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P41" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_-1</v>
+      </c>
+      <c r="Q41" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R41" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S41" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T41" s="67" t="s">
+        <v>198</v>
+      </c>
+      <c r="U41" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V41" s="67">
+        <v>0</v>
+      </c>
+      <c r="W41" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X41" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B42" s="67">
+        <v>1</v>
+      </c>
+      <c r="C42" s="68">
+        <v>0</v>
+      </c>
+      <c r="D42" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="68">
+        <v>336</v>
+      </c>
+      <c r="F42" s="68">
+        <v>0</v>
+      </c>
+      <c r="G42" s="69">
+        <v>595</v>
+      </c>
+      <c r="H42" s="67">
+        <v>6</v>
+      </c>
+      <c r="I42" s="67">
+        <v>1</v>
+      </c>
+      <c r="J42" s="67">
+        <v>1</v>
+      </c>
+      <c r="K42" s="67">
+        <v>1</v>
+      </c>
+      <c r="L42" s="67">
+        <v>0</v>
+      </c>
+      <c r="M42" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N42" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O42" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P42" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_-1</v>
+      </c>
+      <c r="Q42" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R42" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S42" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T42" s="67" t="s">
+        <v>199</v>
+      </c>
+      <c r="U42" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V42" s="67">
+        <v>0</v>
+      </c>
+      <c r="W42" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X42" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B43" s="67">
+        <v>1</v>
+      </c>
+      <c r="C43" s="68">
+        <v>0</v>
+      </c>
+      <c r="D43" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E43" s="68">
+        <v>336</v>
+      </c>
+      <c r="F43" s="68">
+        <v>0</v>
+      </c>
+      <c r="G43" s="69">
+        <v>595</v>
+      </c>
+      <c r="H43" s="67">
+        <v>6</v>
+      </c>
+      <c r="I43" s="67">
+        <v>1</v>
+      </c>
+      <c r="J43" s="67">
+        <v>1</v>
+      </c>
+      <c r="K43" s="67">
+        <v>1</v>
+      </c>
+      <c r="L43" s="67">
+        <v>0</v>
+      </c>
+      <c r="M43" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N43" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O43" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P43" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_-1</v>
+      </c>
+      <c r="Q43" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R43" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S43" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T43" s="67" t="s">
+        <v>200</v>
+      </c>
+      <c r="U43" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V43" s="67">
+        <v>0</v>
+      </c>
+      <c r="W43" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X43" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B44" s="67">
+        <v>1</v>
+      </c>
+      <c r="C44" s="68">
+        <v>0</v>
+      </c>
+      <c r="D44" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E44" s="68">
+        <v>336</v>
+      </c>
+      <c r="F44" s="68">
+        <v>0</v>
+      </c>
+      <c r="G44" s="69">
+        <v>595</v>
+      </c>
+      <c r="H44" s="67">
+        <v>6</v>
+      </c>
+      <c r="I44" s="67">
+        <v>1</v>
+      </c>
+      <c r="J44" s="67">
+        <v>1</v>
+      </c>
+      <c r="K44" s="67">
+        <v>1</v>
+      </c>
+      <c r="L44" s="67">
+        <v>0</v>
+      </c>
+      <c r="M44" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N44" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O44" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P44" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_-1</v>
+      </c>
+      <c r="Q44" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R44" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S44" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T44" s="67" t="s">
+        <v>201</v>
+      </c>
+      <c r="U44" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V44" s="67">
+        <v>0</v>
+      </c>
+      <c r="W44" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X44" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B45" s="67">
+        <v>1</v>
+      </c>
+      <c r="C45" s="68">
+        <v>0</v>
+      </c>
+      <c r="D45" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E45" s="68">
+        <v>336</v>
+      </c>
+      <c r="F45" s="68">
+        <v>0</v>
+      </c>
+      <c r="G45" s="69">
+        <v>595</v>
+      </c>
+      <c r="H45" s="67">
+        <v>6</v>
+      </c>
+      <c r="I45" s="67">
+        <v>1</v>
+      </c>
+      <c r="J45" s="67">
+        <v>1</v>
+      </c>
+      <c r="K45" s="67">
+        <v>1</v>
+      </c>
+      <c r="L45" s="67">
+        <v>0</v>
+      </c>
+      <c r="M45" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N45" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O45" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P45" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_-1</v>
+      </c>
+      <c r="Q45" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R45" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S45" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T45" s="67" t="s">
+        <v>202</v>
+      </c>
+      <c r="U45" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V45" s="67">
+        <v>0</v>
+      </c>
+      <c r="W45" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X45" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B46" s="67">
+        <v>1</v>
+      </c>
+      <c r="C46" s="68">
+        <v>0</v>
+      </c>
+      <c r="D46" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E46" s="68">
+        <v>336</v>
+      </c>
+      <c r="F46" s="68">
+        <v>0</v>
+      </c>
+      <c r="G46" s="69">
+        <v>595</v>
+      </c>
+      <c r="H46" s="67">
+        <v>6</v>
+      </c>
+      <c r="I46" s="67">
+        <v>1</v>
+      </c>
+      <c r="J46" s="67">
+        <v>1</v>
+      </c>
+      <c r="K46" s="67">
+        <v>1</v>
+      </c>
+      <c r="L46" s="67">
+        <v>0</v>
+      </c>
+      <c r="M46" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N46" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O46" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P46" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_-1</v>
+      </c>
+      <c r="Q46" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R46" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S46" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T46" s="67" t="s">
+        <v>203</v>
+      </c>
+      <c r="U46" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V46" s="67">
+        <v>0</v>
+      </c>
+      <c r="W46" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X46" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B47" s="67">
+        <v>1</v>
+      </c>
+      <c r="C47" s="68">
+        <v>0</v>
+      </c>
+      <c r="D47" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E47" s="68">
+        <v>336</v>
+      </c>
+      <c r="F47" s="68">
+        <v>0</v>
+      </c>
+      <c r="G47" s="69">
+        <v>595</v>
+      </c>
+      <c r="H47" s="67">
+        <v>6</v>
+      </c>
+      <c r="I47" s="67">
+        <v>1</v>
+      </c>
+      <c r="J47" s="67">
+        <v>1</v>
+      </c>
+      <c r="K47" s="67">
+        <v>1</v>
+      </c>
+      <c r="L47" s="67">
+        <v>0</v>
+      </c>
+      <c r="M47" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N47" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O47" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P47" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_-1</v>
+      </c>
+      <c r="Q47" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R47" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S47" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T47" s="67" t="s">
+        <v>204</v>
+      </c>
+      <c r="U47" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V47" s="67">
+        <v>0</v>
+      </c>
+      <c r="W47" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X47" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B48" s="67">
+        <v>1</v>
+      </c>
+      <c r="C48" s="68">
+        <v>0</v>
+      </c>
+      <c r="D48" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E48" s="68">
+        <v>336</v>
+      </c>
+      <c r="F48" s="68">
+        <v>0</v>
+      </c>
+      <c r="G48" s="69">
+        <v>595</v>
+      </c>
+      <c r="H48" s="67">
+        <v>6</v>
+      </c>
+      <c r="I48" s="67">
+        <v>1</v>
+      </c>
+      <c r="J48" s="67">
+        <v>1</v>
+      </c>
+      <c r="K48" s="67">
+        <v>1</v>
+      </c>
+      <c r="L48" s="67">
+        <v>0</v>
+      </c>
+      <c r="M48" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N48" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O48" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P48" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_-1</v>
+      </c>
+      <c r="Q48" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R48" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S48" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T48" s="67" t="s">
+        <v>205</v>
+      </c>
+      <c r="U48" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V48" s="67">
+        <v>0</v>
+      </c>
+      <c r="W48" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X48" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B49" s="67">
+        <v>1</v>
+      </c>
+      <c r="C49" s="68">
+        <v>0</v>
+      </c>
+      <c r="D49" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E49" s="68">
+        <v>336</v>
+      </c>
+      <c r="F49" s="68">
+        <v>0</v>
+      </c>
+      <c r="G49" s="69">
+        <v>595</v>
+      </c>
+      <c r="H49" s="67">
+        <v>6</v>
+      </c>
+      <c r="I49" s="67">
+        <v>1</v>
+      </c>
+      <c r="J49" s="67">
+        <v>1</v>
+      </c>
+      <c r="K49" s="67">
+        <v>1</v>
+      </c>
+      <c r="L49" s="67">
+        <v>0</v>
+      </c>
+      <c r="M49" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N49" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O49" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P49" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_-1</v>
+      </c>
+      <c r="Q49" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R49" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S49" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T49" s="67" t="s">
+        <v>206</v>
+      </c>
+      <c r="U49" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V49" s="67">
+        <v>0</v>
+      </c>
+      <c r="W49" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X49" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B50" s="67">
+        <v>1</v>
+      </c>
+      <c r="C50" s="68">
+        <v>0</v>
+      </c>
+      <c r="D50" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E50" s="68">
+        <v>336</v>
+      </c>
+      <c r="F50" s="68">
+        <v>0</v>
+      </c>
+      <c r="G50" s="69">
+        <v>595</v>
+      </c>
+      <c r="H50" s="67">
+        <v>6</v>
+      </c>
+      <c r="I50" s="67">
+        <v>1</v>
+      </c>
+      <c r="J50" s="67">
+        <v>1</v>
+      </c>
+      <c r="K50" s="67">
+        <v>1</v>
+      </c>
+      <c r="L50" s="67">
+        <v>0</v>
+      </c>
+      <c r="M50" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N50" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O50" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P50" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_-1</v>
+      </c>
+      <c r="Q50" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R50" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S50" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T50" s="67" t="s">
+        <v>207</v>
+      </c>
+      <c r="U50" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V50" s="67">
+        <v>0</v>
+      </c>
+      <c r="W50" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X50" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B51" s="67">
+        <v>1</v>
+      </c>
+      <c r="C51" s="68">
+        <v>0</v>
+      </c>
+      <c r="D51" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" s="68">
+        <v>336</v>
+      </c>
+      <c r="F51" s="68">
+        <v>0</v>
+      </c>
+      <c r="G51" s="69">
+        <v>595</v>
+      </c>
+      <c r="H51" s="67">
+        <v>6</v>
+      </c>
+      <c r="I51" s="67">
+        <v>1</v>
+      </c>
+      <c r="J51" s="67">
+        <v>1</v>
+      </c>
+      <c r="K51" s="67">
+        <v>1</v>
+      </c>
+      <c r="L51" s="67">
+        <v>0</v>
+      </c>
+      <c r="M51" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N51" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O51" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P51" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_-1</v>
+      </c>
+      <c r="Q51" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R51" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S51" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T51" s="67" t="s">
+        <v>208</v>
+      </c>
+      <c r="U51" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V51" s="67">
+        <v>0</v>
+      </c>
+      <c r="W51" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X51" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B52" s="67">
+        <v>1</v>
+      </c>
+      <c r="C52" s="68">
+        <v>0</v>
+      </c>
+      <c r="D52" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E52" s="68">
+        <v>336</v>
+      </c>
+      <c r="F52" s="68">
+        <v>0</v>
+      </c>
+      <c r="G52" s="69">
+        <v>595</v>
+      </c>
+      <c r="H52" s="67">
+        <v>6</v>
+      </c>
+      <c r="I52" s="67">
+        <v>1</v>
+      </c>
+      <c r="J52" s="67">
+        <v>1</v>
+      </c>
+      <c r="K52" s="67">
+        <v>1</v>
+      </c>
+      <c r="L52" s="67">
+        <v>0</v>
+      </c>
+      <c r="M52" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N52" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O52" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P52" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_-1</v>
+      </c>
+      <c r="Q52" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R52" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S52" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T52" s="67" t="s">
+        <v>209</v>
+      </c>
+      <c r="U52" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V52" s="67">
+        <v>0</v>
+      </c>
+      <c r="W52" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X52" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B53" s="67">
+        <v>1</v>
+      </c>
+      <c r="C53" s="68">
+        <v>0</v>
+      </c>
+      <c r="D53" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E53" s="68">
+        <v>336</v>
+      </c>
+      <c r="F53" s="68">
+        <v>0</v>
+      </c>
+      <c r="G53" s="69">
+        <v>595</v>
+      </c>
+      <c r="H53" s="67">
+        <v>6</v>
+      </c>
+      <c r="I53" s="67">
+        <v>1</v>
+      </c>
+      <c r="J53" s="67">
+        <v>1</v>
+      </c>
+      <c r="K53" s="67">
+        <v>1</v>
+      </c>
+      <c r="L53" s="67">
+        <v>0</v>
+      </c>
+      <c r="M53" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N53" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O53" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P53" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_-1</v>
+      </c>
+      <c r="Q53" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R53" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S53" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T53" s="67" t="s">
+        <v>210</v>
+      </c>
+      <c r="U53" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V53" s="67">
+        <v>0</v>
+      </c>
+      <c r="W53" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X53" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>-1</v>
+      </c>
+      <c r="B54" s="67">
+        <v>1</v>
+      </c>
+      <c r="C54" s="68">
+        <v>0</v>
+      </c>
+      <c r="D54" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="E54" s="68">
+        <v>336</v>
+      </c>
+      <c r="F54" s="68">
+        <v>0</v>
+      </c>
+      <c r="G54" s="69">
+        <v>595</v>
+      </c>
+      <c r="H54" s="67">
+        <v>6</v>
+      </c>
+      <c r="I54" s="67">
+        <v>1</v>
+      </c>
+      <c r="J54" s="67">
+        <v>1</v>
+      </c>
+      <c r="K54" s="67">
+        <v>1</v>
+      </c>
+      <c r="L54" s="67">
+        <v>0</v>
+      </c>
+      <c r="M54" s="68">
+        <v>5.84</v>
+      </c>
+      <c r="N54" s="70">
+        <v>2.41</v>
+      </c>
+      <c r="O54" s="67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P54" s="67" t="str">
+        <f>"GSS-MAX_BIS_F_N_"&amp;scenario[[#This Row],[ID]]</f>
+        <v>GSS-MAX_BIS_F_N_-1</v>
+      </c>
+      <c r="Q54" s="68">
+        <v>1.33</v>
+      </c>
+      <c r="R54" s="68">
+        <v>2.02</v>
+      </c>
+      <c r="S54" s="68">
+        <v>0.01</v>
+      </c>
+      <c r="T54" s="67" t="s">
+        <v>211</v>
+      </c>
+      <c r="U54" s="67" t="s">
+        <v>87</v>
+      </c>
+      <c r="V54" s="67">
+        <v>0</v>
+      </c>
+      <c r="W54" s="67">
+        <v>0.1</v>
+      </c>
+      <c r="X54" s="71">
+        <f>scenario[[#This Row],[ID]]</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H55" s="2"/>
     </row>
-    <row r="56" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H56" s="2"/>
     </row>
-    <row r="57" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H58" s="2"/>
     </row>
-    <row r="59" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H59" s="2"/>
     </row>
-    <row r="60" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H60" s="2"/>
     </row>
-    <row r="61" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -8844,11 +12639,11 @@
   </sheetPr>
   <dimension ref="A1:T51"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I30" sqref="I30"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10641,10 +14436,10 @@
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFFC000"/>
   </sheetPr>
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10853,6 +14648,1574 @@
         <v>102</v>
       </c>
       <c r="J6" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="66">
+        <v>1</v>
+      </c>
+      <c r="C7" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D7" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F7" s="66">
+        <v>0</v>
+      </c>
+      <c r="G7" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J7" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C8" s="66">
+        <v>1</v>
+      </c>
+      <c r="D8" s="66">
+        <v>0</v>
+      </c>
+      <c r="E8" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F8" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G8" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C9" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D9" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E9" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F9" s="66">
+        <v>1</v>
+      </c>
+      <c r="G9" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C10" s="66">
+        <v>0</v>
+      </c>
+      <c r="D10" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="E10" s="66">
+        <v>1</v>
+      </c>
+      <c r="F10" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G10" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J10" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C11" s="66">
+        <v>0</v>
+      </c>
+      <c r="D11" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E11" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G11" s="66">
+        <v>1</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J11" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C12" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E12" s="66">
+        <v>1</v>
+      </c>
+      <c r="F12" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G12" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J12" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C13" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D13" s="66">
+        <v>0</v>
+      </c>
+      <c r="E13" s="66">
+        <v>1</v>
+      </c>
+      <c r="F13" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G13" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J13" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>13</v>
+      </c>
+      <c r="B14" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C14" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D14" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F14" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G14" s="66">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
+        <v>14</v>
+      </c>
+      <c r="B15" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C15" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D15" s="66">
+        <v>1</v>
+      </c>
+      <c r="E15" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="66">
+        <v>0</v>
+      </c>
+      <c r="G15" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J15" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
+        <v>15</v>
+      </c>
+      <c r="B16" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C16" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D16" s="66">
+        <v>0</v>
+      </c>
+      <c r="E16" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="66">
+        <v>1</v>
+      </c>
+      <c r="G16" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J16" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
+        <v>16</v>
+      </c>
+      <c r="B17" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C17" s="66">
+        <v>1</v>
+      </c>
+      <c r="D17" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E17" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G17" s="66">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J17" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
+        <v>17</v>
+      </c>
+      <c r="B18" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C18" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="D18" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E18" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F18" s="66">
+        <v>0</v>
+      </c>
+      <c r="G18" s="66">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J18" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
+        <v>18</v>
+      </c>
+      <c r="B19" s="66">
+        <v>0</v>
+      </c>
+      <c r="C19" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="66">
+        <v>1</v>
+      </c>
+      <c r="E19" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F19" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G19" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J19" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <v>19</v>
+      </c>
+      <c r="B20" s="66">
+        <v>0</v>
+      </c>
+      <c r="C20" s="66">
+        <v>0</v>
+      </c>
+      <c r="D20" s="66">
+        <v>0</v>
+      </c>
+      <c r="E20" s="66">
+        <v>0</v>
+      </c>
+      <c r="F20" s="66">
+        <v>0</v>
+      </c>
+      <c r="G20" s="66">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J20" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
+        <v>20</v>
+      </c>
+      <c r="B21" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="C21" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D21" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E21" s="66">
+        <v>0</v>
+      </c>
+      <c r="F21" s="66">
+        <v>1</v>
+      </c>
+      <c r="G21" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J21" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
+        <v>21</v>
+      </c>
+      <c r="B22" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C22" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D22" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E22" s="66">
+        <v>0</v>
+      </c>
+      <c r="F22" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="G22" s="66">
+        <v>1</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J22" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C23" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D23" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="E23" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F23" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G23" s="66">
+        <v>1</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J23" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C24" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D24" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E24" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F24" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G24" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="66">
+        <v>1</v>
+      </c>
+      <c r="C25" s="66">
+        <v>0</v>
+      </c>
+      <c r="D25" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E25" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F25" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="G25" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J25" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="66">
+        <v>0</v>
+      </c>
+      <c r="C26" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D26" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="E26" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F26" s="66">
+        <v>1</v>
+      </c>
+      <c r="G26" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J26" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="2">
+        <v>26</v>
+      </c>
+      <c r="B27" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C27" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="D27" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E27" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F27" s="66">
+        <v>1</v>
+      </c>
+      <c r="G27" s="66">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J27" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="66">
+        <v>0</v>
+      </c>
+      <c r="C28" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D28" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E28" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="F28" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G28" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J28" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C29" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D29" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E29" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F29" s="66">
+        <v>0</v>
+      </c>
+      <c r="G29" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J29" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="C30" s="66">
+        <v>1</v>
+      </c>
+      <c r="D30" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E30" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F30" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G30" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J30" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="C31" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D31" s="66">
+        <v>0</v>
+      </c>
+      <c r="E31" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F31" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G31" s="66">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J31" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="C32" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="D32" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="E32" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="F32" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="G32" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J32" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="66">
+        <v>1</v>
+      </c>
+      <c r="C33" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D33" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E33" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F33" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G33" s="66">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J33" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
+      <c r="B34" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C34" s="66">
+        <v>0</v>
+      </c>
+      <c r="D34" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E34" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F34" s="66">
+        <v>1</v>
+      </c>
+      <c r="G34" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J34" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
+      <c r="B35" s="66">
+        <v>1</v>
+      </c>
+      <c r="C35" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="D35" s="66">
+        <v>0</v>
+      </c>
+      <c r="E35" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F35" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G35" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J35" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C36" s="66">
+        <v>1</v>
+      </c>
+      <c r="D36" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="E36" s="66">
+        <v>0</v>
+      </c>
+      <c r="F36" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G36" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J36" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="2">
+        <v>36</v>
+      </c>
+      <c r="B37" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C37" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D37" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E37" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F37" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G37" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J37" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C38" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D38" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E38" s="66">
+        <v>1</v>
+      </c>
+      <c r="F38" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="G38" s="66">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J38" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="2">
+        <v>38</v>
+      </c>
+      <c r="B39" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C39" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="D39" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E39" s="66">
+        <v>0</v>
+      </c>
+      <c r="F39" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G39" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J39" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="2">
+        <v>39</v>
+      </c>
+      <c r="B40" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C40" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D40" s="66">
+        <v>1</v>
+      </c>
+      <c r="E40" s="66">
+        <v>0</v>
+      </c>
+      <c r="F40" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G40" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J40" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="2">
+        <v>40</v>
+      </c>
+      <c r="B41" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C41" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D41" s="66">
+        <v>0</v>
+      </c>
+      <c r="E41" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F41" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="G41" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J41" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="2">
+        <v>41</v>
+      </c>
+      <c r="B42" s="66">
+        <v>1</v>
+      </c>
+      <c r="C42" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D42" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E42" s="66">
+        <v>0</v>
+      </c>
+      <c r="F42" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G42" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J42" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="2">
+        <v>42</v>
+      </c>
+      <c r="B43" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C43" s="66">
+        <v>0</v>
+      </c>
+      <c r="D43" s="66">
+        <v>1</v>
+      </c>
+      <c r="E43" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F43" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G43" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J43" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="2">
+        <v>43</v>
+      </c>
+      <c r="B44" s="66">
+        <v>1</v>
+      </c>
+      <c r="C44" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D44" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E44" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="F44" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G44" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J44" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="2">
+        <v>44</v>
+      </c>
+      <c r="B45" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="C45" s="66">
+        <v>0</v>
+      </c>
+      <c r="D45" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E45" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F45" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G45" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J45" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C46" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D46" s="66">
+        <v>1</v>
+      </c>
+      <c r="E46" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="F46" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="G46" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J46" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="2">
+        <v>46</v>
+      </c>
+      <c r="B47" s="66">
+        <v>1</v>
+      </c>
+      <c r="C47" s="66">
+        <v>1</v>
+      </c>
+      <c r="D47" s="66">
+        <v>1</v>
+      </c>
+      <c r="E47" s="66">
+        <v>1</v>
+      </c>
+      <c r="F47" s="66">
+        <v>1</v>
+      </c>
+      <c r="G47" s="66">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J47" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="2">
+        <v>47</v>
+      </c>
+      <c r="B48" s="66">
+        <v>0</v>
+      </c>
+      <c r="C48" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D48" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E48" s="66">
+        <v>1</v>
+      </c>
+      <c r="F48" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="G48" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J48" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="2">
+        <v>48</v>
+      </c>
+      <c r="B49" s="66">
+        <v>0</v>
+      </c>
+      <c r="C49" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D49" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E49" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F49" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G49" s="66">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J49" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A50" s="2">
+        <v>49</v>
+      </c>
+      <c r="B50" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="C50" s="66">
+        <v>1</v>
+      </c>
+      <c r="D50" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E50" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="F50" s="66">
+        <v>0</v>
+      </c>
+      <c r="G50" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J50" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" s="2">
+        <v>50</v>
+      </c>
+      <c r="B51" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="C51" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="D51" s="66">
+        <v>1</v>
+      </c>
+      <c r="E51" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F51" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G51" s="66">
+        <v>0</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J51" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" s="2">
+        <v>51</v>
+      </c>
+      <c r="B52" s="66">
+        <v>0</v>
+      </c>
+      <c r="C52" s="66">
+        <v>1</v>
+      </c>
+      <c r="D52" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E52" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F52" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="G52" s="66">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J52" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" s="2">
+        <v>52</v>
+      </c>
+      <c r="B53" s="66">
+        <v>0.5</v>
+      </c>
+      <c r="C53" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D53" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E53" s="66">
+        <v>1</v>
+      </c>
+      <c r="F53" s="66">
+        <v>0</v>
+      </c>
+      <c r="G53" s="66">
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I53" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J53" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" s="2">
+        <v>53</v>
+      </c>
+      <c r="B54" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="C54" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D54" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E54" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="F54" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="G54" s="66">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I54" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J54" s="2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" s="2">
+        <v>54</v>
+      </c>
+      <c r="B55" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C55" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D55" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E55" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="F55" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="G55" s="66">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="I55" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J55" s="2" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10871,19 +16234,19 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="14.45" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" style="24" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.42578125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" style="24" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.85546875" style="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" style="24" customWidth="1"/>
     <col min="10" max="16384" width="21.7109375" style="24"/>
   </cols>

--- a/Input.xlsx
+++ b/Input.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="480" windowWidth="14490" windowHeight="11160" tabRatio="500" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="480" windowWidth="14490" windowHeight="11160" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Feeds" sheetId="2" r:id="rId1"/>
@@ -580,7 +580,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="174">
   <si>
     <t>Feed Scenario</t>
   </si>
@@ -1112,13 +1112,20 @@
     <numFmt numFmtId="164" formatCode="0.0;0.0;0;@"/>
     <numFmt numFmtId="165" formatCode="0.00000000"/>
   </numFmts>
-  <fonts count="30" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1314,8 +1321,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1355,6 +1369,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1430,11 +1474,11 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1442,128 +1486,133 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="25" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="11" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1572,7 +1621,15 @@
     <cellStyle name="Normal 3" xfId="2"/>
     <cellStyle name="Normal 4" xfId="3"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="68">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FF7030A0"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2254,34 +2311,34 @@
   </dxfs>
   <tableStyles count="6" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Feeds-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="66"/>
-      <tableStyleElement type="firstRowStripe" dxfId="65"/>
-      <tableStyleElement type="secondRowStripe" dxfId="64"/>
+      <tableStyleElement type="headerRow" dxfId="67"/>
+      <tableStyleElement type="firstRowStripe" dxfId="66"/>
+      <tableStyleElement type="secondRowStripe" dxfId="65"/>
     </tableStyle>
     <tableStyle name="Scenario-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="63"/>
-      <tableStyleElement type="firstRowStripe" dxfId="62"/>
-      <tableStyleElement type="secondRowStripe" dxfId="61"/>
+      <tableStyleElement type="headerRow" dxfId="64"/>
+      <tableStyleElement type="firstRowStripe" dxfId="63"/>
+      <tableStyleElement type="secondRowStripe" dxfId="62"/>
     </tableStyle>
     <tableStyle name="Batch-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="60"/>
-      <tableStyleElement type="firstRowStripe" dxfId="59"/>
-      <tableStyleElement type="secondRowStripe" dxfId="58"/>
+      <tableStyleElement type="headerRow" dxfId="61"/>
+      <tableStyleElement type="firstRowStripe" dxfId="60"/>
+      <tableStyleElement type="secondRowStripe" dxfId="59"/>
     </tableStyle>
     <tableStyle name="Feed Library-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="57"/>
-      <tableStyleElement type="firstRowStripe" dxfId="56"/>
-      <tableStyleElement type="secondRowStripe" dxfId="55"/>
+      <tableStyleElement type="headerRow" dxfId="58"/>
+      <tableStyleElement type="firstRowStripe" dxfId="57"/>
+      <tableStyleElement type="secondRowStripe" dxfId="56"/>
     </tableStyle>
     <tableStyle name="LCA-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="54"/>
-      <tableStyleElement type="firstRowStripe" dxfId="53"/>
-      <tableStyleElement type="secondRowStripe" dxfId="52"/>
+      <tableStyleElement type="headerRow" dxfId="55"/>
+      <tableStyleElement type="firstRowStripe" dxfId="54"/>
+      <tableStyleElement type="secondRowStripe" dxfId="53"/>
     </tableStyle>
     <tableStyle name="LCA Library-style" pivot="0" count="3">
-      <tableStyleElement type="headerRow" dxfId="51"/>
-      <tableStyleElement type="firstRowStripe" dxfId="50"/>
-      <tableStyleElement type="secondRowStripe" dxfId="49"/>
+      <tableStyleElement type="headerRow" dxfId="52"/>
+      <tableStyleElement type="firstRowStripe" dxfId="51"/>
+      <tableStyleElement type="secondRowStripe" dxfId="50"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -6700,10 +6757,10 @@
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" name="Feed Scenario"/>
-    <tableColumn id="2" name="ID" dataDxfId="48" dataCellStyle="Normal 3"/>
-    <tableColumn id="3" name="Min %DM" dataDxfId="47"/>
-    <tableColumn id="4" name="Max %DM" dataDxfId="46"/>
-    <tableColumn id="5" name="Cost [EUR/kg DM]" dataDxfId="45"/>
+    <tableColumn id="2" name="ID" dataDxfId="49" dataCellStyle="Normal 3"/>
+    <tableColumn id="3" name="Min %DM" dataDxfId="48"/>
+    <tableColumn id="4" name="Max %DM" dataDxfId="47"/>
+    <tableColumn id="5" name="Cost [EUR/kg DM]" dataDxfId="46"/>
     <tableColumn id="6" name="Name"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -6711,7 +6768,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="scenario" displayName="scenario" ref="A1:Y4" totalsRowShown="0" headerRowDxfId="44" tableBorderDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="scenario" displayName="scenario" ref="A1:Y4" totalsRowShown="0" headerRowDxfId="45" tableBorderDxfId="44">
   <autoFilter ref="A1:Y4"/>
   <tableColumns count="25">
     <tableColumn id="1" name="ID"/>
@@ -6760,32 +6817,32 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:T23" totalsRowShown="0" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="FeedLib" displayName="FeedLib" ref="A1:T23" totalsRowShown="0" dataDxfId="39">
   <autoFilter ref="A1:T23"/>
   <sortState ref="A2:T22">
     <sortCondition ref="A1:A22"/>
   </sortState>
   <tableColumns count="20">
-    <tableColumn id="1" name="ID" dataDxfId="37"/>
-    <tableColumn id="2" name="Feed" dataDxfId="36"/>
-    <tableColumn id="5" name="Forage, %DM" dataDxfId="35"/>
-    <tableColumn id="6" name="DM, %AF" dataDxfId="34"/>
-    <tableColumn id="7" name="CP, %DM" dataDxfId="33"/>
-    <tableColumn id="8" name="SP, %CP" dataDxfId="32"/>
-    <tableColumn id="9" name="ADICP, %CP" dataDxfId="31"/>
-    <tableColumn id="10" name="Sugars, %DM" dataDxfId="30"/>
-    <tableColumn id="11" name="OA, %DM" dataDxfId="29"/>
-    <tableColumn id="12" name="Fat, %DM" dataDxfId="28"/>
-    <tableColumn id="13" name="Ash, %DM" dataDxfId="27"/>
-    <tableColumn id="14" name="Starch, %DM" dataDxfId="26"/>
-    <tableColumn id="15" name="NDF, %DM" dataDxfId="25"/>
-    <tableColumn id="16" name="Lignin, %DM" dataDxfId="24"/>
-    <tableColumn id="17" name="TDN, %DM" dataDxfId="23"/>
-    <tableColumn id="19" name="NEma, Mcal/kg" dataDxfId="22"/>
-    <tableColumn id="20" name="NEga, Mcal/kg" dataDxfId="21"/>
-    <tableColumn id="21" name="RUP, %CP" dataDxfId="20"/>
-    <tableColumn id="29" name="pef, %NDF" dataDxfId="19"/>
-    <tableColumn id="3" name="NPN, %DM" dataDxfId="18"/>
+    <tableColumn id="1" name="ID" dataDxfId="38"/>
+    <tableColumn id="2" name="Feed" dataDxfId="37"/>
+    <tableColumn id="5" name="Forage, %DM" dataDxfId="36"/>
+    <tableColumn id="6" name="DM, %AF" dataDxfId="35"/>
+    <tableColumn id="7" name="CP, %DM" dataDxfId="34"/>
+    <tableColumn id="8" name="SP, %CP" dataDxfId="33"/>
+    <tableColumn id="9" name="ADICP, %CP" dataDxfId="32"/>
+    <tableColumn id="10" name="Sugars, %DM" dataDxfId="31"/>
+    <tableColumn id="11" name="OA, %DM" dataDxfId="30"/>
+    <tableColumn id="12" name="Fat, %DM" dataDxfId="29"/>
+    <tableColumn id="13" name="Ash, %DM" dataDxfId="28"/>
+    <tableColumn id="14" name="Starch, %DM" dataDxfId="27"/>
+    <tableColumn id="15" name="NDF, %DM" dataDxfId="26"/>
+    <tableColumn id="16" name="Lignin, %DM" dataDxfId="25"/>
+    <tableColumn id="17" name="TDN, %DM" dataDxfId="24"/>
+    <tableColumn id="19" name="NEma, Mcal/kg" dataDxfId="23"/>
+    <tableColumn id="20" name="NEga, Mcal/kg" dataDxfId="22"/>
+    <tableColumn id="21" name="RUP, %CP" dataDxfId="21"/>
+    <tableColumn id="29" name="pef, %NDF" dataDxfId="20"/>
+    <tableColumn id="3" name="NPN, %DM" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6798,7 +6855,7 @@
     <sortCondition ref="C1:C22"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" name="Name INRA" dataDxfId="15"/>
+    <tableColumn id="1" name="Name INRA" dataDxfId="16"/>
     <tableColumn id="2" name="Name RNS"/>
     <tableColumn id="3" name="ID"/>
     <tableColumn id="4" name="Column1"/>
@@ -6808,7 +6865,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="lca" displayName="lca" ref="A1:N3" totalsRowShown="0" headerRowDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="lca" displayName="lca" ref="A1:N3" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="A1:N3"/>
   <tableColumns count="14">
     <tableColumn id="1" name="ID"/>
@@ -6821,7 +6878,7 @@
     <tableColumn id="14" name="Methane_Equation"/>
     <tableColumn id="7" name="N2O_Equation"/>
     <tableColumn id="2" name="Normalize"/>
-    <tableColumn id="4" name="EI_weight" dataDxfId="13" dataCellStyle="Normal 2"/>
+    <tableColumn id="4" name="EI_weight" dataDxfId="14" dataCellStyle="Normal 2"/>
     <tableColumn id="6" name="Profit_weight" dataCellStyle="Normal 2"/>
     <tableColumn id="8" name="EI_REF to compute carbon profit" dataCellStyle="Normal 2"/>
     <tableColumn id="13" name="Carbon Cost (per kg CO2eq)" dataCellStyle="Normal 2"/>
@@ -6831,28 +6888,28 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela26" displayName="Tabela26" ref="A1:I23" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tabela26" displayName="Tabela26" ref="A1:I23" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:I23"/>
   <sortState ref="A2:H22">
     <sortCondition ref="A1:A22"/>
   </sortState>
   <tableColumns count="9">
-    <tableColumn id="1" name="ID" dataDxfId="8" dataCellStyle="Normal 3"/>
-    <tableColumn id="5" name="Name" dataDxfId="7" dataCellStyle="Normal 2"/>
-    <tableColumn id="2" name="LCA_Phosphorous consumption (kg P)" dataDxfId="6"/>
-    <tableColumn id="3" name="LCA_CED 1.8 non renewable fossil+nuclear (MJ)" dataDxfId="5"/>
-    <tableColumn id="4" name="LCA_Climate change ILCD (kg CO2 eq)" dataDxfId="4"/>
-    <tableColumn id="7" name="LCA_Acidification ILCD (molc H+ eq)" dataDxfId="3"/>
-    <tableColumn id="8" name="LCA_Eutrophication CML baseline (kg PO4- eq)" dataDxfId="2"/>
-    <tableColumn id="9" name="LCA_Land competition CML non baseline (m2a)" dataDxfId="1"/>
-    <tableColumn id="6" name="Carbon Cost Bool" dataDxfId="0"/>
+    <tableColumn id="1" name="ID" dataDxfId="9" dataCellStyle="Normal 3"/>
+    <tableColumn id="5" name="Name" dataDxfId="8" dataCellStyle="Normal 2"/>
+    <tableColumn id="2" name="LCA_Phosphorous consumption (kg P)" dataDxfId="7"/>
+    <tableColumn id="3" name="LCA_CED 1.8 non renewable fossil+nuclear (MJ)" dataDxfId="6"/>
+    <tableColumn id="4" name="LCA_Climate change ILCD (kg CO2 eq)" dataDxfId="5"/>
+    <tableColumn id="7" name="LCA_Acidification ILCD (molc H+ eq)" dataDxfId="4"/>
+    <tableColumn id="8" name="LCA_Eutrophication CML baseline (kg PO4- eq)" dataDxfId="3"/>
+    <tableColumn id="9" name="LCA_Land competition CML non baseline (m2a)" dataDxfId="2"/>
+    <tableColumn id="6" name="Carbon Cost Bool" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:E3" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table8" displayName="Table8" ref="A1:E3" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:E3"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Additive Scenario"/>
@@ -7573,7 +7630,7 @@
       <c r="A21">
         <v>1</v>
       </c>
-      <c r="B21" s="62">
+      <c r="B21" s="59">
         <v>99</v>
       </c>
       <c r="C21" s="17">
@@ -7582,7 +7639,7 @@
       <c r="D21" s="22">
         <v>100</v>
       </c>
-      <c r="E21" s="63">
+      <c r="E21" s="60">
         <v>3</v>
       </c>
       <c r="F21" t="s">
@@ -7606,8 +7663,8 @@
   </sheetPr>
   <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="V4" sqref="V4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7631,6 +7688,7 @@
     <col min="20" max="20" width="4.85546875" style="2"/>
     <col min="22" max="22" width="15.42578125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -7697,16 +7755,16 @@
       <c r="U1" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="54" t="s">
+      <c r="V1" s="66" t="s">
         <v>83</v>
       </c>
-      <c r="W1" s="54" t="s">
+      <c r="W1" s="66" t="s">
         <v>90</v>
       </c>
-      <c r="X1" s="56" t="s">
+      <c r="X1" s="67" t="s">
         <v>91</v>
       </c>
-      <c r="Y1" s="67" t="s">
+      <c r="Y1" s="68" t="s">
         <v>168</v>
       </c>
     </row>
@@ -7852,7 +7910,7 @@
         <v>87</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="W3">
         <v>0.1</v>
@@ -7942,7 +8000,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="12" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <drawing r:id="rId2"/>
@@ -9427,7 +9485,7 @@
       </c>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A23" s="61">
+      <c r="A23" s="58">
         <v>99</v>
       </c>
       <c r="B23" s="38" t="s">
@@ -9528,18 +9586,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B19 B2:I18">
-    <cfRule type="expression" dxfId="42" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="43" priority="3" stopIfTrue="1">
       <formula>ROW(B2)=$C$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="41" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="4" stopIfTrue="1">
       <formula>COLUMN(B2)=$D$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C19:I19">
-    <cfRule type="expression" dxfId="40" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="41" priority="6" stopIfTrue="1">
       <formula>COLUMN(C19)=$F$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="40" priority="9" stopIfTrue="1">
       <formula>ROW(C19)=$E$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9872,10 +9930,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A19">
-    <cfRule type="expression" dxfId="17" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="12" stopIfTrue="1">
       <formula>ROW(A2)=$D$2</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="16" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
       <formula>COLUMN(A2)=#REF!</formula>
     </cfRule>
   </conditionalFormatting>
@@ -9893,8 +9951,8 @@
   </sheetPr>
   <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9933,16 +9991,16 @@
       <c r="J1" s="53" t="s">
         <v>101</v>
       </c>
-      <c r="K1" s="57" t="s">
+      <c r="K1" s="71" t="s">
         <v>160</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="72" t="s">
         <v>161</v>
       </c>
-      <c r="M1" s="64" t="s">
+      <c r="M1" s="69" t="s">
         <v>166</v>
       </c>
-      <c r="N1" s="64" t="s">
+      <c r="N1" s="69" t="s">
         <v>163</v>
       </c>
     </row>
@@ -9977,13 +10035,13 @@
       <c r="J2" t="b">
         <v>0</v>
       </c>
-      <c r="K2" s="65">
+      <c r="K2" s="61">
         <v>1</v>
       </c>
       <c r="L2" s="18">
-        <v>1</v>
-      </c>
-      <c r="M2" s="66">
+        <v>0</v>
+      </c>
+      <c r="M2" s="62">
         <v>1.8153428621454899</v>
       </c>
       <c r="N2" s="18">
@@ -10021,16 +10079,16 @@
       <c r="J3" t="b">
         <v>0</v>
       </c>
-      <c r="K3" s="18">
-        <v>0</v>
-      </c>
-      <c r="L3" s="18">
-        <v>1</v>
-      </c>
-      <c r="M3" s="65" t="s">
+      <c r="K3" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="N3" s="65" t="s">
+      <c r="L3" s="65" t="s">
+        <v>167</v>
+      </c>
+      <c r="M3" s="61" t="s">
+        <v>167</v>
+      </c>
+      <c r="N3" s="61" t="s">
         <v>167</v>
       </c>
     </row>
@@ -10104,7 +10162,7 @@
       <c r="H1" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="69" t="s">
+      <c r="I1" s="64" t="s">
         <v>173</v>
       </c>
     </row>
@@ -10133,7 +10191,7 @@
       <c r="H2" s="50">
         <v>8.2600000000000007E-2</v>
       </c>
-      <c r="I2" s="59" t="b">
+      <c r="I2" s="56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10162,7 +10220,7 @@
       <c r="H3" s="51">
         <v>0.55197054999999995</v>
       </c>
-      <c r="I3" s="59" t="b">
+      <c r="I3" s="56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10191,7 +10249,7 @@
       <c r="H4" s="51">
         <v>0.43937693999999999</v>
       </c>
-      <c r="I4" s="59" t="b">
+      <c r="I4" s="56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10220,7 +10278,7 @@
       <c r="H5" s="51">
         <v>2.0767392</v>
       </c>
-      <c r="I5" s="59" t="b">
+      <c r="I5" s="56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10249,7 +10307,7 @@
       <c r="H6" s="51">
         <v>2.4169052999999998</v>
       </c>
-      <c r="I6" s="59" t="b">
+      <c r="I6" s="56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10278,7 +10336,7 @@
       <c r="H7" s="51">
         <v>0.25908868000000002</v>
       </c>
-      <c r="I7" s="59" t="b">
+      <c r="I7" s="56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10307,7 +10365,7 @@
       <c r="H8" s="51">
         <v>1.2147266999999999</v>
       </c>
-      <c r="I8" s="59" t="b">
+      <c r="I8" s="56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10336,7 +10394,7 @@
       <c r="H9" s="50">
         <v>5.7683147000000004</v>
       </c>
-      <c r="I9" s="59" t="b">
+      <c r="I9" s="56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10365,7 +10423,7 @@
       <c r="H10" s="50">
         <v>3.8084742</v>
       </c>
-      <c r="I10" s="59" t="b">
+      <c r="I10" s="56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10394,7 +10452,7 @@
       <c r="H11" s="50">
         <v>1.6645894999999999</v>
       </c>
-      <c r="I11" s="59" t="b">
+      <c r="I11" s="56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10423,7 +10481,7 @@
       <c r="H12" s="50">
         <v>8.7067530000000009</v>
       </c>
-      <c r="I12" s="59" t="b">
+      <c r="I12" s="56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10452,7 +10510,7 @@
       <c r="H13" s="50">
         <v>0.62333822000000005</v>
       </c>
-      <c r="I13" s="59" t="b">
+      <c r="I13" s="56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10481,7 +10539,7 @@
       <c r="H14" s="50">
         <v>0.97791181999999999</v>
       </c>
-      <c r="I14" s="59" t="b">
+      <c r="I14" s="56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10510,7 +10568,7 @@
       <c r="H15" s="50">
         <v>0.33293109999999998</v>
       </c>
-      <c r="I15" s="59" t="b">
+      <c r="I15" s="56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10539,7 +10597,7 @@
       <c r="H16" s="50">
         <v>0.86067262</v>
       </c>
-      <c r="I16" s="59" t="b">
+      <c r="I16" s="56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10568,7 +10626,7 @@
       <c r="H17" s="50">
         <v>0.29167724</v>
       </c>
-      <c r="I17" s="59" t="b">
+      <c r="I17" s="56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10597,7 +10655,7 @@
       <c r="H18" s="51">
         <v>1.1395907999999999</v>
       </c>
-      <c r="I18" s="59" t="b">
+      <c r="I18" s="56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10626,7 +10684,7 @@
       <c r="H19" s="51">
         <v>1.9759963</v>
       </c>
-      <c r="I19" s="59" t="b">
+      <c r="I19" s="56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10655,7 +10713,7 @@
       <c r="H20" s="50">
         <v>1.9759963</v>
       </c>
-      <c r="I20" s="59" t="b">
+      <c r="I20" s="56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10684,7 +10742,7 @@
       <c r="H21" s="52">
         <v>0.89059001000000004</v>
       </c>
-      <c r="I21" s="59" t="b">
+      <c r="I21" s="56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10713,7 +10771,7 @@
       <c r="H22" s="51">
         <v>1.1594272000000001</v>
       </c>
-      <c r="I22" s="59" t="b">
+      <c r="I22" s="56" t="b">
         <v>0</v>
       </c>
     </row>
@@ -10721,37 +10779,37 @@
       <c r="A23" s="48">
         <v>99</v>
       </c>
-      <c r="B23" s="60" t="s">
+      <c r="B23" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="C23" s="59">
-        <v>0</v>
-      </c>
-      <c r="D23" s="59">
-        <v>0</v>
-      </c>
-      <c r="E23" s="59">
+      <c r="C23" s="56">
+        <v>0</v>
+      </c>
+      <c r="D23" s="56">
+        <v>0</v>
+      </c>
+      <c r="E23" s="56">
         <v>0.6</v>
       </c>
-      <c r="F23" s="59">
-        <v>0</v>
-      </c>
-      <c r="G23" s="59">
-        <v>0</v>
-      </c>
-      <c r="H23" s="59">
-        <v>0</v>
-      </c>
-      <c r="I23" s="59" t="b">
+      <c r="F23" s="56">
+        <v>0</v>
+      </c>
+      <c r="G23" s="56">
+        <v>0</v>
+      </c>
+      <c r="H23" s="56">
+        <v>0</v>
+      </c>
+      <c r="I23" s="56" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A19:A21 A2:A16">
-    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="3" stopIfTrue="1">
       <formula>ROW(A2)=$C$1</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="11" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
       <formula>COLUMN(A2)=$D$1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -10766,12 +10824,12 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <tabColor rgb="FFFFC000"/>
+    <tabColor rgb="FF7030A0"/>
   </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10782,19 +10840,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="70" t="s">
         <v>170</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="70" t="s">
         <v>169</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="70" t="s">
         <v>171</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="70" t="s">
         <v>172</v>
       </c>
     </row>
@@ -10818,7 +10876,7 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2">
         <v>99</v>
@@ -10830,7 +10888,7 @@
       <c r="D3" s="2">
         <v>0.01</v>
       </c>
-      <c r="E3" s="68">
+      <c r="E3" s="63">
         <v>0.17</v>
       </c>
     </row>
